--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401A3D0-5058-4528-819E-8AD14C94F00E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F1458-4B25-4290-B710-5AAC222AE6B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <dimension ref="A1:BN201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14863,7 +14863,7 @@
       <formula1>"A品,B品,C品,D品"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201" xr:uid="{133DF330-0085-47BD-A057-1F3E0E4E7CD8}">
-      <formula1>"品采,辅采,OEM,服纺,鞋品"</formula1>
+      <formula1>"品采部,辅采部,OEM部,服纺部,鞋品部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{C0568803-B5BC-43F7-9B84-B23D3741FD40}">
       <formula1>"商品,赠品"</formula1>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7518445-C06E-46F0-85D5-D82F2289F5BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF67469-9344-4BFF-94EC-A5B078371A94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="0" shapeId="0" xr:uid="{70C5FA7E-FA48-4153-8291-8B8DB780D8C3}">
+    <comment ref="BD2" authorId="0" shapeId="0" xr:uid="{70C5FA7E-FA48-4153-8291-8B8DB780D8C3}">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -483,14 +483,6 @@
   </si>
   <si>
     <t>销售单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售基商品含量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售拆零系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -987,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN201"/>
+  <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1013,16 +1005,14 @@
     <col min="48" max="49" width="19.44140625" style="9" customWidth="1"/>
     <col min="50" max="50" width="12.88671875" style="9" customWidth="1"/>
     <col min="51" max="51" width="16.21875" style="9" customWidth="1"/>
-    <col min="52" max="53" width="12.88671875" style="9" customWidth="1"/>
-    <col min="54" max="55" width="16.88671875" style="9" customWidth="1"/>
-    <col min="56" max="57" width="12.88671875" style="9" customWidth="1"/>
-    <col min="58" max="61" width="12.109375" style="9" customWidth="1"/>
-    <col min="62" max="62" width="17.21875" style="9" customWidth="1"/>
-    <col min="63" max="66" width="17.77734375" style="9" customWidth="1"/>
-    <col min="67" max="16384" width="8.77734375" style="9"/>
+    <col min="52" max="55" width="12.88671875" style="9" customWidth="1"/>
+    <col min="56" max="59" width="12.109375" style="9" customWidth="1"/>
+    <col min="60" max="60" width="17.21875" style="9" customWidth="1"/>
+    <col min="61" max="64" width="17.77734375" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1082,25 +1072,23 @@
       <c r="BA1" s="11"/>
       <c r="BB1" s="11"/>
       <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="1" t="s">
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,10 +1254,10 @@
       <c r="BC2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BD2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="BF2" s="7" t="s">
@@ -1281,26 +1269,20 @@
       <c r="BH2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BI2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BK2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BL2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1365,10 +1347,8 @@
       <c r="BJ3" s="8"/>
       <c r="BK3" s="8"/>
       <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1433,10 +1413,8 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1501,10 +1479,8 @@
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
       <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1569,10 +1545,8 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="8"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1637,10 +1611,8 @@
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8"/>
       <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1705,10 +1677,8 @@
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1773,10 +1743,8 @@
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
       <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1841,10 +1809,8 @@
       <c r="BJ10" s="8"/>
       <c r="BK10" s="8"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1909,10 +1875,8 @@
       <c r="BJ11" s="8"/>
       <c r="BK11" s="8"/>
       <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1977,10 +1941,8 @@
       <c r="BJ12" s="8"/>
       <c r="BK12" s="8"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2045,10 +2007,8 @@
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
       <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2113,10 +2073,8 @@
       <c r="BJ14" s="8"/>
       <c r="BK14" s="8"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2181,10 +2139,8 @@
       <c r="BJ15" s="8"/>
       <c r="BK15" s="8"/>
       <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="8"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2249,10 +2205,8 @@
       <c r="BJ16" s="8"/>
       <c r="BK16" s="8"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2317,10 +2271,8 @@
       <c r="BJ17" s="8"/>
       <c r="BK17" s="8"/>
       <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2385,10 +2337,8 @@
       <c r="BJ18" s="8"/>
       <c r="BK18" s="8"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="8"/>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2453,10 +2403,8 @@
       <c r="BJ19" s="8"/>
       <c r="BK19" s="8"/>
       <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="8"/>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2521,10 +2469,8 @@
       <c r="BJ20" s="8"/>
       <c r="BK20" s="8"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="8"/>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2589,10 +2535,8 @@
       <c r="BJ21" s="8"/>
       <c r="BK21" s="8"/>
       <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2657,10 +2601,8 @@
       <c r="BJ22" s="8"/>
       <c r="BK22" s="8"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2725,10 +2667,8 @@
       <c r="BJ23" s="8"/>
       <c r="BK23" s="8"/>
       <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-      <c r="BN23" s="8"/>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2793,10 +2733,8 @@
       <c r="BJ24" s="8"/>
       <c r="BK24" s="8"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2861,10 +2799,8 @@
       <c r="BJ25" s="8"/>
       <c r="BK25" s="8"/>
       <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2929,10 +2865,8 @@
       <c r="BJ26" s="8"/>
       <c r="BK26" s="8"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2997,10 +2931,8 @@
       <c r="BJ27" s="8"/>
       <c r="BK27" s="8"/>
       <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3065,10 +2997,8 @@
       <c r="BJ28" s="8"/>
       <c r="BK28" s="8"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
-      <c r="BN28" s="8"/>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3133,10 +3063,8 @@
       <c r="BJ29" s="8"/>
       <c r="BK29" s="8"/>
       <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-    </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3201,10 +3129,8 @@
       <c r="BJ30" s="8"/>
       <c r="BK30" s="8"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
-      <c r="BN30" s="8"/>
-    </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3269,10 +3195,8 @@
       <c r="BJ31" s="8"/>
       <c r="BK31" s="8"/>
       <c r="BL31" s="8"/>
-      <c r="BM31" s="8"/>
-      <c r="BN31" s="8"/>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3337,10 +3261,8 @@
       <c r="BJ32" s="8"/>
       <c r="BK32" s="8"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="8"/>
-      <c r="BN32" s="8"/>
-    </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3405,10 +3327,8 @@
       <c r="BJ33" s="8"/>
       <c r="BK33" s="8"/>
       <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
-      <c r="BN33" s="8"/>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3473,10 +3393,8 @@
       <c r="BJ34" s="8"/>
       <c r="BK34" s="8"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="8"/>
-      <c r="BN34" s="8"/>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3541,10 +3459,8 @@
       <c r="BJ35" s="8"/>
       <c r="BK35" s="8"/>
       <c r="BL35" s="8"/>
-      <c r="BM35" s="8"/>
-      <c r="BN35" s="8"/>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3609,10 +3525,8 @@
       <c r="BJ36" s="8"/>
       <c r="BK36" s="8"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="8"/>
-      <c r="BN36" s="8"/>
-    </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3677,10 +3591,8 @@
       <c r="BJ37" s="8"/>
       <c r="BK37" s="8"/>
       <c r="BL37" s="8"/>
-      <c r="BM37" s="8"/>
-      <c r="BN37" s="8"/>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3745,10 +3657,8 @@
       <c r="BJ38" s="8"/>
       <c r="BK38" s="8"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="8"/>
-      <c r="BN38" s="8"/>
-    </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3813,10 +3723,8 @@
       <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
-      <c r="BM39" s="8"/>
-      <c r="BN39" s="8"/>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3881,10 +3789,8 @@
       <c r="BJ40" s="8"/>
       <c r="BK40" s="8"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="8"/>
-      <c r="BN40" s="8"/>
-    </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3949,10 +3855,8 @@
       <c r="BJ41" s="8"/>
       <c r="BK41" s="8"/>
       <c r="BL41" s="8"/>
-      <c r="BM41" s="8"/>
-      <c r="BN41" s="8"/>
-    </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4017,10 +3921,8 @@
       <c r="BJ42" s="8"/>
       <c r="BK42" s="8"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="8"/>
-      <c r="BN42" s="8"/>
-    </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4085,10 +3987,8 @@
       <c r="BJ43" s="8"/>
       <c r="BK43" s="8"/>
       <c r="BL43" s="8"/>
-      <c r="BM43" s="8"/>
-      <c r="BN43" s="8"/>
-    </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4153,10 +4053,8 @@
       <c r="BJ44" s="8"/>
       <c r="BK44" s="8"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="8"/>
-      <c r="BN44" s="8"/>
-    </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4221,10 +4119,8 @@
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
       <c r="BL45" s="8"/>
-      <c r="BM45" s="8"/>
-      <c r="BN45" s="8"/>
-    </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4289,10 +4185,8 @@
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="8"/>
-      <c r="BN46" s="8"/>
-    </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4357,10 +4251,8 @@
       <c r="BJ47" s="8"/>
       <c r="BK47" s="8"/>
       <c r="BL47" s="8"/>
-      <c r="BM47" s="8"/>
-      <c r="BN47" s="8"/>
-    </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4425,10 +4317,8 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="8"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="8"/>
-      <c r="BN48" s="8"/>
-    </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4493,10 +4383,8 @@
       <c r="BJ49" s="8"/>
       <c r="BK49" s="8"/>
       <c r="BL49" s="8"/>
-      <c r="BM49" s="8"/>
-      <c r="BN49" s="8"/>
-    </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4561,10 +4449,8 @@
       <c r="BJ50" s="8"/>
       <c r="BK50" s="8"/>
       <c r="BL50" s="8"/>
-      <c r="BM50" s="8"/>
-      <c r="BN50" s="8"/>
-    </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4629,10 +4515,8 @@
       <c r="BJ51" s="8"/>
       <c r="BK51" s="8"/>
       <c r="BL51" s="8"/>
-      <c r="BM51" s="8"/>
-      <c r="BN51" s="8"/>
-    </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4697,10 +4581,8 @@
       <c r="BJ52" s="8"/>
       <c r="BK52" s="8"/>
       <c r="BL52" s="8"/>
-      <c r="BM52" s="8"/>
-      <c r="BN52" s="8"/>
-    </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4765,10 +4647,8 @@
       <c r="BJ53" s="8"/>
       <c r="BK53" s="8"/>
       <c r="BL53" s="8"/>
-      <c r="BM53" s="8"/>
-      <c r="BN53" s="8"/>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4833,10 +4713,8 @@
       <c r="BJ54" s="8"/>
       <c r="BK54" s="8"/>
       <c r="BL54" s="8"/>
-      <c r="BM54" s="8"/>
-      <c r="BN54" s="8"/>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4901,10 +4779,8 @@
       <c r="BJ55" s="8"/>
       <c r="BK55" s="8"/>
       <c r="BL55" s="8"/>
-      <c r="BM55" s="8"/>
-      <c r="BN55" s="8"/>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4969,10 +4845,8 @@
       <c r="BJ56" s="8"/>
       <c r="BK56" s="8"/>
       <c r="BL56" s="8"/>
-      <c r="BM56" s="8"/>
-      <c r="BN56" s="8"/>
-    </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5037,10 +4911,8 @@
       <c r="BJ57" s="8"/>
       <c r="BK57" s="8"/>
       <c r="BL57" s="8"/>
-      <c r="BM57" s="8"/>
-      <c r="BN57" s="8"/>
-    </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5105,10 +4977,8 @@
       <c r="BJ58" s="8"/>
       <c r="BK58" s="8"/>
       <c r="BL58" s="8"/>
-      <c r="BM58" s="8"/>
-      <c r="BN58" s="8"/>
-    </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5173,10 +5043,8 @@
       <c r="BJ59" s="8"/>
       <c r="BK59" s="8"/>
       <c r="BL59" s="8"/>
-      <c r="BM59" s="8"/>
-      <c r="BN59" s="8"/>
-    </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5241,10 +5109,8 @@
       <c r="BJ60" s="8"/>
       <c r="BK60" s="8"/>
       <c r="BL60" s="8"/>
-      <c r="BM60" s="8"/>
-      <c r="BN60" s="8"/>
-    </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5309,10 +5175,8 @@
       <c r="BJ61" s="8"/>
       <c r="BK61" s="8"/>
       <c r="BL61" s="8"/>
-      <c r="BM61" s="8"/>
-      <c r="BN61" s="8"/>
-    </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5377,10 +5241,8 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="8"/>
       <c r="BL62" s="8"/>
-      <c r="BM62" s="8"/>
-      <c r="BN62" s="8"/>
-    </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5445,10 +5307,8 @@
       <c r="BJ63" s="8"/>
       <c r="BK63" s="8"/>
       <c r="BL63" s="8"/>
-      <c r="BM63" s="8"/>
-      <c r="BN63" s="8"/>
-    </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5513,10 +5373,8 @@
       <c r="BJ64" s="8"/>
       <c r="BK64" s="8"/>
       <c r="BL64" s="8"/>
-      <c r="BM64" s="8"/>
-      <c r="BN64" s="8"/>
-    </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5581,10 +5439,8 @@
       <c r="BJ65" s="8"/>
       <c r="BK65" s="8"/>
       <c r="BL65" s="8"/>
-      <c r="BM65" s="8"/>
-      <c r="BN65" s="8"/>
-    </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5649,10 +5505,8 @@
       <c r="BJ66" s="8"/>
       <c r="BK66" s="8"/>
       <c r="BL66" s="8"/>
-      <c r="BM66" s="8"/>
-      <c r="BN66" s="8"/>
-    </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5717,10 +5571,8 @@
       <c r="BJ67" s="8"/>
       <c r="BK67" s="8"/>
       <c r="BL67" s="8"/>
-      <c r="BM67" s="8"/>
-      <c r="BN67" s="8"/>
-    </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5785,10 +5637,8 @@
       <c r="BJ68" s="8"/>
       <c r="BK68" s="8"/>
       <c r="BL68" s="8"/>
-      <c r="BM68" s="8"/>
-      <c r="BN68" s="8"/>
-    </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5853,10 +5703,8 @@
       <c r="BJ69" s="8"/>
       <c r="BK69" s="8"/>
       <c r="BL69" s="8"/>
-      <c r="BM69" s="8"/>
-      <c r="BN69" s="8"/>
-    </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5921,10 +5769,8 @@
       <c r="BJ70" s="8"/>
       <c r="BK70" s="8"/>
       <c r="BL70" s="8"/>
-      <c r="BM70" s="8"/>
-      <c r="BN70" s="8"/>
-    </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5989,10 +5835,8 @@
       <c r="BJ71" s="8"/>
       <c r="BK71" s="8"/>
       <c r="BL71" s="8"/>
-      <c r="BM71" s="8"/>
-      <c r="BN71" s="8"/>
-    </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6057,10 +5901,8 @@
       <c r="BJ72" s="8"/>
       <c r="BK72" s="8"/>
       <c r="BL72" s="8"/>
-      <c r="BM72" s="8"/>
-      <c r="BN72" s="8"/>
-    </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6125,10 +5967,8 @@
       <c r="BJ73" s="8"/>
       <c r="BK73" s="8"/>
       <c r="BL73" s="8"/>
-      <c r="BM73" s="8"/>
-      <c r="BN73" s="8"/>
-    </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6193,10 +6033,8 @@
       <c r="BJ74" s="8"/>
       <c r="BK74" s="8"/>
       <c r="BL74" s="8"/>
-      <c r="BM74" s="8"/>
-      <c r="BN74" s="8"/>
-    </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6261,10 +6099,8 @@
       <c r="BJ75" s="8"/>
       <c r="BK75" s="8"/>
       <c r="BL75" s="8"/>
-      <c r="BM75" s="8"/>
-      <c r="BN75" s="8"/>
-    </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6329,10 +6165,8 @@
       <c r="BJ76" s="8"/>
       <c r="BK76" s="8"/>
       <c r="BL76" s="8"/>
-      <c r="BM76" s="8"/>
-      <c r="BN76" s="8"/>
-    </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6397,10 +6231,8 @@
       <c r="BJ77" s="8"/>
       <c r="BK77" s="8"/>
       <c r="BL77" s="8"/>
-      <c r="BM77" s="8"/>
-      <c r="BN77" s="8"/>
-    </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6465,10 +6297,8 @@
       <c r="BJ78" s="8"/>
       <c r="BK78" s="8"/>
       <c r="BL78" s="8"/>
-      <c r="BM78" s="8"/>
-      <c r="BN78" s="8"/>
-    </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6533,10 +6363,8 @@
       <c r="BJ79" s="8"/>
       <c r="BK79" s="8"/>
       <c r="BL79" s="8"/>
-      <c r="BM79" s="8"/>
-      <c r="BN79" s="8"/>
-    </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6601,10 +6429,8 @@
       <c r="BJ80" s="8"/>
       <c r="BK80" s="8"/>
       <c r="BL80" s="8"/>
-      <c r="BM80" s="8"/>
-      <c r="BN80" s="8"/>
-    </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6669,10 +6495,8 @@
       <c r="BJ81" s="8"/>
       <c r="BK81" s="8"/>
       <c r="BL81" s="8"/>
-      <c r="BM81" s="8"/>
-      <c r="BN81" s="8"/>
-    </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6737,10 +6561,8 @@
       <c r="BJ82" s="8"/>
       <c r="BK82" s="8"/>
       <c r="BL82" s="8"/>
-      <c r="BM82" s="8"/>
-      <c r="BN82" s="8"/>
-    </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6805,10 +6627,8 @@
       <c r="BJ83" s="8"/>
       <c r="BK83" s="8"/>
       <c r="BL83" s="8"/>
-      <c r="BM83" s="8"/>
-      <c r="BN83" s="8"/>
-    </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6873,10 +6693,8 @@
       <c r="BJ84" s="8"/>
       <c r="BK84" s="8"/>
       <c r="BL84" s="8"/>
-      <c r="BM84" s="8"/>
-      <c r="BN84" s="8"/>
-    </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -6941,10 +6759,8 @@
       <c r="BJ85" s="8"/>
       <c r="BK85" s="8"/>
       <c r="BL85" s="8"/>
-      <c r="BM85" s="8"/>
-      <c r="BN85" s="8"/>
-    </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7009,10 +6825,8 @@
       <c r="BJ86" s="8"/>
       <c r="BK86" s="8"/>
       <c r="BL86" s="8"/>
-      <c r="BM86" s="8"/>
-      <c r="BN86" s="8"/>
-    </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7077,10 +6891,8 @@
       <c r="BJ87" s="8"/>
       <c r="BK87" s="8"/>
       <c r="BL87" s="8"/>
-      <c r="BM87" s="8"/>
-      <c r="BN87" s="8"/>
-    </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7145,10 +6957,8 @@
       <c r="BJ88" s="8"/>
       <c r="BK88" s="8"/>
       <c r="BL88" s="8"/>
-      <c r="BM88" s="8"/>
-      <c r="BN88" s="8"/>
-    </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7213,10 +7023,8 @@
       <c r="BJ89" s="8"/>
       <c r="BK89" s="8"/>
       <c r="BL89" s="8"/>
-      <c r="BM89" s="8"/>
-      <c r="BN89" s="8"/>
-    </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7281,10 +7089,8 @@
       <c r="BJ90" s="8"/>
       <c r="BK90" s="8"/>
       <c r="BL90" s="8"/>
-      <c r="BM90" s="8"/>
-      <c r="BN90" s="8"/>
-    </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7349,10 +7155,8 @@
       <c r="BJ91" s="8"/>
       <c r="BK91" s="8"/>
       <c r="BL91" s="8"/>
-      <c r="BM91" s="8"/>
-      <c r="BN91" s="8"/>
-    </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7417,10 +7221,8 @@
       <c r="BJ92" s="8"/>
       <c r="BK92" s="8"/>
       <c r="BL92" s="8"/>
-      <c r="BM92" s="8"/>
-      <c r="BN92" s="8"/>
-    </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7485,10 +7287,8 @@
       <c r="BJ93" s="8"/>
       <c r="BK93" s="8"/>
       <c r="BL93" s="8"/>
-      <c r="BM93" s="8"/>
-      <c r="BN93" s="8"/>
-    </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7553,10 +7353,8 @@
       <c r="BJ94" s="8"/>
       <c r="BK94" s="8"/>
       <c r="BL94" s="8"/>
-      <c r="BM94" s="8"/>
-      <c r="BN94" s="8"/>
-    </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7621,10 +7419,8 @@
       <c r="BJ95" s="8"/>
       <c r="BK95" s="8"/>
       <c r="BL95" s="8"/>
-      <c r="BM95" s="8"/>
-      <c r="BN95" s="8"/>
-    </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7689,10 +7485,8 @@
       <c r="BJ96" s="8"/>
       <c r="BK96" s="8"/>
       <c r="BL96" s="8"/>
-      <c r="BM96" s="8"/>
-      <c r="BN96" s="8"/>
-    </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7757,10 +7551,8 @@
       <c r="BJ97" s="8"/>
       <c r="BK97" s="8"/>
       <c r="BL97" s="8"/>
-      <c r="BM97" s="8"/>
-      <c r="BN97" s="8"/>
-    </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7825,10 +7617,8 @@
       <c r="BJ98" s="8"/>
       <c r="BK98" s="8"/>
       <c r="BL98" s="8"/>
-      <c r="BM98" s="8"/>
-      <c r="BN98" s="8"/>
-    </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7893,10 +7683,8 @@
       <c r="BJ99" s="8"/>
       <c r="BK99" s="8"/>
       <c r="BL99" s="8"/>
-      <c r="BM99" s="8"/>
-      <c r="BN99" s="8"/>
-    </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7961,10 +7749,8 @@
       <c r="BJ100" s="8"/>
       <c r="BK100" s="8"/>
       <c r="BL100" s="8"/>
-      <c r="BM100" s="8"/>
-      <c r="BN100" s="8"/>
-    </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8029,10 +7815,8 @@
       <c r="BJ101" s="8"/>
       <c r="BK101" s="8"/>
       <c r="BL101" s="8"/>
-      <c r="BM101" s="8"/>
-      <c r="BN101" s="8"/>
-    </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8097,10 +7881,8 @@
       <c r="BJ102" s="8"/>
       <c r="BK102" s="8"/>
       <c r="BL102" s="8"/>
-      <c r="BM102" s="8"/>
-      <c r="BN102" s="8"/>
-    </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8165,10 +7947,8 @@
       <c r="BJ103" s="8"/>
       <c r="BK103" s="8"/>
       <c r="BL103" s="8"/>
-      <c r="BM103" s="8"/>
-      <c r="BN103" s="8"/>
-    </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8233,10 +8013,8 @@
       <c r="BJ104" s="8"/>
       <c r="BK104" s="8"/>
       <c r="BL104" s="8"/>
-      <c r="BM104" s="8"/>
-      <c r="BN104" s="8"/>
-    </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8301,10 +8079,8 @@
       <c r="BJ105" s="8"/>
       <c r="BK105" s="8"/>
       <c r="BL105" s="8"/>
-      <c r="BM105" s="8"/>
-      <c r="BN105" s="8"/>
-    </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8369,10 +8145,8 @@
       <c r="BJ106" s="8"/>
       <c r="BK106" s="8"/>
       <c r="BL106" s="8"/>
-      <c r="BM106" s="8"/>
-      <c r="BN106" s="8"/>
-    </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8437,10 +8211,8 @@
       <c r="BJ107" s="8"/>
       <c r="BK107" s="8"/>
       <c r="BL107" s="8"/>
-      <c r="BM107" s="8"/>
-      <c r="BN107" s="8"/>
-    </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8505,10 +8277,8 @@
       <c r="BJ108" s="8"/>
       <c r="BK108" s="8"/>
       <c r="BL108" s="8"/>
-      <c r="BM108" s="8"/>
-      <c r="BN108" s="8"/>
-    </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8573,10 +8343,8 @@
       <c r="BJ109" s="8"/>
       <c r="BK109" s="8"/>
       <c r="BL109" s="8"/>
-      <c r="BM109" s="8"/>
-      <c r="BN109" s="8"/>
-    </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8641,10 +8409,8 @@
       <c r="BJ110" s="8"/>
       <c r="BK110" s="8"/>
       <c r="BL110" s="8"/>
-      <c r="BM110" s="8"/>
-      <c r="BN110" s="8"/>
-    </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8709,10 +8475,8 @@
       <c r="BJ111" s="8"/>
       <c r="BK111" s="8"/>
       <c r="BL111" s="8"/>
-      <c r="BM111" s="8"/>
-      <c r="BN111" s="8"/>
-    </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8777,10 +8541,8 @@
       <c r="BJ112" s="8"/>
       <c r="BK112" s="8"/>
       <c r="BL112" s="8"/>
-      <c r="BM112" s="8"/>
-      <c r="BN112" s="8"/>
-    </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8845,10 +8607,8 @@
       <c r="BJ113" s="8"/>
       <c r="BK113" s="8"/>
       <c r="BL113" s="8"/>
-      <c r="BM113" s="8"/>
-      <c r="BN113" s="8"/>
-    </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8913,10 +8673,8 @@
       <c r="BJ114" s="8"/>
       <c r="BK114" s="8"/>
       <c r="BL114" s="8"/>
-      <c r="BM114" s="8"/>
-      <c r="BN114" s="8"/>
-    </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8981,10 +8739,8 @@
       <c r="BJ115" s="8"/>
       <c r="BK115" s="8"/>
       <c r="BL115" s="8"/>
-      <c r="BM115" s="8"/>
-      <c r="BN115" s="8"/>
-    </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -9049,10 +8805,8 @@
       <c r="BJ116" s="8"/>
       <c r="BK116" s="8"/>
       <c r="BL116" s="8"/>
-      <c r="BM116" s="8"/>
-      <c r="BN116" s="8"/>
-    </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -9117,10 +8871,8 @@
       <c r="BJ117" s="8"/>
       <c r="BK117" s="8"/>
       <c r="BL117" s="8"/>
-      <c r="BM117" s="8"/>
-      <c r="BN117" s="8"/>
-    </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -9185,10 +8937,8 @@
       <c r="BJ118" s="8"/>
       <c r="BK118" s="8"/>
       <c r="BL118" s="8"/>
-      <c r="BM118" s="8"/>
-      <c r="BN118" s="8"/>
-    </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -9253,10 +9003,8 @@
       <c r="BJ119" s="8"/>
       <c r="BK119" s="8"/>
       <c r="BL119" s="8"/>
-      <c r="BM119" s="8"/>
-      <c r="BN119" s="8"/>
-    </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -9321,10 +9069,8 @@
       <c r="BJ120" s="8"/>
       <c r="BK120" s="8"/>
       <c r="BL120" s="8"/>
-      <c r="BM120" s="8"/>
-      <c r="BN120" s="8"/>
-    </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -9389,10 +9135,8 @@
       <c r="BJ121" s="8"/>
       <c r="BK121" s="8"/>
       <c r="BL121" s="8"/>
-      <c r="BM121" s="8"/>
-      <c r="BN121" s="8"/>
-    </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -9457,10 +9201,8 @@
       <c r="BJ122" s="8"/>
       <c r="BK122" s="8"/>
       <c r="BL122" s="8"/>
-      <c r="BM122" s="8"/>
-      <c r="BN122" s="8"/>
-    </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9525,10 +9267,8 @@
       <c r="BJ123" s="8"/>
       <c r="BK123" s="8"/>
       <c r="BL123" s="8"/>
-      <c r="BM123" s="8"/>
-      <c r="BN123" s="8"/>
-    </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9593,10 +9333,8 @@
       <c r="BJ124" s="8"/>
       <c r="BK124" s="8"/>
       <c r="BL124" s="8"/>
-      <c r="BM124" s="8"/>
-      <c r="BN124" s="8"/>
-    </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9661,10 +9399,8 @@
       <c r="BJ125" s="8"/>
       <c r="BK125" s="8"/>
       <c r="BL125" s="8"/>
-      <c r="BM125" s="8"/>
-      <c r="BN125" s="8"/>
-    </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9729,10 +9465,8 @@
       <c r="BJ126" s="8"/>
       <c r="BK126" s="8"/>
       <c r="BL126" s="8"/>
-      <c r="BM126" s="8"/>
-      <c r="BN126" s="8"/>
-    </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9797,10 +9531,8 @@
       <c r="BJ127" s="8"/>
       <c r="BK127" s="8"/>
       <c r="BL127" s="8"/>
-      <c r="BM127" s="8"/>
-      <c r="BN127" s="8"/>
-    </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9865,10 +9597,8 @@
       <c r="BJ128" s="8"/>
       <c r="BK128" s="8"/>
       <c r="BL128" s="8"/>
-      <c r="BM128" s="8"/>
-      <c r="BN128" s="8"/>
-    </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9933,10 +9663,8 @@
       <c r="BJ129" s="8"/>
       <c r="BK129" s="8"/>
       <c r="BL129" s="8"/>
-      <c r="BM129" s="8"/>
-      <c r="BN129" s="8"/>
-    </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -10001,10 +9729,8 @@
       <c r="BJ130" s="8"/>
       <c r="BK130" s="8"/>
       <c r="BL130" s="8"/>
-      <c r="BM130" s="8"/>
-      <c r="BN130" s="8"/>
-    </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -10069,10 +9795,8 @@
       <c r="BJ131" s="8"/>
       <c r="BK131" s="8"/>
       <c r="BL131" s="8"/>
-      <c r="BM131" s="8"/>
-      <c r="BN131" s="8"/>
-    </row>
-    <row r="132" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -10137,10 +9861,8 @@
       <c r="BJ132" s="8"/>
       <c r="BK132" s="8"/>
       <c r="BL132" s="8"/>
-      <c r="BM132" s="8"/>
-      <c r="BN132" s="8"/>
-    </row>
-    <row r="133" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -10205,10 +9927,8 @@
       <c r="BJ133" s="8"/>
       <c r="BK133" s="8"/>
       <c r="BL133" s="8"/>
-      <c r="BM133" s="8"/>
-      <c r="BN133" s="8"/>
-    </row>
-    <row r="134" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10273,10 +9993,8 @@
       <c r="BJ134" s="8"/>
       <c r="BK134" s="8"/>
       <c r="BL134" s="8"/>
-      <c r="BM134" s="8"/>
-      <c r="BN134" s="8"/>
-    </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10341,10 +10059,8 @@
       <c r="BJ135" s="8"/>
       <c r="BK135" s="8"/>
       <c r="BL135" s="8"/>
-      <c r="BM135" s="8"/>
-      <c r="BN135" s="8"/>
-    </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10409,10 +10125,8 @@
       <c r="BJ136" s="8"/>
       <c r="BK136" s="8"/>
       <c r="BL136" s="8"/>
-      <c r="BM136" s="8"/>
-      <c r="BN136" s="8"/>
-    </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10477,10 +10191,8 @@
       <c r="BJ137" s="8"/>
       <c r="BK137" s="8"/>
       <c r="BL137" s="8"/>
-      <c r="BM137" s="8"/>
-      <c r="BN137" s="8"/>
-    </row>
-    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10545,10 +10257,8 @@
       <c r="BJ138" s="8"/>
       <c r="BK138" s="8"/>
       <c r="BL138" s="8"/>
-      <c r="BM138" s="8"/>
-      <c r="BN138" s="8"/>
-    </row>
-    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10613,10 +10323,8 @@
       <c r="BJ139" s="8"/>
       <c r="BK139" s="8"/>
       <c r="BL139" s="8"/>
-      <c r="BM139" s="8"/>
-      <c r="BN139" s="8"/>
-    </row>
-    <row r="140" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10681,10 +10389,8 @@
       <c r="BJ140" s="8"/>
       <c r="BK140" s="8"/>
       <c r="BL140" s="8"/>
-      <c r="BM140" s="8"/>
-      <c r="BN140" s="8"/>
-    </row>
-    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10749,10 +10455,8 @@
       <c r="BJ141" s="8"/>
       <c r="BK141" s="8"/>
       <c r="BL141" s="8"/>
-      <c r="BM141" s="8"/>
-      <c r="BN141" s="8"/>
-    </row>
-    <row r="142" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10817,10 +10521,8 @@
       <c r="BJ142" s="8"/>
       <c r="BK142" s="8"/>
       <c r="BL142" s="8"/>
-      <c r="BM142" s="8"/>
-      <c r="BN142" s="8"/>
-    </row>
-    <row r="143" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10885,10 +10587,8 @@
       <c r="BJ143" s="8"/>
       <c r="BK143" s="8"/>
       <c r="BL143" s="8"/>
-      <c r="BM143" s="8"/>
-      <c r="BN143" s="8"/>
-    </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10953,10 +10653,8 @@
       <c r="BJ144" s="8"/>
       <c r="BK144" s="8"/>
       <c r="BL144" s="8"/>
-      <c r="BM144" s="8"/>
-      <c r="BN144" s="8"/>
-    </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -11021,10 +10719,8 @@
       <c r="BJ145" s="8"/>
       <c r="BK145" s="8"/>
       <c r="BL145" s="8"/>
-      <c r="BM145" s="8"/>
-      <c r="BN145" s="8"/>
-    </row>
-    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -11089,10 +10785,8 @@
       <c r="BJ146" s="8"/>
       <c r="BK146" s="8"/>
       <c r="BL146" s="8"/>
-      <c r="BM146" s="8"/>
-      <c r="BN146" s="8"/>
-    </row>
-    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -11157,10 +10851,8 @@
       <c r="BJ147" s="8"/>
       <c r="BK147" s="8"/>
       <c r="BL147" s="8"/>
-      <c r="BM147" s="8"/>
-      <c r="BN147" s="8"/>
-    </row>
-    <row r="148" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -11225,10 +10917,8 @@
       <c r="BJ148" s="8"/>
       <c r="BK148" s="8"/>
       <c r="BL148" s="8"/>
-      <c r="BM148" s="8"/>
-      <c r="BN148" s="8"/>
-    </row>
-    <row r="149" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -11293,10 +10983,8 @@
       <c r="BJ149" s="8"/>
       <c r="BK149" s="8"/>
       <c r="BL149" s="8"/>
-      <c r="BM149" s="8"/>
-      <c r="BN149" s="8"/>
-    </row>
-    <row r="150" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -11361,10 +11049,8 @@
       <c r="BJ150" s="8"/>
       <c r="BK150" s="8"/>
       <c r="BL150" s="8"/>
-      <c r="BM150" s="8"/>
-      <c r="BN150" s="8"/>
-    </row>
-    <row r="151" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11429,10 +11115,8 @@
       <c r="BJ151" s="8"/>
       <c r="BK151" s="8"/>
       <c r="BL151" s="8"/>
-      <c r="BM151" s="8"/>
-      <c r="BN151" s="8"/>
-    </row>
-    <row r="152" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11497,10 +11181,8 @@
       <c r="BJ152" s="8"/>
       <c r="BK152" s="8"/>
       <c r="BL152" s="8"/>
-      <c r="BM152" s="8"/>
-      <c r="BN152" s="8"/>
-    </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11565,10 +11247,8 @@
       <c r="BJ153" s="8"/>
       <c r="BK153" s="8"/>
       <c r="BL153" s="8"/>
-      <c r="BM153" s="8"/>
-      <c r="BN153" s="8"/>
-    </row>
-    <row r="154" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11633,10 +11313,8 @@
       <c r="BJ154" s="8"/>
       <c r="BK154" s="8"/>
       <c r="BL154" s="8"/>
-      <c r="BM154" s="8"/>
-      <c r="BN154" s="8"/>
-    </row>
-    <row r="155" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11701,10 +11379,8 @@
       <c r="BJ155" s="8"/>
       <c r="BK155" s="8"/>
       <c r="BL155" s="8"/>
-      <c r="BM155" s="8"/>
-      <c r="BN155" s="8"/>
-    </row>
-    <row r="156" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11769,10 +11445,8 @@
       <c r="BJ156" s="8"/>
       <c r="BK156" s="8"/>
       <c r="BL156" s="8"/>
-      <c r="BM156" s="8"/>
-      <c r="BN156" s="8"/>
-    </row>
-    <row r="157" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11837,10 +11511,8 @@
       <c r="BJ157" s="8"/>
       <c r="BK157" s="8"/>
       <c r="BL157" s="8"/>
-      <c r="BM157" s="8"/>
-      <c r="BN157" s="8"/>
-    </row>
-    <row r="158" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11905,10 +11577,8 @@
       <c r="BJ158" s="8"/>
       <c r="BK158" s="8"/>
       <c r="BL158" s="8"/>
-      <c r="BM158" s="8"/>
-      <c r="BN158" s="8"/>
-    </row>
-    <row r="159" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11973,10 +11643,8 @@
       <c r="BJ159" s="8"/>
       <c r="BK159" s="8"/>
       <c r="BL159" s="8"/>
-      <c r="BM159" s="8"/>
-      <c r="BN159" s="8"/>
-    </row>
-    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -12041,10 +11709,8 @@
       <c r="BJ160" s="8"/>
       <c r="BK160" s="8"/>
       <c r="BL160" s="8"/>
-      <c r="BM160" s="8"/>
-      <c r="BN160" s="8"/>
-    </row>
-    <row r="161" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -12109,10 +11775,8 @@
       <c r="BJ161" s="8"/>
       <c r="BK161" s="8"/>
       <c r="BL161" s="8"/>
-      <c r="BM161" s="8"/>
-      <c r="BN161" s="8"/>
-    </row>
-    <row r="162" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -12177,10 +11841,8 @@
       <c r="BJ162" s="8"/>
       <c r="BK162" s="8"/>
       <c r="BL162" s="8"/>
-      <c r="BM162" s="8"/>
-      <c r="BN162" s="8"/>
-    </row>
-    <row r="163" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -12245,10 +11907,8 @@
       <c r="BJ163" s="8"/>
       <c r="BK163" s="8"/>
       <c r="BL163" s="8"/>
-      <c r="BM163" s="8"/>
-      <c r="BN163" s="8"/>
-    </row>
-    <row r="164" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -12313,10 +11973,8 @@
       <c r="BJ164" s="8"/>
       <c r="BK164" s="8"/>
       <c r="BL164" s="8"/>
-      <c r="BM164" s="8"/>
-      <c r="BN164" s="8"/>
-    </row>
-    <row r="165" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -12381,10 +12039,8 @@
       <c r="BJ165" s="8"/>
       <c r="BK165" s="8"/>
       <c r="BL165" s="8"/>
-      <c r="BM165" s="8"/>
-      <c r="BN165" s="8"/>
-    </row>
-    <row r="166" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -12449,10 +12105,8 @@
       <c r="BJ166" s="8"/>
       <c r="BK166" s="8"/>
       <c r="BL166" s="8"/>
-      <c r="BM166" s="8"/>
-      <c r="BN166" s="8"/>
-    </row>
-    <row r="167" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -12517,10 +12171,8 @@
       <c r="BJ167" s="8"/>
       <c r="BK167" s="8"/>
       <c r="BL167" s="8"/>
-      <c r="BM167" s="8"/>
-      <c r="BN167" s="8"/>
-    </row>
-    <row r="168" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -12585,10 +12237,8 @@
       <c r="BJ168" s="8"/>
       <c r="BK168" s="8"/>
       <c r="BL168" s="8"/>
-      <c r="BM168" s="8"/>
-      <c r="BN168" s="8"/>
-    </row>
-    <row r="169" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -12653,10 +12303,8 @@
       <c r="BJ169" s="8"/>
       <c r="BK169" s="8"/>
       <c r="BL169" s="8"/>
-      <c r="BM169" s="8"/>
-      <c r="BN169" s="8"/>
-    </row>
-    <row r="170" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -12721,10 +12369,8 @@
       <c r="BJ170" s="8"/>
       <c r="BK170" s="8"/>
       <c r="BL170" s="8"/>
-      <c r="BM170" s="8"/>
-      <c r="BN170" s="8"/>
-    </row>
-    <row r="171" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -12789,10 +12435,8 @@
       <c r="BJ171" s="8"/>
       <c r="BK171" s="8"/>
       <c r="BL171" s="8"/>
-      <c r="BM171" s="8"/>
-      <c r="BN171" s="8"/>
-    </row>
-    <row r="172" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -12857,10 +12501,8 @@
       <c r="BJ172" s="8"/>
       <c r="BK172" s="8"/>
       <c r="BL172" s="8"/>
-      <c r="BM172" s="8"/>
-      <c r="BN172" s="8"/>
-    </row>
-    <row r="173" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -12925,10 +12567,8 @@
       <c r="BJ173" s="8"/>
       <c r="BK173" s="8"/>
       <c r="BL173" s="8"/>
-      <c r="BM173" s="8"/>
-      <c r="BN173" s="8"/>
-    </row>
-    <row r="174" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -12993,10 +12633,8 @@
       <c r="BJ174" s="8"/>
       <c r="BK174" s="8"/>
       <c r="BL174" s="8"/>
-      <c r="BM174" s="8"/>
-      <c r="BN174" s="8"/>
-    </row>
-    <row r="175" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -13061,10 +12699,8 @@
       <c r="BJ175" s="8"/>
       <c r="BK175" s="8"/>
       <c r="BL175" s="8"/>
-      <c r="BM175" s="8"/>
-      <c r="BN175" s="8"/>
-    </row>
-    <row r="176" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -13129,10 +12765,8 @@
       <c r="BJ176" s="8"/>
       <c r="BK176" s="8"/>
       <c r="BL176" s="8"/>
-      <c r="BM176" s="8"/>
-      <c r="BN176" s="8"/>
-    </row>
-    <row r="177" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -13197,10 +12831,8 @@
       <c r="BJ177" s="8"/>
       <c r="BK177" s="8"/>
       <c r="BL177" s="8"/>
-      <c r="BM177" s="8"/>
-      <c r="BN177" s="8"/>
-    </row>
-    <row r="178" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -13265,10 +12897,8 @@
       <c r="BJ178" s="8"/>
       <c r="BK178" s="8"/>
       <c r="BL178" s="8"/>
-      <c r="BM178" s="8"/>
-      <c r="BN178" s="8"/>
-    </row>
-    <row r="179" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -13333,10 +12963,8 @@
       <c r="BJ179" s="8"/>
       <c r="BK179" s="8"/>
       <c r="BL179" s="8"/>
-      <c r="BM179" s="8"/>
-      <c r="BN179" s="8"/>
-    </row>
-    <row r="180" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -13401,10 +13029,8 @@
       <c r="BJ180" s="8"/>
       <c r="BK180" s="8"/>
       <c r="BL180" s="8"/>
-      <c r="BM180" s="8"/>
-      <c r="BN180" s="8"/>
-    </row>
-    <row r="181" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -13469,10 +13095,8 @@
       <c r="BJ181" s="8"/>
       <c r="BK181" s="8"/>
       <c r="BL181" s="8"/>
-      <c r="BM181" s="8"/>
-      <c r="BN181" s="8"/>
-    </row>
-    <row r="182" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -13537,10 +13161,8 @@
       <c r="BJ182" s="8"/>
       <c r="BK182" s="8"/>
       <c r="BL182" s="8"/>
-      <c r="BM182" s="8"/>
-      <c r="BN182" s="8"/>
-    </row>
-    <row r="183" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -13605,10 +13227,8 @@
       <c r="BJ183" s="8"/>
       <c r="BK183" s="8"/>
       <c r="BL183" s="8"/>
-      <c r="BM183" s="8"/>
-      <c r="BN183" s="8"/>
-    </row>
-    <row r="184" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -13673,10 +13293,8 @@
       <c r="BJ184" s="8"/>
       <c r="BK184" s="8"/>
       <c r="BL184" s="8"/>
-      <c r="BM184" s="8"/>
-      <c r="BN184" s="8"/>
-    </row>
-    <row r="185" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -13741,10 +13359,8 @@
       <c r="BJ185" s="8"/>
       <c r="BK185" s="8"/>
       <c r="BL185" s="8"/>
-      <c r="BM185" s="8"/>
-      <c r="BN185" s="8"/>
-    </row>
-    <row r="186" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -13809,10 +13425,8 @@
       <c r="BJ186" s="8"/>
       <c r="BK186" s="8"/>
       <c r="BL186" s="8"/>
-      <c r="BM186" s="8"/>
-      <c r="BN186" s="8"/>
-    </row>
-    <row r="187" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -13877,10 +13491,8 @@
       <c r="BJ187" s="8"/>
       <c r="BK187" s="8"/>
       <c r="BL187" s="8"/>
-      <c r="BM187" s="8"/>
-      <c r="BN187" s="8"/>
-    </row>
-    <row r="188" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -13945,10 +13557,8 @@
       <c r="BJ188" s="8"/>
       <c r="BK188" s="8"/>
       <c r="BL188" s="8"/>
-      <c r="BM188" s="8"/>
-      <c r="BN188" s="8"/>
-    </row>
-    <row r="189" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -14013,10 +13623,8 @@
       <c r="BJ189" s="8"/>
       <c r="BK189" s="8"/>
       <c r="BL189" s="8"/>
-      <c r="BM189" s="8"/>
-      <c r="BN189" s="8"/>
-    </row>
-    <row r="190" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -14081,10 +13689,8 @@
       <c r="BJ190" s="8"/>
       <c r="BK190" s="8"/>
       <c r="BL190" s="8"/>
-      <c r="BM190" s="8"/>
-      <c r="BN190" s="8"/>
-    </row>
-    <row r="191" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -14149,10 +13755,8 @@
       <c r="BJ191" s="8"/>
       <c r="BK191" s="8"/>
       <c r="BL191" s="8"/>
-      <c r="BM191" s="8"/>
-      <c r="BN191" s="8"/>
-    </row>
-    <row r="192" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -14217,10 +13821,8 @@
       <c r="BJ192" s="8"/>
       <c r="BK192" s="8"/>
       <c r="BL192" s="8"/>
-      <c r="BM192" s="8"/>
-      <c r="BN192" s="8"/>
-    </row>
-    <row r="193" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -14285,10 +13887,8 @@
       <c r="BJ193" s="8"/>
       <c r="BK193" s="8"/>
       <c r="BL193" s="8"/>
-      <c r="BM193" s="8"/>
-      <c r="BN193" s="8"/>
-    </row>
-    <row r="194" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -14353,10 +13953,8 @@
       <c r="BJ194" s="8"/>
       <c r="BK194" s="8"/>
       <c r="BL194" s="8"/>
-      <c r="BM194" s="8"/>
-      <c r="BN194" s="8"/>
-    </row>
-    <row r="195" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -14421,10 +14019,8 @@
       <c r="BJ195" s="8"/>
       <c r="BK195" s="8"/>
       <c r="BL195" s="8"/>
-      <c r="BM195" s="8"/>
-      <c r="BN195" s="8"/>
-    </row>
-    <row r="196" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -14489,10 +14085,8 @@
       <c r="BJ196" s="8"/>
       <c r="BK196" s="8"/>
       <c r="BL196" s="8"/>
-      <c r="BM196" s="8"/>
-      <c r="BN196" s="8"/>
-    </row>
-    <row r="197" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -14557,10 +14151,8 @@
       <c r="BJ197" s="8"/>
       <c r="BK197" s="8"/>
       <c r="BL197" s="8"/>
-      <c r="BM197" s="8"/>
-      <c r="BN197" s="8"/>
-    </row>
-    <row r="198" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -14625,10 +14217,8 @@
       <c r="BJ198" s="8"/>
       <c r="BK198" s="8"/>
       <c r="BL198" s="8"/>
-      <c r="BM198" s="8"/>
-      <c r="BN198" s="8"/>
-    </row>
-    <row r="199" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -14693,10 +14283,8 @@
       <c r="BJ199" s="8"/>
       <c r="BK199" s="8"/>
       <c r="BL199" s="8"/>
-      <c r="BM199" s="8"/>
-      <c r="BN199" s="8"/>
-    </row>
-    <row r="200" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -14761,10 +14349,8 @@
       <c r="BJ200" s="8"/>
       <c r="BK200" s="8"/>
       <c r="BL200" s="8"/>
-      <c r="BM200" s="8"/>
-      <c r="BN200" s="8"/>
-    </row>
-    <row r="201" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -14829,19 +14415,17 @@
       <c r="BJ201" s="8"/>
       <c r="BK201" s="8"/>
       <c r="BL201" s="8"/>
-      <c r="BM201" s="8"/>
-      <c r="BN201" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="AB1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AB1:BC1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF201" xr:uid="{1C58684F-27C9-4801-A0B4-A4B1D86EFDEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD3:BD201" xr:uid="{1C58684F-27C9-4801-A0B4-A4B1D86EFDEA}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W201" xr:uid="{5A4046FE-C0D5-400C-8CD1-8D85751EF3F4}">

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169057D-69CE-4F66-820C-AED1AC5A5AF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF81B29C-7F4F-44BB-9EAD-4D9A864D1783}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所属SPU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -454,6 +450,10 @@
   </si>
   <si>
     <t>分销交易倍数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:BD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="20"/>
       <c r="AA1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="21" t="s">
         <v>1</v>
@@ -1146,10 +1146,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7</v>
@@ -1158,154 +1158,154 @@
         <v>8</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AB2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AC2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AR2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AS2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AR2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AT2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AU2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AW2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="BA2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="BB2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BD2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="BD2" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF81B29C-7F4F-44BB-9EAD-4D9A864D1783}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F5270-AC91-4F5C-897F-E317129C082F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +750,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1044,7 @@
   <dimension ref="A1:BD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1052,7 @@
     <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="27" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
     <col min="6" max="8" width="10.6640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="6" customWidth="1"/>
@@ -1148,7 +1157,7 @@
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1312,7 +1321,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1370,7 +1379,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1428,7 +1437,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1486,7 +1495,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1544,7 +1553,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1602,7 +1611,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1660,7 +1669,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1718,7 +1727,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1776,7 +1785,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1834,7 +1843,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1892,7 +1901,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1950,7 +1959,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2008,7 +2017,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2066,7 +2075,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2124,7 +2133,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2182,7 +2191,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2240,7 +2249,7 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2298,7 +2307,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2356,7 +2365,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2414,7 +2423,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2472,7 +2481,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2530,7 +2539,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2588,7 +2597,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2646,7 +2655,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2704,7 +2713,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2762,7 +2771,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2820,7 +2829,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2878,7 +2887,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2936,7 +2945,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2994,7 +3003,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -3052,7 +3061,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3110,7 +3119,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3168,7 +3177,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3226,7 +3235,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3284,7 +3293,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3342,7 +3351,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3400,7 +3409,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3458,7 +3467,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3516,7 +3525,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3574,7 +3583,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3632,7 +3641,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3690,7 +3699,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3748,7 +3757,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -3806,7 +3815,7 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3864,7 +3873,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -3922,7 +3931,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -3980,7 +3989,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -4038,7 +4047,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4096,7 +4105,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -4154,7 +4163,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4212,7 +4221,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -4270,7 +4279,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4328,7 +4337,7 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -4386,7 +4395,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4444,7 +4453,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4502,7 +4511,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4560,7 +4569,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -4618,7 +4627,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -4676,7 +4685,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -4734,7 +4743,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -4792,7 +4801,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -4850,7 +4859,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -4908,7 +4917,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -4966,7 +4975,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5024,7 +5033,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5082,7 +5091,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5140,7 +5149,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5198,7 +5207,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5256,7 +5265,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -5314,7 +5323,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5372,7 +5381,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -5430,7 +5439,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -5488,7 +5497,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -5546,7 +5555,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5604,7 +5613,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -5662,7 +5671,7 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -5720,7 +5729,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -5778,7 +5787,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5836,7 +5845,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -5894,7 +5903,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -5952,7 +5961,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6010,7 +6019,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -6068,7 +6077,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -6126,7 +6135,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -6184,7 +6193,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -6242,7 +6251,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -6300,7 +6309,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -6358,7 +6367,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -6416,7 +6425,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -6474,7 +6483,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -6532,7 +6541,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -6590,7 +6599,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -6648,7 +6657,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -6706,7 +6715,7 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -6764,7 +6773,7 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -6822,7 +6831,7 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -6880,7 +6889,7 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -6938,7 +6947,7 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -6996,7 +7005,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -7054,7 +7063,7 @@
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -7112,7 +7121,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -7170,7 +7179,7 @@
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -7228,7 +7237,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -7286,7 +7295,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -7344,7 +7353,7 @@
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -7402,7 +7411,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -7460,7 +7469,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -7518,7 +7527,7 @@
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -7576,7 +7585,7 @@
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -7634,7 +7643,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -7692,7 +7701,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -7750,7 +7759,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -7808,7 +7817,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -7866,7 +7875,7 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -7924,7 +7933,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -7982,7 +7991,7 @@
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -8040,7 +8049,7 @@
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -8098,7 +8107,7 @@
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8156,7 +8165,7 @@
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8214,7 +8223,7 @@
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -8272,7 +8281,7 @@
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -8330,7 +8339,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="26"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8388,7 +8397,7 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8446,7 +8455,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -8504,7 +8513,7 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -8562,7 +8571,7 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -8620,7 +8629,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -8678,7 +8687,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="26"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -8736,7 +8745,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="26"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -8794,7 +8803,7 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -8852,7 +8861,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="26"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -8910,7 +8919,7 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="26"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -8968,7 +8977,7 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -9026,7 +9035,7 @@
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="26"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -9084,7 +9093,7 @@
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="26"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -9142,7 +9151,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="26"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -9200,7 +9209,7 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="26"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -9258,7 +9267,7 @@
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="26"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -9316,7 +9325,7 @@
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -9374,7 +9383,7 @@
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="26"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -9432,7 +9441,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -9490,7 +9499,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -9548,7 +9557,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="26"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -9606,7 +9615,7 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="26"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -9664,7 +9673,7 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -9722,7 +9731,7 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="26"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -9780,7 +9789,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="26"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -9838,7 +9847,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -9896,7 +9905,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="D151" s="26"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -9954,7 +9963,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="26"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10012,7 +10021,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="26"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10070,7 +10079,7 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="26"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10128,7 +10137,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="26"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10186,7 +10195,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="26"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10244,7 +10253,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="26"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10302,7 +10311,7 @@
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="26"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10360,7 +10369,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -10418,7 +10427,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="26"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -10476,7 +10485,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="26"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -10534,7 +10543,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -10592,7 +10601,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="26"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -10650,7 +10659,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="26"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -10708,7 +10717,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -10766,7 +10775,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="26"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -10824,7 +10833,7 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="26"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -10882,7 +10891,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="26"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -10940,7 +10949,7 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="26"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -10998,7 +11007,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="26"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11056,7 +11065,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="26"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11114,7 +11123,7 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="26"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11172,7 +11181,7 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="26"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11230,7 +11239,7 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="26"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11288,7 +11297,7 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="26"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11346,7 +11355,7 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="26"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -11404,7 +11413,7 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="26"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -11462,7 +11471,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="26"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -11520,7 +11529,7 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="26"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -11578,7 +11587,7 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="26"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -11636,7 +11645,7 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="26"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -11694,7 +11703,7 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="26"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -11752,7 +11761,7 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="26"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -11810,7 +11819,7 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="26"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -11868,7 +11877,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="26"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -11926,7 +11935,7 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="26"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -11984,7 +11993,7 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="26"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -12042,7 +12051,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="26"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -12100,7 +12109,7 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="26"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -12158,7 +12167,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="26"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -12216,7 +12225,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="26"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -12274,7 +12283,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="26"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -12332,7 +12341,7 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="26"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -12390,7 +12399,7 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="26"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -12448,7 +12457,7 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="26"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -12506,7 +12515,7 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="26"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -12564,7 +12573,7 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -12622,7 +12631,7 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="26"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -12680,7 +12689,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="D199" s="26"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -12738,7 +12747,7 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="26"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -12796,7 +12805,7 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+      <c r="D201" s="26"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F5270-AC91-4F5C-897F-E317129C082F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD0943-6F51-4F5F-9F4F-0A631C083143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LeslieNicole</author>
+    <author>张廷豪</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{14B3E5EE-DD71-4789-B26A-B28A20EE7771}">
@@ -55,6 +56,20 @@
             <family val="2"/>
           </rPr>
           <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{DB7C16E5-EBE4-421E-A3EA-DFD04C5E75D1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请添加第四级品类的编码</t>
         </r>
       </text>
     </comment>
@@ -461,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +541,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -734,6 +756,15 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,15 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1066,7 @@
   <dimension ref="A1:BD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1074,7 @@
     <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
     <col min="6" max="8" width="10.6640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="6" customWidth="1"/>
@@ -1078,71 +1100,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="9" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="23" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="24" t="s">
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
       <c r="BD1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1179,7 @@
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1321,7 +1343,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1379,7 +1401,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1437,7 +1459,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1495,7 +1517,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1553,7 +1575,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1611,7 +1633,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1669,7 +1691,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1727,7 +1749,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1785,7 +1807,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1843,7 +1865,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1901,7 +1923,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1959,7 +1981,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2017,7 +2039,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2075,7 +2097,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2133,7 +2155,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2191,7 +2213,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2249,7 +2271,7 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2307,7 +2329,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2365,7 +2387,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2423,7 +2445,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="26"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2481,7 +2503,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2539,7 +2561,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2597,7 +2619,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2655,7 +2677,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="26"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2713,7 +2735,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2771,7 +2793,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2829,7 +2851,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="26"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2887,7 +2909,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="26"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2945,7 +2967,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -3003,7 +3025,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -3061,7 +3083,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="26"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3119,7 +3141,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="26"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3177,7 +3199,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="26"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3235,7 +3257,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="26"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3293,7 +3315,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3351,7 +3373,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="26"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3409,7 +3431,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="26"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3467,7 +3489,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="26"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3525,7 +3547,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="26"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3583,7 +3605,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3641,7 +3663,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3699,7 +3721,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="26"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3757,7 +3779,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -3815,7 +3837,7 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="26"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3873,7 +3895,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -3931,7 +3953,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -3989,7 +4011,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -4047,7 +4069,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="26"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4105,7 +4127,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="26"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -4163,7 +4185,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="26"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4221,7 +4243,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="26"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -4279,7 +4301,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="26"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4337,7 +4359,7 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="26"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -4395,7 +4417,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="26"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4453,7 +4475,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="26"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4511,7 +4533,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="26"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4569,7 +4591,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -4627,7 +4649,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="26"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -4685,7 +4707,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="26"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -4743,7 +4765,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="26"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -4801,7 +4823,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="26"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -4859,7 +4881,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="26"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -4917,7 +4939,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="26"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -4975,7 +4997,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="26"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5033,7 +5055,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="26"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5091,7 +5113,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="26"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5149,7 +5171,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="26"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5207,7 +5229,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="26"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5265,7 +5287,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="26"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -5323,7 +5345,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="26"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5381,7 +5403,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="26"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -5439,7 +5461,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="26"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -5497,7 +5519,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="26"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -5555,7 +5577,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="26"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5613,7 +5635,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="26"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -5671,7 +5693,7 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="26"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -5729,7 +5751,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="26"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -5787,7 +5809,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="26"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5845,7 +5867,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="26"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -5903,7 +5925,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="26"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -5961,7 +5983,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="26"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6019,7 +6041,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="26"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -6077,7 +6099,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="26"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -6135,7 +6157,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="26"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -6193,7 +6215,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="26"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -6251,7 +6273,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="26"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -6309,7 +6331,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="26"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -6367,7 +6389,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="26"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -6425,7 +6447,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="26"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -6483,7 +6505,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="26"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -6541,7 +6563,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="26"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -6599,7 +6621,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="26"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -6657,7 +6679,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="26"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -6715,7 +6737,7 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="26"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -6773,7 +6795,7 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="26"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -6831,7 +6853,7 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="26"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -6889,7 +6911,7 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="26"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -6947,7 +6969,7 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="26"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -7005,7 +7027,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="26"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -7063,7 +7085,7 @@
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="26"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -7121,7 +7143,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="26"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -7179,7 +7201,7 @@
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="26"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -7237,7 +7259,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="26"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -7295,7 +7317,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="26"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -7353,7 +7375,7 @@
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="26"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -7411,7 +7433,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="26"/>
+      <c r="D108" s="20"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -7469,7 +7491,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="26"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -7527,7 +7549,7 @@
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="26"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -7585,7 +7607,7 @@
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="26"/>
+      <c r="D111" s="20"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -7643,7 +7665,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="26"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -7701,7 +7723,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="26"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -7759,7 +7781,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="26"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -7817,7 +7839,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="26"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -7875,7 +7897,7 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="26"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -7933,7 +7955,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="26"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -7991,7 +8013,7 @@
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="26"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -8049,7 +8071,7 @@
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="26"/>
+      <c r="D119" s="20"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -8107,7 +8129,7 @@
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="26"/>
+      <c r="D120" s="20"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8165,7 +8187,7 @@
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="26"/>
+      <c r="D121" s="20"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8223,7 +8245,7 @@
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="26"/>
+      <c r="D122" s="20"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -8281,7 +8303,7 @@
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="26"/>
+      <c r="D123" s="20"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -8339,7 +8361,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="26"/>
+      <c r="D124" s="20"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8397,7 +8419,7 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="26"/>
+      <c r="D125" s="20"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8455,7 +8477,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="26"/>
+      <c r="D126" s="20"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -8513,7 +8535,7 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="26"/>
+      <c r="D127" s="20"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -8571,7 +8593,7 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="26"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -8629,7 +8651,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="26"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -8687,7 +8709,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="26"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -8745,7 +8767,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="26"/>
+      <c r="D131" s="20"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -8803,7 +8825,7 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="26"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -8861,7 +8883,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="26"/>
+      <c r="D133" s="20"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -8919,7 +8941,7 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="26"/>
+      <c r="D134" s="20"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -8977,7 +8999,7 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="26"/>
+      <c r="D135" s="20"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -9035,7 +9057,7 @@
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="26"/>
+      <c r="D136" s="20"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -9093,7 +9115,7 @@
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="26"/>
+      <c r="D137" s="20"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -9151,7 +9173,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="26"/>
+      <c r="D138" s="20"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -9209,7 +9231,7 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="26"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -9267,7 +9289,7 @@
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="26"/>
+      <c r="D140" s="20"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -9325,7 +9347,7 @@
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="26"/>
+      <c r="D141" s="20"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -9383,7 +9405,7 @@
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="26"/>
+      <c r="D142" s="20"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -9441,7 +9463,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="26"/>
+      <c r="D143" s="20"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -9499,7 +9521,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="26"/>
+      <c r="D144" s="20"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -9557,7 +9579,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="26"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -9615,7 +9637,7 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="26"/>
+      <c r="D146" s="20"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -9673,7 +9695,7 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="26"/>
+      <c r="D147" s="20"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -9731,7 +9753,7 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="26"/>
+      <c r="D148" s="20"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -9789,7 +9811,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="26"/>
+      <c r="D149" s="20"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -9847,7 +9869,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="26"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -9905,7 +9927,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="26"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -9963,7 +9985,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="26"/>
+      <c r="D152" s="20"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10021,7 +10043,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="26"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10079,7 +10101,7 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="26"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10137,7 +10159,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="26"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10195,7 +10217,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="26"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10253,7 +10275,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="26"/>
+      <c r="D157" s="20"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10311,7 +10333,7 @@
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="26"/>
+      <c r="D158" s="20"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10369,7 +10391,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="26"/>
+      <c r="D159" s="20"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -10427,7 +10449,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="26"/>
+      <c r="D160" s="20"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -10485,7 +10507,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="26"/>
+      <c r="D161" s="20"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -10543,7 +10565,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="26"/>
+      <c r="D162" s="20"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -10601,7 +10623,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="26"/>
+      <c r="D163" s="20"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -10659,7 +10681,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="26"/>
+      <c r="D164" s="20"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -10717,7 +10739,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="26"/>
+      <c r="D165" s="20"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -10775,7 +10797,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="26"/>
+      <c r="D166" s="20"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -10833,7 +10855,7 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="26"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -10891,7 +10913,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="26"/>
+      <c r="D168" s="20"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -10949,7 +10971,7 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="26"/>
+      <c r="D169" s="20"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11007,7 +11029,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="26"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11065,7 +11087,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="26"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11123,7 +11145,7 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="26"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11181,7 +11203,7 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="26"/>
+      <c r="D173" s="20"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11239,7 +11261,7 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="26"/>
+      <c r="D174" s="20"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11297,7 +11319,7 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="26"/>
+      <c r="D175" s="20"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11355,7 +11377,7 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="26"/>
+      <c r="D176" s="20"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -11413,7 +11435,7 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="26"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -11471,7 +11493,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="26"/>
+      <c r="D178" s="20"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -11529,7 +11551,7 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="26"/>
+      <c r="D179" s="20"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -11587,7 +11609,7 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="26"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -11645,7 +11667,7 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="26"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -11703,7 +11725,7 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="26"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -11761,7 +11783,7 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="26"/>
+      <c r="D183" s="20"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -11819,7 +11841,7 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="26"/>
+      <c r="D184" s="20"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -11877,7 +11899,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="26"/>
+      <c r="D185" s="20"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -11935,7 +11957,7 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="26"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -11993,7 +12015,7 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="26"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -12051,7 +12073,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="26"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -12109,7 +12131,7 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="26"/>
+      <c r="D189" s="20"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -12167,7 +12189,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="26"/>
+      <c r="D190" s="20"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -12225,7 +12247,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="26"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -12283,7 +12305,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="26"/>
+      <c r="D192" s="20"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -12341,7 +12363,7 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="26"/>
+      <c r="D193" s="20"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -12399,7 +12421,7 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="26"/>
+      <c r="D194" s="20"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -12457,7 +12479,7 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="26"/>
+      <c r="D195" s="20"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -12515,7 +12537,7 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="26"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -12573,7 +12595,7 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="26"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -12631,7 +12653,7 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="26"/>
+      <c r="D198" s="20"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -12689,7 +12711,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="26"/>
+      <c r="D199" s="20"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -12747,7 +12769,7 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="26"/>
+      <c r="D200" s="20"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -12805,7 +12827,7 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="26"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD0943-6F51-4F5F-9F4F-0A631C083143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9335901-9F6F-4E7B-80AA-7C5E82A7815C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:BD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12912,7 +12912,7 @@
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{A6435389-9D92-4636-AD69-E81F70960290}">
-      <formula1>"是,否"</formula1>
+      <formula1>"管理,不管理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9335901-9F6F-4E7B-80AA-7C5E82A7815C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A8EB3-106A-47B6-9EF4-9222F023FE8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,6 +218,33 @@
             <family val="2"/>
           </rPr>
           <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{9B5C763F-A5A6-44E7-BACA-22717520F499}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不用加%号,默认有
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{A448CE4A-FAF4-4DC3-B369-224CEC1A2DEB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加%号,默认有</t>
         </r>
       </text>
     </comment>
@@ -476,7 +503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +574,12 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1066,7 +1099,7 @@
   <dimension ref="A1:BD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A8EB3-106A-47B6-9EF4-9222F023FE8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E0CA5-2BFF-4E62-9CB3-73858FF3A8DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,12 +164,87 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写示例：
+爱亲科技</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">填写示例：
-爱亲,萌贝树,小红马
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">爱亲母婴
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>萌贝树</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">小红马
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>值与值之间用</t>
         </r>
         <r>
           <rPr>
@@ -178,7 +253,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>值与值之间用 英文逗号隔开</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英文逗号隔开</t>
         </r>
       </text>
     </comment>
@@ -503,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +665,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1098,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E0CA5-2BFF-4E62-9CB3-73858FF3A8DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF362326-5E86-4EE0-B283-04264317A011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LeslieNicole</author>
-    <author>张廷豪</author>
+    <author>HUAWEI</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{14B3E5EE-DD71-4789-B26A-B28A20EE7771}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{214621CC-C128-4781-A23B-C0093005606F}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{26217B3E-20D6-4066-9DA8-484C691AE45F}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F2D65DE2-E878-4669-A178-FE951FF8A0A8}">
       <text>
         <r>
           <rPr>
@@ -59,21 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{DB7C16E5-EBE4-421E-A3EA-DFD04C5E75D1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请添加第四级品类的编码</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0F1FE8F7-12DD-4FC2-BFB0-421300425FF1}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{FE5467B1-1167-4AEB-BFE7-6F03A7E6C74C}">
       <text>
         <r>
           <rPr>
@@ -87,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{489655F1-FE1A-43BC-A442-54B900CDD02A}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{C34A8D49-5A9A-46AD-AFB3-CC2CCE0B987E}">
       <text>
         <r>
           <rPr>
@@ -101,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{029CC6A8-EAD5-46E3-A56D-D47655C05FCE}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{A1C6912E-9DB3-4A9D-8375-3B90B84362A5}">
       <text>
         <r>
           <rPr>
@@ -115,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{949F88E2-76C3-451A-BCFE-A0FCF28F82E8}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{145E39CE-CC17-45C4-9959-DEB94C362FE7}">
       <text>
         <r>
           <rPr>
@@ -129,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{7C72E98B-8316-45E0-9964-2084FD787ED5}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{2ECB5513-CBE8-4979-AAED-BDF47DBDBD21}">
       <text>
         <r>
           <rPr>
@@ -143,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{7C3855D6-7582-4ADE-960C-5796A24C07CB}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{68F99CBD-F5BC-479D-AD98-0280D7E87DE1}">
       <text>
         <r>
           <rPr>
@@ -157,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{9282D7A5-E50C-4DB9-8ABC-B3CF1CC7287F}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{7571EF51-3B26-4AD7-BE6C-1EDC1D9CD271}">
       <text>
         <r>
           <rPr>
@@ -190,8 +176,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">爱亲母婴
-</t>
+          <t>爱亲母婴</t>
         </r>
         <r>
           <rPr>
@@ -267,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{F2234B95-296F-4A48-B772-E9E48A8E262B}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{09125CC9-8B14-4EC1-A3C0-690F2AC917D1}">
       <text>
         <r>
           <rPr>
@@ -292,7 +277,335 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{F50B1BE8-D6CC-475C-9E6F-701D792B52B6}">
+    <comment ref="Z2" authorId="1" shapeId="0" xr:uid="{269CBDA2-5221-4EA6-859E-82AC0B9EC1F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>库存及销售的规格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="1" shapeId="0" xr:uid="{FBD50956-4B02-455B-AADC-26FE9CB972E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>库存及销售的单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="1" shapeId="0" xr:uid="{545990FD-F430-4C41-A39B-6F17B7F45294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="1" shapeId="0" xr:uid="{C8F68DC4-3F5D-408E-B043-9F0651996399}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="1" shapeId="0" xr:uid="{C0735F06-43DF-464A-A838-6709F9367547}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="1" shapeId="0" xr:uid="{A52C28FB-DD12-4A20-B37D-3B4781827E8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{4DF5148D-8E35-461F-8B9B-CC02C98D07C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="1" shapeId="0" xr:uid="{D82CF654-C45A-4A62-9074-4EB7257AE5DA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">采购的规格
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{EA46435B-DC04-4DA3-8415-20C20F1223CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>采购的单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{5B265FAD-3AC1-4679-9408-B230DA74D910}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{FB1D9A2A-44F1-4360-9BF9-E2699A1E057C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{ABBCE184-FDE5-4328-9F3D-15B545912F0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{A1DADD1A-77B0-408F-A550-5FB371C43EB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{8A45D305-D931-4B22-82CE-365761DA3A5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{80FF457C-DFC3-4DD9-ABB9-33EB2410452D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">基商品含量
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{11164E94-60F7-4810-B1D1-E6C61D5F0802}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拆零系数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{42F67407-37C7-4AF0-8F5E-544F1BF001FF}">
       <text>
         <r>
           <rPr>
@@ -306,30 +619,96 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{9B5C763F-A5A6-44E7-BACA-22717520F499}">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{994A9016-8F08-43DE-A42C-A1A0155F9E27}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">不用加%号,默认有
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{A448CE4A-FAF4-4DC3-B369-224CEC1A2DEB}">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{9CFAC45E-3EBB-474F-B603-3C8CBDC20257}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{314EB9C2-3C37-43DF-BA4E-D727E0E5A454}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>不用加%号,默认有</t>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{BF27F98E-DE6D-499F-88DB-56CBFEE773CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -338,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,14 +776,6 @@
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否管理保质期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,51 +839,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>库存长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存宽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存毛重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存净重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>采购规格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>采购单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购宽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购毛重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购净重</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -552,10 +883,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>厂方商品编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>保修地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -583,12 +910,56 @@
     <t>品类编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>库存长(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存宽(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存高(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存毛重(KG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存净重(KG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购长(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购宽(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购高(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购毛重(KG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购净重(KG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,12 +1030,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -826,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,9 +1212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -882,13 +1244,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,287 +1545,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD201"/>
+  <dimension ref="A1:BB201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="8" width="10.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="10.21875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="16.109375" style="6" customWidth="1"/>
-    <col min="17" max="20" width="18" style="6" customWidth="1"/>
-    <col min="21" max="24" width="19.77734375" style="6" customWidth="1"/>
-    <col min="25" max="26" width="23.109375" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18" style="6" customWidth="1"/>
-    <col min="28" max="41" width="13.77734375" style="6" customWidth="1"/>
-    <col min="42" max="42" width="17.109375" style="6" customWidth="1"/>
-    <col min="43" max="43" width="13.77734375" style="6" customWidth="1"/>
-    <col min="44" max="44" width="16.77734375" style="6" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" style="6" customWidth="1"/>
-    <col min="46" max="46" width="15.21875" style="6" customWidth="1"/>
-    <col min="47" max="47" width="13.77734375" style="6" customWidth="1"/>
-    <col min="48" max="52" width="18" style="6" customWidth="1"/>
-    <col min="53" max="55" width="15.44140625" style="6" customWidth="1"/>
-    <col min="56" max="56" width="19.77734375" style="6" customWidth="1"/>
-    <col min="57" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="9" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:54" s="8" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="7" t="s">
-        <v>56</v>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="Z1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="27" t="s">
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="8" t="s">
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>60</v>
+      <c r="D2" s="10" t="s">
+        <v>47</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>18</v>
+      <c r="O2" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
+      <c r="P2" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AA2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="14" t="s">
-        <v>20</v>
+      <c r="AN2" s="13" t="s">
+        <v>45</v>
       </c>
-      <c r="AB2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AR2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AS2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AT2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AU2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AV2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AW2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AX2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AY2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="BB2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="20"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1520,14 +1878,12 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1578,14 +1934,12 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1636,14 +1990,12 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1694,14 +2046,12 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1752,14 +2102,12 @@
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1810,14 +2158,12 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1868,14 +2214,12 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1926,14 +2270,12 @@
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1984,14 +2326,12 @@
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2042,14 +2382,12 @@
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2100,14 +2438,12 @@
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2158,14 +2494,12 @@
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2216,14 +2550,12 @@
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2274,14 +2606,12 @@
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2332,14 +2662,12 @@
       <c r="AZ17" s="5"/>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2390,14 +2718,12 @@
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
       <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2448,14 +2774,12 @@
       <c r="AZ19" s="5"/>
       <c r="BA19" s="5"/>
       <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2506,14 +2830,12 @@
       <c r="AZ20" s="5"/>
       <c r="BA20" s="5"/>
       <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2564,14 +2886,12 @@
       <c r="AZ21" s="5"/>
       <c r="BA21" s="5"/>
       <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2622,14 +2942,12 @@
       <c r="AZ22" s="5"/>
       <c r="BA22" s="5"/>
       <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2680,14 +2998,12 @@
       <c r="AZ23" s="5"/>
       <c r="BA23" s="5"/>
       <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2738,14 +3054,12 @@
       <c r="AZ24" s="5"/>
       <c r="BA24" s="5"/>
       <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2796,14 +3110,12 @@
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2854,14 +3166,12 @@
       <c r="AZ26" s="5"/>
       <c r="BA26" s="5"/>
       <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2912,14 +3222,12 @@
       <c r="AZ27" s="5"/>
       <c r="BA27" s="5"/>
       <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2970,14 +3278,12 @@
       <c r="AZ28" s="5"/>
       <c r="BA28" s="5"/>
       <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -3028,14 +3334,12 @@
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -3086,14 +3390,12 @@
       <c r="AZ30" s="5"/>
       <c r="BA30" s="5"/>
       <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="5"/>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -3144,14 +3446,12 @@
       <c r="AZ31" s="5"/>
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -3202,14 +3502,12 @@
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3260,14 +3558,12 @@
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3318,14 +3614,12 @@
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3376,14 +3670,12 @@
       <c r="AZ35" s="5"/>
       <c r="BA35" s="5"/>
       <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3434,14 +3726,12 @@
       <c r="AZ36" s="5"/>
       <c r="BA36" s="5"/>
       <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="5"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3492,14 +3782,12 @@
       <c r="AZ37" s="5"/>
       <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="5"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3550,14 +3838,12 @@
       <c r="AZ38" s="5"/>
       <c r="BA38" s="5"/>
       <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3608,14 +3894,12 @@
       <c r="AZ39" s="5"/>
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="20"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3666,14 +3950,12 @@
       <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="20"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3724,14 +4006,12 @@
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3782,14 +4062,12 @@
       <c r="AZ42" s="5"/>
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="5"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3840,14 +4118,12 @@
       <c r="AZ43" s="5"/>
       <c r="BA43" s="5"/>
       <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-    </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3898,14 +4174,12 @@
       <c r="AZ44" s="5"/>
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-    </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -3956,14 +4230,12 @@
       <c r="AZ45" s="5"/>
       <c r="BA45" s="5"/>
       <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-    </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -4014,14 +4286,12 @@
       <c r="AZ46" s="5"/>
       <c r="BA46" s="5"/>
       <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-    </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="20"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -4072,14 +4342,12 @@
       <c r="AZ47" s="5"/>
       <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="20"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -4130,14 +4398,12 @@
       <c r="AZ48" s="5"/>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-    </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="20"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -4188,14 +4454,12 @@
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-    </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4246,14 +4510,12 @@
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="5"/>
-    </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -4304,14 +4566,12 @@
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
-      <c r="BC51" s="5"/>
-      <c r="BD51" s="5"/>
-    </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4362,14 +4622,12 @@
       <c r="AZ52" s="5"/>
       <c r="BA52" s="5"/>
       <c r="BB52" s="5"/>
-      <c r="BC52" s="5"/>
-      <c r="BD52" s="5"/>
-    </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -4420,14 +4678,12 @@
       <c r="AZ53" s="5"/>
       <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-    </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4478,14 +4734,12 @@
       <c r="AZ54" s="5"/>
       <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-    </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -4536,14 +4790,12 @@
       <c r="AZ55" s="5"/>
       <c r="BA55" s="5"/>
       <c r="BB55" s="5"/>
-      <c r="BC55" s="5"/>
-      <c r="BD55" s="5"/>
-    </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4594,14 +4846,12 @@
       <c r="AZ56" s="5"/>
       <c r="BA56" s="5"/>
       <c r="BB56" s="5"/>
-      <c r="BC56" s="5"/>
-      <c r="BD56" s="5"/>
-    </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="20"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4652,14 +4902,12 @@
       <c r="AZ57" s="5"/>
       <c r="BA57" s="5"/>
       <c r="BB57" s="5"/>
-      <c r="BC57" s="5"/>
-      <c r="BD57" s="5"/>
-    </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4710,14 +4958,12 @@
       <c r="AZ58" s="5"/>
       <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
-      <c r="BC58" s="5"/>
-      <c r="BD58" s="5"/>
-    </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -4768,14 +5014,12 @@
       <c r="AZ59" s="5"/>
       <c r="BA59" s="5"/>
       <c r="BB59" s="5"/>
-      <c r="BC59" s="5"/>
-      <c r="BD59" s="5"/>
-    </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -4826,14 +5070,12 @@
       <c r="AZ60" s="5"/>
       <c r="BA60" s="5"/>
       <c r="BB60" s="5"/>
-      <c r="BC60" s="5"/>
-      <c r="BD60" s="5"/>
-    </row>
-    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -4884,14 +5126,12 @@
       <c r="AZ61" s="5"/>
       <c r="BA61" s="5"/>
       <c r="BB61" s="5"/>
-      <c r="BC61" s="5"/>
-      <c r="BD61" s="5"/>
-    </row>
-    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -4942,14 +5182,12 @@
       <c r="AZ62" s="5"/>
       <c r="BA62" s="5"/>
       <c r="BB62" s="5"/>
-      <c r="BC62" s="5"/>
-      <c r="BD62" s="5"/>
-    </row>
-    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="20"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5000,14 +5238,12 @@
       <c r="AZ63" s="5"/>
       <c r="BA63" s="5"/>
       <c r="BB63" s="5"/>
-      <c r="BC63" s="5"/>
-      <c r="BD63" s="5"/>
-    </row>
-    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5058,14 +5294,12 @@
       <c r="AZ64" s="5"/>
       <c r="BA64" s="5"/>
       <c r="BB64" s="5"/>
-      <c r="BC64" s="5"/>
-      <c r="BD64" s="5"/>
-    </row>
-    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5116,14 +5350,12 @@
       <c r="AZ65" s="5"/>
       <c r="BA65" s="5"/>
       <c r="BB65" s="5"/>
-      <c r="BC65" s="5"/>
-      <c r="BD65" s="5"/>
-    </row>
-    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5174,14 +5406,12 @@
       <c r="AZ66" s="5"/>
       <c r="BA66" s="5"/>
       <c r="BB66" s="5"/>
-      <c r="BC66" s="5"/>
-      <c r="BD66" s="5"/>
-    </row>
-    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5232,14 +5462,12 @@
       <c r="AZ67" s="5"/>
       <c r="BA67" s="5"/>
       <c r="BB67" s="5"/>
-      <c r="BC67" s="5"/>
-      <c r="BD67" s="5"/>
-    </row>
-    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5290,14 +5518,12 @@
       <c r="AZ68" s="5"/>
       <c r="BA68" s="5"/>
       <c r="BB68" s="5"/>
-      <c r="BC68" s="5"/>
-      <c r="BD68" s="5"/>
-    </row>
-    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5348,14 +5574,12 @@
       <c r="AZ69" s="5"/>
       <c r="BA69" s="5"/>
       <c r="BB69" s="5"/>
-      <c r="BC69" s="5"/>
-      <c r="BD69" s="5"/>
-    </row>
-    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5406,14 +5630,12 @@
       <c r="AZ70" s="5"/>
       <c r="BA70" s="5"/>
       <c r="BB70" s="5"/>
-      <c r="BC70" s="5"/>
-      <c r="BD70" s="5"/>
-    </row>
-    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -5464,14 +5686,12 @@
       <c r="AZ71" s="5"/>
       <c r="BA71" s="5"/>
       <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-      <c r="BD71" s="5"/>
-    </row>
-    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5522,14 +5742,12 @@
       <c r="AZ72" s="5"/>
       <c r="BA72" s="5"/>
       <c r="BB72" s="5"/>
-      <c r="BC72" s="5"/>
-      <c r="BD72" s="5"/>
-    </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -5580,14 +5798,12 @@
       <c r="AZ73" s="5"/>
       <c r="BA73" s="5"/>
       <c r="BB73" s="5"/>
-      <c r="BC73" s="5"/>
-      <c r="BD73" s="5"/>
-    </row>
-    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -5638,14 +5854,12 @@
       <c r="AZ74" s="5"/>
       <c r="BA74" s="5"/>
       <c r="BB74" s="5"/>
-      <c r="BC74" s="5"/>
-      <c r="BD74" s="5"/>
-    </row>
-    <row r="75" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -5696,14 +5910,12 @@
       <c r="AZ75" s="5"/>
       <c r="BA75" s="5"/>
       <c r="BB75" s="5"/>
-      <c r="BC75" s="5"/>
-      <c r="BD75" s="5"/>
-    </row>
-    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5754,14 +5966,12 @@
       <c r="AZ76" s="5"/>
       <c r="BA76" s="5"/>
       <c r="BB76" s="5"/>
-      <c r="BC76" s="5"/>
-      <c r="BD76" s="5"/>
-    </row>
-    <row r="77" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="20"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -5812,14 +6022,12 @@
       <c r="AZ77" s="5"/>
       <c r="BA77" s="5"/>
       <c r="BB77" s="5"/>
-      <c r="BC77" s="5"/>
-      <c r="BD77" s="5"/>
-    </row>
-    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -5870,14 +6078,12 @@
       <c r="AZ78" s="5"/>
       <c r="BA78" s="5"/>
       <c r="BB78" s="5"/>
-      <c r="BC78" s="5"/>
-      <c r="BD78" s="5"/>
-    </row>
-    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -5928,14 +6134,12 @@
       <c r="AZ79" s="5"/>
       <c r="BA79" s="5"/>
       <c r="BB79" s="5"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="5"/>
-    </row>
-    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="20"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5986,14 +6190,12 @@
       <c r="AZ80" s="5"/>
       <c r="BA80" s="5"/>
       <c r="BB80" s="5"/>
-      <c r="BC80" s="5"/>
-      <c r="BD80" s="5"/>
-    </row>
-    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -6044,14 +6246,12 @@
       <c r="AZ81" s="5"/>
       <c r="BA81" s="5"/>
       <c r="BB81" s="5"/>
-      <c r="BC81" s="5"/>
-      <c r="BD81" s="5"/>
-    </row>
-    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="20"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -6102,14 +6302,12 @@
       <c r="AZ82" s="5"/>
       <c r="BA82" s="5"/>
       <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-    </row>
-    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6160,14 +6358,12 @@
       <c r="AZ83" s="5"/>
       <c r="BA83" s="5"/>
       <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-    </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -6218,14 +6414,12 @@
       <c r="AZ84" s="5"/>
       <c r="BA84" s="5"/>
       <c r="BB84" s="5"/>
-      <c r="BC84" s="5"/>
-      <c r="BD84" s="5"/>
-    </row>
-    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="20"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -6276,14 +6470,12 @@
       <c r="AZ85" s="5"/>
       <c r="BA85" s="5"/>
       <c r="BB85" s="5"/>
-      <c r="BC85" s="5"/>
-      <c r="BD85" s="5"/>
-    </row>
-    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -6334,14 +6526,12 @@
       <c r="AZ86" s="5"/>
       <c r="BA86" s="5"/>
       <c r="BB86" s="5"/>
-      <c r="BC86" s="5"/>
-      <c r="BD86" s="5"/>
-    </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="20"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -6392,14 +6582,12 @@
       <c r="AZ87" s="5"/>
       <c r="BA87" s="5"/>
       <c r="BB87" s="5"/>
-      <c r="BC87" s="5"/>
-      <c r="BD87" s="5"/>
-    </row>
-    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="20"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -6450,14 +6638,12 @@
       <c r="AZ88" s="5"/>
       <c r="BA88" s="5"/>
       <c r="BB88" s="5"/>
-      <c r="BC88" s="5"/>
-      <c r="BD88" s="5"/>
-    </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="20"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -6508,14 +6694,12 @@
       <c r="AZ89" s="5"/>
       <c r="BA89" s="5"/>
       <c r="BB89" s="5"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="5"/>
-    </row>
-    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="20"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -6566,14 +6750,12 @@
       <c r="AZ90" s="5"/>
       <c r="BA90" s="5"/>
       <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-    </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -6624,14 +6806,12 @@
       <c r="AZ91" s="5"/>
       <c r="BA91" s="5"/>
       <c r="BB91" s="5"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="5"/>
-    </row>
-    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -6682,14 +6862,12 @@
       <c r="AZ92" s="5"/>
       <c r="BA92" s="5"/>
       <c r="BB92" s="5"/>
-      <c r="BC92" s="5"/>
-      <c r="BD92" s="5"/>
-    </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="20"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -6740,14 +6918,12 @@
       <c r="AZ93" s="5"/>
       <c r="BA93" s="5"/>
       <c r="BB93" s="5"/>
-      <c r="BC93" s="5"/>
-      <c r="BD93" s="5"/>
-    </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="20"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -6798,14 +6974,12 @@
       <c r="AZ94" s="5"/>
       <c r="BA94" s="5"/>
       <c r="BB94" s="5"/>
-      <c r="BC94" s="5"/>
-      <c r="BD94" s="5"/>
-    </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="20"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -6856,14 +7030,12 @@
       <c r="AZ95" s="5"/>
       <c r="BA95" s="5"/>
       <c r="BB95" s="5"/>
-      <c r="BC95" s="5"/>
-      <c r="BD95" s="5"/>
-    </row>
-    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="20"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -6914,14 +7086,12 @@
       <c r="AZ96" s="5"/>
       <c r="BA96" s="5"/>
       <c r="BB96" s="5"/>
-      <c r="BC96" s="5"/>
-      <c r="BD96" s="5"/>
-    </row>
-    <row r="97" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="20"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -6972,14 +7142,12 @@
       <c r="AZ97" s="5"/>
       <c r="BA97" s="5"/>
       <c r="BB97" s="5"/>
-      <c r="BC97" s="5"/>
-      <c r="BD97" s="5"/>
-    </row>
-    <row r="98" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="20"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -7030,14 +7198,12 @@
       <c r="AZ98" s="5"/>
       <c r="BA98" s="5"/>
       <c r="BB98" s="5"/>
-      <c r="BC98" s="5"/>
-      <c r="BD98" s="5"/>
-    </row>
-    <row r="99" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="20"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -7088,14 +7254,12 @@
       <c r="AZ99" s="5"/>
       <c r="BA99" s="5"/>
       <c r="BB99" s="5"/>
-      <c r="BC99" s="5"/>
-      <c r="BD99" s="5"/>
-    </row>
-    <row r="100" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -7146,14 +7310,12 @@
       <c r="AZ100" s="5"/>
       <c r="BA100" s="5"/>
       <c r="BB100" s="5"/>
-      <c r="BC100" s="5"/>
-      <c r="BD100" s="5"/>
-    </row>
-    <row r="101" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="20"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -7204,14 +7366,12 @@
       <c r="AZ101" s="5"/>
       <c r="BA101" s="5"/>
       <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-    </row>
-    <row r="102" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -7262,14 +7422,12 @@
       <c r="AZ102" s="5"/>
       <c r="BA102" s="5"/>
       <c r="BB102" s="5"/>
-      <c r="BC102" s="5"/>
-      <c r="BD102" s="5"/>
-    </row>
-    <row r="103" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="20"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -7320,14 +7478,12 @@
       <c r="AZ103" s="5"/>
       <c r="BA103" s="5"/>
       <c r="BB103" s="5"/>
-      <c r="BC103" s="5"/>
-      <c r="BD103" s="5"/>
-    </row>
-    <row r="104" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="20"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -7378,14 +7534,12 @@
       <c r="AZ104" s="5"/>
       <c r="BA104" s="5"/>
       <c r="BB104" s="5"/>
-      <c r="BC104" s="5"/>
-      <c r="BD104" s="5"/>
-    </row>
-    <row r="105" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="20"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -7436,14 +7590,12 @@
       <c r="AZ105" s="5"/>
       <c r="BA105" s="5"/>
       <c r="BB105" s="5"/>
-      <c r="BC105" s="5"/>
-      <c r="BD105" s="5"/>
-    </row>
-    <row r="106" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="20"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -7494,14 +7646,12 @@
       <c r="AZ106" s="5"/>
       <c r="BA106" s="5"/>
       <c r="BB106" s="5"/>
-      <c r="BC106" s="5"/>
-      <c r="BD106" s="5"/>
-    </row>
-    <row r="107" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="20"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -7552,14 +7702,12 @@
       <c r="AZ107" s="5"/>
       <c r="BA107" s="5"/>
       <c r="BB107" s="5"/>
-      <c r="BC107" s="5"/>
-      <c r="BD107" s="5"/>
-    </row>
-    <row r="108" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="20"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -7610,14 +7758,12 @@
       <c r="AZ108" s="5"/>
       <c r="BA108" s="5"/>
       <c r="BB108" s="5"/>
-      <c r="BC108" s="5"/>
-      <c r="BD108" s="5"/>
-    </row>
-    <row r="109" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -7668,14 +7814,12 @@
       <c r="AZ109" s="5"/>
       <c r="BA109" s="5"/>
       <c r="BB109" s="5"/>
-      <c r="BC109" s="5"/>
-      <c r="BD109" s="5"/>
-    </row>
-    <row r="110" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="20"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -7726,14 +7870,12 @@
       <c r="AZ110" s="5"/>
       <c r="BA110" s="5"/>
       <c r="BB110" s="5"/>
-      <c r="BC110" s="5"/>
-      <c r="BD110" s="5"/>
-    </row>
-    <row r="111" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="20"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -7784,14 +7926,12 @@
       <c r="AZ111" s="5"/>
       <c r="BA111" s="5"/>
       <c r="BB111" s="5"/>
-      <c r="BC111" s="5"/>
-      <c r="BD111" s="5"/>
-    </row>
-    <row r="112" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="20"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -7842,14 +7982,12 @@
       <c r="AZ112" s="5"/>
       <c r="BA112" s="5"/>
       <c r="BB112" s="5"/>
-      <c r="BC112" s="5"/>
-      <c r="BD112" s="5"/>
-    </row>
-    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -7900,14 +8038,12 @@
       <c r="AZ113" s="5"/>
       <c r="BA113" s="5"/>
       <c r="BB113" s="5"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="5"/>
-    </row>
-    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="20"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -7958,14 +8094,12 @@
       <c r="AZ114" s="5"/>
       <c r="BA114" s="5"/>
       <c r="BB114" s="5"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="5"/>
-    </row>
-    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8016,14 +8150,12 @@
       <c r="AZ115" s="5"/>
       <c r="BA115" s="5"/>
       <c r="BB115" s="5"/>
-      <c r="BC115" s="5"/>
-      <c r="BD115" s="5"/>
-    </row>
-    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="20"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8074,14 +8206,12 @@
       <c r="AZ116" s="5"/>
       <c r="BA116" s="5"/>
       <c r="BB116" s="5"/>
-      <c r="BC116" s="5"/>
-      <c r="BD116" s="5"/>
-    </row>
-    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="20"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8132,14 +8262,12 @@
       <c r="AZ117" s="5"/>
       <c r="BA117" s="5"/>
       <c r="BB117" s="5"/>
-      <c r="BC117" s="5"/>
-      <c r="BD117" s="5"/>
-    </row>
-    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="20"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -8190,14 +8318,12 @@
       <c r="AZ118" s="5"/>
       <c r="BA118" s="5"/>
       <c r="BB118" s="5"/>
-      <c r="BC118" s="5"/>
-      <c r="BD118" s="5"/>
-    </row>
-    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="20"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -8248,14 +8374,12 @@
       <c r="AZ119" s="5"/>
       <c r="BA119" s="5"/>
       <c r="BB119" s="5"/>
-      <c r="BC119" s="5"/>
-      <c r="BD119" s="5"/>
-    </row>
-    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="20"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8306,14 +8430,12 @@
       <c r="AZ120" s="5"/>
       <c r="BA120" s="5"/>
       <c r="BB120" s="5"/>
-      <c r="BC120" s="5"/>
-      <c r="BD120" s="5"/>
-    </row>
-    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="20"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8364,14 +8486,12 @@
       <c r="AZ121" s="5"/>
       <c r="BA121" s="5"/>
       <c r="BB121" s="5"/>
-      <c r="BC121" s="5"/>
-      <c r="BD121" s="5"/>
-    </row>
-    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="20"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -8422,14 +8542,12 @@
       <c r="AZ122" s="5"/>
       <c r="BA122" s="5"/>
       <c r="BB122" s="5"/>
-      <c r="BC122" s="5"/>
-      <c r="BD122" s="5"/>
-    </row>
-    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="20"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -8480,14 +8598,12 @@
       <c r="AZ123" s="5"/>
       <c r="BA123" s="5"/>
       <c r="BB123" s="5"/>
-      <c r="BC123" s="5"/>
-      <c r="BD123" s="5"/>
-    </row>
-    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="20"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8538,14 +8654,12 @@
       <c r="AZ124" s="5"/>
       <c r="BA124" s="5"/>
       <c r="BB124" s="5"/>
-      <c r="BC124" s="5"/>
-      <c r="BD124" s="5"/>
-    </row>
-    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="20"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8596,14 +8710,12 @@
       <c r="AZ125" s="5"/>
       <c r="BA125" s="5"/>
       <c r="BB125" s="5"/>
-      <c r="BC125" s="5"/>
-      <c r="BD125" s="5"/>
-    </row>
-    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="20"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -8654,14 +8766,12 @@
       <c r="AZ126" s="5"/>
       <c r="BA126" s="5"/>
       <c r="BB126" s="5"/>
-      <c r="BC126" s="5"/>
-      <c r="BD126" s="5"/>
-    </row>
-    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="20"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -8712,14 +8822,12 @@
       <c r="AZ127" s="5"/>
       <c r="BA127" s="5"/>
       <c r="BB127" s="5"/>
-      <c r="BC127" s="5"/>
-      <c r="BD127" s="5"/>
-    </row>
-    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="20"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -8770,14 +8878,12 @@
       <c r="AZ128" s="5"/>
       <c r="BA128" s="5"/>
       <c r="BB128" s="5"/>
-      <c r="BC128" s="5"/>
-      <c r="BD128" s="5"/>
-    </row>
-    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="20"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -8828,14 +8934,12 @@
       <c r="AZ129" s="5"/>
       <c r="BA129" s="5"/>
       <c r="BB129" s="5"/>
-      <c r="BC129" s="5"/>
-      <c r="BD129" s="5"/>
-    </row>
-    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="20"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -8886,14 +8990,12 @@
       <c r="AZ130" s="5"/>
       <c r="BA130" s="5"/>
       <c r="BB130" s="5"/>
-      <c r="BC130" s="5"/>
-      <c r="BD130" s="5"/>
-    </row>
-    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -8944,14 +9046,12 @@
       <c r="AZ131" s="5"/>
       <c r="BA131" s="5"/>
       <c r="BB131" s="5"/>
-      <c r="BC131" s="5"/>
-      <c r="BD131" s="5"/>
-    </row>
-    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -9002,14 +9102,12 @@
       <c r="AZ132" s="5"/>
       <c r="BA132" s="5"/>
       <c r="BB132" s="5"/>
-      <c r="BC132" s="5"/>
-      <c r="BD132" s="5"/>
-    </row>
-    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="20"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -9060,14 +9158,12 @@
       <c r="AZ133" s="5"/>
       <c r="BA133" s="5"/>
       <c r="BB133" s="5"/>
-      <c r="BC133" s="5"/>
-      <c r="BD133" s="5"/>
-    </row>
-    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="20"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -9118,14 +9214,12 @@
       <c r="AZ134" s="5"/>
       <c r="BA134" s="5"/>
       <c r="BB134" s="5"/>
-      <c r="BC134" s="5"/>
-      <c r="BD134" s="5"/>
-    </row>
-    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="20"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -9176,14 +9270,12 @@
       <c r="AZ135" s="5"/>
       <c r="BA135" s="5"/>
       <c r="BB135" s="5"/>
-      <c r="BC135" s="5"/>
-      <c r="BD135" s="5"/>
-    </row>
-    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="20"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -9234,14 +9326,12 @@
       <c r="AZ136" s="5"/>
       <c r="BA136" s="5"/>
       <c r="BB136" s="5"/>
-      <c r="BC136" s="5"/>
-      <c r="BD136" s="5"/>
-    </row>
-    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -9292,14 +9382,12 @@
       <c r="AZ137" s="5"/>
       <c r="BA137" s="5"/>
       <c r="BB137" s="5"/>
-      <c r="BC137" s="5"/>
-      <c r="BD137" s="5"/>
-    </row>
-    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="20"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -9350,14 +9438,12 @@
       <c r="AZ138" s="5"/>
       <c r="BA138" s="5"/>
       <c r="BB138" s="5"/>
-      <c r="BC138" s="5"/>
-      <c r="BD138" s="5"/>
-    </row>
-    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -9408,14 +9494,12 @@
       <c r="AZ139" s="5"/>
       <c r="BA139" s="5"/>
       <c r="BB139" s="5"/>
-      <c r="BC139" s="5"/>
-      <c r="BD139" s="5"/>
-    </row>
-    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -9466,14 +9550,12 @@
       <c r="AZ140" s="5"/>
       <c r="BA140" s="5"/>
       <c r="BB140" s="5"/>
-      <c r="BC140" s="5"/>
-      <c r="BD140" s="5"/>
-    </row>
-    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="20"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -9524,14 +9606,12 @@
       <c r="AZ141" s="5"/>
       <c r="BA141" s="5"/>
       <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-    </row>
-    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="20"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -9582,14 +9662,12 @@
       <c r="AZ142" s="5"/>
       <c r="BA142" s="5"/>
       <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-    </row>
-    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="20"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -9640,14 +9718,12 @@
       <c r="AZ143" s="5"/>
       <c r="BA143" s="5"/>
       <c r="BB143" s="5"/>
-      <c r="BC143" s="5"/>
-      <c r="BD143" s="5"/>
-    </row>
-    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="20"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -9698,14 +9774,12 @@
       <c r="AZ144" s="5"/>
       <c r="BA144" s="5"/>
       <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="5"/>
-    </row>
-    <row r="145" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -9756,14 +9830,12 @@
       <c r="AZ145" s="5"/>
       <c r="BA145" s="5"/>
       <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-    </row>
-    <row r="146" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="20"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -9814,14 +9886,12 @@
       <c r="AZ146" s="5"/>
       <c r="BA146" s="5"/>
       <c r="BB146" s="5"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="5"/>
-    </row>
-    <row r="147" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -9872,14 +9942,12 @@
       <c r="AZ147" s="5"/>
       <c r="BA147" s="5"/>
       <c r="BB147" s="5"/>
-      <c r="BC147" s="5"/>
-      <c r="BD147" s="5"/>
-    </row>
-    <row r="148" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="20"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -9930,14 +9998,12 @@
       <c r="AZ148" s="5"/>
       <c r="BA148" s="5"/>
       <c r="BB148" s="5"/>
-      <c r="BC148" s="5"/>
-      <c r="BD148" s="5"/>
-    </row>
-    <row r="149" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -9988,14 +10054,12 @@
       <c r="AZ149" s="5"/>
       <c r="BA149" s="5"/>
       <c r="BB149" s="5"/>
-      <c r="BC149" s="5"/>
-      <c r="BD149" s="5"/>
-    </row>
-    <row r="150" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="20"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10046,14 +10110,12 @@
       <c r="AZ150" s="5"/>
       <c r="BA150" s="5"/>
       <c r="BB150" s="5"/>
-      <c r="BC150" s="5"/>
-      <c r="BD150" s="5"/>
-    </row>
-    <row r="151" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="20"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10104,14 +10166,12 @@
       <c r="AZ151" s="5"/>
       <c r="BA151" s="5"/>
       <c r="BB151" s="5"/>
-      <c r="BC151" s="5"/>
-      <c r="BD151" s="5"/>
-    </row>
-    <row r="152" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="20"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10162,14 +10222,12 @@
       <c r="AZ152" s="5"/>
       <c r="BA152" s="5"/>
       <c r="BB152" s="5"/>
-      <c r="BC152" s="5"/>
-      <c r="BD152" s="5"/>
-    </row>
-    <row r="153" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="20"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10220,14 +10278,12 @@
       <c r="AZ153" s="5"/>
       <c r="BA153" s="5"/>
       <c r="BB153" s="5"/>
-      <c r="BC153" s="5"/>
-      <c r="BD153" s="5"/>
-    </row>
-    <row r="154" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="20"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10278,14 +10334,12 @@
       <c r="AZ154" s="5"/>
       <c r="BA154" s="5"/>
       <c r="BB154" s="5"/>
-      <c r="BC154" s="5"/>
-      <c r="BD154" s="5"/>
-    </row>
-    <row r="155" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="20"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10336,14 +10390,12 @@
       <c r="AZ155" s="5"/>
       <c r="BA155" s="5"/>
       <c r="BB155" s="5"/>
-      <c r="BC155" s="5"/>
-      <c r="BD155" s="5"/>
-    </row>
-    <row r="156" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="20"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10394,14 +10446,12 @@
       <c r="AZ156" s="5"/>
       <c r="BA156" s="5"/>
       <c r="BB156" s="5"/>
-      <c r="BC156" s="5"/>
-      <c r="BD156" s="5"/>
-    </row>
-    <row r="157" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="20"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10452,14 +10502,12 @@
       <c r="AZ157" s="5"/>
       <c r="BA157" s="5"/>
       <c r="BB157" s="5"/>
-      <c r="BC157" s="5"/>
-      <c r="BD157" s="5"/>
-    </row>
-    <row r="158" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="20"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10510,14 +10558,12 @@
       <c r="AZ158" s="5"/>
       <c r="BA158" s="5"/>
       <c r="BB158" s="5"/>
-      <c r="BC158" s="5"/>
-      <c r="BD158" s="5"/>
-    </row>
-    <row r="159" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="20"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -10568,14 +10614,12 @@
       <c r="AZ159" s="5"/>
       <c r="BA159" s="5"/>
       <c r="BB159" s="5"/>
-      <c r="BC159" s="5"/>
-      <c r="BD159" s="5"/>
-    </row>
-    <row r="160" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="20"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -10626,14 +10670,12 @@
       <c r="AZ160" s="5"/>
       <c r="BA160" s="5"/>
       <c r="BB160" s="5"/>
-      <c r="BC160" s="5"/>
-      <c r="BD160" s="5"/>
-    </row>
-    <row r="161" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="20"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -10684,14 +10726,12 @@
       <c r="AZ161" s="5"/>
       <c r="BA161" s="5"/>
       <c r="BB161" s="5"/>
-      <c r="BC161" s="5"/>
-      <c r="BD161" s="5"/>
-    </row>
-    <row r="162" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="20"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -10742,14 +10782,12 @@
       <c r="AZ162" s="5"/>
       <c r="BA162" s="5"/>
       <c r="BB162" s="5"/>
-      <c r="BC162" s="5"/>
-      <c r="BD162" s="5"/>
-    </row>
-    <row r="163" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="20"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -10800,14 +10838,12 @@
       <c r="AZ163" s="5"/>
       <c r="BA163" s="5"/>
       <c r="BB163" s="5"/>
-      <c r="BC163" s="5"/>
-      <c r="BD163" s="5"/>
-    </row>
-    <row r="164" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="20"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -10858,14 +10894,12 @@
       <c r="AZ164" s="5"/>
       <c r="BA164" s="5"/>
       <c r="BB164" s="5"/>
-      <c r="BC164" s="5"/>
-      <c r="BD164" s="5"/>
-    </row>
-    <row r="165" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="20"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -10916,14 +10950,12 @@
       <c r="AZ165" s="5"/>
       <c r="BA165" s="5"/>
       <c r="BB165" s="5"/>
-      <c r="BC165" s="5"/>
-      <c r="BD165" s="5"/>
-    </row>
-    <row r="166" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="20"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -10974,14 +11006,12 @@
       <c r="AZ166" s="5"/>
       <c r="BA166" s="5"/>
       <c r="BB166" s="5"/>
-      <c r="BC166" s="5"/>
-      <c r="BD166" s="5"/>
-    </row>
-    <row r="167" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="20"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11032,14 +11062,12 @@
       <c r="AZ167" s="5"/>
       <c r="BA167" s="5"/>
       <c r="BB167" s="5"/>
-      <c r="BC167" s="5"/>
-      <c r="BD167" s="5"/>
-    </row>
-    <row r="168" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="20"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11090,14 +11118,12 @@
       <c r="AZ168" s="5"/>
       <c r="BA168" s="5"/>
       <c r="BB168" s="5"/>
-      <c r="BC168" s="5"/>
-      <c r="BD168" s="5"/>
-    </row>
-    <row r="169" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="20"/>
+      <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11148,14 +11174,12 @@
       <c r="AZ169" s="5"/>
       <c r="BA169" s="5"/>
       <c r="BB169" s="5"/>
-      <c r="BC169" s="5"/>
-      <c r="BD169" s="5"/>
-    </row>
-    <row r="170" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="20"/>
+      <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11206,14 +11230,12 @@
       <c r="AZ170" s="5"/>
       <c r="BA170" s="5"/>
       <c r="BB170" s="5"/>
-      <c r="BC170" s="5"/>
-      <c r="BD170" s="5"/>
-    </row>
-    <row r="171" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="20"/>
+      <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11264,14 +11286,12 @@
       <c r="AZ171" s="5"/>
       <c r="BA171" s="5"/>
       <c r="BB171" s="5"/>
-      <c r="BC171" s="5"/>
-      <c r="BD171" s="5"/>
-    </row>
-    <row r="172" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="20"/>
+      <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11322,14 +11342,12 @@
       <c r="AZ172" s="5"/>
       <c r="BA172" s="5"/>
       <c r="BB172" s="5"/>
-      <c r="BC172" s="5"/>
-      <c r="BD172" s="5"/>
-    </row>
-    <row r="173" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="20"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11380,14 +11398,12 @@
       <c r="AZ173" s="5"/>
       <c r="BA173" s="5"/>
       <c r="BB173" s="5"/>
-      <c r="BC173" s="5"/>
-      <c r="BD173" s="5"/>
-    </row>
-    <row r="174" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="20"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11438,14 +11454,12 @@
       <c r="AZ174" s="5"/>
       <c r="BA174" s="5"/>
       <c r="BB174" s="5"/>
-      <c r="BC174" s="5"/>
-      <c r="BD174" s="5"/>
-    </row>
-    <row r="175" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="20"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11496,14 +11510,12 @@
       <c r="AZ175" s="5"/>
       <c r="BA175" s="5"/>
       <c r="BB175" s="5"/>
-      <c r="BC175" s="5"/>
-      <c r="BD175" s="5"/>
-    </row>
-    <row r="176" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="20"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -11554,14 +11566,12 @@
       <c r="AZ176" s="5"/>
       <c r="BA176" s="5"/>
       <c r="BB176" s="5"/>
-      <c r="BC176" s="5"/>
-      <c r="BD176" s="5"/>
-    </row>
-    <row r="177" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="20"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -11612,14 +11622,12 @@
       <c r="AZ177" s="5"/>
       <c r="BA177" s="5"/>
       <c r="BB177" s="5"/>
-      <c r="BC177" s="5"/>
-      <c r="BD177" s="5"/>
-    </row>
-    <row r="178" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="20"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -11670,14 +11678,12 @@
       <c r="AZ178" s="5"/>
       <c r="BA178" s="5"/>
       <c r="BB178" s="5"/>
-      <c r="BC178" s="5"/>
-      <c r="BD178" s="5"/>
-    </row>
-    <row r="179" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="20"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -11728,14 +11734,12 @@
       <c r="AZ179" s="5"/>
       <c r="BA179" s="5"/>
       <c r="BB179" s="5"/>
-      <c r="BC179" s="5"/>
-      <c r="BD179" s="5"/>
-    </row>
-    <row r="180" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="20"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -11786,14 +11790,12 @@
       <c r="AZ180" s="5"/>
       <c r="BA180" s="5"/>
       <c r="BB180" s="5"/>
-      <c r="BC180" s="5"/>
-      <c r="BD180" s="5"/>
-    </row>
-    <row r="181" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="20"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -11844,14 +11846,12 @@
       <c r="AZ181" s="5"/>
       <c r="BA181" s="5"/>
       <c r="BB181" s="5"/>
-      <c r="BC181" s="5"/>
-      <c r="BD181" s="5"/>
-    </row>
-    <row r="182" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="20"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -11902,14 +11902,12 @@
       <c r="AZ182" s="5"/>
       <c r="BA182" s="5"/>
       <c r="BB182" s="5"/>
-      <c r="BC182" s="5"/>
-      <c r="BD182" s="5"/>
-    </row>
-    <row r="183" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="20"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -11960,14 +11958,12 @@
       <c r="AZ183" s="5"/>
       <c r="BA183" s="5"/>
       <c r="BB183" s="5"/>
-      <c r="BC183" s="5"/>
-      <c r="BD183" s="5"/>
-    </row>
-    <row r="184" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="20"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -12018,14 +12014,12 @@
       <c r="AZ184" s="5"/>
       <c r="BA184" s="5"/>
       <c r="BB184" s="5"/>
-      <c r="BC184" s="5"/>
-      <c r="BD184" s="5"/>
-    </row>
-    <row r="185" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="20"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -12076,14 +12070,12 @@
       <c r="AZ185" s="5"/>
       <c r="BA185" s="5"/>
       <c r="BB185" s="5"/>
-      <c r="BC185" s="5"/>
-      <c r="BD185" s="5"/>
-    </row>
-    <row r="186" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="20"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -12134,14 +12126,12 @@
       <c r="AZ186" s="5"/>
       <c r="BA186" s="5"/>
       <c r="BB186" s="5"/>
-      <c r="BC186" s="5"/>
-      <c r="BD186" s="5"/>
-    </row>
-    <row r="187" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="20"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -12192,14 +12182,12 @@
       <c r="AZ187" s="5"/>
       <c r="BA187" s="5"/>
       <c r="BB187" s="5"/>
-      <c r="BC187" s="5"/>
-      <c r="BD187" s="5"/>
-    </row>
-    <row r="188" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="20"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -12250,14 +12238,12 @@
       <c r="AZ188" s="5"/>
       <c r="BA188" s="5"/>
       <c r="BB188" s="5"/>
-      <c r="BC188" s="5"/>
-      <c r="BD188" s="5"/>
-    </row>
-    <row r="189" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="20"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -12308,14 +12294,12 @@
       <c r="AZ189" s="5"/>
       <c r="BA189" s="5"/>
       <c r="BB189" s="5"/>
-      <c r="BC189" s="5"/>
-      <c r="BD189" s="5"/>
-    </row>
-    <row r="190" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="20"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -12366,14 +12350,12 @@
       <c r="AZ190" s="5"/>
       <c r="BA190" s="5"/>
       <c r="BB190" s="5"/>
-      <c r="BC190" s="5"/>
-      <c r="BD190" s="5"/>
-    </row>
-    <row r="191" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="20"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -12424,14 +12406,12 @@
       <c r="AZ191" s="5"/>
       <c r="BA191" s="5"/>
       <c r="BB191" s="5"/>
-      <c r="BC191" s="5"/>
-      <c r="BD191" s="5"/>
-    </row>
-    <row r="192" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="20"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -12482,14 +12462,12 @@
       <c r="AZ192" s="5"/>
       <c r="BA192" s="5"/>
       <c r="BB192" s="5"/>
-      <c r="BC192" s="5"/>
-      <c r="BD192" s="5"/>
-    </row>
-    <row r="193" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="20"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -12540,14 +12518,12 @@
       <c r="AZ193" s="5"/>
       <c r="BA193" s="5"/>
       <c r="BB193" s="5"/>
-      <c r="BC193" s="5"/>
-      <c r="BD193" s="5"/>
-    </row>
-    <row r="194" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="20"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -12598,14 +12574,12 @@
       <c r="AZ194" s="5"/>
       <c r="BA194" s="5"/>
       <c r="BB194" s="5"/>
-      <c r="BC194" s="5"/>
-      <c r="BD194" s="5"/>
-    </row>
-    <row r="195" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="20"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -12656,14 +12630,12 @@
       <c r="AZ195" s="5"/>
       <c r="BA195" s="5"/>
       <c r="BB195" s="5"/>
-      <c r="BC195" s="5"/>
-      <c r="BD195" s="5"/>
-    </row>
-    <row r="196" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="20"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -12714,14 +12686,12 @@
       <c r="AZ196" s="5"/>
       <c r="BA196" s="5"/>
       <c r="BB196" s="5"/>
-      <c r="BC196" s="5"/>
-      <c r="BD196" s="5"/>
-    </row>
-    <row r="197" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="20"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -12772,14 +12742,12 @@
       <c r="AZ197" s="5"/>
       <c r="BA197" s="5"/>
       <c r="BB197" s="5"/>
-      <c r="BC197" s="5"/>
-      <c r="BD197" s="5"/>
-    </row>
-    <row r="198" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="20"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -12830,14 +12798,12 @@
       <c r="AZ198" s="5"/>
       <c r="BA198" s="5"/>
       <c r="BB198" s="5"/>
-      <c r="BC198" s="5"/>
-      <c r="BD198" s="5"/>
-    </row>
-    <row r="199" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="20"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -12888,14 +12854,12 @@
       <c r="AZ199" s="5"/>
       <c r="BA199" s="5"/>
       <c r="BB199" s="5"/>
-      <c r="BC199" s="5"/>
-      <c r="BD199" s="5"/>
-    </row>
-    <row r="200" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="20"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -12946,14 +12910,12 @@
       <c r="AZ200" s="5"/>
       <c r="BA200" s="5"/>
       <c r="BB200" s="5"/>
-      <c r="BC200" s="5"/>
-      <c r="BD200" s="5"/>
-    </row>
-    <row r="201" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="20"/>
+      <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -13004,41 +12966,39 @@
       <c r="AZ201" s="5"/>
       <c r="BA201" s="5"/>
       <c r="BB201" s="5"/>
-      <c r="BC201" s="5"/>
-      <c r="BD201" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="AB1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="Z1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV201" xr:uid="{FE60CE3A-9D0E-4DF4-91F4-DD983435A854}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT201" xr:uid="{373AA404-6906-4E73-81D6-FFCD95BF5289}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201" xr:uid="{05AB7498-974A-4A4F-993F-D6714BD0ACAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q201" xr:uid="{CF5A5A24-B311-4BE2-A242-6DEDC22EA967}">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 V3:V201" xr:uid="{873B4566-4CAF-42A2-9EAB-FCDAC1E3547D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P201 R3:R201 T3:T201" xr:uid="{F15F12E1-7D7E-4FC1-A74B-02252B03B1F4}">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O201" xr:uid="{6FF96E3C-BF78-4B2E-833E-31A51F96A50A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201" xr:uid="{4365A4C0-83BA-4EF7-A991-369A5AB0177D}">
       <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201" xr:uid="{F4B38975-D6D7-4E0E-9F9E-CBA7EC19B9AE}">
-      <formula1>"A品,B品,C品,D品"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C201" xr:uid="{13EB5A10-B739-42A6-B849-D94093AD407B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C201" xr:uid="{1F19BFA7-1C87-4836-9211-DF92D1C093D3}">
       <formula1>"品采,辅采,OEM,服纺,鞋品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{3F110B24-1A24-4EEC-B793-B77948DDADA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{6AB5BC17-E151-4CFB-8761-C1DE1801EEDA}">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{A6435389-9D92-4636-AD69-E81F70960290}">
-      <formula1>"管理,不管理"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201" xr:uid="{3424601E-811B-4B5B-ABB7-FDA068FD62B6}">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{0D6CA914-4785-4837-9C9C-6B31935B7CB8}">
+      <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\新模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF362326-5E86-4EE0-B283-04264317A011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB2625-D76C-4DCE-B4FE-3BD5DF791D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1547,51 +1547,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.9140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.77734375" style="6"/>
+    <col min="55" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="8" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="8" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1879,7 +1879,7 @@
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1935,7 +1935,7 @@
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1991,7 +1991,7 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2047,7 +2047,7 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2103,7 +2103,7 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2159,7 +2159,7 @@
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2215,7 +2215,7 @@
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2271,7 +2271,7 @@
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2327,7 +2327,7 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2439,7 +2439,7 @@
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2495,7 +2495,7 @@
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2551,7 +2551,7 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2607,7 +2607,7 @@
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2663,7 +2663,7 @@
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2719,7 +2719,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="5"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2775,7 +2775,7 @@
       <c r="BA19" s="5"/>
       <c r="BB19" s="5"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2831,7 +2831,7 @@
       <c r="BA20" s="5"/>
       <c r="BB20" s="5"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2887,7 +2887,7 @@
       <c r="BA21" s="5"/>
       <c r="BB21" s="5"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2943,7 +2943,7 @@
       <c r="BA22" s="5"/>
       <c r="BB22" s="5"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2999,7 +2999,7 @@
       <c r="BA23" s="5"/>
       <c r="BB23" s="5"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3055,7 +3055,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="5"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3111,7 +3111,7 @@
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3167,7 +3167,7 @@
       <c r="BA26" s="5"/>
       <c r="BB26" s="5"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3223,7 +3223,7 @@
       <c r="BA27" s="5"/>
       <c r="BB27" s="5"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3279,7 +3279,7 @@
       <c r="BA28" s="5"/>
       <c r="BB28" s="5"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3335,7 +3335,7 @@
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3391,7 +3391,7 @@
       <c r="BA30" s="5"/>
       <c r="BB30" s="5"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3447,7 +3447,7 @@
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3503,7 +3503,7 @@
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3559,7 +3559,7 @@
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3615,7 +3615,7 @@
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3671,7 +3671,7 @@
       <c r="BA35" s="5"/>
       <c r="BB35" s="5"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3727,7 +3727,7 @@
       <c r="BA36" s="5"/>
       <c r="BB36" s="5"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3783,7 +3783,7 @@
       <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3839,7 +3839,7 @@
       <c r="BA38" s="5"/>
       <c r="BB38" s="5"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3895,7 +3895,7 @@
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3951,7 +3951,7 @@
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4007,7 +4007,7 @@
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4063,7 +4063,7 @@
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4119,7 +4119,7 @@
       <c r="BA43" s="5"/>
       <c r="BB43" s="5"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4175,7 +4175,7 @@
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4231,7 +4231,7 @@
       <c r="BA45" s="5"/>
       <c r="BB45" s="5"/>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4287,7 +4287,7 @@
       <c r="BA46" s="5"/>
       <c r="BB46" s="5"/>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4343,7 +4343,7 @@
       <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4399,7 +4399,7 @@
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4455,7 +4455,7 @@
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4511,7 +4511,7 @@
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4567,7 +4567,7 @@
       <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4623,7 +4623,7 @@
       <c r="BA52" s="5"/>
       <c r="BB52" s="5"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4679,7 +4679,7 @@
       <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4735,7 +4735,7 @@
       <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4791,7 +4791,7 @@
       <c r="BA55" s="5"/>
       <c r="BB55" s="5"/>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4847,7 +4847,7 @@
       <c r="BA56" s="5"/>
       <c r="BB56" s="5"/>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4903,7 +4903,7 @@
       <c r="BA57" s="5"/>
       <c r="BB57" s="5"/>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4959,7 +4959,7 @@
       <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5015,7 +5015,7 @@
       <c r="BA59" s="5"/>
       <c r="BB59" s="5"/>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5071,7 +5071,7 @@
       <c r="BA60" s="5"/>
       <c r="BB60" s="5"/>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5127,7 +5127,7 @@
       <c r="BA61" s="5"/>
       <c r="BB61" s="5"/>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5183,7 +5183,7 @@
       <c r="BA62" s="5"/>
       <c r="BB62" s="5"/>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5239,7 +5239,7 @@
       <c r="BA63" s="5"/>
       <c r="BB63" s="5"/>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5295,7 +5295,7 @@
       <c r="BA64" s="5"/>
       <c r="BB64" s="5"/>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5351,7 +5351,7 @@
       <c r="BA65" s="5"/>
       <c r="BB65" s="5"/>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5407,7 +5407,7 @@
       <c r="BA66" s="5"/>
       <c r="BB66" s="5"/>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5463,7 +5463,7 @@
       <c r="BA67" s="5"/>
       <c r="BB67" s="5"/>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5519,7 +5519,7 @@
       <c r="BA68" s="5"/>
       <c r="BB68" s="5"/>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5575,7 +5575,7 @@
       <c r="BA69" s="5"/>
       <c r="BB69" s="5"/>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5631,7 +5631,7 @@
       <c r="BA70" s="5"/>
       <c r="BB70" s="5"/>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5687,7 +5687,7 @@
       <c r="BA71" s="5"/>
       <c r="BB71" s="5"/>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5743,7 +5743,7 @@
       <c r="BA72" s="5"/>
       <c r="BB72" s="5"/>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5799,7 +5799,7 @@
       <c r="BA73" s="5"/>
       <c r="BB73" s="5"/>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5855,7 +5855,7 @@
       <c r="BA74" s="5"/>
       <c r="BB74" s="5"/>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5911,7 +5911,7 @@
       <c r="BA75" s="5"/>
       <c r="BB75" s="5"/>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5967,7 +5967,7 @@
       <c r="BA76" s="5"/>
       <c r="BB76" s="5"/>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6023,7 +6023,7 @@
       <c r="BA77" s="5"/>
       <c r="BB77" s="5"/>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6079,7 +6079,7 @@
       <c r="BA78" s="5"/>
       <c r="BB78" s="5"/>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6135,7 +6135,7 @@
       <c r="BA79" s="5"/>
       <c r="BB79" s="5"/>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6191,7 +6191,7 @@
       <c r="BA80" s="5"/>
       <c r="BB80" s="5"/>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -6247,7 +6247,7 @@
       <c r="BA81" s="5"/>
       <c r="BB81" s="5"/>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -6303,7 +6303,7 @@
       <c r="BA82" s="5"/>
       <c r="BB82" s="5"/>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -6359,7 +6359,7 @@
       <c r="BA83" s="5"/>
       <c r="BB83" s="5"/>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -6415,7 +6415,7 @@
       <c r="BA84" s="5"/>
       <c r="BB84" s="5"/>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -6471,7 +6471,7 @@
       <c r="BA85" s="5"/>
       <c r="BB85" s="5"/>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -6527,7 +6527,7 @@
       <c r="BA86" s="5"/>
       <c r="BB86" s="5"/>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -6583,7 +6583,7 @@
       <c r="BA87" s="5"/>
       <c r="BB87" s="5"/>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -6639,7 +6639,7 @@
       <c r="BA88" s="5"/>
       <c r="BB88" s="5"/>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -6695,7 +6695,7 @@
       <c r="BA89" s="5"/>
       <c r="BB89" s="5"/>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -6751,7 +6751,7 @@
       <c r="BA90" s="5"/>
       <c r="BB90" s="5"/>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -6807,7 +6807,7 @@
       <c r="BA91" s="5"/>
       <c r="BB91" s="5"/>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -6863,7 +6863,7 @@
       <c r="BA92" s="5"/>
       <c r="BB92" s="5"/>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -6919,7 +6919,7 @@
       <c r="BA93" s="5"/>
       <c r="BB93" s="5"/>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -6975,7 +6975,7 @@
       <c r="BA94" s="5"/>
       <c r="BB94" s="5"/>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -7031,7 +7031,7 @@
       <c r="BA95" s="5"/>
       <c r="BB95" s="5"/>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7087,7 +7087,7 @@
       <c r="BA96" s="5"/>
       <c r="BB96" s="5"/>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -7143,7 +7143,7 @@
       <c r="BA97" s="5"/>
       <c r="BB97" s="5"/>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -7199,7 +7199,7 @@
       <c r="BA98" s="5"/>
       <c r="BB98" s="5"/>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -7255,7 +7255,7 @@
       <c r="BA99" s="5"/>
       <c r="BB99" s="5"/>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -7311,7 +7311,7 @@
       <c r="BA100" s="5"/>
       <c r="BB100" s="5"/>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -7367,7 +7367,7 @@
       <c r="BA101" s="5"/>
       <c r="BB101" s="5"/>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -7423,7 +7423,7 @@
       <c r="BA102" s="5"/>
       <c r="BB102" s="5"/>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -7479,7 +7479,7 @@
       <c r="BA103" s="5"/>
       <c r="BB103" s="5"/>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -7535,7 +7535,7 @@
       <c r="BA104" s="5"/>
       <c r="BB104" s="5"/>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -7591,7 +7591,7 @@
       <c r="BA105" s="5"/>
       <c r="BB105" s="5"/>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -7647,7 +7647,7 @@
       <c r="BA106" s="5"/>
       <c r="BB106" s="5"/>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -7703,7 +7703,7 @@
       <c r="BA107" s="5"/>
       <c r="BB107" s="5"/>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -7759,7 +7759,7 @@
       <c r="BA108" s="5"/>
       <c r="BB108" s="5"/>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -7815,7 +7815,7 @@
       <c r="BA109" s="5"/>
       <c r="BB109" s="5"/>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -7871,7 +7871,7 @@
       <c r="BA110" s="5"/>
       <c r="BB110" s="5"/>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -7927,7 +7927,7 @@
       <c r="BA111" s="5"/>
       <c r="BB111" s="5"/>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -7983,7 +7983,7 @@
       <c r="BA112" s="5"/>
       <c r="BB112" s="5"/>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -8039,7 +8039,7 @@
       <c r="BA113" s="5"/>
       <c r="BB113" s="5"/>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -8095,7 +8095,7 @@
       <c r="BA114" s="5"/>
       <c r="BB114" s="5"/>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -8151,7 +8151,7 @@
       <c r="BA115" s="5"/>
       <c r="BB115" s="5"/>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -8207,7 +8207,7 @@
       <c r="BA116" s="5"/>
       <c r="BB116" s="5"/>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -8263,7 +8263,7 @@
       <c r="BA117" s="5"/>
       <c r="BB117" s="5"/>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -8319,7 +8319,7 @@
       <c r="BA118" s="5"/>
       <c r="BB118" s="5"/>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -8375,7 +8375,7 @@
       <c r="BA119" s="5"/>
       <c r="BB119" s="5"/>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -8431,7 +8431,7 @@
       <c r="BA120" s="5"/>
       <c r="BB120" s="5"/>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -8487,7 +8487,7 @@
       <c r="BA121" s="5"/>
       <c r="BB121" s="5"/>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -8543,7 +8543,7 @@
       <c r="BA122" s="5"/>
       <c r="BB122" s="5"/>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -8599,7 +8599,7 @@
       <c r="BA123" s="5"/>
       <c r="BB123" s="5"/>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -8655,7 +8655,7 @@
       <c r="BA124" s="5"/>
       <c r="BB124" s="5"/>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -8711,7 +8711,7 @@
       <c r="BA125" s="5"/>
       <c r="BB125" s="5"/>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -8767,7 +8767,7 @@
       <c r="BA126" s="5"/>
       <c r="BB126" s="5"/>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -8823,7 +8823,7 @@
       <c r="BA127" s="5"/>
       <c r="BB127" s="5"/>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -8879,7 +8879,7 @@
       <c r="BA128" s="5"/>
       <c r="BB128" s="5"/>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -8935,7 +8935,7 @@
       <c r="BA129" s="5"/>
       <c r="BB129" s="5"/>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -8991,7 +8991,7 @@
       <c r="BA130" s="5"/>
       <c r="BB130" s="5"/>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9047,7 +9047,7 @@
       <c r="BA131" s="5"/>
       <c r="BB131" s="5"/>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -9103,7 +9103,7 @@
       <c r="BA132" s="5"/>
       <c r="BB132" s="5"/>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -9159,7 +9159,7 @@
       <c r="BA133" s="5"/>
       <c r="BB133" s="5"/>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -9215,7 +9215,7 @@
       <c r="BA134" s="5"/>
       <c r="BB134" s="5"/>
     </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -9271,7 +9271,7 @@
       <c r="BA135" s="5"/>
       <c r="BB135" s="5"/>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9327,7 +9327,7 @@
       <c r="BA136" s="5"/>
       <c r="BB136" s="5"/>
     </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -9383,7 +9383,7 @@
       <c r="BA137" s="5"/>
       <c r="BB137" s="5"/>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -9439,7 +9439,7 @@
       <c r="BA138" s="5"/>
       <c r="BB138" s="5"/>
     </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -9495,7 +9495,7 @@
       <c r="BA139" s="5"/>
       <c r="BB139" s="5"/>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -9551,7 +9551,7 @@
       <c r="BA140" s="5"/>
       <c r="BB140" s="5"/>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -9607,7 +9607,7 @@
       <c r="BA141" s="5"/>
       <c r="BB141" s="5"/>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -9663,7 +9663,7 @@
       <c r="BA142" s="5"/>
       <c r="BB142" s="5"/>
     </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -9719,7 +9719,7 @@
       <c r="BA143" s="5"/>
       <c r="BB143" s="5"/>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -9775,7 +9775,7 @@
       <c r="BA144" s="5"/>
       <c r="BB144" s="5"/>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -9831,7 +9831,7 @@
       <c r="BA145" s="5"/>
       <c r="BB145" s="5"/>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -9887,7 +9887,7 @@
       <c r="BA146" s="5"/>
       <c r="BB146" s="5"/>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -9943,7 +9943,7 @@
       <c r="BA147" s="5"/>
       <c r="BB147" s="5"/>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -9999,7 +9999,7 @@
       <c r="BA148" s="5"/>
       <c r="BB148" s="5"/>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -10055,7 +10055,7 @@
       <c r="BA149" s="5"/>
       <c r="BB149" s="5"/>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10111,7 +10111,7 @@
       <c r="BA150" s="5"/>
       <c r="BB150" s="5"/>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -10167,7 +10167,7 @@
       <c r="BA151" s="5"/>
       <c r="BB151" s="5"/>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -10223,7 +10223,7 @@
       <c r="BA152" s="5"/>
       <c r="BB152" s="5"/>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -10279,7 +10279,7 @@
       <c r="BA153" s="5"/>
       <c r="BB153" s="5"/>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -10335,7 +10335,7 @@
       <c r="BA154" s="5"/>
       <c r="BB154" s="5"/>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -10391,7 +10391,7 @@
       <c r="BA155" s="5"/>
       <c r="BB155" s="5"/>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -10447,7 +10447,7 @@
       <c r="BA156" s="5"/>
       <c r="BB156" s="5"/>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -10503,7 +10503,7 @@
       <c r="BA157" s="5"/>
       <c r="BB157" s="5"/>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -10559,7 +10559,7 @@
       <c r="BA158" s="5"/>
       <c r="BB158" s="5"/>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -10615,7 +10615,7 @@
       <c r="BA159" s="5"/>
       <c r="BB159" s="5"/>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -10671,7 +10671,7 @@
       <c r="BA160" s="5"/>
       <c r="BB160" s="5"/>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -10727,7 +10727,7 @@
       <c r="BA161" s="5"/>
       <c r="BB161" s="5"/>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -10783,7 +10783,7 @@
       <c r="BA162" s="5"/>
       <c r="BB162" s="5"/>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -10839,7 +10839,7 @@
       <c r="BA163" s="5"/>
       <c r="BB163" s="5"/>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -10895,7 +10895,7 @@
       <c r="BA164" s="5"/>
       <c r="BB164" s="5"/>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -10951,7 +10951,7 @@
       <c r="BA165" s="5"/>
       <c r="BB165" s="5"/>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -11007,7 +11007,7 @@
       <c r="BA166" s="5"/>
       <c r="BB166" s="5"/>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -11063,7 +11063,7 @@
       <c r="BA167" s="5"/>
       <c r="BB167" s="5"/>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -11119,7 +11119,7 @@
       <c r="BA168" s="5"/>
       <c r="BB168" s="5"/>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -11175,7 +11175,7 @@
       <c r="BA169" s="5"/>
       <c r="BB169" s="5"/>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -11231,7 +11231,7 @@
       <c r="BA170" s="5"/>
       <c r="BB170" s="5"/>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -11287,7 +11287,7 @@
       <c r="BA171" s="5"/>
       <c r="BB171" s="5"/>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -11343,7 +11343,7 @@
       <c r="BA172" s="5"/>
       <c r="BB172" s="5"/>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -11399,7 +11399,7 @@
       <c r="BA173" s="5"/>
       <c r="BB173" s="5"/>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -11455,7 +11455,7 @@
       <c r="BA174" s="5"/>
       <c r="BB174" s="5"/>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -11511,7 +11511,7 @@
       <c r="BA175" s="5"/>
       <c r="BB175" s="5"/>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -11567,7 +11567,7 @@
       <c r="BA176" s="5"/>
       <c r="BB176" s="5"/>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -11623,7 +11623,7 @@
       <c r="BA177" s="5"/>
       <c r="BB177" s="5"/>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -11679,7 +11679,7 @@
       <c r="BA178" s="5"/>
       <c r="BB178" s="5"/>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -11735,7 +11735,7 @@
       <c r="BA179" s="5"/>
       <c r="BB179" s="5"/>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -11791,7 +11791,7 @@
       <c r="BA180" s="5"/>
       <c r="BB180" s="5"/>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -11847,7 +11847,7 @@
       <c r="BA181" s="5"/>
       <c r="BB181" s="5"/>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -11903,7 +11903,7 @@
       <c r="BA182" s="5"/>
       <c r="BB182" s="5"/>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -11959,7 +11959,7 @@
       <c r="BA183" s="5"/>
       <c r="BB183" s="5"/>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -12015,7 +12015,7 @@
       <c r="BA184" s="5"/>
       <c r="BB184" s="5"/>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -12071,7 +12071,7 @@
       <c r="BA185" s="5"/>
       <c r="BB185" s="5"/>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -12127,7 +12127,7 @@
       <c r="BA186" s="5"/>
       <c r="BB186" s="5"/>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -12183,7 +12183,7 @@
       <c r="BA187" s="5"/>
       <c r="BB187" s="5"/>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -12239,7 +12239,7 @@
       <c r="BA188" s="5"/>
       <c r="BB188" s="5"/>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -12295,7 +12295,7 @@
       <c r="BA189" s="5"/>
       <c r="BB189" s="5"/>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -12351,7 +12351,7 @@
       <c r="BA190" s="5"/>
       <c r="BB190" s="5"/>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -12407,7 +12407,7 @@
       <c r="BA191" s="5"/>
       <c r="BB191" s="5"/>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -12463,7 +12463,7 @@
       <c r="BA192" s="5"/>
       <c r="BB192" s="5"/>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -12519,7 +12519,7 @@
       <c r="BA193" s="5"/>
       <c r="BB193" s="5"/>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -12575,7 +12575,7 @@
       <c r="BA194" s="5"/>
       <c r="BB194" s="5"/>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -12631,7 +12631,7 @@
       <c r="BA195" s="5"/>
       <c r="BB195" s="5"/>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -12687,7 +12687,7 @@
       <c r="BA196" s="5"/>
       <c r="BB196" s="5"/>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -12743,7 +12743,7 @@
       <c r="BA197" s="5"/>
       <c r="BB197" s="5"/>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -12799,7 +12799,7 @@
       <c r="BA198" s="5"/>
       <c r="BB198" s="5"/>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -12855,7 +12855,7 @@
       <c r="BA199" s="5"/>
       <c r="BB199" s="5"/>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -12911,7 +12911,7 @@
       <c r="BA200" s="5"/>
       <c r="BB200" s="5"/>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -12994,11 +12994,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{6AB5BC17-E151-4CFB-8761-C1DE1801EEDA}">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201" xr:uid="{3424601E-811B-4B5B-ABB7-FDA068FD62B6}">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{0D6CA914-4785-4837-9C9C-6B31935B7CB8}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201" xr:uid="{94F0B553-DE2B-4B07-8AB3-D8D904AD3389}">
+      <formula1>"18A,A品,B品,C品,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -46,46 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,90 +91,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>填写示例：
-爱亲科技</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>爱亲母婴</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>萌贝树</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">小红马
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>值与值之间用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>英文逗号隔开</t>
+          <t>单选下拉框</t>
         </r>
       </text>
     </comment>
@@ -226,21 +107,24 @@
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">填写示例：
-新品,爱亲主推
-</t>
+          <t>单选下拉框</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t>值与值之间用 英文逗号隔开</t>
+          <t>单选下拉框</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="1">
+    <comment ref="AE2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -253,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="1">
+    <comment ref="AF2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -275,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="1">
+    <comment ref="AG2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -288,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="1">
+    <comment ref="AH2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -307,80 +191,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">采购的规格
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>采购的单位</t>
         </r>
       </text>
     </comment>
@@ -417,15 +227,6 @@
           </rPr>
           <t>只填数字</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
     <comment ref="AK2" authorId="1">
@@ -442,6 +243,32 @@
       </text>
     </comment>
     <comment ref="AL2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">采购的规格
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>采购的单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -463,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1">
+    <comment ref="AO2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -485,7 +312,64 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1">
+    <comment ref="AP2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -498,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1">
+    <comment ref="AU2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -520,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0">
+    <comment ref="AY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1">
+    <comment ref="AZ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -555,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1">
+    <comment ref="BA2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -568,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1">
+    <comment ref="BB2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -590,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1">
+    <comment ref="BC2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -617,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>基本信息</t>
   </si>
@@ -655,7 +539,22 @@
     <t>SKU简称</t>
   </si>
   <si>
+    <t>SKU助记码</t>
+  </si>
+  <si>
     <t>所属SPU</t>
+  </si>
+  <si>
+    <t>SPU简称</t>
+  </si>
+  <si>
+    <t>SPU助记码</t>
+  </si>
+  <si>
+    <t>款号</t>
+  </si>
+  <si>
+    <t>货号</t>
   </si>
   <si>
     <t>品牌</t>
@@ -676,9 +575,6 @@
     <t>供货渠道类别</t>
   </si>
   <si>
-    <t>助记码</t>
-  </si>
-  <si>
     <t>适用起始月龄</t>
   </si>
   <si>
@@ -694,16 +590,19 @@
     <t>使用时长</t>
   </si>
   <si>
+    <t>季节</t>
+  </si>
+  <si>
     <t>唯一码管理</t>
   </si>
   <si>
-    <t>覆盖渠道</t>
+    <t>等级</t>
   </si>
   <si>
-    <t>商品标签</t>
+    <t>特征</t>
   </si>
   <si>
-    <t>商品备注</t>
+    <t>通货等级</t>
   </si>
   <si>
     <t>商品介绍</t>
@@ -787,7 +686,7 @@
     <t>物流费奖励比例</t>
   </si>
   <si>
-    <t>生产厂家编号</t>
+    <t>生产厂家SKU编号</t>
   </si>
   <si>
     <t>保修地址</t>
@@ -802,11 +701,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,69 +744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,9 +759,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,8 +795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +812,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,48 +872,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1025,7 +905,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,13 +956,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,31 +1004,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,37 +1100,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,108 +1124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1320,21 +1176,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1361,8 +1202,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,6 +1232,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1406,17 +1262,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,175 +1296,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,40 +1464,31 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,13 +1497,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,53 +1822,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB201"/>
+  <dimension ref="A1:BG201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.41666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.9166666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.41666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.33333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="3" customWidth="1"/>
-    <col min="10" max="11" width="5.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="3" customWidth="1"/>
-    <col min="15" max="16" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.75" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.33333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.4166666666667" style="3" customWidth="1"/>
+    <col min="11" max="12" width="9.33333333333333" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="3" customWidth="1"/>
+    <col min="15" max="16" width="5.75" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.75" style="3" customWidth="1"/>
-    <col min="21" max="24" width="9.75" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.75" style="3" customWidth="1"/>
-    <col min="26" max="27" width="9.75" style="3" customWidth="1"/>
-    <col min="28" max="30" width="13" style="3" customWidth="1"/>
-    <col min="31" max="32" width="14" style="3" customWidth="1"/>
-    <col min="33" max="34" width="9.75" style="3" customWidth="1"/>
-    <col min="35" max="37" width="13" style="3" customWidth="1"/>
-    <col min="38" max="39" width="14" style="3" customWidth="1"/>
-    <col min="40" max="40" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="41" max="41" width="11.75" style="3" customWidth="1"/>
-    <col min="42" max="43" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="44" max="44" width="11.75" style="3" customWidth="1"/>
-    <col min="45" max="49" width="9.75" style="3" customWidth="1"/>
-    <col min="50" max="50" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="51" max="51" width="9.75" style="3" customWidth="1"/>
-    <col min="52" max="52" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="53" max="53" width="9.75" style="3" customWidth="1"/>
-    <col min="54" max="54" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="55" max="16384" width="8.75" style="3"/>
+    <col min="18" max="20" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.75" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="23" max="24" width="9.75" style="3" customWidth="1"/>
+    <col min="25" max="28" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9.75" style="3" customWidth="1"/>
+    <col min="30" max="30" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="31" max="32" width="9.75" style="3" customWidth="1"/>
+    <col min="33" max="35" width="13" style="3" customWidth="1"/>
+    <col min="36" max="37" width="14" style="3" customWidth="1"/>
+    <col min="38" max="39" width="9.75" style="3" customWidth="1"/>
+    <col min="40" max="42" width="13" style="3" customWidth="1"/>
+    <col min="43" max="44" width="14" style="3" customWidth="1"/>
+    <col min="45" max="45" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="46" max="46" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="47" max="48" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="49" max="49" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="50" max="54" width="9.75" style="3" customWidth="1"/>
+    <col min="55" max="55" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="56" max="56" width="9.75" style="3" customWidth="1"/>
+    <col min="57" max="57" width="18.25" style="3" customWidth="1"/>
+    <col min="58" max="58" width="9.75" style="3" customWidth="1"/>
+    <col min="59" max="59" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="60" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:54">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:59">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2065,213 +1894,233 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="13" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AE1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="22" t="s">
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="20" t="s">
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:54">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:59">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AO2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AR2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="21" t="s">
+      <c r="AT2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AU2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AV2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AW2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="AX2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AY2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="18" t="s">
-        <v>56</v>
+      <c r="BE2" s="14" t="s">
+        <v>61</v>
       </c>
-      <c r="BA2" s="18" t="s">
-        <v>57</v>
+      <c r="BF2" s="14" t="s">
+        <v>62</v>
       </c>
-      <c r="BB2" s="23" t="s">
-        <v>58</v>
+      <c r="BG2" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" s="3" customFormat="1" spans="1:59">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2326,8 +2175,13 @@
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8"/>
-    </row>
-    <row r="4" spans="1:54">
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:59">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2382,8 +2236,13 @@
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-    </row>
-    <row r="5" spans="1:54">
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:59">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2438,8 +2297,13 @@
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
-    </row>
-    <row r="6" spans="1:54">
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:59">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2494,8 +2358,13 @@
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
-    </row>
-    <row r="7" spans="1:54">
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:59">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2550,8 +2419,13 @@
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
-    </row>
-    <row r="8" spans="1:54">
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:59">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2606,8 +2480,13 @@
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
-    </row>
-    <row r="9" spans="1:54">
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:59">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2662,8 +2541,13 @@
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8"/>
-    </row>
-    <row r="10" spans="1:54">
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:59">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2718,8 +2602,13 @@
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
       <c r="BB10" s="8"/>
-    </row>
-    <row r="11" spans="1:54">
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:59">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2774,8 +2663,13 @@
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
-    </row>
-    <row r="12" spans="1:54">
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:59">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2830,8 +2724,13 @@
       <c r="AZ12" s="8"/>
       <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
-    </row>
-    <row r="13" spans="1:54">
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:59">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2886,8 +2785,13 @@
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
-    </row>
-    <row r="14" spans="1:54">
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:59">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2942,8 +2846,13 @@
       <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
-    </row>
-    <row r="15" spans="1:54">
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:59">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2998,8 +2907,13 @@
       <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
-    </row>
-    <row r="16" spans="1:54">
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:59">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3054,8 +2968,13 @@
       <c r="AZ16" s="8"/>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
-    </row>
-    <row r="17" spans="1:54">
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:59">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3110,8 +3029,13 @@
       <c r="AZ17" s="8"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
-    </row>
-    <row r="18" spans="1:54">
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:59">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3166,8 +3090,13 @@
       <c r="AZ18" s="8"/>
       <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
-    </row>
-    <row r="19" spans="1:54">
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:59">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3222,8 +3151,13 @@
       <c r="AZ19" s="8"/>
       <c r="BA19" s="8"/>
       <c r="BB19" s="8"/>
-    </row>
-    <row r="20" spans="1:54">
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:59">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3278,8 +3212,13 @@
       <c r="AZ20" s="8"/>
       <c r="BA20" s="8"/>
       <c r="BB20" s="8"/>
-    </row>
-    <row r="21" spans="1:54">
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="8"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:59">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3334,8 +3273,13 @@
       <c r="AZ21" s="8"/>
       <c r="BA21" s="8"/>
       <c r="BB21" s="8"/>
-    </row>
-    <row r="22" spans="1:54">
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:59">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3390,8 +3334,13 @@
       <c r="AZ22" s="8"/>
       <c r="BA22" s="8"/>
       <c r="BB22" s="8"/>
-    </row>
-    <row r="23" spans="1:54">
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:59">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3446,8 +3395,13 @@
       <c r="AZ23" s="8"/>
       <c r="BA23" s="8"/>
       <c r="BB23" s="8"/>
-    </row>
-    <row r="24" spans="1:54">
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:59">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3502,8 +3456,13 @@
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
-    </row>
-    <row r="25" spans="1:54">
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:59">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3558,8 +3517,13 @@
       <c r="AZ25" s="8"/>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
-    </row>
-    <row r="26" spans="1:54">
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:59">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3614,8 +3578,13 @@
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
       <c r="BB26" s="8"/>
-    </row>
-    <row r="27" spans="1:54">
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:59">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3670,8 +3639,13 @@
       <c r="AZ27" s="8"/>
       <c r="BA27" s="8"/>
       <c r="BB27" s="8"/>
-    </row>
-    <row r="28" spans="1:54">
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:59">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3726,8 +3700,13 @@
       <c r="AZ28" s="8"/>
       <c r="BA28" s="8"/>
       <c r="BB28" s="8"/>
-    </row>
-    <row r="29" spans="1:54">
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:59">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3782,8 +3761,13 @@
       <c r="AZ29" s="8"/>
       <c r="BA29" s="8"/>
       <c r="BB29" s="8"/>
-    </row>
-    <row r="30" spans="1:54">
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:59">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3838,8 +3822,13 @@
       <c r="AZ30" s="8"/>
       <c r="BA30" s="8"/>
       <c r="BB30" s="8"/>
-    </row>
-    <row r="31" spans="1:54">
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:59">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3894,8 +3883,13 @@
       <c r="AZ31" s="8"/>
       <c r="BA31" s="8"/>
       <c r="BB31" s="8"/>
-    </row>
-    <row r="32" spans="1:54">
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:59">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3950,8 +3944,13 @@
       <c r="AZ32" s="8"/>
       <c r="BA32" s="8"/>
       <c r="BB32" s="8"/>
-    </row>
-    <row r="33" spans="1:54">
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:59">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4006,8 +4005,13 @@
       <c r="AZ33" s="8"/>
       <c r="BA33" s="8"/>
       <c r="BB33" s="8"/>
-    </row>
-    <row r="34" spans="1:54">
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:59">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4062,8 +4066,13 @@
       <c r="AZ34" s="8"/>
       <c r="BA34" s="8"/>
       <c r="BB34" s="8"/>
-    </row>
-    <row r="35" spans="1:54">
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="8"/>
+      <c r="BG34" s="8"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:59">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4118,8 +4127,13 @@
       <c r="AZ35" s="8"/>
       <c r="BA35" s="8"/>
       <c r="BB35" s="8"/>
-    </row>
-    <row r="36" spans="1:54">
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:59">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4174,8 +4188,13 @@
       <c r="AZ36" s="8"/>
       <c r="BA36" s="8"/>
       <c r="BB36" s="8"/>
-    </row>
-    <row r="37" spans="1:54">
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="8"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:59">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4230,8 +4249,13 @@
       <c r="AZ37" s="8"/>
       <c r="BA37" s="8"/>
       <c r="BB37" s="8"/>
-    </row>
-    <row r="38" spans="1:54">
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:59">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4286,8 +4310,13 @@
       <c r="AZ38" s="8"/>
       <c r="BA38" s="8"/>
       <c r="BB38" s="8"/>
-    </row>
-    <row r="39" spans="1:54">
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:59">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4342,8 +4371,13 @@
       <c r="AZ39" s="8"/>
       <c r="BA39" s="8"/>
       <c r="BB39" s="8"/>
-    </row>
-    <row r="40" spans="1:54">
+      <c r="BC39" s="8"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="8"/>
+      <c r="BF39" s="8"/>
+      <c r="BG39" s="8"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:59">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4398,8 +4432,13 @@
       <c r="AZ40" s="8"/>
       <c r="BA40" s="8"/>
       <c r="BB40" s="8"/>
-    </row>
-    <row r="41" spans="1:54">
+      <c r="BC40" s="8"/>
+      <c r="BD40" s="8"/>
+      <c r="BE40" s="8"/>
+      <c r="BF40" s="8"/>
+      <c r="BG40" s="8"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:59">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4454,8 +4493,13 @@
       <c r="AZ41" s="8"/>
       <c r="BA41" s="8"/>
       <c r="BB41" s="8"/>
-    </row>
-    <row r="42" spans="1:54">
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:59">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4510,8 +4554,13 @@
       <c r="AZ42" s="8"/>
       <c r="BA42" s="8"/>
       <c r="BB42" s="8"/>
-    </row>
-    <row r="43" spans="1:54">
+      <c r="BC42" s="8"/>
+      <c r="BD42" s="8"/>
+      <c r="BE42" s="8"/>
+      <c r="BF42" s="8"/>
+      <c r="BG42" s="8"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:59">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4566,8 +4615,13 @@
       <c r="AZ43" s="8"/>
       <c r="BA43" s="8"/>
       <c r="BB43" s="8"/>
-    </row>
-    <row r="44" spans="1:54">
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:59">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4622,8 +4676,13 @@
       <c r="AZ44" s="8"/>
       <c r="BA44" s="8"/>
       <c r="BB44" s="8"/>
-    </row>
-    <row r="45" spans="1:54">
+      <c r="BC44" s="8"/>
+      <c r="BD44" s="8"/>
+      <c r="BE44" s="8"/>
+      <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:59">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4678,8 +4737,13 @@
       <c r="AZ45" s="8"/>
       <c r="BA45" s="8"/>
       <c r="BB45" s="8"/>
-    </row>
-    <row r="46" spans="1:54">
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8"/>
+      <c r="BF45" s="8"/>
+      <c r="BG45" s="8"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:59">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4734,8 +4798,13 @@
       <c r="AZ46" s="8"/>
       <c r="BA46" s="8"/>
       <c r="BB46" s="8"/>
-    </row>
-    <row r="47" spans="1:54">
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:59">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4790,8 +4859,13 @@
       <c r="AZ47" s="8"/>
       <c r="BA47" s="8"/>
       <c r="BB47" s="8"/>
-    </row>
-    <row r="48" spans="1:54">
+      <c r="BC47" s="8"/>
+      <c r="BD47" s="8"/>
+      <c r="BE47" s="8"/>
+      <c r="BF47" s="8"/>
+      <c r="BG47" s="8"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:59">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4846,8 +4920,13 @@
       <c r="AZ48" s="8"/>
       <c r="BA48" s="8"/>
       <c r="BB48" s="8"/>
-    </row>
-    <row r="49" spans="1:54">
+      <c r="BC48" s="8"/>
+      <c r="BD48" s="8"/>
+      <c r="BE48" s="8"/>
+      <c r="BF48" s="8"/>
+      <c r="BG48" s="8"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:59">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4902,8 +4981,13 @@
       <c r="AZ49" s="8"/>
       <c r="BA49" s="8"/>
       <c r="BB49" s="8"/>
-    </row>
-    <row r="50" spans="1:54">
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:59">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4958,8 +5042,13 @@
       <c r="AZ50" s="8"/>
       <c r="BA50" s="8"/>
       <c r="BB50" s="8"/>
-    </row>
-    <row r="51" spans="1:54">
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:59">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5014,8 +5103,13 @@
       <c r="AZ51" s="8"/>
       <c r="BA51" s="8"/>
       <c r="BB51" s="8"/>
-    </row>
-    <row r="52" spans="1:54">
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:59">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5070,8 +5164,13 @@
       <c r="AZ52" s="8"/>
       <c r="BA52" s="8"/>
       <c r="BB52" s="8"/>
-    </row>
-    <row r="53" spans="1:54">
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:59">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5126,8 +5225,13 @@
       <c r="AZ53" s="8"/>
       <c r="BA53" s="8"/>
       <c r="BB53" s="8"/>
-    </row>
-    <row r="54" spans="1:54">
+      <c r="BC53" s="8"/>
+      <c r="BD53" s="8"/>
+      <c r="BE53" s="8"/>
+      <c r="BF53" s="8"/>
+      <c r="BG53" s="8"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:59">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5182,8 +5286,13 @@
       <c r="AZ54" s="8"/>
       <c r="BA54" s="8"/>
       <c r="BB54" s="8"/>
-    </row>
-    <row r="55" spans="1:54">
+      <c r="BC54" s="8"/>
+      <c r="BD54" s="8"/>
+      <c r="BE54" s="8"/>
+      <c r="BF54" s="8"/>
+      <c r="BG54" s="8"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:59">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5238,8 +5347,13 @@
       <c r="AZ55" s="8"/>
       <c r="BA55" s="8"/>
       <c r="BB55" s="8"/>
-    </row>
-    <row r="56" spans="1:54">
+      <c r="BC55" s="8"/>
+      <c r="BD55" s="8"/>
+      <c r="BE55" s="8"/>
+      <c r="BF55" s="8"/>
+      <c r="BG55" s="8"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:59">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5294,8 +5408,13 @@
       <c r="AZ56" s="8"/>
       <c r="BA56" s="8"/>
       <c r="BB56" s="8"/>
-    </row>
-    <row r="57" spans="1:54">
+      <c r="BC56" s="8"/>
+      <c r="BD56" s="8"/>
+      <c r="BE56" s="8"/>
+      <c r="BF56" s="8"/>
+      <c r="BG56" s="8"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:59">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5350,8 +5469,13 @@
       <c r="AZ57" s="8"/>
       <c r="BA57" s="8"/>
       <c r="BB57" s="8"/>
-    </row>
-    <row r="58" spans="1:54">
+      <c r="BC57" s="8"/>
+      <c r="BD57" s="8"/>
+      <c r="BE57" s="8"/>
+      <c r="BF57" s="8"/>
+      <c r="BG57" s="8"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:59">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5406,8 +5530,13 @@
       <c r="AZ58" s="8"/>
       <c r="BA58" s="8"/>
       <c r="BB58" s="8"/>
-    </row>
-    <row r="59" spans="1:54">
+      <c r="BC58" s="8"/>
+      <c r="BD58" s="8"/>
+      <c r="BE58" s="8"/>
+      <c r="BF58" s="8"/>
+      <c r="BG58" s="8"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:59">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5462,8 +5591,13 @@
       <c r="AZ59" s="8"/>
       <c r="BA59" s="8"/>
       <c r="BB59" s="8"/>
-    </row>
-    <row r="60" spans="1:54">
+      <c r="BC59" s="8"/>
+      <c r="BD59" s="8"/>
+      <c r="BE59" s="8"/>
+      <c r="BF59" s="8"/>
+      <c r="BG59" s="8"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:59">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5518,8 +5652,13 @@
       <c r="AZ60" s="8"/>
       <c r="BA60" s="8"/>
       <c r="BB60" s="8"/>
-    </row>
-    <row r="61" spans="1:54">
+      <c r="BC60" s="8"/>
+      <c r="BD60" s="8"/>
+      <c r="BE60" s="8"/>
+      <c r="BF60" s="8"/>
+      <c r="BG60" s="8"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:59">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5574,8 +5713,13 @@
       <c r="AZ61" s="8"/>
       <c r="BA61" s="8"/>
       <c r="BB61" s="8"/>
-    </row>
-    <row r="62" spans="1:54">
+      <c r="BC61" s="8"/>
+      <c r="BD61" s="8"/>
+      <c r="BE61" s="8"/>
+      <c r="BF61" s="8"/>
+      <c r="BG61" s="8"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:59">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5630,8 +5774,13 @@
       <c r="AZ62" s="8"/>
       <c r="BA62" s="8"/>
       <c r="BB62" s="8"/>
-    </row>
-    <row r="63" spans="1:54">
+      <c r="BC62" s="8"/>
+      <c r="BD62" s="8"/>
+      <c r="BE62" s="8"/>
+      <c r="BF62" s="8"/>
+      <c r="BG62" s="8"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:59">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5686,8 +5835,13 @@
       <c r="AZ63" s="8"/>
       <c r="BA63" s="8"/>
       <c r="BB63" s="8"/>
-    </row>
-    <row r="64" spans="1:54">
+      <c r="BC63" s="8"/>
+      <c r="BD63" s="8"/>
+      <c r="BE63" s="8"/>
+      <c r="BF63" s="8"/>
+      <c r="BG63" s="8"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:59">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5742,8 +5896,13 @@
       <c r="AZ64" s="8"/>
       <c r="BA64" s="8"/>
       <c r="BB64" s="8"/>
-    </row>
-    <row r="65" spans="1:54">
+      <c r="BC64" s="8"/>
+      <c r="BD64" s="8"/>
+      <c r="BE64" s="8"/>
+      <c r="BF64" s="8"/>
+      <c r="BG64" s="8"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:59">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5798,8 +5957,13 @@
       <c r="AZ65" s="8"/>
       <c r="BA65" s="8"/>
       <c r="BB65" s="8"/>
-    </row>
-    <row r="66" spans="1:54">
+      <c r="BC65" s="8"/>
+      <c r="BD65" s="8"/>
+      <c r="BE65" s="8"/>
+      <c r="BF65" s="8"/>
+      <c r="BG65" s="8"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:59">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5854,8 +6018,13 @@
       <c r="AZ66" s="8"/>
       <c r="BA66" s="8"/>
       <c r="BB66" s="8"/>
-    </row>
-    <row r="67" spans="1:54">
+      <c r="BC66" s="8"/>
+      <c r="BD66" s="8"/>
+      <c r="BE66" s="8"/>
+      <c r="BF66" s="8"/>
+      <c r="BG66" s="8"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:59">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5910,8 +6079,13 @@
       <c r="AZ67" s="8"/>
       <c r="BA67" s="8"/>
       <c r="BB67" s="8"/>
-    </row>
-    <row r="68" spans="1:54">
+      <c r="BC67" s="8"/>
+      <c r="BD67" s="8"/>
+      <c r="BE67" s="8"/>
+      <c r="BF67" s="8"/>
+      <c r="BG67" s="8"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:59">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5966,8 +6140,13 @@
       <c r="AZ68" s="8"/>
       <c r="BA68" s="8"/>
       <c r="BB68" s="8"/>
-    </row>
-    <row r="69" spans="1:54">
+      <c r="BC68" s="8"/>
+      <c r="BD68" s="8"/>
+      <c r="BE68" s="8"/>
+      <c r="BF68" s="8"/>
+      <c r="BG68" s="8"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:59">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6022,8 +6201,13 @@
       <c r="AZ69" s="8"/>
       <c r="BA69" s="8"/>
       <c r="BB69" s="8"/>
-    </row>
-    <row r="70" spans="1:54">
+      <c r="BC69" s="8"/>
+      <c r="BD69" s="8"/>
+      <c r="BE69" s="8"/>
+      <c r="BF69" s="8"/>
+      <c r="BG69" s="8"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:59">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6078,8 +6262,13 @@
       <c r="AZ70" s="8"/>
       <c r="BA70" s="8"/>
       <c r="BB70" s="8"/>
-    </row>
-    <row r="71" spans="1:54">
+      <c r="BC70" s="8"/>
+      <c r="BD70" s="8"/>
+      <c r="BE70" s="8"/>
+      <c r="BF70" s="8"/>
+      <c r="BG70" s="8"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:59">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6134,8 +6323,13 @@
       <c r="AZ71" s="8"/>
       <c r="BA71" s="8"/>
       <c r="BB71" s="8"/>
-    </row>
-    <row r="72" spans="1:54">
+      <c r="BC71" s="8"/>
+      <c r="BD71" s="8"/>
+      <c r="BE71" s="8"/>
+      <c r="BF71" s="8"/>
+      <c r="BG71" s="8"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:59">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6190,8 +6384,13 @@
       <c r="AZ72" s="8"/>
       <c r="BA72" s="8"/>
       <c r="BB72" s="8"/>
-    </row>
-    <row r="73" spans="1:54">
+      <c r="BC72" s="8"/>
+      <c r="BD72" s="8"/>
+      <c r="BE72" s="8"/>
+      <c r="BF72" s="8"/>
+      <c r="BG72" s="8"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:59">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6246,8 +6445,13 @@
       <c r="AZ73" s="8"/>
       <c r="BA73" s="8"/>
       <c r="BB73" s="8"/>
-    </row>
-    <row r="74" spans="1:54">
+      <c r="BC73" s="8"/>
+      <c r="BD73" s="8"/>
+      <c r="BE73" s="8"/>
+      <c r="BF73" s="8"/>
+      <c r="BG73" s="8"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:59">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6302,8 +6506,13 @@
       <c r="AZ74" s="8"/>
       <c r="BA74" s="8"/>
       <c r="BB74" s="8"/>
-    </row>
-    <row r="75" spans="1:54">
+      <c r="BC74" s="8"/>
+      <c r="BD74" s="8"/>
+      <c r="BE74" s="8"/>
+      <c r="BF74" s="8"/>
+      <c r="BG74" s="8"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:59">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6358,8 +6567,13 @@
       <c r="AZ75" s="8"/>
       <c r="BA75" s="8"/>
       <c r="BB75" s="8"/>
-    </row>
-    <row r="76" spans="1:54">
+      <c r="BC75" s="8"/>
+      <c r="BD75" s="8"/>
+      <c r="BE75" s="8"/>
+      <c r="BF75" s="8"/>
+      <c r="BG75" s="8"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:59">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6414,8 +6628,13 @@
       <c r="AZ76" s="8"/>
       <c r="BA76" s="8"/>
       <c r="BB76" s="8"/>
-    </row>
-    <row r="77" spans="1:54">
+      <c r="BC76" s="8"/>
+      <c r="BD76" s="8"/>
+      <c r="BE76" s="8"/>
+      <c r="BF76" s="8"/>
+      <c r="BG76" s="8"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:59">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6470,8 +6689,13 @@
       <c r="AZ77" s="8"/>
       <c r="BA77" s="8"/>
       <c r="BB77" s="8"/>
-    </row>
-    <row r="78" spans="1:54">
+      <c r="BC77" s="8"/>
+      <c r="BD77" s="8"/>
+      <c r="BE77" s="8"/>
+      <c r="BF77" s="8"/>
+      <c r="BG77" s="8"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:59">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6526,8 +6750,13 @@
       <c r="AZ78" s="8"/>
       <c r="BA78" s="8"/>
       <c r="BB78" s="8"/>
-    </row>
-    <row r="79" spans="1:54">
+      <c r="BC78" s="8"/>
+      <c r="BD78" s="8"/>
+      <c r="BE78" s="8"/>
+      <c r="BF78" s="8"/>
+      <c r="BG78" s="8"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:59">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6582,8 +6811,13 @@
       <c r="AZ79" s="8"/>
       <c r="BA79" s="8"/>
       <c r="BB79" s="8"/>
-    </row>
-    <row r="80" spans="1:54">
+      <c r="BC79" s="8"/>
+      <c r="BD79" s="8"/>
+      <c r="BE79" s="8"/>
+      <c r="BF79" s="8"/>
+      <c r="BG79" s="8"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:59">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6638,8 +6872,13 @@
       <c r="AZ80" s="8"/>
       <c r="BA80" s="8"/>
       <c r="BB80" s="8"/>
-    </row>
-    <row r="81" spans="1:54">
+      <c r="BC80" s="8"/>
+      <c r="BD80" s="8"/>
+      <c r="BE80" s="8"/>
+      <c r="BF80" s="8"/>
+      <c r="BG80" s="8"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:59">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6694,8 +6933,13 @@
       <c r="AZ81" s="8"/>
       <c r="BA81" s="8"/>
       <c r="BB81" s="8"/>
-    </row>
-    <row r="82" spans="1:54">
+      <c r="BC81" s="8"/>
+      <c r="BD81" s="8"/>
+      <c r="BE81" s="8"/>
+      <c r="BF81" s="8"/>
+      <c r="BG81" s="8"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:59">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6750,8 +6994,13 @@
       <c r="AZ82" s="8"/>
       <c r="BA82" s="8"/>
       <c r="BB82" s="8"/>
-    </row>
-    <row r="83" spans="1:54">
+      <c r="BC82" s="8"/>
+      <c r="BD82" s="8"/>
+      <c r="BE82" s="8"/>
+      <c r="BF82" s="8"/>
+      <c r="BG82" s="8"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:59">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6806,8 +7055,13 @@
       <c r="AZ83" s="8"/>
       <c r="BA83" s="8"/>
       <c r="BB83" s="8"/>
-    </row>
-    <row r="84" spans="1:54">
+      <c r="BC83" s="8"/>
+      <c r="BD83" s="8"/>
+      <c r="BE83" s="8"/>
+      <c r="BF83" s="8"/>
+      <c r="BG83" s="8"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:59">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6862,8 +7116,13 @@
       <c r="AZ84" s="8"/>
       <c r="BA84" s="8"/>
       <c r="BB84" s="8"/>
-    </row>
-    <row r="85" spans="1:54">
+      <c r="BC84" s="8"/>
+      <c r="BD84" s="8"/>
+      <c r="BE84" s="8"/>
+      <c r="BF84" s="8"/>
+      <c r="BG84" s="8"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:59">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -6918,8 +7177,13 @@
       <c r="AZ85" s="8"/>
       <c r="BA85" s="8"/>
       <c r="BB85" s="8"/>
-    </row>
-    <row r="86" spans="1:54">
+      <c r="BC85" s="8"/>
+      <c r="BD85" s="8"/>
+      <c r="BE85" s="8"/>
+      <c r="BF85" s="8"/>
+      <c r="BG85" s="8"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:59">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -6974,8 +7238,13 @@
       <c r="AZ86" s="8"/>
       <c r="BA86" s="8"/>
       <c r="BB86" s="8"/>
-    </row>
-    <row r="87" spans="1:54">
+      <c r="BC86" s="8"/>
+      <c r="BD86" s="8"/>
+      <c r="BE86" s="8"/>
+      <c r="BF86" s="8"/>
+      <c r="BG86" s="8"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:59">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7030,8 +7299,13 @@
       <c r="AZ87" s="8"/>
       <c r="BA87" s="8"/>
       <c r="BB87" s="8"/>
-    </row>
-    <row r="88" spans="1:54">
+      <c r="BC87" s="8"/>
+      <c r="BD87" s="8"/>
+      <c r="BE87" s="8"/>
+      <c r="BF87" s="8"/>
+      <c r="BG87" s="8"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:59">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7086,8 +7360,13 @@
       <c r="AZ88" s="8"/>
       <c r="BA88" s="8"/>
       <c r="BB88" s="8"/>
-    </row>
-    <row r="89" spans="1:54">
+      <c r="BC88" s="8"/>
+      <c r="BD88" s="8"/>
+      <c r="BE88" s="8"/>
+      <c r="BF88" s="8"/>
+      <c r="BG88" s="8"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:59">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7142,8 +7421,13 @@
       <c r="AZ89" s="8"/>
       <c r="BA89" s="8"/>
       <c r="BB89" s="8"/>
-    </row>
-    <row r="90" spans="1:54">
+      <c r="BC89" s="8"/>
+      <c r="BD89" s="8"/>
+      <c r="BE89" s="8"/>
+      <c r="BF89" s="8"/>
+      <c r="BG89" s="8"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:59">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7198,8 +7482,13 @@
       <c r="AZ90" s="8"/>
       <c r="BA90" s="8"/>
       <c r="BB90" s="8"/>
-    </row>
-    <row r="91" spans="1:54">
+      <c r="BC90" s="8"/>
+      <c r="BD90" s="8"/>
+      <c r="BE90" s="8"/>
+      <c r="BF90" s="8"/>
+      <c r="BG90" s="8"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:59">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7254,8 +7543,13 @@
       <c r="AZ91" s="8"/>
       <c r="BA91" s="8"/>
       <c r="BB91" s="8"/>
-    </row>
-    <row r="92" spans="1:54">
+      <c r="BC91" s="8"/>
+      <c r="BD91" s="8"/>
+      <c r="BE91" s="8"/>
+      <c r="BF91" s="8"/>
+      <c r="BG91" s="8"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:59">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7310,8 +7604,13 @@
       <c r="AZ92" s="8"/>
       <c r="BA92" s="8"/>
       <c r="BB92" s="8"/>
-    </row>
-    <row r="93" spans="1:54">
+      <c r="BC92" s="8"/>
+      <c r="BD92" s="8"/>
+      <c r="BE92" s="8"/>
+      <c r="BF92" s="8"/>
+      <c r="BG92" s="8"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:59">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7366,8 +7665,13 @@
       <c r="AZ93" s="8"/>
       <c r="BA93" s="8"/>
       <c r="BB93" s="8"/>
-    </row>
-    <row r="94" spans="1:54">
+      <c r="BC93" s="8"/>
+      <c r="BD93" s="8"/>
+      <c r="BE93" s="8"/>
+      <c r="BF93" s="8"/>
+      <c r="BG93" s="8"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:59">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7422,8 +7726,13 @@
       <c r="AZ94" s="8"/>
       <c r="BA94" s="8"/>
       <c r="BB94" s="8"/>
-    </row>
-    <row r="95" spans="1:54">
+      <c r="BC94" s="8"/>
+      <c r="BD94" s="8"/>
+      <c r="BE94" s="8"/>
+      <c r="BF94" s="8"/>
+      <c r="BG94" s="8"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:59">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7478,8 +7787,13 @@
       <c r="AZ95" s="8"/>
       <c r="BA95" s="8"/>
       <c r="BB95" s="8"/>
-    </row>
-    <row r="96" spans="1:54">
+      <c r="BC95" s="8"/>
+      <c r="BD95" s="8"/>
+      <c r="BE95" s="8"/>
+      <c r="BF95" s="8"/>
+      <c r="BG95" s="8"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:59">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7534,8 +7848,13 @@
       <c r="AZ96" s="8"/>
       <c r="BA96" s="8"/>
       <c r="BB96" s="8"/>
-    </row>
-    <row r="97" spans="1:54">
+      <c r="BC96" s="8"/>
+      <c r="BD96" s="8"/>
+      <c r="BE96" s="8"/>
+      <c r="BF96" s="8"/>
+      <c r="BG96" s="8"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:59">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7590,8 +7909,13 @@
       <c r="AZ97" s="8"/>
       <c r="BA97" s="8"/>
       <c r="BB97" s="8"/>
-    </row>
-    <row r="98" spans="1:54">
+      <c r="BC97" s="8"/>
+      <c r="BD97" s="8"/>
+      <c r="BE97" s="8"/>
+      <c r="BF97" s="8"/>
+      <c r="BG97" s="8"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:59">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7646,8 +7970,13 @@
       <c r="AZ98" s="8"/>
       <c r="BA98" s="8"/>
       <c r="BB98" s="8"/>
-    </row>
-    <row r="99" spans="1:54">
+      <c r="BC98" s="8"/>
+      <c r="BD98" s="8"/>
+      <c r="BE98" s="8"/>
+      <c r="BF98" s="8"/>
+      <c r="BG98" s="8"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:59">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7702,8 +8031,13 @@
       <c r="AZ99" s="8"/>
       <c r="BA99" s="8"/>
       <c r="BB99" s="8"/>
-    </row>
-    <row r="100" spans="1:54">
+      <c r="BC99" s="8"/>
+      <c r="BD99" s="8"/>
+      <c r="BE99" s="8"/>
+      <c r="BF99" s="8"/>
+      <c r="BG99" s="8"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:59">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7758,8 +8092,13 @@
       <c r="AZ100" s="8"/>
       <c r="BA100" s="8"/>
       <c r="BB100" s="8"/>
-    </row>
-    <row r="101" spans="1:54">
+      <c r="BC100" s="8"/>
+      <c r="BD100" s="8"/>
+      <c r="BE100" s="8"/>
+      <c r="BF100" s="8"/>
+      <c r="BG100" s="8"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:59">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7814,8 +8153,13 @@
       <c r="AZ101" s="8"/>
       <c r="BA101" s="8"/>
       <c r="BB101" s="8"/>
-    </row>
-    <row r="102" spans="1:54">
+      <c r="BC101" s="8"/>
+      <c r="BD101" s="8"/>
+      <c r="BE101" s="8"/>
+      <c r="BF101" s="8"/>
+      <c r="BG101" s="8"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:59">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7870,8 +8214,13 @@
       <c r="AZ102" s="8"/>
       <c r="BA102" s="8"/>
       <c r="BB102" s="8"/>
-    </row>
-    <row r="103" spans="1:54">
+      <c r="BC102" s="8"/>
+      <c r="BD102" s="8"/>
+      <c r="BE102" s="8"/>
+      <c r="BF102" s="8"/>
+      <c r="BG102" s="8"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:59">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7926,8 +8275,13 @@
       <c r="AZ103" s="8"/>
       <c r="BA103" s="8"/>
       <c r="BB103" s="8"/>
-    </row>
-    <row r="104" spans="1:54">
+      <c r="BC103" s="8"/>
+      <c r="BD103" s="8"/>
+      <c r="BE103" s="8"/>
+      <c r="BF103" s="8"/>
+      <c r="BG103" s="8"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:59">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7982,8 +8336,13 @@
       <c r="AZ104" s="8"/>
       <c r="BA104" s="8"/>
       <c r="BB104" s="8"/>
-    </row>
-    <row r="105" spans="1:54">
+      <c r="BC104" s="8"/>
+      <c r="BD104" s="8"/>
+      <c r="BE104" s="8"/>
+      <c r="BF104" s="8"/>
+      <c r="BG104" s="8"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:59">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8038,8 +8397,13 @@
       <c r="AZ105" s="8"/>
       <c r="BA105" s="8"/>
       <c r="BB105" s="8"/>
-    </row>
-    <row r="106" spans="1:54">
+      <c r="BC105" s="8"/>
+      <c r="BD105" s="8"/>
+      <c r="BE105" s="8"/>
+      <c r="BF105" s="8"/>
+      <c r="BG105" s="8"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:59">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8094,8 +8458,13 @@
       <c r="AZ106" s="8"/>
       <c r="BA106" s="8"/>
       <c r="BB106" s="8"/>
-    </row>
-    <row r="107" spans="1:54">
+      <c r="BC106" s="8"/>
+      <c r="BD106" s="8"/>
+      <c r="BE106" s="8"/>
+      <c r="BF106" s="8"/>
+      <c r="BG106" s="8"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:59">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8150,8 +8519,13 @@
       <c r="AZ107" s="8"/>
       <c r="BA107" s="8"/>
       <c r="BB107" s="8"/>
-    </row>
-    <row r="108" spans="1:54">
+      <c r="BC107" s="8"/>
+      <c r="BD107" s="8"/>
+      <c r="BE107" s="8"/>
+      <c r="BF107" s="8"/>
+      <c r="BG107" s="8"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:59">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8206,8 +8580,13 @@
       <c r="AZ108" s="8"/>
       <c r="BA108" s="8"/>
       <c r="BB108" s="8"/>
-    </row>
-    <row r="109" spans="1:54">
+      <c r="BC108" s="8"/>
+      <c r="BD108" s="8"/>
+      <c r="BE108" s="8"/>
+      <c r="BF108" s="8"/>
+      <c r="BG108" s="8"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:59">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8262,8 +8641,13 @@
       <c r="AZ109" s="8"/>
       <c r="BA109" s="8"/>
       <c r="BB109" s="8"/>
-    </row>
-    <row r="110" spans="1:54">
+      <c r="BC109" s="8"/>
+      <c r="BD109" s="8"/>
+      <c r="BE109" s="8"/>
+      <c r="BF109" s="8"/>
+      <c r="BG109" s="8"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:59">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8318,8 +8702,13 @@
       <c r="AZ110" s="8"/>
       <c r="BA110" s="8"/>
       <c r="BB110" s="8"/>
-    </row>
-    <row r="111" spans="1:54">
+      <c r="BC110" s="8"/>
+      <c r="BD110" s="8"/>
+      <c r="BE110" s="8"/>
+      <c r="BF110" s="8"/>
+      <c r="BG110" s="8"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:59">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8374,8 +8763,13 @@
       <c r="AZ111" s="8"/>
       <c r="BA111" s="8"/>
       <c r="BB111" s="8"/>
-    </row>
-    <row r="112" spans="1:54">
+      <c r="BC111" s="8"/>
+      <c r="BD111" s="8"/>
+      <c r="BE111" s="8"/>
+      <c r="BF111" s="8"/>
+      <c r="BG111" s="8"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:59">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8430,8 +8824,13 @@
       <c r="AZ112" s="8"/>
       <c r="BA112" s="8"/>
       <c r="BB112" s="8"/>
-    </row>
-    <row r="113" spans="1:54">
+      <c r="BC112" s="8"/>
+      <c r="BD112" s="8"/>
+      <c r="BE112" s="8"/>
+      <c r="BF112" s="8"/>
+      <c r="BG112" s="8"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:59">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8486,8 +8885,13 @@
       <c r="AZ113" s="8"/>
       <c r="BA113" s="8"/>
       <c r="BB113" s="8"/>
-    </row>
-    <row r="114" spans="1:54">
+      <c r="BC113" s="8"/>
+      <c r="BD113" s="8"/>
+      <c r="BE113" s="8"/>
+      <c r="BF113" s="8"/>
+      <c r="BG113" s="8"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:59">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8542,8 +8946,13 @@
       <c r="AZ114" s="8"/>
       <c r="BA114" s="8"/>
       <c r="BB114" s="8"/>
-    </row>
-    <row r="115" spans="1:54">
+      <c r="BC114" s="8"/>
+      <c r="BD114" s="8"/>
+      <c r="BE114" s="8"/>
+      <c r="BF114" s="8"/>
+      <c r="BG114" s="8"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:59">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8598,8 +9007,13 @@
       <c r="AZ115" s="8"/>
       <c r="BA115" s="8"/>
       <c r="BB115" s="8"/>
-    </row>
-    <row r="116" spans="1:54">
+      <c r="BC115" s="8"/>
+      <c r="BD115" s="8"/>
+      <c r="BE115" s="8"/>
+      <c r="BF115" s="8"/>
+      <c r="BG115" s="8"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:59">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8654,8 +9068,13 @@
       <c r="AZ116" s="8"/>
       <c r="BA116" s="8"/>
       <c r="BB116" s="8"/>
-    </row>
-    <row r="117" spans="1:54">
+      <c r="BC116" s="8"/>
+      <c r="BD116" s="8"/>
+      <c r="BE116" s="8"/>
+      <c r="BF116" s="8"/>
+      <c r="BG116" s="8"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:59">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8710,8 +9129,13 @@
       <c r="AZ117" s="8"/>
       <c r="BA117" s="8"/>
       <c r="BB117" s="8"/>
-    </row>
-    <row r="118" spans="1:54">
+      <c r="BC117" s="8"/>
+      <c r="BD117" s="8"/>
+      <c r="BE117" s="8"/>
+      <c r="BF117" s="8"/>
+      <c r="BG117" s="8"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:59">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8766,8 +9190,13 @@
       <c r="AZ118" s="8"/>
       <c r="BA118" s="8"/>
       <c r="BB118" s="8"/>
-    </row>
-    <row r="119" spans="1:54">
+      <c r="BC118" s="8"/>
+      <c r="BD118" s="8"/>
+      <c r="BE118" s="8"/>
+      <c r="BF118" s="8"/>
+      <c r="BG118" s="8"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:59">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8822,8 +9251,13 @@
       <c r="AZ119" s="8"/>
       <c r="BA119" s="8"/>
       <c r="BB119" s="8"/>
-    </row>
-    <row r="120" spans="1:54">
+      <c r="BC119" s="8"/>
+      <c r="BD119" s="8"/>
+      <c r="BE119" s="8"/>
+      <c r="BF119" s="8"/>
+      <c r="BG119" s="8"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:59">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8878,8 +9312,13 @@
       <c r="AZ120" s="8"/>
       <c r="BA120" s="8"/>
       <c r="BB120" s="8"/>
-    </row>
-    <row r="121" spans="1:54">
+      <c r="BC120" s="8"/>
+      <c r="BD120" s="8"/>
+      <c r="BE120" s="8"/>
+      <c r="BF120" s="8"/>
+      <c r="BG120" s="8"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:59">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8934,8 +9373,13 @@
       <c r="AZ121" s="8"/>
       <c r="BA121" s="8"/>
       <c r="BB121" s="8"/>
-    </row>
-    <row r="122" spans="1:54">
+      <c r="BC121" s="8"/>
+      <c r="BD121" s="8"/>
+      <c r="BE121" s="8"/>
+      <c r="BF121" s="8"/>
+      <c r="BG121" s="8"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:59">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8990,8 +9434,13 @@
       <c r="AZ122" s="8"/>
       <c r="BA122" s="8"/>
       <c r="BB122" s="8"/>
-    </row>
-    <row r="123" spans="1:54">
+      <c r="BC122" s="8"/>
+      <c r="BD122" s="8"/>
+      <c r="BE122" s="8"/>
+      <c r="BF122" s="8"/>
+      <c r="BG122" s="8"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:59">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9046,8 +9495,13 @@
       <c r="AZ123" s="8"/>
       <c r="BA123" s="8"/>
       <c r="BB123" s="8"/>
-    </row>
-    <row r="124" spans="1:54">
+      <c r="BC123" s="8"/>
+      <c r="BD123" s="8"/>
+      <c r="BE123" s="8"/>
+      <c r="BF123" s="8"/>
+      <c r="BG123" s="8"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:59">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9102,8 +9556,13 @@
       <c r="AZ124" s="8"/>
       <c r="BA124" s="8"/>
       <c r="BB124" s="8"/>
-    </row>
-    <row r="125" spans="1:54">
+      <c r="BC124" s="8"/>
+      <c r="BD124" s="8"/>
+      <c r="BE124" s="8"/>
+      <c r="BF124" s="8"/>
+      <c r="BG124" s="8"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:59">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9158,8 +9617,13 @@
       <c r="AZ125" s="8"/>
       <c r="BA125" s="8"/>
       <c r="BB125" s="8"/>
-    </row>
-    <row r="126" spans="1:54">
+      <c r="BC125" s="8"/>
+      <c r="BD125" s="8"/>
+      <c r="BE125" s="8"/>
+      <c r="BF125" s="8"/>
+      <c r="BG125" s="8"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:59">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9214,8 +9678,13 @@
       <c r="AZ126" s="8"/>
       <c r="BA126" s="8"/>
       <c r="BB126" s="8"/>
-    </row>
-    <row r="127" spans="1:54">
+      <c r="BC126" s="8"/>
+      <c r="BD126" s="8"/>
+      <c r="BE126" s="8"/>
+      <c r="BF126" s="8"/>
+      <c r="BG126" s="8"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:59">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9270,8 +9739,13 @@
       <c r="AZ127" s="8"/>
       <c r="BA127" s="8"/>
       <c r="BB127" s="8"/>
-    </row>
-    <row r="128" spans="1:54">
+      <c r="BC127" s="8"/>
+      <c r="BD127" s="8"/>
+      <c r="BE127" s="8"/>
+      <c r="BF127" s="8"/>
+      <c r="BG127" s="8"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:59">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9326,8 +9800,13 @@
       <c r="AZ128" s="8"/>
       <c r="BA128" s="8"/>
       <c r="BB128" s="8"/>
-    </row>
-    <row r="129" spans="1:54">
+      <c r="BC128" s="8"/>
+      <c r="BD128" s="8"/>
+      <c r="BE128" s="8"/>
+      <c r="BF128" s="8"/>
+      <c r="BG128" s="8"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:59">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9382,8 +9861,13 @@
       <c r="AZ129" s="8"/>
       <c r="BA129" s="8"/>
       <c r="BB129" s="8"/>
-    </row>
-    <row r="130" spans="1:54">
+      <c r="BC129" s="8"/>
+      <c r="BD129" s="8"/>
+      <c r="BE129" s="8"/>
+      <c r="BF129" s="8"/>
+      <c r="BG129" s="8"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:59">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9438,8 +9922,13 @@
       <c r="AZ130" s="8"/>
       <c r="BA130" s="8"/>
       <c r="BB130" s="8"/>
-    </row>
-    <row r="131" spans="1:54">
+      <c r="BC130" s="8"/>
+      <c r="BD130" s="8"/>
+      <c r="BE130" s="8"/>
+      <c r="BF130" s="8"/>
+      <c r="BG130" s="8"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:59">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9494,8 +9983,13 @@
       <c r="AZ131" s="8"/>
       <c r="BA131" s="8"/>
       <c r="BB131" s="8"/>
-    </row>
-    <row r="132" spans="1:54">
+      <c r="BC131" s="8"/>
+      <c r="BD131" s="8"/>
+      <c r="BE131" s="8"/>
+      <c r="BF131" s="8"/>
+      <c r="BG131" s="8"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:59">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9550,8 +10044,13 @@
       <c r="AZ132" s="8"/>
       <c r="BA132" s="8"/>
       <c r="BB132" s="8"/>
-    </row>
-    <row r="133" spans="1:54">
+      <c r="BC132" s="8"/>
+      <c r="BD132" s="8"/>
+      <c r="BE132" s="8"/>
+      <c r="BF132" s="8"/>
+      <c r="BG132" s="8"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:59">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -9606,8 +10105,13 @@
       <c r="AZ133" s="8"/>
       <c r="BA133" s="8"/>
       <c r="BB133" s="8"/>
-    </row>
-    <row r="134" spans="1:54">
+      <c r="BC133" s="8"/>
+      <c r="BD133" s="8"/>
+      <c r="BE133" s="8"/>
+      <c r="BF133" s="8"/>
+      <c r="BG133" s="8"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:59">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -9662,8 +10166,13 @@
       <c r="AZ134" s="8"/>
       <c r="BA134" s="8"/>
       <c r="BB134" s="8"/>
-    </row>
-    <row r="135" spans="1:54">
+      <c r="BC134" s="8"/>
+      <c r="BD134" s="8"/>
+      <c r="BE134" s="8"/>
+      <c r="BF134" s="8"/>
+      <c r="BG134" s="8"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:59">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -9718,8 +10227,13 @@
       <c r="AZ135" s="8"/>
       <c r="BA135" s="8"/>
       <c r="BB135" s="8"/>
-    </row>
-    <row r="136" spans="1:54">
+      <c r="BC135" s="8"/>
+      <c r="BD135" s="8"/>
+      <c r="BE135" s="8"/>
+      <c r="BF135" s="8"/>
+      <c r="BG135" s="8"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:59">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -9774,8 +10288,13 @@
       <c r="AZ136" s="8"/>
       <c r="BA136" s="8"/>
       <c r="BB136" s="8"/>
-    </row>
-    <row r="137" spans="1:54">
+      <c r="BC136" s="8"/>
+      <c r="BD136" s="8"/>
+      <c r="BE136" s="8"/>
+      <c r="BF136" s="8"/>
+      <c r="BG136" s="8"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:59">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -9830,8 +10349,13 @@
       <c r="AZ137" s="8"/>
       <c r="BA137" s="8"/>
       <c r="BB137" s="8"/>
-    </row>
-    <row r="138" spans="1:54">
+      <c r="BC137" s="8"/>
+      <c r="BD137" s="8"/>
+      <c r="BE137" s="8"/>
+      <c r="BF137" s="8"/>
+      <c r="BG137" s="8"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:59">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -9886,8 +10410,13 @@
       <c r="AZ138" s="8"/>
       <c r="BA138" s="8"/>
       <c r="BB138" s="8"/>
-    </row>
-    <row r="139" spans="1:54">
+      <c r="BC138" s="8"/>
+      <c r="BD138" s="8"/>
+      <c r="BE138" s="8"/>
+      <c r="BF138" s="8"/>
+      <c r="BG138" s="8"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:59">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -9942,8 +10471,13 @@
       <c r="AZ139" s="8"/>
       <c r="BA139" s="8"/>
       <c r="BB139" s="8"/>
-    </row>
-    <row r="140" spans="1:54">
+      <c r="BC139" s="8"/>
+      <c r="BD139" s="8"/>
+      <c r="BE139" s="8"/>
+      <c r="BF139" s="8"/>
+      <c r="BG139" s="8"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:59">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -9998,8 +10532,13 @@
       <c r="AZ140" s="8"/>
       <c r="BA140" s="8"/>
       <c r="BB140" s="8"/>
-    </row>
-    <row r="141" spans="1:54">
+      <c r="BC140" s="8"/>
+      <c r="BD140" s="8"/>
+      <c r="BE140" s="8"/>
+      <c r="BF140" s="8"/>
+      <c r="BG140" s="8"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:59">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10054,8 +10593,13 @@
       <c r="AZ141" s="8"/>
       <c r="BA141" s="8"/>
       <c r="BB141" s="8"/>
-    </row>
-    <row r="142" spans="1:54">
+      <c r="BC141" s="8"/>
+      <c r="BD141" s="8"/>
+      <c r="BE141" s="8"/>
+      <c r="BF141" s="8"/>
+      <c r="BG141" s="8"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:59">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10110,8 +10654,13 @@
       <c r="AZ142" s="8"/>
       <c r="BA142" s="8"/>
       <c r="BB142" s="8"/>
-    </row>
-    <row r="143" spans="1:54">
+      <c r="BC142" s="8"/>
+      <c r="BD142" s="8"/>
+      <c r="BE142" s="8"/>
+      <c r="BF142" s="8"/>
+      <c r="BG142" s="8"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:59">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10166,8 +10715,13 @@
       <c r="AZ143" s="8"/>
       <c r="BA143" s="8"/>
       <c r="BB143" s="8"/>
-    </row>
-    <row r="144" spans="1:54">
+      <c r="BC143" s="8"/>
+      <c r="BD143" s="8"/>
+      <c r="BE143" s="8"/>
+      <c r="BF143" s="8"/>
+      <c r="BG143" s="8"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:59">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10222,8 +10776,13 @@
       <c r="AZ144" s="8"/>
       <c r="BA144" s="8"/>
       <c r="BB144" s="8"/>
-    </row>
-    <row r="145" spans="1:54">
+      <c r="BC144" s="8"/>
+      <c r="BD144" s="8"/>
+      <c r="BE144" s="8"/>
+      <c r="BF144" s="8"/>
+      <c r="BG144" s="8"/>
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:59">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -10278,8 +10837,13 @@
       <c r="AZ145" s="8"/>
       <c r="BA145" s="8"/>
       <c r="BB145" s="8"/>
-    </row>
-    <row r="146" spans="1:54">
+      <c r="BC145" s="8"/>
+      <c r="BD145" s="8"/>
+      <c r="BE145" s="8"/>
+      <c r="BF145" s="8"/>
+      <c r="BG145" s="8"/>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:59">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -10334,8 +10898,13 @@
       <c r="AZ146" s="8"/>
       <c r="BA146" s="8"/>
       <c r="BB146" s="8"/>
-    </row>
-    <row r="147" spans="1:54">
+      <c r="BC146" s="8"/>
+      <c r="BD146" s="8"/>
+      <c r="BE146" s="8"/>
+      <c r="BF146" s="8"/>
+      <c r="BG146" s="8"/>
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:59">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -10390,8 +10959,13 @@
       <c r="AZ147" s="8"/>
       <c r="BA147" s="8"/>
       <c r="BB147" s="8"/>
-    </row>
-    <row r="148" spans="1:54">
+      <c r="BC147" s="8"/>
+      <c r="BD147" s="8"/>
+      <c r="BE147" s="8"/>
+      <c r="BF147" s="8"/>
+      <c r="BG147" s="8"/>
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:59">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -10446,8 +11020,13 @@
       <c r="AZ148" s="8"/>
       <c r="BA148" s="8"/>
       <c r="BB148" s="8"/>
-    </row>
-    <row r="149" spans="1:54">
+      <c r="BC148" s="8"/>
+      <c r="BD148" s="8"/>
+      <c r="BE148" s="8"/>
+      <c r="BF148" s="8"/>
+      <c r="BG148" s="8"/>
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:59">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -10502,8 +11081,13 @@
       <c r="AZ149" s="8"/>
       <c r="BA149" s="8"/>
       <c r="BB149" s="8"/>
-    </row>
-    <row r="150" spans="1:54">
+      <c r="BC149" s="8"/>
+      <c r="BD149" s="8"/>
+      <c r="BE149" s="8"/>
+      <c r="BF149" s="8"/>
+      <c r="BG149" s="8"/>
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:59">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -10558,8 +11142,13 @@
       <c r="AZ150" s="8"/>
       <c r="BA150" s="8"/>
       <c r="BB150" s="8"/>
-    </row>
-    <row r="151" spans="1:54">
+      <c r="BC150" s="8"/>
+      <c r="BD150" s="8"/>
+      <c r="BE150" s="8"/>
+      <c r="BF150" s="8"/>
+      <c r="BG150" s="8"/>
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:59">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -10614,8 +11203,13 @@
       <c r="AZ151" s="8"/>
       <c r="BA151" s="8"/>
       <c r="BB151" s="8"/>
-    </row>
-    <row r="152" spans="1:54">
+      <c r="BC151" s="8"/>
+      <c r="BD151" s="8"/>
+      <c r="BE151" s="8"/>
+      <c r="BF151" s="8"/>
+      <c r="BG151" s="8"/>
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:59">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -10670,8 +11264,13 @@
       <c r="AZ152" s="8"/>
       <c r="BA152" s="8"/>
       <c r="BB152" s="8"/>
-    </row>
-    <row r="153" spans="1:54">
+      <c r="BC152" s="8"/>
+      <c r="BD152" s="8"/>
+      <c r="BE152" s="8"/>
+      <c r="BF152" s="8"/>
+      <c r="BG152" s="8"/>
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:59">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -10726,8 +11325,13 @@
       <c r="AZ153" s="8"/>
       <c r="BA153" s="8"/>
       <c r="BB153" s="8"/>
-    </row>
-    <row r="154" spans="1:54">
+      <c r="BC153" s="8"/>
+      <c r="BD153" s="8"/>
+      <c r="BE153" s="8"/>
+      <c r="BF153" s="8"/>
+      <c r="BG153" s="8"/>
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:59">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -10782,8 +11386,13 @@
       <c r="AZ154" s="8"/>
       <c r="BA154" s="8"/>
       <c r="BB154" s="8"/>
-    </row>
-    <row r="155" spans="1:54">
+      <c r="BC154" s="8"/>
+      <c r="BD154" s="8"/>
+      <c r="BE154" s="8"/>
+      <c r="BF154" s="8"/>
+      <c r="BG154" s="8"/>
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:59">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -10838,8 +11447,13 @@
       <c r="AZ155" s="8"/>
       <c r="BA155" s="8"/>
       <c r="BB155" s="8"/>
-    </row>
-    <row r="156" spans="1:54">
+      <c r="BC155" s="8"/>
+      <c r="BD155" s="8"/>
+      <c r="BE155" s="8"/>
+      <c r="BF155" s="8"/>
+      <c r="BG155" s="8"/>
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:59">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -10894,8 +11508,13 @@
       <c r="AZ156" s="8"/>
       <c r="BA156" s="8"/>
       <c r="BB156" s="8"/>
-    </row>
-    <row r="157" spans="1:54">
+      <c r="BC156" s="8"/>
+      <c r="BD156" s="8"/>
+      <c r="BE156" s="8"/>
+      <c r="BF156" s="8"/>
+      <c r="BG156" s="8"/>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:59">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -10950,8 +11569,13 @@
       <c r="AZ157" s="8"/>
       <c r="BA157" s="8"/>
       <c r="BB157" s="8"/>
-    </row>
-    <row r="158" spans="1:54">
+      <c r="BC157" s="8"/>
+      <c r="BD157" s="8"/>
+      <c r="BE157" s="8"/>
+      <c r="BF157" s="8"/>
+      <c r="BG157" s="8"/>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:59">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11006,8 +11630,13 @@
       <c r="AZ158" s="8"/>
       <c r="BA158" s="8"/>
       <c r="BB158" s="8"/>
-    </row>
-    <row r="159" spans="1:54">
+      <c r="BC158" s="8"/>
+      <c r="BD158" s="8"/>
+      <c r="BE158" s="8"/>
+      <c r="BF158" s="8"/>
+      <c r="BG158" s="8"/>
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:59">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11062,8 +11691,13 @@
       <c r="AZ159" s="8"/>
       <c r="BA159" s="8"/>
       <c r="BB159" s="8"/>
-    </row>
-    <row r="160" spans="1:54">
+      <c r="BC159" s="8"/>
+      <c r="BD159" s="8"/>
+      <c r="BE159" s="8"/>
+      <c r="BF159" s="8"/>
+      <c r="BG159" s="8"/>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:59">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11118,8 +11752,13 @@
       <c r="AZ160" s="8"/>
       <c r="BA160" s="8"/>
       <c r="BB160" s="8"/>
-    </row>
-    <row r="161" spans="1:54">
+      <c r="BC160" s="8"/>
+      <c r="BD160" s="8"/>
+      <c r="BE160" s="8"/>
+      <c r="BF160" s="8"/>
+      <c r="BG160" s="8"/>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:59">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11174,8 +11813,13 @@
       <c r="AZ161" s="8"/>
       <c r="BA161" s="8"/>
       <c r="BB161" s="8"/>
-    </row>
-    <row r="162" spans="1:54">
+      <c r="BC161" s="8"/>
+      <c r="BD161" s="8"/>
+      <c r="BE161" s="8"/>
+      <c r="BF161" s="8"/>
+      <c r="BG161" s="8"/>
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:59">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11230,8 +11874,13 @@
       <c r="AZ162" s="8"/>
       <c r="BA162" s="8"/>
       <c r="BB162" s="8"/>
-    </row>
-    <row r="163" spans="1:54">
+      <c r="BC162" s="8"/>
+      <c r="BD162" s="8"/>
+      <c r="BE162" s="8"/>
+      <c r="BF162" s="8"/>
+      <c r="BG162" s="8"/>
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:59">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11286,8 +11935,13 @@
       <c r="AZ163" s="8"/>
       <c r="BA163" s="8"/>
       <c r="BB163" s="8"/>
-    </row>
-    <row r="164" spans="1:54">
+      <c r="BC163" s="8"/>
+      <c r="BD163" s="8"/>
+      <c r="BE163" s="8"/>
+      <c r="BF163" s="8"/>
+      <c r="BG163" s="8"/>
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:59">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -11342,8 +11996,13 @@
       <c r="AZ164" s="8"/>
       <c r="BA164" s="8"/>
       <c r="BB164" s="8"/>
-    </row>
-    <row r="165" spans="1:54">
+      <c r="BC164" s="8"/>
+      <c r="BD164" s="8"/>
+      <c r="BE164" s="8"/>
+      <c r="BF164" s="8"/>
+      <c r="BG164" s="8"/>
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:59">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -11398,8 +12057,13 @@
       <c r="AZ165" s="8"/>
       <c r="BA165" s="8"/>
       <c r="BB165" s="8"/>
-    </row>
-    <row r="166" spans="1:54">
+      <c r="BC165" s="8"/>
+      <c r="BD165" s="8"/>
+      <c r="BE165" s="8"/>
+      <c r="BF165" s="8"/>
+      <c r="BG165" s="8"/>
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:59">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -11454,8 +12118,13 @@
       <c r="AZ166" s="8"/>
       <c r="BA166" s="8"/>
       <c r="BB166" s="8"/>
-    </row>
-    <row r="167" spans="1:54">
+      <c r="BC166" s="8"/>
+      <c r="BD166" s="8"/>
+      <c r="BE166" s="8"/>
+      <c r="BF166" s="8"/>
+      <c r="BG166" s="8"/>
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:59">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -11510,8 +12179,13 @@
       <c r="AZ167" s="8"/>
       <c r="BA167" s="8"/>
       <c r="BB167" s="8"/>
-    </row>
-    <row r="168" spans="1:54">
+      <c r="BC167" s="8"/>
+      <c r="BD167" s="8"/>
+      <c r="BE167" s="8"/>
+      <c r="BF167" s="8"/>
+      <c r="BG167" s="8"/>
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:59">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -11566,8 +12240,13 @@
       <c r="AZ168" s="8"/>
       <c r="BA168" s="8"/>
       <c r="BB168" s="8"/>
-    </row>
-    <row r="169" spans="1:54">
+      <c r="BC168" s="8"/>
+      <c r="BD168" s="8"/>
+      <c r="BE168" s="8"/>
+      <c r="BF168" s="8"/>
+      <c r="BG168" s="8"/>
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:59">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -11622,8 +12301,13 @@
       <c r="AZ169" s="8"/>
       <c r="BA169" s="8"/>
       <c r="BB169" s="8"/>
-    </row>
-    <row r="170" spans="1:54">
+      <c r="BC169" s="8"/>
+      <c r="BD169" s="8"/>
+      <c r="BE169" s="8"/>
+      <c r="BF169" s="8"/>
+      <c r="BG169" s="8"/>
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:59">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -11678,8 +12362,13 @@
       <c r="AZ170" s="8"/>
       <c r="BA170" s="8"/>
       <c r="BB170" s="8"/>
-    </row>
-    <row r="171" spans="1:54">
+      <c r="BC170" s="8"/>
+      <c r="BD170" s="8"/>
+      <c r="BE170" s="8"/>
+      <c r="BF170" s="8"/>
+      <c r="BG170" s="8"/>
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:59">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -11734,8 +12423,13 @@
       <c r="AZ171" s="8"/>
       <c r="BA171" s="8"/>
       <c r="BB171" s="8"/>
-    </row>
-    <row r="172" spans="1:54">
+      <c r="BC171" s="8"/>
+      <c r="BD171" s="8"/>
+      <c r="BE171" s="8"/>
+      <c r="BF171" s="8"/>
+      <c r="BG171" s="8"/>
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:59">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -11790,8 +12484,13 @@
       <c r="AZ172" s="8"/>
       <c r="BA172" s="8"/>
       <c r="BB172" s="8"/>
-    </row>
-    <row r="173" spans="1:54">
+      <c r="BC172" s="8"/>
+      <c r="BD172" s="8"/>
+      <c r="BE172" s="8"/>
+      <c r="BF172" s="8"/>
+      <c r="BG172" s="8"/>
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:59">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -11846,8 +12545,13 @@
       <c r="AZ173" s="8"/>
       <c r="BA173" s="8"/>
       <c r="BB173" s="8"/>
-    </row>
-    <row r="174" spans="1:54">
+      <c r="BC173" s="8"/>
+      <c r="BD173" s="8"/>
+      <c r="BE173" s="8"/>
+      <c r="BF173" s="8"/>
+      <c r="BG173" s="8"/>
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:59">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -11902,8 +12606,13 @@
       <c r="AZ174" s="8"/>
       <c r="BA174" s="8"/>
       <c r="BB174" s="8"/>
-    </row>
-    <row r="175" spans="1:54">
+      <c r="BC174" s="8"/>
+      <c r="BD174" s="8"/>
+      <c r="BE174" s="8"/>
+      <c r="BF174" s="8"/>
+      <c r="BG174" s="8"/>
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:59">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -11958,8 +12667,13 @@
       <c r="AZ175" s="8"/>
       <c r="BA175" s="8"/>
       <c r="BB175" s="8"/>
-    </row>
-    <row r="176" spans="1:54">
+      <c r="BC175" s="8"/>
+      <c r="BD175" s="8"/>
+      <c r="BE175" s="8"/>
+      <c r="BF175" s="8"/>
+      <c r="BG175" s="8"/>
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:59">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -12014,8 +12728,13 @@
       <c r="AZ176" s="8"/>
       <c r="BA176" s="8"/>
       <c r="BB176" s="8"/>
-    </row>
-    <row r="177" spans="1:54">
+      <c r="BC176" s="8"/>
+      <c r="BD176" s="8"/>
+      <c r="BE176" s="8"/>
+      <c r="BF176" s="8"/>
+      <c r="BG176" s="8"/>
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:59">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -12070,8 +12789,13 @@
       <c r="AZ177" s="8"/>
       <c r="BA177" s="8"/>
       <c r="BB177" s="8"/>
-    </row>
-    <row r="178" spans="1:54">
+      <c r="BC177" s="8"/>
+      <c r="BD177" s="8"/>
+      <c r="BE177" s="8"/>
+      <c r="BF177" s="8"/>
+      <c r="BG177" s="8"/>
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:59">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -12126,8 +12850,13 @@
       <c r="AZ178" s="8"/>
       <c r="BA178" s="8"/>
       <c r="BB178" s="8"/>
-    </row>
-    <row r="179" spans="1:54">
+      <c r="BC178" s="8"/>
+      <c r="BD178" s="8"/>
+      <c r="BE178" s="8"/>
+      <c r="BF178" s="8"/>
+      <c r="BG178" s="8"/>
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:59">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -12182,8 +12911,13 @@
       <c r="AZ179" s="8"/>
       <c r="BA179" s="8"/>
       <c r="BB179" s="8"/>
-    </row>
-    <row r="180" spans="1:54">
+      <c r="BC179" s="8"/>
+      <c r="BD179" s="8"/>
+      <c r="BE179" s="8"/>
+      <c r="BF179" s="8"/>
+      <c r="BG179" s="8"/>
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:59">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -12238,8 +12972,13 @@
       <c r="AZ180" s="8"/>
       <c r="BA180" s="8"/>
       <c r="BB180" s="8"/>
-    </row>
-    <row r="181" spans="1:54">
+      <c r="BC180" s="8"/>
+      <c r="BD180" s="8"/>
+      <c r="BE180" s="8"/>
+      <c r="BF180" s="8"/>
+      <c r="BG180" s="8"/>
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:59">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -12294,8 +13033,13 @@
       <c r="AZ181" s="8"/>
       <c r="BA181" s="8"/>
       <c r="BB181" s="8"/>
-    </row>
-    <row r="182" spans="1:54">
+      <c r="BC181" s="8"/>
+      <c r="BD181" s="8"/>
+      <c r="BE181" s="8"/>
+      <c r="BF181" s="8"/>
+      <c r="BG181" s="8"/>
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:59">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -12350,8 +13094,13 @@
       <c r="AZ182" s="8"/>
       <c r="BA182" s="8"/>
       <c r="BB182" s="8"/>
-    </row>
-    <row r="183" spans="1:54">
+      <c r="BC182" s="8"/>
+      <c r="BD182" s="8"/>
+      <c r="BE182" s="8"/>
+      <c r="BF182" s="8"/>
+      <c r="BG182" s="8"/>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:59">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -12406,8 +13155,13 @@
       <c r="AZ183" s="8"/>
       <c r="BA183" s="8"/>
       <c r="BB183" s="8"/>
-    </row>
-    <row r="184" spans="1:54">
+      <c r="BC183" s="8"/>
+      <c r="BD183" s="8"/>
+      <c r="BE183" s="8"/>
+      <c r="BF183" s="8"/>
+      <c r="BG183" s="8"/>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:59">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -12462,8 +13216,13 @@
       <c r="AZ184" s="8"/>
       <c r="BA184" s="8"/>
       <c r="BB184" s="8"/>
-    </row>
-    <row r="185" spans="1:54">
+      <c r="BC184" s="8"/>
+      <c r="BD184" s="8"/>
+      <c r="BE184" s="8"/>
+      <c r="BF184" s="8"/>
+      <c r="BG184" s="8"/>
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:59">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -12518,8 +13277,13 @@
       <c r="AZ185" s="8"/>
       <c r="BA185" s="8"/>
       <c r="BB185" s="8"/>
-    </row>
-    <row r="186" spans="1:54">
+      <c r="BC185" s="8"/>
+      <c r="BD185" s="8"/>
+      <c r="BE185" s="8"/>
+      <c r="BF185" s="8"/>
+      <c r="BG185" s="8"/>
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:59">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -12574,8 +13338,13 @@
       <c r="AZ186" s="8"/>
       <c r="BA186" s="8"/>
       <c r="BB186" s="8"/>
-    </row>
-    <row r="187" spans="1:54">
+      <c r="BC186" s="8"/>
+      <c r="BD186" s="8"/>
+      <c r="BE186" s="8"/>
+      <c r="BF186" s="8"/>
+      <c r="BG186" s="8"/>
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:59">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -12630,8 +13399,13 @@
       <c r="AZ187" s="8"/>
       <c r="BA187" s="8"/>
       <c r="BB187" s="8"/>
-    </row>
-    <row r="188" spans="1:54">
+      <c r="BC187" s="8"/>
+      <c r="BD187" s="8"/>
+      <c r="BE187" s="8"/>
+      <c r="BF187" s="8"/>
+      <c r="BG187" s="8"/>
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:59">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -12686,8 +13460,13 @@
       <c r="AZ188" s="8"/>
       <c r="BA188" s="8"/>
       <c r="BB188" s="8"/>
-    </row>
-    <row r="189" spans="1:54">
+      <c r="BC188" s="8"/>
+      <c r="BD188" s="8"/>
+      <c r="BE188" s="8"/>
+      <c r="BF188" s="8"/>
+      <c r="BG188" s="8"/>
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:59">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -12742,8 +13521,13 @@
       <c r="AZ189" s="8"/>
       <c r="BA189" s="8"/>
       <c r="BB189" s="8"/>
-    </row>
-    <row r="190" spans="1:54">
+      <c r="BC189" s="8"/>
+      <c r="BD189" s="8"/>
+      <c r="BE189" s="8"/>
+      <c r="BF189" s="8"/>
+      <c r="BG189" s="8"/>
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:59">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -12798,8 +13582,13 @@
       <c r="AZ190" s="8"/>
       <c r="BA190" s="8"/>
       <c r="BB190" s="8"/>
-    </row>
-    <row r="191" spans="1:54">
+      <c r="BC190" s="8"/>
+      <c r="BD190" s="8"/>
+      <c r="BE190" s="8"/>
+      <c r="BF190" s="8"/>
+      <c r="BG190" s="8"/>
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:59">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -12854,8 +13643,13 @@
       <c r="AZ191" s="8"/>
       <c r="BA191" s="8"/>
       <c r="BB191" s="8"/>
-    </row>
-    <row r="192" spans="1:54">
+      <c r="BC191" s="8"/>
+      <c r="BD191" s="8"/>
+      <c r="BE191" s="8"/>
+      <c r="BF191" s="8"/>
+      <c r="BG191" s="8"/>
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:59">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -12910,8 +13704,13 @@
       <c r="AZ192" s="8"/>
       <c r="BA192" s="8"/>
       <c r="BB192" s="8"/>
-    </row>
-    <row r="193" spans="1:54">
+      <c r="BC192" s="8"/>
+      <c r="BD192" s="8"/>
+      <c r="BE192" s="8"/>
+      <c r="BF192" s="8"/>
+      <c r="BG192" s="8"/>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:59">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -12966,8 +13765,13 @@
       <c r="AZ193" s="8"/>
       <c r="BA193" s="8"/>
       <c r="BB193" s="8"/>
-    </row>
-    <row r="194" spans="1:54">
+      <c r="BC193" s="8"/>
+      <c r="BD193" s="8"/>
+      <c r="BE193" s="8"/>
+      <c r="BF193" s="8"/>
+      <c r="BG193" s="8"/>
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:59">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -13022,8 +13826,13 @@
       <c r="AZ194" s="8"/>
       <c r="BA194" s="8"/>
       <c r="BB194" s="8"/>
-    </row>
-    <row r="195" spans="1:54">
+      <c r="BC194" s="8"/>
+      <c r="BD194" s="8"/>
+      <c r="BE194" s="8"/>
+      <c r="BF194" s="8"/>
+      <c r="BG194" s="8"/>
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:59">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -13078,8 +13887,13 @@
       <c r="AZ195" s="8"/>
       <c r="BA195" s="8"/>
       <c r="BB195" s="8"/>
-    </row>
-    <row r="196" spans="1:54">
+      <c r="BC195" s="8"/>
+      <c r="BD195" s="8"/>
+      <c r="BE195" s="8"/>
+      <c r="BF195" s="8"/>
+      <c r="BG195" s="8"/>
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:59">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -13134,8 +13948,13 @@
       <c r="AZ196" s="8"/>
       <c r="BA196" s="8"/>
       <c r="BB196" s="8"/>
-    </row>
-    <row r="197" spans="1:54">
+      <c r="BC196" s="8"/>
+      <c r="BD196" s="8"/>
+      <c r="BE196" s="8"/>
+      <c r="BF196" s="8"/>
+      <c r="BG196" s="8"/>
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:59">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -13190,8 +14009,13 @@
       <c r="AZ197" s="8"/>
       <c r="BA197" s="8"/>
       <c r="BB197" s="8"/>
-    </row>
-    <row r="198" spans="1:54">
+      <c r="BC197" s="8"/>
+      <c r="BD197" s="8"/>
+      <c r="BE197" s="8"/>
+      <c r="BF197" s="8"/>
+      <c r="BG197" s="8"/>
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:59">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -13246,8 +14070,13 @@
       <c r="AZ198" s="8"/>
       <c r="BA198" s="8"/>
       <c r="BB198" s="8"/>
-    </row>
-    <row r="199" spans="1:54">
+      <c r="BC198" s="8"/>
+      <c r="BD198" s="8"/>
+      <c r="BE198" s="8"/>
+      <c r="BF198" s="8"/>
+      <c r="BG198" s="8"/>
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:59">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -13302,8 +14131,13 @@
       <c r="AZ199" s="8"/>
       <c r="BA199" s="8"/>
       <c r="BB199" s="8"/>
-    </row>
-    <row r="200" spans="1:54">
+      <c r="BC199" s="8"/>
+      <c r="BD199" s="8"/>
+      <c r="BE199" s="8"/>
+      <c r="BF199" s="8"/>
+      <c r="BG199" s="8"/>
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:59">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -13358,8 +14192,13 @@
       <c r="AZ200" s="8"/>
       <c r="BA200" s="8"/>
       <c r="BB200" s="8"/>
-    </row>
-    <row r="201" spans="1:54">
+      <c r="BC200" s="8"/>
+      <c r="BD200" s="8"/>
+      <c r="BE200" s="8"/>
+      <c r="BF200" s="8"/>
+      <c r="BG200" s="8"/>
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:59">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -13414,38 +14253,46 @@
       <c r="AZ201" s="8"/>
       <c r="BA201" s="8"/>
       <c r="BB201" s="8"/>
+      <c r="BC201" s="8"/>
+      <c r="BD201" s="8"/>
+      <c r="BE201" s="8"/>
+      <c r="BF201" s="8"/>
+      <c r="BG201" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="Z1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AE1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P201 R3:R201 T3:T201">
-      <formula1>"否,是"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
-      <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U201">
+      <formula1>"大货仓位,小货仓位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N201">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201">
+      <formula1>"配送,直送,全部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
+      <formula1>"通货,普货,大货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201 V3:V201 Y3:Y201">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY3:AY201">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C201">
-      <formula1>"品采,辅采,OEM,服纺,鞋品"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I201">
-      <formula1>"18A,A品,B品,C品,其它"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB201">
+      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="S2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,20 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE2" authorId="1">
+    <comment ref="AD2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -137,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1">
+    <comment ref="AE2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -159,6 +146,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG2" authorId="1">
       <text>
         <r>
@@ -169,6 +169,15 @@
             <charset val="134"/>
           </rPr>
           <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -205,15 +214,6 @@
           </rPr>
           <t>只填数字</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
     <comment ref="AJ2" authorId="1">
@@ -233,12 +233,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>只填数字</t>
+          <t xml:space="preserve">采购的规格
+</t>
         </r>
       </text>
     </comment>
@@ -246,12 +246,12 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购的规格
-</t>
+          <t>采购的单位</t>
         </r>
       </text>
     </comment>
@@ -264,7 +264,16 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>采购的单位</t>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -301,15 +310,6 @@
           </rPr>
           <t>只填数字</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
     <comment ref="AP2" authorId="1">
@@ -322,6 +322,15 @@
             <charset val="134"/>
           </rPr>
           <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -351,28 +360,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS2" authorId="1">
-      <text>
-        <r>
-          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -382,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1">
+    <comment ref="AT2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -404,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="0">
+    <comment ref="AX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="1">
+    <comment ref="AY2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -439,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="1">
+    <comment ref="AZ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -452,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB2" authorId="1">
+    <comment ref="BA2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -474,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="1">
+    <comment ref="BB2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -501,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>基本信息</t>
   </si>
@@ -570,9 +557,6 @@
   </si>
   <si>
     <t>保质天数</t>
-  </si>
-  <si>
-    <t>供货渠道类别</t>
   </si>
   <si>
     <t>适用起始月龄</t>
@@ -700,8 +684,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -759,7 +743,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,36 +834,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -818,32 +841,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,34 +865,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,37 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,25 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,31 +1000,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1054,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,13 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,11 +1183,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,8 +1201,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,17 +1222,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,15 +1263,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1282,17 +1272,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,10 +1286,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,127 +1298,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1822,10 +1806,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BG201"/>
+  <dimension ref="A1:BF201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -1842,33 +1826,33 @@
     <col min="14" max="14" width="9.75" style="3" customWidth="1"/>
     <col min="15" max="16" width="5.75" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.75" style="3" customWidth="1"/>
-    <col min="18" max="20" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.75" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="23" max="24" width="9.75" style="3" customWidth="1"/>
-    <col min="25" max="28" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="29" max="29" width="9.75" style="3" customWidth="1"/>
-    <col min="30" max="30" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="31" max="32" width="9.75" style="3" customWidth="1"/>
-    <col min="33" max="35" width="13" style="3" customWidth="1"/>
-    <col min="36" max="37" width="14" style="3" customWidth="1"/>
-    <col min="38" max="39" width="9.75" style="3" customWidth="1"/>
-    <col min="40" max="42" width="13" style="3" customWidth="1"/>
-    <col min="43" max="44" width="14" style="3" customWidth="1"/>
-    <col min="45" max="45" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="46" max="46" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="47" max="48" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="49" max="49" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="50" max="54" width="9.75" style="3" customWidth="1"/>
-    <col min="55" max="55" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="56" max="56" width="9.75" style="3" customWidth="1"/>
-    <col min="57" max="57" width="18.25" style="3" customWidth="1"/>
-    <col min="58" max="58" width="9.75" style="3" customWidth="1"/>
-    <col min="59" max="59" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="60" max="16384" width="8.75" style="3"/>
+    <col min="18" max="19" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9.75" style="3" customWidth="1"/>
+    <col min="24" max="27" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9.75" style="3" customWidth="1"/>
+    <col min="29" max="29" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="30" max="31" width="9.75" style="3" customWidth="1"/>
+    <col min="32" max="34" width="13" style="3" customWidth="1"/>
+    <col min="35" max="36" width="14" style="3" customWidth="1"/>
+    <col min="37" max="38" width="9.75" style="3" customWidth="1"/>
+    <col min="39" max="41" width="13" style="3" customWidth="1"/>
+    <col min="42" max="43" width="14" style="3" customWidth="1"/>
+    <col min="44" max="44" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="45" max="45" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="46" max="47" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="48" max="48" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="49" max="53" width="9.75" style="3" customWidth="1"/>
+    <col min="54" max="54" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="55" max="55" width="9.75" style="3" customWidth="1"/>
+    <col min="56" max="56" width="18.25" style="3" customWidth="1"/>
+    <col min="57" max="57" width="9.75" style="3" customWidth="1"/>
+    <col min="58" max="58" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="59" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:59">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:58">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1898,14 +1882,14 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="10" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
@@ -1924,24 +1908,23 @@
       <c r="AU1" s="12"/>
       <c r="AV1" s="12"/>
       <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="AY1" s="17"/>
       <c r="AZ1" s="17"/>
       <c r="BA1" s="17"/>
       <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="18" t="s">
+      <c r="BC1" s="18" t="s">
         <v>4</v>
       </c>
+      <c r="BD1" s="18"/>
       <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="17" t="s">
+      <c r="BF1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:59">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:58">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2005,13 +1988,13 @@
       <c r="U2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Y2" s="6" t="s">
@@ -2023,16 +2006,16 @@
       <c r="AA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="AF2" s="14" t="s">
@@ -2056,7 +2039,7 @@
       <c r="AL2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AM2" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AN2" s="16" t="s">
@@ -2071,7 +2054,7 @@
       <c r="AQ2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AS2" s="14" t="s">
@@ -2089,7 +2072,7 @@
       <c r="AW2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AX2" s="19" t="s">
         <v>55</v>
       </c>
       <c r="AY2" s="19" t="s">
@@ -2104,23 +2087,20 @@
       <c r="BB2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="19" t="s">
-        <v>60</v>
+      <c r="BC2" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="BD2" s="14" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="BE2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BF2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BG2" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:58">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2179,9 +2159,8 @@
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:58">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2240,9 +2219,8 @@
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:58">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2301,9 +2279,8 @@
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:58">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2362,9 +2339,8 @@
       <c r="BD6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:58">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2423,9 +2399,8 @@
       <c r="BD7" s="8"/>
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:58">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2484,9 +2459,8 @@
       <c r="BD8" s="8"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:58">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2545,9 +2519,8 @@
       <c r="BD9" s="8"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:58">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2606,9 +2579,8 @@
       <c r="BD10" s="8"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:58">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2667,9 +2639,8 @@
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:58">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2728,9 +2699,8 @@
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:58">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2789,9 +2759,8 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:58">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2850,9 +2819,8 @@
       <c r="BD14" s="8"/>
       <c r="BE14" s="8"/>
       <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:58">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2911,9 +2879,8 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
       <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:58">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2972,9 +2939,8 @@
       <c r="BD16" s="8"/>
       <c r="BE16" s="8"/>
       <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="17" s="3" customFormat="1" ht="15" customHeight="1" spans="1:58">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3033,9 +2999,8 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
       <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:58">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3094,9 +3059,8 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="8"/>
       <c r="BF18" s="8"/>
-      <c r="BG18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:58">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3155,9 +3119,8 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
       <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:58">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3216,9 +3179,8 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="8"/>
       <c r="BF20" s="8"/>
-      <c r="BG20" s="8"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:58">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3277,9 +3239,8 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:58">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3338,9 +3299,8 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="8"/>
       <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:58">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3399,9 +3359,8 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="8"/>
       <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:58">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3460,9 +3419,8 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:58">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3521,9 +3479,8 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:58">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3582,9 +3539,8 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="8"/>
       <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:58">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3643,9 +3599,8 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="8"/>
       <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:58">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3704,9 +3659,8 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="8"/>
       <c r="BF28" s="8"/>
-      <c r="BG28" s="8"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:58">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3765,9 +3719,8 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="8"/>
-      <c r="BG29" s="8"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:58">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3826,9 +3779,8 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="8"/>
       <c r="BF30" s="8"/>
-      <c r="BG30" s="8"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:58">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3887,9 +3839,8 @@
       <c r="BD31" s="8"/>
       <c r="BE31" s="8"/>
       <c r="BF31" s="8"/>
-      <c r="BG31" s="8"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:58">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3948,9 +3899,8 @@
       <c r="BD32" s="8"/>
       <c r="BE32" s="8"/>
       <c r="BF32" s="8"/>
-      <c r="BG32" s="8"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:58">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4009,9 +3959,8 @@
       <c r="BD33" s="8"/>
       <c r="BE33" s="8"/>
       <c r="BF33" s="8"/>
-      <c r="BG33" s="8"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:58">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4070,9 +4019,8 @@
       <c r="BD34" s="8"/>
       <c r="BE34" s="8"/>
       <c r="BF34" s="8"/>
-      <c r="BG34" s="8"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:58">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4131,9 +4079,8 @@
       <c r="BD35" s="8"/>
       <c r="BE35" s="8"/>
       <c r="BF35" s="8"/>
-      <c r="BG35" s="8"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:58">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4192,9 +4139,8 @@
       <c r="BD36" s="8"/>
       <c r="BE36" s="8"/>
       <c r="BF36" s="8"/>
-      <c r="BG36" s="8"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:58">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4253,9 +4199,8 @@
       <c r="BD37" s="8"/>
       <c r="BE37" s="8"/>
       <c r="BF37" s="8"/>
-      <c r="BG37" s="8"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:58">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4314,9 +4259,8 @@
       <c r="BD38" s="8"/>
       <c r="BE38" s="8"/>
       <c r="BF38" s="8"/>
-      <c r="BG38" s="8"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:58">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4375,9 +4319,8 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="8"/>
       <c r="BF39" s="8"/>
-      <c r="BG39" s="8"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:58">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4436,9 +4379,8 @@
       <c r="BD40" s="8"/>
       <c r="BE40" s="8"/>
       <c r="BF40" s="8"/>
-      <c r="BG40" s="8"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:58">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4497,9 +4439,8 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="8"/>
       <c r="BF41" s="8"/>
-      <c r="BG41" s="8"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:58">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4558,9 +4499,8 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="8"/>
       <c r="BF42" s="8"/>
-      <c r="BG42" s="8"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:58">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4619,9 +4559,8 @@
       <c r="BD43" s="8"/>
       <c r="BE43" s="8"/>
       <c r="BF43" s="8"/>
-      <c r="BG43" s="8"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:58">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4680,9 +4619,8 @@
       <c r="BD44" s="8"/>
       <c r="BE44" s="8"/>
       <c r="BF44" s="8"/>
-      <c r="BG44" s="8"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:58">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4741,9 +4679,8 @@
       <c r="BD45" s="8"/>
       <c r="BE45" s="8"/>
       <c r="BF45" s="8"/>
-      <c r="BG45" s="8"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:58">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4802,9 +4739,8 @@
       <c r="BD46" s="8"/>
       <c r="BE46" s="8"/>
       <c r="BF46" s="8"/>
-      <c r="BG46" s="8"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:58">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4863,9 +4799,8 @@
       <c r="BD47" s="8"/>
       <c r="BE47" s="8"/>
       <c r="BF47" s="8"/>
-      <c r="BG47" s="8"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:58">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4924,9 +4859,8 @@
       <c r="BD48" s="8"/>
       <c r="BE48" s="8"/>
       <c r="BF48" s="8"/>
-      <c r="BG48" s="8"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:58">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4985,9 +4919,8 @@
       <c r="BD49" s="8"/>
       <c r="BE49" s="8"/>
       <c r="BF49" s="8"/>
-      <c r="BG49" s="8"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:58">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5046,9 +4979,8 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
       <c r="BF50" s="8"/>
-      <c r="BG50" s="8"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:58">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5107,9 +5039,8 @@
       <c r="BD51" s="8"/>
       <c r="BE51" s="8"/>
       <c r="BF51" s="8"/>
-      <c r="BG51" s="8"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:58">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5168,9 +5099,8 @@
       <c r="BD52" s="8"/>
       <c r="BE52" s="8"/>
       <c r="BF52" s="8"/>
-      <c r="BG52" s="8"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:58">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5229,9 +5159,8 @@
       <c r="BD53" s="8"/>
       <c r="BE53" s="8"/>
       <c r="BF53" s="8"/>
-      <c r="BG53" s="8"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:58">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5290,9 +5219,8 @@
       <c r="BD54" s="8"/>
       <c r="BE54" s="8"/>
       <c r="BF54" s="8"/>
-      <c r="BG54" s="8"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:58">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5351,9 +5279,8 @@
       <c r="BD55" s="8"/>
       <c r="BE55" s="8"/>
       <c r="BF55" s="8"/>
-      <c r="BG55" s="8"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:58">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5412,9 +5339,8 @@
       <c r="BD56" s="8"/>
       <c r="BE56" s="8"/>
       <c r="BF56" s="8"/>
-      <c r="BG56" s="8"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:58">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5473,9 +5399,8 @@
       <c r="BD57" s="8"/>
       <c r="BE57" s="8"/>
       <c r="BF57" s="8"/>
-      <c r="BG57" s="8"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:58">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5534,9 +5459,8 @@
       <c r="BD58" s="8"/>
       <c r="BE58" s="8"/>
       <c r="BF58" s="8"/>
-      <c r="BG58" s="8"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:58">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5595,9 +5519,8 @@
       <c r="BD59" s="8"/>
       <c r="BE59" s="8"/>
       <c r="BF59" s="8"/>
-      <c r="BG59" s="8"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:58">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5656,9 +5579,8 @@
       <c r="BD60" s="8"/>
       <c r="BE60" s="8"/>
       <c r="BF60" s="8"/>
-      <c r="BG60" s="8"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:58">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5717,9 +5639,8 @@
       <c r="BD61" s="8"/>
       <c r="BE61" s="8"/>
       <c r="BF61" s="8"/>
-      <c r="BG61" s="8"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:58">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5778,9 +5699,8 @@
       <c r="BD62" s="8"/>
       <c r="BE62" s="8"/>
       <c r="BF62" s="8"/>
-      <c r="BG62" s="8"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:58">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5839,9 +5759,8 @@
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
       <c r="BF63" s="8"/>
-      <c r="BG63" s="8"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:58">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5900,9 +5819,8 @@
       <c r="BD64" s="8"/>
       <c r="BE64" s="8"/>
       <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:58">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5961,9 +5879,8 @@
       <c r="BD65" s="8"/>
       <c r="BE65" s="8"/>
       <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:58">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6022,9 +5939,8 @@
       <c r="BD66" s="8"/>
       <c r="BE66" s="8"/>
       <c r="BF66" s="8"/>
-      <c r="BG66" s="8"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:58">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6083,9 +5999,8 @@
       <c r="BD67" s="8"/>
       <c r="BE67" s="8"/>
       <c r="BF67" s="8"/>
-      <c r="BG67" s="8"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:58">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6144,9 +6059,8 @@
       <c r="BD68" s="8"/>
       <c r="BE68" s="8"/>
       <c r="BF68" s="8"/>
-      <c r="BG68" s="8"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:58">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6205,9 +6119,8 @@
       <c r="BD69" s="8"/>
       <c r="BE69" s="8"/>
       <c r="BF69" s="8"/>
-      <c r="BG69" s="8"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:58">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6266,9 +6179,8 @@
       <c r="BD70" s="8"/>
       <c r="BE70" s="8"/>
       <c r="BF70" s="8"/>
-      <c r="BG70" s="8"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:58">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6327,9 +6239,8 @@
       <c r="BD71" s="8"/>
       <c r="BE71" s="8"/>
       <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:58">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6388,9 +6299,8 @@
       <c r="BD72" s="8"/>
       <c r="BE72" s="8"/>
       <c r="BF72" s="8"/>
-      <c r="BG72" s="8"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:58">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6449,9 +6359,8 @@
       <c r="BD73" s="8"/>
       <c r="BE73" s="8"/>
       <c r="BF73" s="8"/>
-      <c r="BG73" s="8"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:58">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6510,9 +6419,8 @@
       <c r="BD74" s="8"/>
       <c r="BE74" s="8"/>
       <c r="BF74" s="8"/>
-      <c r="BG74" s="8"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:58">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6571,9 +6479,8 @@
       <c r="BD75" s="8"/>
       <c r="BE75" s="8"/>
       <c r="BF75" s="8"/>
-      <c r="BG75" s="8"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:58">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6632,9 +6539,8 @@
       <c r="BD76" s="8"/>
       <c r="BE76" s="8"/>
       <c r="BF76" s="8"/>
-      <c r="BG76" s="8"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:58">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6693,9 +6599,8 @@
       <c r="BD77" s="8"/>
       <c r="BE77" s="8"/>
       <c r="BF77" s="8"/>
-      <c r="BG77" s="8"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:58">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6754,9 +6659,8 @@
       <c r="BD78" s="8"/>
       <c r="BE78" s="8"/>
       <c r="BF78" s="8"/>
-      <c r="BG78" s="8"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:58">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6815,9 +6719,8 @@
       <c r="BD79" s="8"/>
       <c r="BE79" s="8"/>
       <c r="BF79" s="8"/>
-      <c r="BG79" s="8"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:58">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6876,9 +6779,8 @@
       <c r="BD80" s="8"/>
       <c r="BE80" s="8"/>
       <c r="BF80" s="8"/>
-      <c r="BG80" s="8"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:58">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6937,9 +6839,8 @@
       <c r="BD81" s="8"/>
       <c r="BE81" s="8"/>
       <c r="BF81" s="8"/>
-      <c r="BG81" s="8"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:58">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6998,9 +6899,8 @@
       <c r="BD82" s="8"/>
       <c r="BE82" s="8"/>
       <c r="BF82" s="8"/>
-      <c r="BG82" s="8"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:58">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7059,9 +6959,8 @@
       <c r="BD83" s="8"/>
       <c r="BE83" s="8"/>
       <c r="BF83" s="8"/>
-      <c r="BG83" s="8"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:58">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7120,9 +7019,8 @@
       <c r="BD84" s="8"/>
       <c r="BE84" s="8"/>
       <c r="BF84" s="8"/>
-      <c r="BG84" s="8"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:58">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7181,9 +7079,8 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="8"/>
       <c r="BF85" s="8"/>
-      <c r="BG85" s="8"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:58">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7242,9 +7139,8 @@
       <c r="BD86" s="8"/>
       <c r="BE86" s="8"/>
       <c r="BF86" s="8"/>
-      <c r="BG86" s="8"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:58">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7303,9 +7199,8 @@
       <c r="BD87" s="8"/>
       <c r="BE87" s="8"/>
       <c r="BF87" s="8"/>
-      <c r="BG87" s="8"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:58">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7364,9 +7259,8 @@
       <c r="BD88" s="8"/>
       <c r="BE88" s="8"/>
       <c r="BF88" s="8"/>
-      <c r="BG88" s="8"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:58">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7425,9 +7319,8 @@
       <c r="BD89" s="8"/>
       <c r="BE89" s="8"/>
       <c r="BF89" s="8"/>
-      <c r="BG89" s="8"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:58">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7486,9 +7379,8 @@
       <c r="BD90" s="8"/>
       <c r="BE90" s="8"/>
       <c r="BF90" s="8"/>
-      <c r="BG90" s="8"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:58">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7547,9 +7439,8 @@
       <c r="BD91" s="8"/>
       <c r="BE91" s="8"/>
       <c r="BF91" s="8"/>
-      <c r="BG91" s="8"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:58">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7608,9 +7499,8 @@
       <c r="BD92" s="8"/>
       <c r="BE92" s="8"/>
       <c r="BF92" s="8"/>
-      <c r="BG92" s="8"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:58">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7669,9 +7559,8 @@
       <c r="BD93" s="8"/>
       <c r="BE93" s="8"/>
       <c r="BF93" s="8"/>
-      <c r="BG93" s="8"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:58">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7730,9 +7619,8 @@
       <c r="BD94" s="8"/>
       <c r="BE94" s="8"/>
       <c r="BF94" s="8"/>
-      <c r="BG94" s="8"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:58">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7791,9 +7679,8 @@
       <c r="BD95" s="8"/>
       <c r="BE95" s="8"/>
       <c r="BF95" s="8"/>
-      <c r="BG95" s="8"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:58">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7852,9 +7739,8 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="8"/>
       <c r="BF96" s="8"/>
-      <c r="BG96" s="8"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:58">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7913,9 +7799,8 @@
       <c r="BD97" s="8"/>
       <c r="BE97" s="8"/>
       <c r="BF97" s="8"/>
-      <c r="BG97" s="8"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:58">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7974,9 +7859,8 @@
       <c r="BD98" s="8"/>
       <c r="BE98" s="8"/>
       <c r="BF98" s="8"/>
-      <c r="BG98" s="8"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:58">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -8035,9 +7919,8 @@
       <c r="BD99" s="8"/>
       <c r="BE99" s="8"/>
       <c r="BF99" s="8"/>
-      <c r="BG99" s="8"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:58">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -8096,9 +7979,8 @@
       <c r="BD100" s="8"/>
       <c r="BE100" s="8"/>
       <c r="BF100" s="8"/>
-      <c r="BG100" s="8"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:58">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8157,9 +8039,8 @@
       <c r="BD101" s="8"/>
       <c r="BE101" s="8"/>
       <c r="BF101" s="8"/>
-      <c r="BG101" s="8"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:58">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8218,9 +8099,8 @@
       <c r="BD102" s="8"/>
       <c r="BE102" s="8"/>
       <c r="BF102" s="8"/>
-      <c r="BG102" s="8"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:58">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8279,9 +8159,8 @@
       <c r="BD103" s="8"/>
       <c r="BE103" s="8"/>
       <c r="BF103" s="8"/>
-      <c r="BG103" s="8"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:58">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8340,9 +8219,8 @@
       <c r="BD104" s="8"/>
       <c r="BE104" s="8"/>
       <c r="BF104" s="8"/>
-      <c r="BG104" s="8"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:58">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8401,9 +8279,8 @@
       <c r="BD105" s="8"/>
       <c r="BE105" s="8"/>
       <c r="BF105" s="8"/>
-      <c r="BG105" s="8"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:58">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8462,9 +8339,8 @@
       <c r="BD106" s="8"/>
       <c r="BE106" s="8"/>
       <c r="BF106" s="8"/>
-      <c r="BG106" s="8"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:58">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8523,9 +8399,8 @@
       <c r="BD107" s="8"/>
       <c r="BE107" s="8"/>
       <c r="BF107" s="8"/>
-      <c r="BG107" s="8"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:58">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8584,9 +8459,8 @@
       <c r="BD108" s="8"/>
       <c r="BE108" s="8"/>
       <c r="BF108" s="8"/>
-      <c r="BG108" s="8"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:58">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8645,9 +8519,8 @@
       <c r="BD109" s="8"/>
       <c r="BE109" s="8"/>
       <c r="BF109" s="8"/>
-      <c r="BG109" s="8"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:58">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8706,9 +8579,8 @@
       <c r="BD110" s="8"/>
       <c r="BE110" s="8"/>
       <c r="BF110" s="8"/>
-      <c r="BG110" s="8"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:58">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8767,9 +8639,8 @@
       <c r="BD111" s="8"/>
       <c r="BE111" s="8"/>
       <c r="BF111" s="8"/>
-      <c r="BG111" s="8"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:58">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8828,9 +8699,8 @@
       <c r="BD112" s="8"/>
       <c r="BE112" s="8"/>
       <c r="BF112" s="8"/>
-      <c r="BG112" s="8"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:58">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8889,9 +8759,8 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="8"/>
       <c r="BF113" s="8"/>
-      <c r="BG113" s="8"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:58">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8950,9 +8819,8 @@
       <c r="BD114" s="8"/>
       <c r="BE114" s="8"/>
       <c r="BF114" s="8"/>
-      <c r="BG114" s="8"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:58">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -9011,9 +8879,8 @@
       <c r="BD115" s="8"/>
       <c r="BE115" s="8"/>
       <c r="BF115" s="8"/>
-      <c r="BG115" s="8"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:58">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -9072,9 +8939,8 @@
       <c r="BD116" s="8"/>
       <c r="BE116" s="8"/>
       <c r="BF116" s="8"/>
-      <c r="BG116" s="8"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:58">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -9133,9 +8999,8 @@
       <c r="BD117" s="8"/>
       <c r="BE117" s="8"/>
       <c r="BF117" s="8"/>
-      <c r="BG117" s="8"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:58">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -9194,9 +9059,8 @@
       <c r="BD118" s="8"/>
       <c r="BE118" s="8"/>
       <c r="BF118" s="8"/>
-      <c r="BG118" s="8"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:58">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -9255,9 +9119,8 @@
       <c r="BD119" s="8"/>
       <c r="BE119" s="8"/>
       <c r="BF119" s="8"/>
-      <c r="BG119" s="8"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:58">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -9316,9 +9179,8 @@
       <c r="BD120" s="8"/>
       <c r="BE120" s="8"/>
       <c r="BF120" s="8"/>
-      <c r="BG120" s="8"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:58">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -9377,9 +9239,8 @@
       <c r="BD121" s="8"/>
       <c r="BE121" s="8"/>
       <c r="BF121" s="8"/>
-      <c r="BG121" s="8"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:58">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -9438,9 +9299,8 @@
       <c r="BD122" s="8"/>
       <c r="BE122" s="8"/>
       <c r="BF122" s="8"/>
-      <c r="BG122" s="8"/>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:58">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9499,9 +9359,8 @@
       <c r="BD123" s="8"/>
       <c r="BE123" s="8"/>
       <c r="BF123" s="8"/>
-      <c r="BG123" s="8"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:58">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9560,9 +9419,8 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="8"/>
       <c r="BF124" s="8"/>
-      <c r="BG124" s="8"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:58">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9621,9 +9479,8 @@
       <c r="BD125" s="8"/>
       <c r="BE125" s="8"/>
       <c r="BF125" s="8"/>
-      <c r="BG125" s="8"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:58">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9682,9 +9539,8 @@
       <c r="BD126" s="8"/>
       <c r="BE126" s="8"/>
       <c r="BF126" s="8"/>
-      <c r="BG126" s="8"/>
-    </row>
-    <row r="127" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:58">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9743,9 +9599,8 @@
       <c r="BD127" s="8"/>
       <c r="BE127" s="8"/>
       <c r="BF127" s="8"/>
-      <c r="BG127" s="8"/>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:58">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9804,9 +9659,8 @@
       <c r="BD128" s="8"/>
       <c r="BE128" s="8"/>
       <c r="BF128" s="8"/>
-      <c r="BG128" s="8"/>
-    </row>
-    <row r="129" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:58">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9865,9 +9719,8 @@
       <c r="BD129" s="8"/>
       <c r="BE129" s="8"/>
       <c r="BF129" s="8"/>
-      <c r="BG129" s="8"/>
-    </row>
-    <row r="130" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:58">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9926,9 +9779,8 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="8"/>
       <c r="BF130" s="8"/>
-      <c r="BG130" s="8"/>
-    </row>
-    <row r="131" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:58">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9987,9 +9839,8 @@
       <c r="BD131" s="8"/>
       <c r="BE131" s="8"/>
       <c r="BF131" s="8"/>
-      <c r="BG131" s="8"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:58">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -10048,9 +9899,8 @@
       <c r="BD132" s="8"/>
       <c r="BE132" s="8"/>
       <c r="BF132" s="8"/>
-      <c r="BG132" s="8"/>
-    </row>
-    <row r="133" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:58">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -10109,9 +9959,8 @@
       <c r="BD133" s="8"/>
       <c r="BE133" s="8"/>
       <c r="BF133" s="8"/>
-      <c r="BG133" s="8"/>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:58">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10170,9 +10019,8 @@
       <c r="BD134" s="8"/>
       <c r="BE134" s="8"/>
       <c r="BF134" s="8"/>
-      <c r="BG134" s="8"/>
-    </row>
-    <row r="135" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:58">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10231,9 +10079,8 @@
       <c r="BD135" s="8"/>
       <c r="BE135" s="8"/>
       <c r="BF135" s="8"/>
-      <c r="BG135" s="8"/>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:58">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10292,9 +10139,8 @@
       <c r="BD136" s="8"/>
       <c r="BE136" s="8"/>
       <c r="BF136" s="8"/>
-      <c r="BG136" s="8"/>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:58">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10353,9 +10199,8 @@
       <c r="BD137" s="8"/>
       <c r="BE137" s="8"/>
       <c r="BF137" s="8"/>
-      <c r="BG137" s="8"/>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:58">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10414,9 +10259,8 @@
       <c r="BD138" s="8"/>
       <c r="BE138" s="8"/>
       <c r="BF138" s="8"/>
-      <c r="BG138" s="8"/>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:58">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10475,9 +10319,8 @@
       <c r="BD139" s="8"/>
       <c r="BE139" s="8"/>
       <c r="BF139" s="8"/>
-      <c r="BG139" s="8"/>
-    </row>
-    <row r="140" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:58">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10536,9 +10379,8 @@
       <c r="BD140" s="8"/>
       <c r="BE140" s="8"/>
       <c r="BF140" s="8"/>
-      <c r="BG140" s="8"/>
-    </row>
-    <row r="141" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:58">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10597,9 +10439,8 @@
       <c r="BD141" s="8"/>
       <c r="BE141" s="8"/>
       <c r="BF141" s="8"/>
-      <c r="BG141" s="8"/>
-    </row>
-    <row r="142" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:58">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10658,9 +10499,8 @@
       <c r="BD142" s="8"/>
       <c r="BE142" s="8"/>
       <c r="BF142" s="8"/>
-      <c r="BG142" s="8"/>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:58">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10719,9 +10559,8 @@
       <c r="BD143" s="8"/>
       <c r="BE143" s="8"/>
       <c r="BF143" s="8"/>
-      <c r="BG143" s="8"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:58">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10780,9 +10619,8 @@
       <c r="BD144" s="8"/>
       <c r="BE144" s="8"/>
       <c r="BF144" s="8"/>
-      <c r="BG144" s="8"/>
-    </row>
-    <row r="145" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:58">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -10841,9 +10679,8 @@
       <c r="BD145" s="8"/>
       <c r="BE145" s="8"/>
       <c r="BF145" s="8"/>
-      <c r="BG145" s="8"/>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:58">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -10902,9 +10739,8 @@
       <c r="BD146" s="8"/>
       <c r="BE146" s="8"/>
       <c r="BF146" s="8"/>
-      <c r="BG146" s="8"/>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:58">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -10963,9 +10799,8 @@
       <c r="BD147" s="8"/>
       <c r="BE147" s="8"/>
       <c r="BF147" s="8"/>
-      <c r="BG147" s="8"/>
-    </row>
-    <row r="148" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:58">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -11024,9 +10859,8 @@
       <c r="BD148" s="8"/>
       <c r="BE148" s="8"/>
       <c r="BF148" s="8"/>
-      <c r="BG148" s="8"/>
-    </row>
-    <row r="149" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:58">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -11085,9 +10919,8 @@
       <c r="BD149" s="8"/>
       <c r="BE149" s="8"/>
       <c r="BF149" s="8"/>
-      <c r="BG149" s="8"/>
-    </row>
-    <row r="150" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:58">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -11146,9 +10979,8 @@
       <c r="BD150" s="8"/>
       <c r="BE150" s="8"/>
       <c r="BF150" s="8"/>
-      <c r="BG150" s="8"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:58">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11207,9 +11039,8 @@
       <c r="BD151" s="8"/>
       <c r="BE151" s="8"/>
       <c r="BF151" s="8"/>
-      <c r="BG151" s="8"/>
-    </row>
-    <row r="152" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:58">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11268,9 +11099,8 @@
       <c r="BD152" s="8"/>
       <c r="BE152" s="8"/>
       <c r="BF152" s="8"/>
-      <c r="BG152" s="8"/>
-    </row>
-    <row r="153" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:58">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11329,9 +11159,8 @@
       <c r="BD153" s="8"/>
       <c r="BE153" s="8"/>
       <c r="BF153" s="8"/>
-      <c r="BG153" s="8"/>
-    </row>
-    <row r="154" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:58">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11390,9 +11219,8 @@
       <c r="BD154" s="8"/>
       <c r="BE154" s="8"/>
       <c r="BF154" s="8"/>
-      <c r="BG154" s="8"/>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:58">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11451,9 +11279,8 @@
       <c r="BD155" s="8"/>
       <c r="BE155" s="8"/>
       <c r="BF155" s="8"/>
-      <c r="BG155" s="8"/>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:58">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11512,9 +11339,8 @@
       <c r="BD156" s="8"/>
       <c r="BE156" s="8"/>
       <c r="BF156" s="8"/>
-      <c r="BG156" s="8"/>
-    </row>
-    <row r="157" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:58">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11573,9 +11399,8 @@
       <c r="BD157" s="8"/>
       <c r="BE157" s="8"/>
       <c r="BF157" s="8"/>
-      <c r="BG157" s="8"/>
-    </row>
-    <row r="158" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:58">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11634,9 +11459,8 @@
       <c r="BD158" s="8"/>
       <c r="BE158" s="8"/>
       <c r="BF158" s="8"/>
-      <c r="BG158" s="8"/>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:58">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11695,9 +11519,8 @@
       <c r="BD159" s="8"/>
       <c r="BE159" s="8"/>
       <c r="BF159" s="8"/>
-      <c r="BG159" s="8"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:58">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11756,9 +11579,8 @@
       <c r="BD160" s="8"/>
       <c r="BE160" s="8"/>
       <c r="BF160" s="8"/>
-      <c r="BG160" s="8"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:58">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11817,9 +11639,8 @@
       <c r="BD161" s="8"/>
       <c r="BE161" s="8"/>
       <c r="BF161" s="8"/>
-      <c r="BG161" s="8"/>
-    </row>
-    <row r="162" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:58">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11878,9 +11699,8 @@
       <c r="BD162" s="8"/>
       <c r="BE162" s="8"/>
       <c r="BF162" s="8"/>
-      <c r="BG162" s="8"/>
-    </row>
-    <row r="163" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:58">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11939,9 +11759,8 @@
       <c r="BD163" s="8"/>
       <c r="BE163" s="8"/>
       <c r="BF163" s="8"/>
-      <c r="BG163" s="8"/>
-    </row>
-    <row r="164" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:58">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -12000,9 +11819,8 @@
       <c r="BD164" s="8"/>
       <c r="BE164" s="8"/>
       <c r="BF164" s="8"/>
-      <c r="BG164" s="8"/>
-    </row>
-    <row r="165" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:58">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -12061,9 +11879,8 @@
       <c r="BD165" s="8"/>
       <c r="BE165" s="8"/>
       <c r="BF165" s="8"/>
-      <c r="BG165" s="8"/>
-    </row>
-    <row r="166" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:58">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -12122,9 +11939,8 @@
       <c r="BD166" s="8"/>
       <c r="BE166" s="8"/>
       <c r="BF166" s="8"/>
-      <c r="BG166" s="8"/>
-    </row>
-    <row r="167" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:58">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -12183,9 +11999,8 @@
       <c r="BD167" s="8"/>
       <c r="BE167" s="8"/>
       <c r="BF167" s="8"/>
-      <c r="BG167" s="8"/>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:58">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -12244,9 +12059,8 @@
       <c r="BD168" s="8"/>
       <c r="BE168" s="8"/>
       <c r="BF168" s="8"/>
-      <c r="BG168" s="8"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:58">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -12305,9 +12119,8 @@
       <c r="BD169" s="8"/>
       <c r="BE169" s="8"/>
       <c r="BF169" s="8"/>
-      <c r="BG169" s="8"/>
-    </row>
-    <row r="170" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:58">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -12366,9 +12179,8 @@
       <c r="BD170" s="8"/>
       <c r="BE170" s="8"/>
       <c r="BF170" s="8"/>
-      <c r="BG170" s="8"/>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:58">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -12427,9 +12239,8 @@
       <c r="BD171" s="8"/>
       <c r="BE171" s="8"/>
       <c r="BF171" s="8"/>
-      <c r="BG171" s="8"/>
-    </row>
-    <row r="172" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:58">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -12488,9 +12299,8 @@
       <c r="BD172" s="8"/>
       <c r="BE172" s="8"/>
       <c r="BF172" s="8"/>
-      <c r="BG172" s="8"/>
-    </row>
-    <row r="173" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:58">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -12549,9 +12359,8 @@
       <c r="BD173" s="8"/>
       <c r="BE173" s="8"/>
       <c r="BF173" s="8"/>
-      <c r="BG173" s="8"/>
-    </row>
-    <row r="174" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:58">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -12610,9 +12419,8 @@
       <c r="BD174" s="8"/>
       <c r="BE174" s="8"/>
       <c r="BF174" s="8"/>
-      <c r="BG174" s="8"/>
-    </row>
-    <row r="175" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:58">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -12671,9 +12479,8 @@
       <c r="BD175" s="8"/>
       <c r="BE175" s="8"/>
       <c r="BF175" s="8"/>
-      <c r="BG175" s="8"/>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:58">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -12732,9 +12539,8 @@
       <c r="BD176" s="8"/>
       <c r="BE176" s="8"/>
       <c r="BF176" s="8"/>
-      <c r="BG176" s="8"/>
-    </row>
-    <row r="177" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:58">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -12793,9 +12599,8 @@
       <c r="BD177" s="8"/>
       <c r="BE177" s="8"/>
       <c r="BF177" s="8"/>
-      <c r="BG177" s="8"/>
-    </row>
-    <row r="178" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:58">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -12854,9 +12659,8 @@
       <c r="BD178" s="8"/>
       <c r="BE178" s="8"/>
       <c r="BF178" s="8"/>
-      <c r="BG178" s="8"/>
-    </row>
-    <row r="179" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:58">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -12915,9 +12719,8 @@
       <c r="BD179" s="8"/>
       <c r="BE179" s="8"/>
       <c r="BF179" s="8"/>
-      <c r="BG179" s="8"/>
-    </row>
-    <row r="180" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:58">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -12976,9 +12779,8 @@
       <c r="BD180" s="8"/>
       <c r="BE180" s="8"/>
       <c r="BF180" s="8"/>
-      <c r="BG180" s="8"/>
-    </row>
-    <row r="181" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:58">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -13037,9 +12839,8 @@
       <c r="BD181" s="8"/>
       <c r="BE181" s="8"/>
       <c r="BF181" s="8"/>
-      <c r="BG181" s="8"/>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:58">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -13098,9 +12899,8 @@
       <c r="BD182" s="8"/>
       <c r="BE182" s="8"/>
       <c r="BF182" s="8"/>
-      <c r="BG182" s="8"/>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:58">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -13159,9 +12959,8 @@
       <c r="BD183" s="8"/>
       <c r="BE183" s="8"/>
       <c r="BF183" s="8"/>
-      <c r="BG183" s="8"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:58">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -13220,9 +13019,8 @@
       <c r="BD184" s="8"/>
       <c r="BE184" s="8"/>
       <c r="BF184" s="8"/>
-      <c r="BG184" s="8"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:58">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -13281,9 +13079,8 @@
       <c r="BD185" s="8"/>
       <c r="BE185" s="8"/>
       <c r="BF185" s="8"/>
-      <c r="BG185" s="8"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:58">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -13342,9 +13139,8 @@
       <c r="BD186" s="8"/>
       <c r="BE186" s="8"/>
       <c r="BF186" s="8"/>
-      <c r="BG186" s="8"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:58">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -13403,9 +13199,8 @@
       <c r="BD187" s="8"/>
       <c r="BE187" s="8"/>
       <c r="BF187" s="8"/>
-      <c r="BG187" s="8"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:58">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -13464,9 +13259,8 @@
       <c r="BD188" s="8"/>
       <c r="BE188" s="8"/>
       <c r="BF188" s="8"/>
-      <c r="BG188" s="8"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:58">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -13525,9 +13319,8 @@
       <c r="BD189" s="8"/>
       <c r="BE189" s="8"/>
       <c r="BF189" s="8"/>
-      <c r="BG189" s="8"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:58">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -13586,9 +13379,8 @@
       <c r="BD190" s="8"/>
       <c r="BE190" s="8"/>
       <c r="BF190" s="8"/>
-      <c r="BG190" s="8"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:58">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -13647,9 +13439,8 @@
       <c r="BD191" s="8"/>
       <c r="BE191" s="8"/>
       <c r="BF191" s="8"/>
-      <c r="BG191" s="8"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:58">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -13708,9 +13499,8 @@
       <c r="BD192" s="8"/>
       <c r="BE192" s="8"/>
       <c r="BF192" s="8"/>
-      <c r="BG192" s="8"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:58">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -13769,9 +13559,8 @@
       <c r="BD193" s="8"/>
       <c r="BE193" s="8"/>
       <c r="BF193" s="8"/>
-      <c r="BG193" s="8"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:58">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -13830,9 +13619,8 @@
       <c r="BD194" s="8"/>
       <c r="BE194" s="8"/>
       <c r="BF194" s="8"/>
-      <c r="BG194" s="8"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:58">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -13891,9 +13679,8 @@
       <c r="BD195" s="8"/>
       <c r="BE195" s="8"/>
       <c r="BF195" s="8"/>
-      <c r="BG195" s="8"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:58">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -13952,9 +13739,8 @@
       <c r="BD196" s="8"/>
       <c r="BE196" s="8"/>
       <c r="BF196" s="8"/>
-      <c r="BG196" s="8"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:58">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -14013,9 +13799,8 @@
       <c r="BD197" s="8"/>
       <c r="BE197" s="8"/>
       <c r="BF197" s="8"/>
-      <c r="BG197" s="8"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:58">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -14074,9 +13859,8 @@
       <c r="BD198" s="8"/>
       <c r="BE198" s="8"/>
       <c r="BF198" s="8"/>
-      <c r="BG198" s="8"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:58">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -14135,9 +13919,8 @@
       <c r="BD199" s="8"/>
       <c r="BE199" s="8"/>
       <c r="BF199" s="8"/>
-      <c r="BG199" s="8"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:58">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -14196,9 +13979,8 @@
       <c r="BD200" s="8"/>
       <c r="BE200" s="8"/>
       <c r="BF200" s="8"/>
-      <c r="BG200" s="8"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:59">
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:58">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -14257,42 +14039,38 @@
       <c r="BD201" s="8"/>
       <c r="BE201" s="8"/>
       <c r="BF201" s="8"/>
-      <c r="BG201" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="AE1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="AD1:AW1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N201">
       <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201">
-      <formula1>"配送,直送,全部"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201">
+      <formula1>"大货仓位,小货仓位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201 U3:U201 X3:X201">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
+      <formula1>"通货,普货,大货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
-      <formula1>"通货,普货,大货"</formula1>
+      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201 V3:V201 Y3:Y201">
-      <formula1>"否,是"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY3:AY201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX201">
       <formula1>"经销,代销,联营"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB201">
-      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -214,6 +214,15 @@
           </rPr>
           <t>只填数字</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="AJ2" authorId="1">
@@ -233,12 +242,12 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购的规格
-</t>
+          <t>只填数字</t>
         </r>
       </text>
     </comment>
@@ -246,12 +255,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>采购的单位</t>
+          <t xml:space="preserve">采购的规格
+</t>
         </r>
       </text>
     </comment>
@@ -264,16 +273,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>采购的单位</t>
         </r>
       </text>
     </comment>
@@ -310,9 +310,44 @@
           </rPr>
           <t>只填数字</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="AP2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -334,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1">
+    <comment ref="AS2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -356,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1">
+    <comment ref="AT2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -369,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1">
+    <comment ref="AV2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -391,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0">
+    <comment ref="AZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,41 +436,6 @@
             <charset val="134"/>
           </rPr>
           <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
         </r>
       </text>
     </comment>
@@ -472,6 +472,41 @@
           </rPr>
           <t>只填数字</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="BC2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -488,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>基本信息</t>
   </si>
@@ -610,6 +645,32 @@
     <t>库存高(MM)</t>
   </si>
   <si>
+    <r>
+      <t>库存体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>库存毛重(KG)</t>
   </si>
   <si>
@@ -629,6 +690,34 @@
   </si>
   <si>
     <t>采购高(MM)</t>
+  </si>
+  <si>
+    <r>
+      <t>采购体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>采购毛重(KG)</t>
@@ -684,12 +773,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,13 +818,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -743,45 +825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +847,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -810,9 +862,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,9 +915,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,33 +945,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -886,6 +986,12 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -940,13 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,79 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1094,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,55 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,60 +1289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1263,6 +1315,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1272,11 +1372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,10 +1392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,16 +1404,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,115 +1422,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,10 +1587,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1806,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF201"/>
+  <dimension ref="A1:BH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -1835,24 +1941,26 @@
     <col min="29" max="29" width="11.8333333333333" style="3" customWidth="1"/>
     <col min="30" max="31" width="9.75" style="3" customWidth="1"/>
     <col min="32" max="34" width="13" style="3" customWidth="1"/>
-    <col min="35" max="36" width="14" style="3" customWidth="1"/>
-    <col min="37" max="38" width="9.75" style="3" customWidth="1"/>
-    <col min="39" max="41" width="13" style="3" customWidth="1"/>
-    <col min="42" max="43" width="14" style="3" customWidth="1"/>
-    <col min="44" max="44" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="45" max="45" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="46" max="47" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="48" max="48" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="49" max="53" width="9.75" style="3" customWidth="1"/>
-    <col min="54" max="54" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="55" max="55" width="9.75" style="3" customWidth="1"/>
-    <col min="56" max="56" width="18.25" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.8888888888889" style="3" customWidth="1"/>
+    <col min="36" max="37" width="14" style="3" customWidth="1"/>
+    <col min="38" max="39" width="9.75" style="3" customWidth="1"/>
+    <col min="40" max="42" width="13" style="3" customWidth="1"/>
+    <col min="43" max="43" width="17.1111111111111" style="3" customWidth="1"/>
+    <col min="44" max="45" width="14" style="3" customWidth="1"/>
+    <col min="46" max="46" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="47" max="47" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="48" max="49" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="50" max="50" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="51" max="55" width="9.75" style="3" customWidth="1"/>
+    <col min="56" max="56" width="16.3333333333333" style="3" customWidth="1"/>
     <col min="57" max="57" width="9.75" style="3" customWidth="1"/>
-    <col min="58" max="58" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="59" max="16384" width="8.75" style="3"/>
+    <col min="58" max="58" width="18.25" style="3" customWidth="1"/>
+    <col min="59" max="59" width="9.75" style="3" customWidth="1"/>
+    <col min="60" max="60" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="61" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:58">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:60">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1908,23 +2016,25 @@
       <c r="AU1" s="12"/>
       <c r="AV1" s="12"/>
       <c r="AW1" s="12"/>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
       <c r="BA1" s="17"/>
       <c r="BB1" s="17"/>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="17" t="s">
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:58">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:60">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2149,7 @@
       <c r="AL2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN2" s="16" t="s">
@@ -2054,10 +2164,10 @@
       <c r="AQ2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AR2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AS2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="AT2" s="14" t="s">
@@ -2072,35 +2182,41 @@
       <c r="AW2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="19" t="s">
+      <c r="AX2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="19" t="s">
+      <c r="AY2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="BA2" s="19" t="s">
+      <c r="BA2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="BB2" s="19" t="s">
+      <c r="BB2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF2" s="19" t="s">
+      <c r="BF2" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:58">
+      <c r="BG2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:60">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2159,8 +2275,10 @@
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="8"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:58">
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:60">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2219,8 +2337,10 @@
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:58">
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:60">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2279,8 +2399,10 @@
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:58">
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:60">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2339,8 +2461,10 @@
       <c r="BD6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:58">
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:60">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2399,8 +2523,10 @@
       <c r="BD7" s="8"/>
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:58">
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:60">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2459,8 +2585,10 @@
       <c r="BD8" s="8"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:58">
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:60">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2519,8 +2647,10 @@
       <c r="BD9" s="8"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:58">
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:60">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2579,8 +2709,10 @@
       <c r="BD10" s="8"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:58">
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:60">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2639,8 +2771,10 @@
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:58">
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:60">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2699,8 +2833,10 @@
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:58">
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:60">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2759,8 +2895,10 @@
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:58">
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:60">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2819,8 +2957,10 @@
       <c r="BD14" s="8"/>
       <c r="BE14" s="8"/>
       <c r="BF14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:58">
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:60">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2879,8 +3019,10 @@
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
       <c r="BF15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:58">
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:60">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2939,8 +3081,10 @@
       <c r="BD16" s="8"/>
       <c r="BE16" s="8"/>
       <c r="BF16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="15" customHeight="1" spans="1:58">
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="15" customHeight="1" spans="1:60">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2999,8 +3143,10 @@
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
       <c r="BF17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:58">
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:60">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3059,8 +3205,10 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="8"/>
       <c r="BF18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:58">
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:60">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3119,8 +3267,10 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
       <c r="BF19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:58">
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:60">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3179,8 +3329,10 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="8"/>
       <c r="BF20" s="8"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:58">
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:60">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3239,8 +3391,10 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="8"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:58">
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:60">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3299,8 +3453,10 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="8"/>
       <c r="BF22" s="8"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:58">
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:60">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3359,8 +3515,10 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="8"/>
       <c r="BF23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:58">
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:60">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3419,8 +3577,10 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="8"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:58">
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:60">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3479,8 +3639,10 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:58">
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:60">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3539,8 +3701,10 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="8"/>
       <c r="BF26" s="8"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:58">
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:60">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3599,8 +3763,10 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="8"/>
       <c r="BF27" s="8"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:58">
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:60">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3659,8 +3825,10 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="8"/>
       <c r="BF28" s="8"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:58">
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:60">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3719,8 +3887,10 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="8"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:58">
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:60">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3779,8 +3949,10 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="8"/>
       <c r="BF30" s="8"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:58">
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:60">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3839,8 +4011,10 @@
       <c r="BD31" s="8"/>
       <c r="BE31" s="8"/>
       <c r="BF31" s="8"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:58">
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:60">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3899,8 +4073,10 @@
       <c r="BD32" s="8"/>
       <c r="BE32" s="8"/>
       <c r="BF32" s="8"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:58">
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:60">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3959,8 +4135,10 @@
       <c r="BD33" s="8"/>
       <c r="BE33" s="8"/>
       <c r="BF33" s="8"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:58">
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:60">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4019,8 +4197,10 @@
       <c r="BD34" s="8"/>
       <c r="BE34" s="8"/>
       <c r="BF34" s="8"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:58">
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:60">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4079,8 +4259,10 @@
       <c r="BD35" s="8"/>
       <c r="BE35" s="8"/>
       <c r="BF35" s="8"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:58">
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:60">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4139,8 +4321,10 @@
       <c r="BD36" s="8"/>
       <c r="BE36" s="8"/>
       <c r="BF36" s="8"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:58">
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:60">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4199,8 +4383,10 @@
       <c r="BD37" s="8"/>
       <c r="BE37" s="8"/>
       <c r="BF37" s="8"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:58">
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:60">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4259,8 +4445,10 @@
       <c r="BD38" s="8"/>
       <c r="BE38" s="8"/>
       <c r="BF38" s="8"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:58">
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:60">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4319,8 +4507,10 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="8"/>
       <c r="BF39" s="8"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:58">
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:60">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4379,8 +4569,10 @@
       <c r="BD40" s="8"/>
       <c r="BE40" s="8"/>
       <c r="BF40" s="8"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:58">
+      <c r="BG40" s="8"/>
+      <c r="BH40" s="8"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:60">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4439,8 +4631,10 @@
       <c r="BD41" s="8"/>
       <c r="BE41" s="8"/>
       <c r="BF41" s="8"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:58">
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:60">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4499,8 +4693,10 @@
       <c r="BD42" s="8"/>
       <c r="BE42" s="8"/>
       <c r="BF42" s="8"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:58">
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:60">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4559,8 +4755,10 @@
       <c r="BD43" s="8"/>
       <c r="BE43" s="8"/>
       <c r="BF43" s="8"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:58">
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:60">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4619,8 +4817,10 @@
       <c r="BD44" s="8"/>
       <c r="BE44" s="8"/>
       <c r="BF44" s="8"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:58">
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:60">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4679,8 +4879,10 @@
       <c r="BD45" s="8"/>
       <c r="BE45" s="8"/>
       <c r="BF45" s="8"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:58">
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:60">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4739,8 +4941,10 @@
       <c r="BD46" s="8"/>
       <c r="BE46" s="8"/>
       <c r="BF46" s="8"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:58">
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:60">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4799,8 +5003,10 @@
       <c r="BD47" s="8"/>
       <c r="BE47" s="8"/>
       <c r="BF47" s="8"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:58">
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="8"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:60">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4859,8 +5065,10 @@
       <c r="BD48" s="8"/>
       <c r="BE48" s="8"/>
       <c r="BF48" s="8"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:58">
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="8"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:60">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4919,8 +5127,10 @@
       <c r="BD49" s="8"/>
       <c r="BE49" s="8"/>
       <c r="BF49" s="8"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:58">
+      <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:60">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4979,8 +5189,10 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
       <c r="BF50" s="8"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:58">
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:60">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5039,8 +5251,10 @@
       <c r="BD51" s="8"/>
       <c r="BE51" s="8"/>
       <c r="BF51" s="8"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:58">
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:60">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5099,8 +5313,10 @@
       <c r="BD52" s="8"/>
       <c r="BE52" s="8"/>
       <c r="BF52" s="8"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:58">
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:60">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5159,8 +5375,10 @@
       <c r="BD53" s="8"/>
       <c r="BE53" s="8"/>
       <c r="BF53" s="8"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:58">
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="8"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:60">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5219,8 +5437,10 @@
       <c r="BD54" s="8"/>
       <c r="BE54" s="8"/>
       <c r="BF54" s="8"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:58">
+      <c r="BG54" s="8"/>
+      <c r="BH54" s="8"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:60">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5279,8 +5499,10 @@
       <c r="BD55" s="8"/>
       <c r="BE55" s="8"/>
       <c r="BF55" s="8"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:58">
+      <c r="BG55" s="8"/>
+      <c r="BH55" s="8"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:60">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5339,8 +5561,10 @@
       <c r="BD56" s="8"/>
       <c r="BE56" s="8"/>
       <c r="BF56" s="8"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:58">
+      <c r="BG56" s="8"/>
+      <c r="BH56" s="8"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:60">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5399,8 +5623,10 @@
       <c r="BD57" s="8"/>
       <c r="BE57" s="8"/>
       <c r="BF57" s="8"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:58">
+      <c r="BG57" s="8"/>
+      <c r="BH57" s="8"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:60">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5459,8 +5685,10 @@
       <c r="BD58" s="8"/>
       <c r="BE58" s="8"/>
       <c r="BF58" s="8"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:58">
+      <c r="BG58" s="8"/>
+      <c r="BH58" s="8"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:60">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5519,8 +5747,10 @@
       <c r="BD59" s="8"/>
       <c r="BE59" s="8"/>
       <c r="BF59" s="8"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:58">
+      <c r="BG59" s="8"/>
+      <c r="BH59" s="8"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:60">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5579,8 +5809,10 @@
       <c r="BD60" s="8"/>
       <c r="BE60" s="8"/>
       <c r="BF60" s="8"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:58">
+      <c r="BG60" s="8"/>
+      <c r="BH60" s="8"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:60">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5639,8 +5871,10 @@
       <c r="BD61" s="8"/>
       <c r="BE61" s="8"/>
       <c r="BF61" s="8"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:58">
+      <c r="BG61" s="8"/>
+      <c r="BH61" s="8"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:60">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5699,8 +5933,10 @@
       <c r="BD62" s="8"/>
       <c r="BE62" s="8"/>
       <c r="BF62" s="8"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:58">
+      <c r="BG62" s="8"/>
+      <c r="BH62" s="8"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:60">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5759,8 +5995,10 @@
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
       <c r="BF63" s="8"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:58">
+      <c r="BG63" s="8"/>
+      <c r="BH63" s="8"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:60">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5819,8 +6057,10 @@
       <c r="BD64" s="8"/>
       <c r="BE64" s="8"/>
       <c r="BF64" s="8"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:58">
+      <c r="BG64" s="8"/>
+      <c r="BH64" s="8"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:60">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5879,8 +6119,10 @@
       <c r="BD65" s="8"/>
       <c r="BE65" s="8"/>
       <c r="BF65" s="8"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:58">
+      <c r="BG65" s="8"/>
+      <c r="BH65" s="8"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:60">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5939,8 +6181,10 @@
       <c r="BD66" s="8"/>
       <c r="BE66" s="8"/>
       <c r="BF66" s="8"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:58">
+      <c r="BG66" s="8"/>
+      <c r="BH66" s="8"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:60">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5999,8 +6243,10 @@
       <c r="BD67" s="8"/>
       <c r="BE67" s="8"/>
       <c r="BF67" s="8"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:58">
+      <c r="BG67" s="8"/>
+      <c r="BH67" s="8"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:60">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6059,8 +6305,10 @@
       <c r="BD68" s="8"/>
       <c r="BE68" s="8"/>
       <c r="BF68" s="8"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:58">
+      <c r="BG68" s="8"/>
+      <c r="BH68" s="8"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:60">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6119,8 +6367,10 @@
       <c r="BD69" s="8"/>
       <c r="BE69" s="8"/>
       <c r="BF69" s="8"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:58">
+      <c r="BG69" s="8"/>
+      <c r="BH69" s="8"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:60">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6179,8 +6429,10 @@
       <c r="BD70" s="8"/>
       <c r="BE70" s="8"/>
       <c r="BF70" s="8"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:58">
+      <c r="BG70" s="8"/>
+      <c r="BH70" s="8"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:60">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6239,8 +6491,10 @@
       <c r="BD71" s="8"/>
       <c r="BE71" s="8"/>
       <c r="BF71" s="8"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:58">
+      <c r="BG71" s="8"/>
+      <c r="BH71" s="8"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:60">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6299,8 +6553,10 @@
       <c r="BD72" s="8"/>
       <c r="BE72" s="8"/>
       <c r="BF72" s="8"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:58">
+      <c r="BG72" s="8"/>
+      <c r="BH72" s="8"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:60">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6359,8 +6615,10 @@
       <c r="BD73" s="8"/>
       <c r="BE73" s="8"/>
       <c r="BF73" s="8"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:58">
+      <c r="BG73" s="8"/>
+      <c r="BH73" s="8"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:60">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6419,8 +6677,10 @@
       <c r="BD74" s="8"/>
       <c r="BE74" s="8"/>
       <c r="BF74" s="8"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:58">
+      <c r="BG74" s="8"/>
+      <c r="BH74" s="8"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:60">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6479,8 +6739,10 @@
       <c r="BD75" s="8"/>
       <c r="BE75" s="8"/>
       <c r="BF75" s="8"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:58">
+      <c r="BG75" s="8"/>
+      <c r="BH75" s="8"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:60">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6539,8 +6801,10 @@
       <c r="BD76" s="8"/>
       <c r="BE76" s="8"/>
       <c r="BF76" s="8"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:58">
+      <c r="BG76" s="8"/>
+      <c r="BH76" s="8"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:60">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6599,8 +6863,10 @@
       <c r="BD77" s="8"/>
       <c r="BE77" s="8"/>
       <c r="BF77" s="8"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:58">
+      <c r="BG77" s="8"/>
+      <c r="BH77" s="8"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:60">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6659,8 +6925,10 @@
       <c r="BD78" s="8"/>
       <c r="BE78" s="8"/>
       <c r="BF78" s="8"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:58">
+      <c r="BG78" s="8"/>
+      <c r="BH78" s="8"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:60">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6719,8 +6987,10 @@
       <c r="BD79" s="8"/>
       <c r="BE79" s="8"/>
       <c r="BF79" s="8"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:58">
+      <c r="BG79" s="8"/>
+      <c r="BH79" s="8"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:60">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6779,8 +7049,10 @@
       <c r="BD80" s="8"/>
       <c r="BE80" s="8"/>
       <c r="BF80" s="8"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:58">
+      <c r="BG80" s="8"/>
+      <c r="BH80" s="8"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:60">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6839,8 +7111,10 @@
       <c r="BD81" s="8"/>
       <c r="BE81" s="8"/>
       <c r="BF81" s="8"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:58">
+      <c r="BG81" s="8"/>
+      <c r="BH81" s="8"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:60">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6899,8 +7173,10 @@
       <c r="BD82" s="8"/>
       <c r="BE82" s="8"/>
       <c r="BF82" s="8"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:58">
+      <c r="BG82" s="8"/>
+      <c r="BH82" s="8"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:60">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6959,8 +7235,10 @@
       <c r="BD83" s="8"/>
       <c r="BE83" s="8"/>
       <c r="BF83" s="8"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:58">
+      <c r="BG83" s="8"/>
+      <c r="BH83" s="8"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:60">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7019,8 +7297,10 @@
       <c r="BD84" s="8"/>
       <c r="BE84" s="8"/>
       <c r="BF84" s="8"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:58">
+      <c r="BG84" s="8"/>
+      <c r="BH84" s="8"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:60">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7079,8 +7359,10 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="8"/>
       <c r="BF85" s="8"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:58">
+      <c r="BG85" s="8"/>
+      <c r="BH85" s="8"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:60">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7139,8 +7421,10 @@
       <c r="BD86" s="8"/>
       <c r="BE86" s="8"/>
       <c r="BF86" s="8"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:58">
+      <c r="BG86" s="8"/>
+      <c r="BH86" s="8"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:60">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7199,8 +7483,10 @@
       <c r="BD87" s="8"/>
       <c r="BE87" s="8"/>
       <c r="BF87" s="8"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:58">
+      <c r="BG87" s="8"/>
+      <c r="BH87" s="8"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:60">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7259,8 +7545,10 @@
       <c r="BD88" s="8"/>
       <c r="BE88" s="8"/>
       <c r="BF88" s="8"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:58">
+      <c r="BG88" s="8"/>
+      <c r="BH88" s="8"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:60">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7319,8 +7607,10 @@
       <c r="BD89" s="8"/>
       <c r="BE89" s="8"/>
       <c r="BF89" s="8"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:58">
+      <c r="BG89" s="8"/>
+      <c r="BH89" s="8"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:60">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7379,8 +7669,10 @@
       <c r="BD90" s="8"/>
       <c r="BE90" s="8"/>
       <c r="BF90" s="8"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:58">
+      <c r="BG90" s="8"/>
+      <c r="BH90" s="8"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:60">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7439,8 +7731,10 @@
       <c r="BD91" s="8"/>
       <c r="BE91" s="8"/>
       <c r="BF91" s="8"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:58">
+      <c r="BG91" s="8"/>
+      <c r="BH91" s="8"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:60">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7499,8 +7793,10 @@
       <c r="BD92" s="8"/>
       <c r="BE92" s="8"/>
       <c r="BF92" s="8"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:58">
+      <c r="BG92" s="8"/>
+      <c r="BH92" s="8"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:60">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7559,8 +7855,10 @@
       <c r="BD93" s="8"/>
       <c r="BE93" s="8"/>
       <c r="BF93" s="8"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:58">
+      <c r="BG93" s="8"/>
+      <c r="BH93" s="8"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:60">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7619,8 +7917,10 @@
       <c r="BD94" s="8"/>
       <c r="BE94" s="8"/>
       <c r="BF94" s="8"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:58">
+      <c r="BG94" s="8"/>
+      <c r="BH94" s="8"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:60">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7679,8 +7979,10 @@
       <c r="BD95" s="8"/>
       <c r="BE95" s="8"/>
       <c r="BF95" s="8"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:58">
+      <c r="BG95" s="8"/>
+      <c r="BH95" s="8"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:60">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7739,8 +8041,10 @@
       <c r="BD96" s="8"/>
       <c r="BE96" s="8"/>
       <c r="BF96" s="8"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:58">
+      <c r="BG96" s="8"/>
+      <c r="BH96" s="8"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:60">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7799,8 +8103,10 @@
       <c r="BD97" s="8"/>
       <c r="BE97" s="8"/>
       <c r="BF97" s="8"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="1:58">
+      <c r="BG97" s="8"/>
+      <c r="BH97" s="8"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:60">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7859,8 +8165,10 @@
       <c r="BD98" s="8"/>
       <c r="BE98" s="8"/>
       <c r="BF98" s="8"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:58">
+      <c r="BG98" s="8"/>
+      <c r="BH98" s="8"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:60">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7919,8 +8227,10 @@
       <c r="BD99" s="8"/>
       <c r="BE99" s="8"/>
       <c r="BF99" s="8"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:58">
+      <c r="BG99" s="8"/>
+      <c r="BH99" s="8"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:60">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7979,8 +8289,10 @@
       <c r="BD100" s="8"/>
       <c r="BE100" s="8"/>
       <c r="BF100" s="8"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:58">
+      <c r="BG100" s="8"/>
+      <c r="BH100" s="8"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:60">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8039,8 +8351,10 @@
       <c r="BD101" s="8"/>
       <c r="BE101" s="8"/>
       <c r="BF101" s="8"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:58">
+      <c r="BG101" s="8"/>
+      <c r="BH101" s="8"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:60">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8099,8 +8413,10 @@
       <c r="BD102" s="8"/>
       <c r="BE102" s="8"/>
       <c r="BF102" s="8"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:58">
+      <c r="BG102" s="8"/>
+      <c r="BH102" s="8"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:60">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8159,8 +8475,10 @@
       <c r="BD103" s="8"/>
       <c r="BE103" s="8"/>
       <c r="BF103" s="8"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:58">
+      <c r="BG103" s="8"/>
+      <c r="BH103" s="8"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:60">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8219,8 +8537,10 @@
       <c r="BD104" s="8"/>
       <c r="BE104" s="8"/>
       <c r="BF104" s="8"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="1:58">
+      <c r="BG104" s="8"/>
+      <c r="BH104" s="8"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:60">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8279,8 +8599,10 @@
       <c r="BD105" s="8"/>
       <c r="BE105" s="8"/>
       <c r="BF105" s="8"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="1:58">
+      <c r="BG105" s="8"/>
+      <c r="BH105" s="8"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:60">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8339,8 +8661,10 @@
       <c r="BD106" s="8"/>
       <c r="BE106" s="8"/>
       <c r="BF106" s="8"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:58">
+      <c r="BG106" s="8"/>
+      <c r="BH106" s="8"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:60">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8399,8 +8723,10 @@
       <c r="BD107" s="8"/>
       <c r="BE107" s="8"/>
       <c r="BF107" s="8"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:58">
+      <c r="BG107" s="8"/>
+      <c r="BH107" s="8"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:60">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8459,8 +8785,10 @@
       <c r="BD108" s="8"/>
       <c r="BE108" s="8"/>
       <c r="BF108" s="8"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:58">
+      <c r="BG108" s="8"/>
+      <c r="BH108" s="8"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:60">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8519,8 +8847,10 @@
       <c r="BD109" s="8"/>
       <c r="BE109" s="8"/>
       <c r="BF109" s="8"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:58">
+      <c r="BG109" s="8"/>
+      <c r="BH109" s="8"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:60">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8579,8 +8909,10 @@
       <c r="BD110" s="8"/>
       <c r="BE110" s="8"/>
       <c r="BF110" s="8"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:58">
+      <c r="BG110" s="8"/>
+      <c r="BH110" s="8"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:60">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8639,8 +8971,10 @@
       <c r="BD111" s="8"/>
       <c r="BE111" s="8"/>
       <c r="BF111" s="8"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:58">
+      <c r="BG111" s="8"/>
+      <c r="BH111" s="8"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:60">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8699,8 +9033,10 @@
       <c r="BD112" s="8"/>
       <c r="BE112" s="8"/>
       <c r="BF112" s="8"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="1:58">
+      <c r="BG112" s="8"/>
+      <c r="BH112" s="8"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:60">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8759,8 +9095,10 @@
       <c r="BD113" s="8"/>
       <c r="BE113" s="8"/>
       <c r="BF113" s="8"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="1:58">
+      <c r="BG113" s="8"/>
+      <c r="BH113" s="8"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:60">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8819,8 +9157,10 @@
       <c r="BD114" s="8"/>
       <c r="BE114" s="8"/>
       <c r="BF114" s="8"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="1:58">
+      <c r="BG114" s="8"/>
+      <c r="BH114" s="8"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:60">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8879,8 +9219,10 @@
       <c r="BD115" s="8"/>
       <c r="BE115" s="8"/>
       <c r="BF115" s="8"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="1:58">
+      <c r="BG115" s="8"/>
+      <c r="BH115" s="8"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:60">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8939,8 +9281,10 @@
       <c r="BD116" s="8"/>
       <c r="BE116" s="8"/>
       <c r="BF116" s="8"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="1:58">
+      <c r="BG116" s="8"/>
+      <c r="BH116" s="8"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:60">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8999,8 +9343,10 @@
       <c r="BD117" s="8"/>
       <c r="BE117" s="8"/>
       <c r="BF117" s="8"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="1:58">
+      <c r="BG117" s="8"/>
+      <c r="BH117" s="8"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:60">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -9059,8 +9405,10 @@
       <c r="BD118" s="8"/>
       <c r="BE118" s="8"/>
       <c r="BF118" s="8"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:58">
+      <c r="BG118" s="8"/>
+      <c r="BH118" s="8"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:60">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -9119,8 +9467,10 @@
       <c r="BD119" s="8"/>
       <c r="BE119" s="8"/>
       <c r="BF119" s="8"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="1:58">
+      <c r="BG119" s="8"/>
+      <c r="BH119" s="8"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:60">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -9179,8 +9529,10 @@
       <c r="BD120" s="8"/>
       <c r="BE120" s="8"/>
       <c r="BF120" s="8"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:58">
+      <c r="BG120" s="8"/>
+      <c r="BH120" s="8"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:60">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -9239,8 +9591,10 @@
       <c r="BD121" s="8"/>
       <c r="BE121" s="8"/>
       <c r="BF121" s="8"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:58">
+      <c r="BG121" s="8"/>
+      <c r="BH121" s="8"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:60">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -9299,8 +9653,10 @@
       <c r="BD122" s="8"/>
       <c r="BE122" s="8"/>
       <c r="BF122" s="8"/>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:58">
+      <c r="BG122" s="8"/>
+      <c r="BH122" s="8"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:60">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9359,8 +9715,10 @@
       <c r="BD123" s="8"/>
       <c r="BE123" s="8"/>
       <c r="BF123" s="8"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:58">
+      <c r="BG123" s="8"/>
+      <c r="BH123" s="8"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:60">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9419,8 +9777,10 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="8"/>
       <c r="BF124" s="8"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:58">
+      <c r="BG124" s="8"/>
+      <c r="BH124" s="8"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:60">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9479,8 +9839,10 @@
       <c r="BD125" s="8"/>
       <c r="BE125" s="8"/>
       <c r="BF125" s="8"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:58">
+      <c r="BG125" s="8"/>
+      <c r="BH125" s="8"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:60">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9539,8 +9901,10 @@
       <c r="BD126" s="8"/>
       <c r="BE126" s="8"/>
       <c r="BF126" s="8"/>
-    </row>
-    <row r="127" s="3" customFormat="1" spans="1:58">
+      <c r="BG126" s="8"/>
+      <c r="BH126" s="8"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:60">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -9599,8 +9963,10 @@
       <c r="BD127" s="8"/>
       <c r="BE127" s="8"/>
       <c r="BF127" s="8"/>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:58">
+      <c r="BG127" s="8"/>
+      <c r="BH127" s="8"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:60">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -9659,8 +10025,10 @@
       <c r="BD128" s="8"/>
       <c r="BE128" s="8"/>
       <c r="BF128" s="8"/>
-    </row>
-    <row r="129" s="3" customFormat="1" spans="1:58">
+      <c r="BG128" s="8"/>
+      <c r="BH128" s="8"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:60">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -9719,8 +10087,10 @@
       <c r="BD129" s="8"/>
       <c r="BE129" s="8"/>
       <c r="BF129" s="8"/>
-    </row>
-    <row r="130" s="3" customFormat="1" spans="1:58">
+      <c r="BG129" s="8"/>
+      <c r="BH129" s="8"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:60">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -9779,8 +10149,10 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="8"/>
       <c r="BF130" s="8"/>
-    </row>
-    <row r="131" s="3" customFormat="1" spans="1:58">
+      <c r="BG130" s="8"/>
+      <c r="BH130" s="8"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:60">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -9839,8 +10211,10 @@
       <c r="BD131" s="8"/>
       <c r="BE131" s="8"/>
       <c r="BF131" s="8"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="1:58">
+      <c r="BG131" s="8"/>
+      <c r="BH131" s="8"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:60">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -9899,8 +10273,10 @@
       <c r="BD132" s="8"/>
       <c r="BE132" s="8"/>
       <c r="BF132" s="8"/>
-    </row>
-    <row r="133" s="3" customFormat="1" spans="1:58">
+      <c r="BG132" s="8"/>
+      <c r="BH132" s="8"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:60">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -9959,8 +10335,10 @@
       <c r="BD133" s="8"/>
       <c r="BE133" s="8"/>
       <c r="BF133" s="8"/>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:58">
+      <c r="BG133" s="8"/>
+      <c r="BH133" s="8"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:60">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10019,8 +10397,10 @@
       <c r="BD134" s="8"/>
       <c r="BE134" s="8"/>
       <c r="BF134" s="8"/>
-    </row>
-    <row r="135" s="3" customFormat="1" spans="1:58">
+      <c r="BG134" s="8"/>
+      <c r="BH134" s="8"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:60">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10079,8 +10459,10 @@
       <c r="BD135" s="8"/>
       <c r="BE135" s="8"/>
       <c r="BF135" s="8"/>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="1:58">
+      <c r="BG135" s="8"/>
+      <c r="BH135" s="8"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:60">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10139,8 +10521,10 @@
       <c r="BD136" s="8"/>
       <c r="BE136" s="8"/>
       <c r="BF136" s="8"/>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:58">
+      <c r="BG136" s="8"/>
+      <c r="BH136" s="8"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:60">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10199,8 +10583,10 @@
       <c r="BD137" s="8"/>
       <c r="BE137" s="8"/>
       <c r="BF137" s="8"/>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:58">
+      <c r="BG137" s="8"/>
+      <c r="BH137" s="8"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:60">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10259,8 +10645,10 @@
       <c r="BD138" s="8"/>
       <c r="BE138" s="8"/>
       <c r="BF138" s="8"/>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="1:58">
+      <c r="BG138" s="8"/>
+      <c r="BH138" s="8"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:60">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10319,8 +10707,10 @@
       <c r="BD139" s="8"/>
       <c r="BE139" s="8"/>
       <c r="BF139" s="8"/>
-    </row>
-    <row r="140" s="3" customFormat="1" spans="1:58">
+      <c r="BG139" s="8"/>
+      <c r="BH139" s="8"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:60">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10379,8 +10769,10 @@
       <c r="BD140" s="8"/>
       <c r="BE140" s="8"/>
       <c r="BF140" s="8"/>
-    </row>
-    <row r="141" s="3" customFormat="1" spans="1:58">
+      <c r="BG140" s="8"/>
+      <c r="BH140" s="8"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:60">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10439,8 +10831,10 @@
       <c r="BD141" s="8"/>
       <c r="BE141" s="8"/>
       <c r="BF141" s="8"/>
-    </row>
-    <row r="142" s="3" customFormat="1" spans="1:58">
+      <c r="BG141" s="8"/>
+      <c r="BH141" s="8"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:60">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10499,8 +10893,10 @@
       <c r="BD142" s="8"/>
       <c r="BE142" s="8"/>
       <c r="BF142" s="8"/>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:58">
+      <c r="BG142" s="8"/>
+      <c r="BH142" s="8"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:60">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10559,8 +10955,10 @@
       <c r="BD143" s="8"/>
       <c r="BE143" s="8"/>
       <c r="BF143" s="8"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:58">
+      <c r="BG143" s="8"/>
+      <c r="BH143" s="8"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:60">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10619,8 +11017,10 @@
       <c r="BD144" s="8"/>
       <c r="BE144" s="8"/>
       <c r="BF144" s="8"/>
-    </row>
-    <row r="145" s="3" customFormat="1" spans="1:58">
+      <c r="BG144" s="8"/>
+      <c r="BH144" s="8"/>
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:60">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -10679,8 +11079,10 @@
       <c r="BD145" s="8"/>
       <c r="BE145" s="8"/>
       <c r="BF145" s="8"/>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:58">
+      <c r="BG145" s="8"/>
+      <c r="BH145" s="8"/>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:60">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -10739,8 +11141,10 @@
       <c r="BD146" s="8"/>
       <c r="BE146" s="8"/>
       <c r="BF146" s="8"/>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:58">
+      <c r="BG146" s="8"/>
+      <c r="BH146" s="8"/>
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:60">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -10799,8 +11203,10 @@
       <c r="BD147" s="8"/>
       <c r="BE147" s="8"/>
       <c r="BF147" s="8"/>
-    </row>
-    <row r="148" s="3" customFormat="1" spans="1:58">
+      <c r="BG147" s="8"/>
+      <c r="BH147" s="8"/>
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:60">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -10859,8 +11265,10 @@
       <c r="BD148" s="8"/>
       <c r="BE148" s="8"/>
       <c r="BF148" s="8"/>
-    </row>
-    <row r="149" s="3" customFormat="1" spans="1:58">
+      <c r="BG148" s="8"/>
+      <c r="BH148" s="8"/>
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:60">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -10919,8 +11327,10 @@
       <c r="BD149" s="8"/>
       <c r="BE149" s="8"/>
       <c r="BF149" s="8"/>
-    </row>
-    <row r="150" s="3" customFormat="1" spans="1:58">
+      <c r="BG149" s="8"/>
+      <c r="BH149" s="8"/>
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:60">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -10979,8 +11389,10 @@
       <c r="BD150" s="8"/>
       <c r="BE150" s="8"/>
       <c r="BF150" s="8"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="1:58">
+      <c r="BG150" s="8"/>
+      <c r="BH150" s="8"/>
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:60">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11039,8 +11451,10 @@
       <c r="BD151" s="8"/>
       <c r="BE151" s="8"/>
       <c r="BF151" s="8"/>
-    </row>
-    <row r="152" s="3" customFormat="1" spans="1:58">
+      <c r="BG151" s="8"/>
+      <c r="BH151" s="8"/>
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:60">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11099,8 +11513,10 @@
       <c r="BD152" s="8"/>
       <c r="BE152" s="8"/>
       <c r="BF152" s="8"/>
-    </row>
-    <row r="153" s="3" customFormat="1" spans="1:58">
+      <c r="BG152" s="8"/>
+      <c r="BH152" s="8"/>
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:60">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11159,8 +11575,10 @@
       <c r="BD153" s="8"/>
       <c r="BE153" s="8"/>
       <c r="BF153" s="8"/>
-    </row>
-    <row r="154" s="3" customFormat="1" spans="1:58">
+      <c r="BG153" s="8"/>
+      <c r="BH153" s="8"/>
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:60">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11219,8 +11637,10 @@
       <c r="BD154" s="8"/>
       <c r="BE154" s="8"/>
       <c r="BF154" s="8"/>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:58">
+      <c r="BG154" s="8"/>
+      <c r="BH154" s="8"/>
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:60">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11279,8 +11699,10 @@
       <c r="BD155" s="8"/>
       <c r="BE155" s="8"/>
       <c r="BF155" s="8"/>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:58">
+      <c r="BG155" s="8"/>
+      <c r="BH155" s="8"/>
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:60">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11339,8 +11761,10 @@
       <c r="BD156" s="8"/>
       <c r="BE156" s="8"/>
       <c r="BF156" s="8"/>
-    </row>
-    <row r="157" s="3" customFormat="1" spans="1:58">
+      <c r="BG156" s="8"/>
+      <c r="BH156" s="8"/>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:60">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11399,8 +11823,10 @@
       <c r="BD157" s="8"/>
       <c r="BE157" s="8"/>
       <c r="BF157" s="8"/>
-    </row>
-    <row r="158" s="3" customFormat="1" spans="1:58">
+      <c r="BG157" s="8"/>
+      <c r="BH157" s="8"/>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:60">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11459,8 +11885,10 @@
       <c r="BD158" s="8"/>
       <c r="BE158" s="8"/>
       <c r="BF158" s="8"/>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:58">
+      <c r="BG158" s="8"/>
+      <c r="BH158" s="8"/>
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:60">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11519,8 +11947,10 @@
       <c r="BD159" s="8"/>
       <c r="BE159" s="8"/>
       <c r="BF159" s="8"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:58">
+      <c r="BG159" s="8"/>
+      <c r="BH159" s="8"/>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:60">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11579,8 +12009,10 @@
       <c r="BD160" s="8"/>
       <c r="BE160" s="8"/>
       <c r="BF160" s="8"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:58">
+      <c r="BG160" s="8"/>
+      <c r="BH160" s="8"/>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:60">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11639,8 +12071,10 @@
       <c r="BD161" s="8"/>
       <c r="BE161" s="8"/>
       <c r="BF161" s="8"/>
-    </row>
-    <row r="162" s="3" customFormat="1" spans="1:58">
+      <c r="BG161" s="8"/>
+      <c r="BH161" s="8"/>
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:60">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11699,8 +12133,10 @@
       <c r="BD162" s="8"/>
       <c r="BE162" s="8"/>
       <c r="BF162" s="8"/>
-    </row>
-    <row r="163" s="3" customFormat="1" spans="1:58">
+      <c r="BG162" s="8"/>
+      <c r="BH162" s="8"/>
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:60">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11759,8 +12195,10 @@
       <c r="BD163" s="8"/>
       <c r="BE163" s="8"/>
       <c r="BF163" s="8"/>
-    </row>
-    <row r="164" s="3" customFormat="1" spans="1:58">
+      <c r="BG163" s="8"/>
+      <c r="BH163" s="8"/>
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:60">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -11819,8 +12257,10 @@
       <c r="BD164" s="8"/>
       <c r="BE164" s="8"/>
       <c r="BF164" s="8"/>
-    </row>
-    <row r="165" s="3" customFormat="1" spans="1:58">
+      <c r="BG164" s="8"/>
+      <c r="BH164" s="8"/>
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:60">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -11879,8 +12319,10 @@
       <c r="BD165" s="8"/>
       <c r="BE165" s="8"/>
       <c r="BF165" s="8"/>
-    </row>
-    <row r="166" s="3" customFormat="1" spans="1:58">
+      <c r="BG165" s="8"/>
+      <c r="BH165" s="8"/>
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:60">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -11939,8 +12381,10 @@
       <c r="BD166" s="8"/>
       <c r="BE166" s="8"/>
       <c r="BF166" s="8"/>
-    </row>
-    <row r="167" s="3" customFormat="1" spans="1:58">
+      <c r="BG166" s="8"/>
+      <c r="BH166" s="8"/>
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:60">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -11999,8 +12443,10 @@
       <c r="BD167" s="8"/>
       <c r="BE167" s="8"/>
       <c r="BF167" s="8"/>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:58">
+      <c r="BG167" s="8"/>
+      <c r="BH167" s="8"/>
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:60">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -12059,8 +12505,10 @@
       <c r="BD168" s="8"/>
       <c r="BE168" s="8"/>
       <c r="BF168" s="8"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:58">
+      <c r="BG168" s="8"/>
+      <c r="BH168" s="8"/>
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:60">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -12119,8 +12567,10 @@
       <c r="BD169" s="8"/>
       <c r="BE169" s="8"/>
       <c r="BF169" s="8"/>
-    </row>
-    <row r="170" s="3" customFormat="1" spans="1:58">
+      <c r="BG169" s="8"/>
+      <c r="BH169" s="8"/>
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:60">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -12179,8 +12629,10 @@
       <c r="BD170" s="8"/>
       <c r="BE170" s="8"/>
       <c r="BF170" s="8"/>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:58">
+      <c r="BG170" s="8"/>
+      <c r="BH170" s="8"/>
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:60">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -12239,8 +12691,10 @@
       <c r="BD171" s="8"/>
       <c r="BE171" s="8"/>
       <c r="BF171" s="8"/>
-    </row>
-    <row r="172" s="3" customFormat="1" spans="1:58">
+      <c r="BG171" s="8"/>
+      <c r="BH171" s="8"/>
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:60">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -12299,8 +12753,10 @@
       <c r="BD172" s="8"/>
       <c r="BE172" s="8"/>
       <c r="BF172" s="8"/>
-    </row>
-    <row r="173" s="3" customFormat="1" spans="1:58">
+      <c r="BG172" s="8"/>
+      <c r="BH172" s="8"/>
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:60">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -12359,8 +12815,10 @@
       <c r="BD173" s="8"/>
       <c r="BE173" s="8"/>
       <c r="BF173" s="8"/>
-    </row>
-    <row r="174" s="3" customFormat="1" spans="1:58">
+      <c r="BG173" s="8"/>
+      <c r="BH173" s="8"/>
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:60">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -12419,8 +12877,10 @@
       <c r="BD174" s="8"/>
       <c r="BE174" s="8"/>
       <c r="BF174" s="8"/>
-    </row>
-    <row r="175" s="3" customFormat="1" spans="1:58">
+      <c r="BG174" s="8"/>
+      <c r="BH174" s="8"/>
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:60">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -12479,8 +12939,10 @@
       <c r="BD175" s="8"/>
       <c r="BE175" s="8"/>
       <c r="BF175" s="8"/>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="1:58">
+      <c r="BG175" s="8"/>
+      <c r="BH175" s="8"/>
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:60">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -12539,8 +13001,10 @@
       <c r="BD176" s="8"/>
       <c r="BE176" s="8"/>
       <c r="BF176" s="8"/>
-    </row>
-    <row r="177" s="3" customFormat="1" spans="1:58">
+      <c r="BG176" s="8"/>
+      <c r="BH176" s="8"/>
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:60">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -12599,8 +13063,10 @@
       <c r="BD177" s="8"/>
       <c r="BE177" s="8"/>
       <c r="BF177" s="8"/>
-    </row>
-    <row r="178" s="3" customFormat="1" spans="1:58">
+      <c r="BG177" s="8"/>
+      <c r="BH177" s="8"/>
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:60">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -12659,8 +13125,10 @@
       <c r="BD178" s="8"/>
       <c r="BE178" s="8"/>
       <c r="BF178" s="8"/>
-    </row>
-    <row r="179" s="3" customFormat="1" spans="1:58">
+      <c r="BG178" s="8"/>
+      <c r="BH178" s="8"/>
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:60">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -12719,8 +13187,10 @@
       <c r="BD179" s="8"/>
       <c r="BE179" s="8"/>
       <c r="BF179" s="8"/>
-    </row>
-    <row r="180" s="3" customFormat="1" spans="1:58">
+      <c r="BG179" s="8"/>
+      <c r="BH179" s="8"/>
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:60">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -12779,8 +13249,10 @@
       <c r="BD180" s="8"/>
       <c r="BE180" s="8"/>
       <c r="BF180" s="8"/>
-    </row>
-    <row r="181" s="3" customFormat="1" spans="1:58">
+      <c r="BG180" s="8"/>
+      <c r="BH180" s="8"/>
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:60">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -12839,8 +13311,10 @@
       <c r="BD181" s="8"/>
       <c r="BE181" s="8"/>
       <c r="BF181" s="8"/>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:58">
+      <c r="BG181" s="8"/>
+      <c r="BH181" s="8"/>
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:60">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -12899,8 +13373,10 @@
       <c r="BD182" s="8"/>
       <c r="BE182" s="8"/>
       <c r="BF182" s="8"/>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:58">
+      <c r="BG182" s="8"/>
+      <c r="BH182" s="8"/>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:60">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -12959,8 +13435,10 @@
       <c r="BD183" s="8"/>
       <c r="BE183" s="8"/>
       <c r="BF183" s="8"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:58">
+      <c r="BG183" s="8"/>
+      <c r="BH183" s="8"/>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:60">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -13019,8 +13497,10 @@
       <c r="BD184" s="8"/>
       <c r="BE184" s="8"/>
       <c r="BF184" s="8"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:58">
+      <c r="BG184" s="8"/>
+      <c r="BH184" s="8"/>
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:60">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -13079,8 +13559,10 @@
       <c r="BD185" s="8"/>
       <c r="BE185" s="8"/>
       <c r="BF185" s="8"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:58">
+      <c r="BG185" s="8"/>
+      <c r="BH185" s="8"/>
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:60">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -13139,8 +13621,10 @@
       <c r="BD186" s="8"/>
       <c r="BE186" s="8"/>
       <c r="BF186" s="8"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:58">
+      <c r="BG186" s="8"/>
+      <c r="BH186" s="8"/>
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:60">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -13199,8 +13683,10 @@
       <c r="BD187" s="8"/>
       <c r="BE187" s="8"/>
       <c r="BF187" s="8"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:58">
+      <c r="BG187" s="8"/>
+      <c r="BH187" s="8"/>
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:60">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -13259,8 +13745,10 @@
       <c r="BD188" s="8"/>
       <c r="BE188" s="8"/>
       <c r="BF188" s="8"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:58">
+      <c r="BG188" s="8"/>
+      <c r="BH188" s="8"/>
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:60">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -13319,8 +13807,10 @@
       <c r="BD189" s="8"/>
       <c r="BE189" s="8"/>
       <c r="BF189" s="8"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:58">
+      <c r="BG189" s="8"/>
+      <c r="BH189" s="8"/>
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:60">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -13379,8 +13869,10 @@
       <c r="BD190" s="8"/>
       <c r="BE190" s="8"/>
       <c r="BF190" s="8"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:58">
+      <c r="BG190" s="8"/>
+      <c r="BH190" s="8"/>
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:60">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -13439,8 +13931,10 @@
       <c r="BD191" s="8"/>
       <c r="BE191" s="8"/>
       <c r="BF191" s="8"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:58">
+      <c r="BG191" s="8"/>
+      <c r="BH191" s="8"/>
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:60">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -13499,8 +13993,10 @@
       <c r="BD192" s="8"/>
       <c r="BE192" s="8"/>
       <c r="BF192" s="8"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:58">
+      <c r="BG192" s="8"/>
+      <c r="BH192" s="8"/>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:60">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -13559,8 +14055,10 @@
       <c r="BD193" s="8"/>
       <c r="BE193" s="8"/>
       <c r="BF193" s="8"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:58">
+      <c r="BG193" s="8"/>
+      <c r="BH193" s="8"/>
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:60">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -13619,8 +14117,10 @@
       <c r="BD194" s="8"/>
       <c r="BE194" s="8"/>
       <c r="BF194" s="8"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:58">
+      <c r="BG194" s="8"/>
+      <c r="BH194" s="8"/>
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:60">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -13679,8 +14179,10 @@
       <c r="BD195" s="8"/>
       <c r="BE195" s="8"/>
       <c r="BF195" s="8"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:58">
+      <c r="BG195" s="8"/>
+      <c r="BH195" s="8"/>
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:60">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -13739,8 +14241,10 @@
       <c r="BD196" s="8"/>
       <c r="BE196" s="8"/>
       <c r="BF196" s="8"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:58">
+      <c r="BG196" s="8"/>
+      <c r="BH196" s="8"/>
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:60">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -13799,8 +14303,10 @@
       <c r="BD197" s="8"/>
       <c r="BE197" s="8"/>
       <c r="BF197" s="8"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:58">
+      <c r="BG197" s="8"/>
+      <c r="BH197" s="8"/>
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:60">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -13859,8 +14365,10 @@
       <c r="BD198" s="8"/>
       <c r="BE198" s="8"/>
       <c r="BF198" s="8"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:58">
+      <c r="BG198" s="8"/>
+      <c r="BH198" s="8"/>
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:60">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -13919,8 +14427,10 @@
       <c r="BD199" s="8"/>
       <c r="BE199" s="8"/>
       <c r="BF199" s="8"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:58">
+      <c r="BG199" s="8"/>
+      <c r="BH199" s="8"/>
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:60">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -13979,8 +14489,10 @@
       <c r="BD200" s="8"/>
       <c r="BE200" s="8"/>
       <c r="BF200" s="8"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:58">
+      <c r="BG200" s="8"/>
+      <c r="BH200" s="8"/>
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:60">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -14039,17 +14551,22 @@
       <c r="BD201" s="8"/>
       <c r="BE201" s="8"/>
       <c r="BF201" s="8"/>
+      <c r="BG201" s="8"/>
+      <c r="BH201" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="AD1:AW1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="AD1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
+      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201">
       <formula1>"商品,赠品"</formula1>
@@ -14057,19 +14574,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N201">
       <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201 U3:U201 X3:X201">
       <formula1>"否,是"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
       <formula1>"通货,普货,大货"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
-      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201">
+      <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ201">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA44A5-5933-4020-B520-9F7D61C1B56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F6C54-6E7B-4BE3-99B9-DCF04AF636CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1045,18 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,16 +1075,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1367,7 +1370,7 @@
     <col min="10" max="10" width="11.3984375" style="3" customWidth="1"/>
     <col min="11" max="12" width="9.33203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="5.73046875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="17" customWidth="1"/>
     <col min="15" max="16" width="5.73046875" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.73046875" style="3" customWidth="1"/>
     <col min="18" max="19" width="14.06640625" style="3" customWidth="1"/>
@@ -1389,7 +1392,9 @@
     <col min="47" max="47" width="11.796875" style="3" customWidth="1"/>
     <col min="48" max="49" width="14.06640625" style="3" customWidth="1"/>
     <col min="50" max="50" width="11.796875" style="3" customWidth="1"/>
-    <col min="51" max="55" width="9.73046875" style="3" customWidth="1"/>
+    <col min="51" max="52" width="9.73046875" style="3" customWidth="1"/>
+    <col min="53" max="54" width="9.73046875" style="17" customWidth="1"/>
+    <col min="55" max="55" width="9.73046875" style="3" customWidth="1"/>
     <col min="56" max="56" width="16.33203125" style="3" customWidth="1"/>
     <col min="57" max="57" width="9.73046875" style="3" customWidth="1"/>
     <col min="58" max="58" width="18.265625" style="3" customWidth="1"/>
@@ -1399,75 +1404,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="20"/>
       <c r="AC1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="19" t="s">
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="20" t="s">
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
       <c r="BH1" s="13" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1517,7 @@
       <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1629,10 +1634,10 @@
       <c r="AZ2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BB2" s="25" t="s">
         <v>59</v>
       </c>
       <c r="BC2" s="14" t="s">
@@ -1668,7 +1673,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="24"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1707,8 +1712,8 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="18"/>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
@@ -1730,7 +1735,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="24"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1769,8 +1774,8 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
@@ -1792,7 +1797,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="22"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1831,8 +1836,8 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
@@ -1854,7 +1859,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="22"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1893,8 +1898,8 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
@@ -1916,7 +1921,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1955,8 +1960,8 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
@@ -1978,7 +1983,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2017,8 +2022,8 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
@@ -2040,7 +2045,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -2079,8 +2084,8 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
@@ -2102,7 +2107,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="22"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -2141,8 +2146,8 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
@@ -2164,7 +2169,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2203,8 +2208,8 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
@@ -2226,7 +2231,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="22"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2265,8 +2270,8 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -2288,7 +2293,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2327,8 +2332,8 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
       <c r="BE13" s="7"/>
@@ -2350,7 +2355,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2389,8 +2394,8 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
@@ -2412,7 +2417,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="22"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2451,8 +2456,8 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="7"/>
@@ -2474,7 +2479,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="22"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2513,8 +2518,8 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
@@ -2536,7 +2541,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="22"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2575,8 +2580,8 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7"/>
@@ -2598,7 +2603,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="22"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -2637,8 +2642,8 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
@@ -2660,7 +2665,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="22"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2699,8 +2704,8 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7"/>
@@ -2722,7 +2727,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="22"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -2761,8 +2766,8 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
@@ -2784,7 +2789,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="22"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2823,8 +2828,8 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
@@ -2846,7 +2851,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="22"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -2885,8 +2890,8 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
@@ -2908,7 +2913,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="22"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2947,8 +2952,8 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
       <c r="BC23" s="7"/>
       <c r="BD23" s="7"/>
       <c r="BE23" s="7"/>
@@ -2970,7 +2975,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="22"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -3009,8 +3014,8 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
@@ -3032,7 +3037,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="22"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -3071,8 +3076,8 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
@@ -3094,7 +3099,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="22"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -3133,8 +3138,8 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
       <c r="BE26" s="7"/>
@@ -3156,7 +3161,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="22"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3195,8 +3200,8 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
       <c r="BE27" s="7"/>
@@ -3218,7 +3223,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="22"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -3257,8 +3262,8 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
-      <c r="BA28" s="7"/>
-      <c r="BB28" s="7"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
       <c r="BE28" s="7"/>
@@ -3280,7 +3285,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="22"/>
+      <c r="N29" s="16"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -3319,8 +3324,8 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="7"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
       <c r="BE29" s="7"/>
@@ -3342,7 +3347,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="22"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3381,8 +3386,8 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
@@ -3404,7 +3409,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="22"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -3443,8 +3448,8 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
       <c r="BE31" s="7"/>
@@ -3466,7 +3471,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="22"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -3505,8 +3510,8 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7"/>
       <c r="BE32" s="7"/>
@@ -3528,7 +3533,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="22"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -3567,8 +3572,8 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
       <c r="BE33" s="7"/>
@@ -3590,7 +3595,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="22"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -3629,8 +3634,8 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
-      <c r="BA34" s="7"/>
-      <c r="BB34" s="7"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
       <c r="BE34" s="7"/>
@@ -3652,7 +3657,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="22"/>
+      <c r="N35" s="16"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -3691,8 +3696,8 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
       <c r="BE35" s="7"/>
@@ -3714,7 +3719,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="22"/>
+      <c r="N36" s="16"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -3753,8 +3758,8 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
-      <c r="BA36" s="7"/>
-      <c r="BB36" s="7"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="7"/>
       <c r="BE36" s="7"/>
@@ -3776,7 +3781,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="22"/>
+      <c r="N37" s="16"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -3815,8 +3820,8 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
-      <c r="BA37" s="7"/>
-      <c r="BB37" s="7"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="7"/>
       <c r="BE37" s="7"/>
@@ -3838,7 +3843,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="22"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -3877,8 +3882,8 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-      <c r="BB38" s="7"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
       <c r="BE38" s="7"/>
@@ -3900,7 +3905,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="22"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -3939,8 +3944,8 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="7"/>
       <c r="BE39" s="7"/>
@@ -3962,7 +3967,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="22"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -4001,8 +4006,8 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
-      <c r="BA40" s="7"/>
-      <c r="BB40" s="7"/>
+      <c r="BA40" s="16"/>
+      <c r="BB40" s="16"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="7"/>
       <c r="BE40" s="7"/>
@@ -4024,7 +4029,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="22"/>
+      <c r="N41" s="16"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -4063,8 +4068,8 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
+      <c r="BA41" s="16"/>
+      <c r="BB41" s="16"/>
       <c r="BC41" s="7"/>
       <c r="BD41" s="7"/>
       <c r="BE41" s="7"/>
@@ -4086,7 +4091,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="22"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4125,8 +4130,8 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
       <c r="BE42" s="7"/>
@@ -4148,7 +4153,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="22"/>
+      <c r="N43" s="16"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -4187,8 +4192,8 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
+      <c r="BA43" s="16"/>
+      <c r="BB43" s="16"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="7"/>
       <c r="BE43" s="7"/>
@@ -4210,7 +4215,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="22"/>
+      <c r="N44" s="16"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -4249,8 +4254,8 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
+      <c r="BA44" s="16"/>
+      <c r="BB44" s="16"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="7"/>
       <c r="BE44" s="7"/>
@@ -4272,7 +4277,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="22"/>
+      <c r="N45" s="16"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -4311,8 +4316,8 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
-      <c r="BA45" s="7"/>
-      <c r="BB45" s="7"/>
+      <c r="BA45" s="16"/>
+      <c r="BB45" s="16"/>
       <c r="BC45" s="7"/>
       <c r="BD45" s="7"/>
       <c r="BE45" s="7"/>
@@ -4334,7 +4339,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="22"/>
+      <c r="N46" s="16"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -4373,8 +4378,8 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
-      <c r="BA46" s="7"/>
-      <c r="BB46" s="7"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
       <c r="BC46" s="7"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
@@ -4396,7 +4401,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="22"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -4435,8 +4440,8 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
-      <c r="BA47" s="7"/>
-      <c r="BB47" s="7"/>
+      <c r="BA47" s="16"/>
+      <c r="BB47" s="16"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
@@ -4458,7 +4463,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="22"/>
+      <c r="N48" s="16"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -4497,8 +4502,8 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
-      <c r="BA48" s="7"/>
-      <c r="BB48" s="7"/>
+      <c r="BA48" s="16"/>
+      <c r="BB48" s="16"/>
       <c r="BC48" s="7"/>
       <c r="BD48" s="7"/>
       <c r="BE48" s="7"/>
@@ -4520,7 +4525,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="22"/>
+      <c r="N49" s="16"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -4559,8 +4564,8 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
       <c r="AZ49" s="7"/>
-      <c r="BA49" s="7"/>
-      <c r="BB49" s="7"/>
+      <c r="BA49" s="16"/>
+      <c r="BB49" s="16"/>
       <c r="BC49" s="7"/>
       <c r="BD49" s="7"/>
       <c r="BE49" s="7"/>
@@ -4582,7 +4587,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="22"/>
+      <c r="N50" s="16"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -4621,8 +4626,8 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
       <c r="AZ50" s="7"/>
-      <c r="BA50" s="7"/>
-      <c r="BB50" s="7"/>
+      <c r="BA50" s="16"/>
+      <c r="BB50" s="16"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="7"/>
       <c r="BE50" s="7"/>
@@ -4644,7 +4649,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="22"/>
+      <c r="N51" s="16"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
@@ -4683,8 +4688,8 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
       <c r="AZ51" s="7"/>
-      <c r="BA51" s="7"/>
-      <c r="BB51" s="7"/>
+      <c r="BA51" s="16"/>
+      <c r="BB51" s="16"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="7"/>
       <c r="BE51" s="7"/>
@@ -4706,7 +4711,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="22"/>
+      <c r="N52" s="16"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -4745,8 +4750,8 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="7"/>
-      <c r="BA52" s="7"/>
-      <c r="BB52" s="7"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="16"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="7"/>
       <c r="BE52" s="7"/>
@@ -4768,7 +4773,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="22"/>
+      <c r="N53" s="16"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -4807,8 +4812,8 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
+      <c r="BA53" s="16"/>
+      <c r="BB53" s="16"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
       <c r="BE53" s="7"/>
@@ -4830,7 +4835,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="22"/>
+      <c r="N54" s="16"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -4869,8 +4874,8 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
-      <c r="BA54" s="7"/>
-      <c r="BB54" s="7"/>
+      <c r="BA54" s="16"/>
+      <c r="BB54" s="16"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
       <c r="BE54" s="7"/>
@@ -4892,7 +4897,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="22"/>
+      <c r="N55" s="16"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -4931,8 +4936,8 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
-      <c r="BA55" s="7"/>
-      <c r="BB55" s="7"/>
+      <c r="BA55" s="16"/>
+      <c r="BB55" s="16"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
       <c r="BE55" s="7"/>
@@ -4954,7 +4959,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="22"/>
+      <c r="N56" s="16"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -4993,8 +4998,8 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
-      <c r="BA56" s="7"/>
-      <c r="BB56" s="7"/>
+      <c r="BA56" s="16"/>
+      <c r="BB56" s="16"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
       <c r="BE56" s="7"/>
@@ -5016,7 +5021,7 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="22"/>
+      <c r="N57" s="16"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -5055,8 +5060,8 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
-      <c r="BA57" s="7"/>
-      <c r="BB57" s="7"/>
+      <c r="BA57" s="16"/>
+      <c r="BB57" s="16"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
       <c r="BE57" s="7"/>
@@ -5078,7 +5083,7 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="22"/>
+      <c r="N58" s="16"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -5117,8 +5122,8 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="7"/>
-      <c r="BA58" s="7"/>
-      <c r="BB58" s="7"/>
+      <c r="BA58" s="16"/>
+      <c r="BB58" s="16"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
       <c r="BE58" s="7"/>
@@ -5140,7 +5145,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="22"/>
+      <c r="N59" s="16"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -5179,8 +5184,8 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
-      <c r="BA59" s="7"/>
-      <c r="BB59" s="7"/>
+      <c r="BA59" s="16"/>
+      <c r="BB59" s="16"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="7"/>
       <c r="BE59" s="7"/>
@@ -5202,7 +5207,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="22"/>
+      <c r="N60" s="16"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -5241,8 +5246,8 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="7"/>
-      <c r="BA60" s="7"/>
-      <c r="BB60" s="7"/>
+      <c r="BA60" s="16"/>
+      <c r="BB60" s="16"/>
       <c r="BC60" s="7"/>
       <c r="BD60" s="7"/>
       <c r="BE60" s="7"/>
@@ -5264,7 +5269,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="22"/>
+      <c r="N61" s="16"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -5303,8 +5308,8 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
-      <c r="BA61" s="7"/>
-      <c r="BB61" s="7"/>
+      <c r="BA61" s="16"/>
+      <c r="BB61" s="16"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
       <c r="BE61" s="7"/>
@@ -5326,7 +5331,7 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="22"/>
+      <c r="N62" s="16"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -5365,8 +5370,8 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="7"/>
-      <c r="BA62" s="7"/>
-      <c r="BB62" s="7"/>
+      <c r="BA62" s="16"/>
+      <c r="BB62" s="16"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
       <c r="BE62" s="7"/>
@@ -5388,7 +5393,7 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="22"/>
+      <c r="N63" s="16"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -5427,8 +5432,8 @@
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
-      <c r="BA63" s="7"/>
-      <c r="BB63" s="7"/>
+      <c r="BA63" s="16"/>
+      <c r="BB63" s="16"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
       <c r="BE63" s="7"/>
@@ -5450,7 +5455,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="22"/>
+      <c r="N64" s="16"/>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -5489,8 +5494,8 @@
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="7"/>
-      <c r="BA64" s="7"/>
-      <c r="BB64" s="7"/>
+      <c r="BA64" s="16"/>
+      <c r="BB64" s="16"/>
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
       <c r="BE64" s="7"/>
@@ -5512,7 +5517,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="22"/>
+      <c r="N65" s="16"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -5551,8 +5556,8 @@
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
-      <c r="BA65" s="7"/>
-      <c r="BB65" s="7"/>
+      <c r="BA65" s="16"/>
+      <c r="BB65" s="16"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
       <c r="BE65" s="7"/>
@@ -5574,7 +5579,7 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="22"/>
+      <c r="N66" s="16"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -5613,8 +5618,8 @@
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="7"/>
-      <c r="BA66" s="7"/>
-      <c r="BB66" s="7"/>
+      <c r="BA66" s="16"/>
+      <c r="BB66" s="16"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
       <c r="BE66" s="7"/>
@@ -5636,7 +5641,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="22"/>
+      <c r="N67" s="16"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -5675,8 +5680,8 @@
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
-      <c r="BA67" s="7"/>
-      <c r="BB67" s="7"/>
+      <c r="BA67" s="16"/>
+      <c r="BB67" s="16"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
       <c r="BE67" s="7"/>
@@ -5698,7 +5703,7 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="22"/>
+      <c r="N68" s="16"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
@@ -5737,8 +5742,8 @@
       <c r="AX68" s="7"/>
       <c r="AY68" s="7"/>
       <c r="AZ68" s="7"/>
-      <c r="BA68" s="7"/>
-      <c r="BB68" s="7"/>
+      <c r="BA68" s="16"/>
+      <c r="BB68" s="16"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="7"/>
       <c r="BE68" s="7"/>
@@ -5760,7 +5765,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="22"/>
+      <c r="N69" s="16"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -5799,8 +5804,8 @@
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
       <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="7"/>
+      <c r="BA69" s="16"/>
+      <c r="BB69" s="16"/>
       <c r="BC69" s="7"/>
       <c r="BD69" s="7"/>
       <c r="BE69" s="7"/>
@@ -5822,7 +5827,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="22"/>
+      <c r="N70" s="16"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
@@ -5861,8 +5866,8 @@
       <c r="AX70" s="7"/>
       <c r="AY70" s="7"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="7"/>
-      <c r="BB70" s="7"/>
+      <c r="BA70" s="16"/>
+      <c r="BB70" s="16"/>
       <c r="BC70" s="7"/>
       <c r="BD70" s="7"/>
       <c r="BE70" s="7"/>
@@ -5884,7 +5889,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="22"/>
+      <c r="N71" s="16"/>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -5923,8 +5928,8 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
       <c r="AZ71" s="7"/>
-      <c r="BA71" s="7"/>
-      <c r="BB71" s="7"/>
+      <c r="BA71" s="16"/>
+      <c r="BB71" s="16"/>
       <c r="BC71" s="7"/>
       <c r="BD71" s="7"/>
       <c r="BE71" s="7"/>
@@ -5946,7 +5951,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="22"/>
+      <c r="N72" s="16"/>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
@@ -5985,8 +5990,8 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
       <c r="AZ72" s="7"/>
-      <c r="BA72" s="7"/>
-      <c r="BB72" s="7"/>
+      <c r="BA72" s="16"/>
+      <c r="BB72" s="16"/>
       <c r="BC72" s="7"/>
       <c r="BD72" s="7"/>
       <c r="BE72" s="7"/>
@@ -6008,7 +6013,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="22"/>
+      <c r="N73" s="16"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
@@ -6047,8 +6052,8 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
       <c r="AZ73" s="7"/>
-      <c r="BA73" s="7"/>
-      <c r="BB73" s="7"/>
+      <c r="BA73" s="16"/>
+      <c r="BB73" s="16"/>
       <c r="BC73" s="7"/>
       <c r="BD73" s="7"/>
       <c r="BE73" s="7"/>
@@ -6070,7 +6075,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="22"/>
+      <c r="N74" s="16"/>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
@@ -6109,8 +6114,8 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
       <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
+      <c r="BA74" s="16"/>
+      <c r="BB74" s="16"/>
       <c r="BC74" s="7"/>
       <c r="BD74" s="7"/>
       <c r="BE74" s="7"/>
@@ -6132,7 +6137,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="22"/>
+      <c r="N75" s="16"/>
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
@@ -6171,8 +6176,8 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
       <c r="AZ75" s="7"/>
-      <c r="BA75" s="7"/>
-      <c r="BB75" s="7"/>
+      <c r="BA75" s="16"/>
+      <c r="BB75" s="16"/>
       <c r="BC75" s="7"/>
       <c r="BD75" s="7"/>
       <c r="BE75" s="7"/>
@@ -6194,7 +6199,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="22"/>
+      <c r="N76" s="16"/>
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
@@ -6233,8 +6238,8 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
       <c r="AZ76" s="7"/>
-      <c r="BA76" s="7"/>
-      <c r="BB76" s="7"/>
+      <c r="BA76" s="16"/>
+      <c r="BB76" s="16"/>
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
       <c r="BE76" s="7"/>
@@ -6256,7 +6261,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="22"/>
+      <c r="N77" s="16"/>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -6295,8 +6300,8 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
       <c r="AZ77" s="7"/>
-      <c r="BA77" s="7"/>
-      <c r="BB77" s="7"/>
+      <c r="BA77" s="16"/>
+      <c r="BB77" s="16"/>
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
       <c r="BE77" s="7"/>
@@ -6318,7 +6323,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="22"/>
+      <c r="N78" s="16"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
@@ -6357,8 +6362,8 @@
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
       <c r="AZ78" s="7"/>
-      <c r="BA78" s="7"/>
-      <c r="BB78" s="7"/>
+      <c r="BA78" s="16"/>
+      <c r="BB78" s="16"/>
       <c r="BC78" s="7"/>
       <c r="BD78" s="7"/>
       <c r="BE78" s="7"/>
@@ -6380,7 +6385,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="22"/>
+      <c r="N79" s="16"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
@@ -6419,8 +6424,8 @@
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
       <c r="AZ79" s="7"/>
-      <c r="BA79" s="7"/>
-      <c r="BB79" s="7"/>
+      <c r="BA79" s="16"/>
+      <c r="BB79" s="16"/>
       <c r="BC79" s="7"/>
       <c r="BD79" s="7"/>
       <c r="BE79" s="7"/>
@@ -6442,7 +6447,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="22"/>
+      <c r="N80" s="16"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
@@ -6481,8 +6486,8 @@
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
       <c r="AZ80" s="7"/>
-      <c r="BA80" s="7"/>
-      <c r="BB80" s="7"/>
+      <c r="BA80" s="16"/>
+      <c r="BB80" s="16"/>
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
       <c r="BE80" s="7"/>
@@ -6504,7 +6509,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="22"/>
+      <c r="N81" s="16"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -6543,8 +6548,8 @@
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
       <c r="AZ81" s="7"/>
-      <c r="BA81" s="7"/>
-      <c r="BB81" s="7"/>
+      <c r="BA81" s="16"/>
+      <c r="BB81" s="16"/>
       <c r="BC81" s="7"/>
       <c r="BD81" s="7"/>
       <c r="BE81" s="7"/>
@@ -6566,7 +6571,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="22"/>
+      <c r="N82" s="16"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
@@ -6605,8 +6610,8 @@
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="7"/>
-      <c r="BA82" s="7"/>
-      <c r="BB82" s="7"/>
+      <c r="BA82" s="16"/>
+      <c r="BB82" s="16"/>
       <c r="BC82" s="7"/>
       <c r="BD82" s="7"/>
       <c r="BE82" s="7"/>
@@ -6628,7 +6633,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="22"/>
+      <c r="N83" s="16"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
@@ -6667,8 +6672,8 @@
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="7"/>
-      <c r="BA83" s="7"/>
-      <c r="BB83" s="7"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16"/>
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
       <c r="BE83" s="7"/>
@@ -6690,7 +6695,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="22"/>
+      <c r="N84" s="16"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
@@ -6729,8 +6734,8 @@
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="7"/>
-      <c r="BA84" s="7"/>
-      <c r="BB84" s="7"/>
+      <c r="BA84" s="16"/>
+      <c r="BB84" s="16"/>
       <c r="BC84" s="7"/>
       <c r="BD84" s="7"/>
       <c r="BE84" s="7"/>
@@ -6752,7 +6757,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="22"/>
+      <c r="N85" s="16"/>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
@@ -6791,8 +6796,8 @@
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="7"/>
-      <c r="BA85" s="7"/>
-      <c r="BB85" s="7"/>
+      <c r="BA85" s="16"/>
+      <c r="BB85" s="16"/>
       <c r="BC85" s="7"/>
       <c r="BD85" s="7"/>
       <c r="BE85" s="7"/>
@@ -6814,7 +6819,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="22"/>
+      <c r="N86" s="16"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
@@ -6853,8 +6858,8 @@
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="7"/>
-      <c r="BA86" s="7"/>
-      <c r="BB86" s="7"/>
+      <c r="BA86" s="16"/>
+      <c r="BB86" s="16"/>
       <c r="BC86" s="7"/>
       <c r="BD86" s="7"/>
       <c r="BE86" s="7"/>
@@ -6876,7 +6881,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="22"/>
+      <c r="N87" s="16"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
@@ -6915,8 +6920,8 @@
       <c r="AX87" s="7"/>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="7"/>
-      <c r="BA87" s="7"/>
-      <c r="BB87" s="7"/>
+      <c r="BA87" s="16"/>
+      <c r="BB87" s="16"/>
       <c r="BC87" s="7"/>
       <c r="BD87" s="7"/>
       <c r="BE87" s="7"/>
@@ -6938,7 +6943,7 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="22"/>
+      <c r="N88" s="16"/>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
@@ -6977,8 +6982,8 @@
       <c r="AX88" s="7"/>
       <c r="AY88" s="7"/>
       <c r="AZ88" s="7"/>
-      <c r="BA88" s="7"/>
-      <c r="BB88" s="7"/>
+      <c r="BA88" s="16"/>
+      <c r="BB88" s="16"/>
       <c r="BC88" s="7"/>
       <c r="BD88" s="7"/>
       <c r="BE88" s="7"/>
@@ -7000,7 +7005,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="22"/>
+      <c r="N89" s="16"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
@@ -7039,8 +7044,8 @@
       <c r="AX89" s="7"/>
       <c r="AY89" s="7"/>
       <c r="AZ89" s="7"/>
-      <c r="BA89" s="7"/>
-      <c r="BB89" s="7"/>
+      <c r="BA89" s="16"/>
+      <c r="BB89" s="16"/>
       <c r="BC89" s="7"/>
       <c r="BD89" s="7"/>
       <c r="BE89" s="7"/>
@@ -7062,7 +7067,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="22"/>
+      <c r="N90" s="16"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
@@ -7101,8 +7106,8 @@
       <c r="AX90" s="7"/>
       <c r="AY90" s="7"/>
       <c r="AZ90" s="7"/>
-      <c r="BA90" s="7"/>
-      <c r="BB90" s="7"/>
+      <c r="BA90" s="16"/>
+      <c r="BB90" s="16"/>
       <c r="BC90" s="7"/>
       <c r="BD90" s="7"/>
       <c r="BE90" s="7"/>
@@ -7124,7 +7129,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="22"/>
+      <c r="N91" s="16"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
@@ -7163,8 +7168,8 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="7"/>
-      <c r="BA91" s="7"/>
-      <c r="BB91" s="7"/>
+      <c r="BA91" s="16"/>
+      <c r="BB91" s="16"/>
       <c r="BC91" s="7"/>
       <c r="BD91" s="7"/>
       <c r="BE91" s="7"/>
@@ -7186,7 +7191,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="22"/>
+      <c r="N92" s="16"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
@@ -7225,8 +7230,8 @@
       <c r="AX92" s="7"/>
       <c r="AY92" s="7"/>
       <c r="AZ92" s="7"/>
-      <c r="BA92" s="7"/>
-      <c r="BB92" s="7"/>
+      <c r="BA92" s="16"/>
+      <c r="BB92" s="16"/>
       <c r="BC92" s="7"/>
       <c r="BD92" s="7"/>
       <c r="BE92" s="7"/>
@@ -7248,7 +7253,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="22"/>
+      <c r="N93" s="16"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
@@ -7287,8 +7292,8 @@
       <c r="AX93" s="7"/>
       <c r="AY93" s="7"/>
       <c r="AZ93" s="7"/>
-      <c r="BA93" s="7"/>
-      <c r="BB93" s="7"/>
+      <c r="BA93" s="16"/>
+      <c r="BB93" s="16"/>
       <c r="BC93" s="7"/>
       <c r="BD93" s="7"/>
       <c r="BE93" s="7"/>
@@ -7310,7 +7315,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="22"/>
+      <c r="N94" s="16"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
@@ -7349,8 +7354,8 @@
       <c r="AX94" s="7"/>
       <c r="AY94" s="7"/>
       <c r="AZ94" s="7"/>
-      <c r="BA94" s="7"/>
-      <c r="BB94" s="7"/>
+      <c r="BA94" s="16"/>
+      <c r="BB94" s="16"/>
       <c r="BC94" s="7"/>
       <c r="BD94" s="7"/>
       <c r="BE94" s="7"/>
@@ -7372,7 +7377,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="22"/>
+      <c r="N95" s="16"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
@@ -7411,8 +7416,8 @@
       <c r="AX95" s="7"/>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="7"/>
-      <c r="BA95" s="7"/>
-      <c r="BB95" s="7"/>
+      <c r="BA95" s="16"/>
+      <c r="BB95" s="16"/>
       <c r="BC95" s="7"/>
       <c r="BD95" s="7"/>
       <c r="BE95" s="7"/>
@@ -7434,7 +7439,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="22"/>
+      <c r="N96" s="16"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
@@ -7473,8 +7478,8 @@
       <c r="AX96" s="7"/>
       <c r="AY96" s="7"/>
       <c r="AZ96" s="7"/>
-      <c r="BA96" s="7"/>
-      <c r="BB96" s="7"/>
+      <c r="BA96" s="16"/>
+      <c r="BB96" s="16"/>
       <c r="BC96" s="7"/>
       <c r="BD96" s="7"/>
       <c r="BE96" s="7"/>
@@ -7496,7 +7501,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="22"/>
+      <c r="N97" s="16"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -7535,8 +7540,8 @@
       <c r="AX97" s="7"/>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="7"/>
-      <c r="BA97" s="7"/>
-      <c r="BB97" s="7"/>
+      <c r="BA97" s="16"/>
+      <c r="BB97" s="16"/>
       <c r="BC97" s="7"/>
       <c r="BD97" s="7"/>
       <c r="BE97" s="7"/>
@@ -7558,7 +7563,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="22"/>
+      <c r="N98" s="16"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
@@ -7597,8 +7602,8 @@
       <c r="AX98" s="7"/>
       <c r="AY98" s="7"/>
       <c r="AZ98" s="7"/>
-      <c r="BA98" s="7"/>
-      <c r="BB98" s="7"/>
+      <c r="BA98" s="16"/>
+      <c r="BB98" s="16"/>
       <c r="BC98" s="7"/>
       <c r="BD98" s="7"/>
       <c r="BE98" s="7"/>
@@ -7620,7 +7625,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="22"/>
+      <c r="N99" s="16"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
@@ -7659,8 +7664,8 @@
       <c r="AX99" s="7"/>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="7"/>
-      <c r="BA99" s="7"/>
-      <c r="BB99" s="7"/>
+      <c r="BA99" s="16"/>
+      <c r="BB99" s="16"/>
       <c r="BC99" s="7"/>
       <c r="BD99" s="7"/>
       <c r="BE99" s="7"/>
@@ -7682,7 +7687,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="22"/>
+      <c r="N100" s="16"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
@@ -7721,8 +7726,8 @@
       <c r="AX100" s="7"/>
       <c r="AY100" s="7"/>
       <c r="AZ100" s="7"/>
-      <c r="BA100" s="7"/>
-      <c r="BB100" s="7"/>
+      <c r="BA100" s="16"/>
+      <c r="BB100" s="16"/>
       <c r="BC100" s="7"/>
       <c r="BD100" s="7"/>
       <c r="BE100" s="7"/>
@@ -7744,7 +7749,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="22"/>
+      <c r="N101" s="16"/>
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
@@ -7783,8 +7788,8 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="7"/>
-      <c r="BA101" s="7"/>
-      <c r="BB101" s="7"/>
+      <c r="BA101" s="16"/>
+      <c r="BB101" s="16"/>
       <c r="BC101" s="7"/>
       <c r="BD101" s="7"/>
       <c r="BE101" s="7"/>
@@ -7806,7 +7811,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="22"/>
+      <c r="N102" s="16"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
@@ -7845,8 +7850,8 @@
       <c r="AX102" s="7"/>
       <c r="AY102" s="7"/>
       <c r="AZ102" s="7"/>
-      <c r="BA102" s="7"/>
-      <c r="BB102" s="7"/>
+      <c r="BA102" s="16"/>
+      <c r="BB102" s="16"/>
       <c r="BC102" s="7"/>
       <c r="BD102" s="7"/>
       <c r="BE102" s="7"/>
@@ -7868,7 +7873,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="22"/>
+      <c r="N103" s="16"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -7907,8 +7912,8 @@
       <c r="AX103" s="7"/>
       <c r="AY103" s="7"/>
       <c r="AZ103" s="7"/>
-      <c r="BA103" s="7"/>
-      <c r="BB103" s="7"/>
+      <c r="BA103" s="16"/>
+      <c r="BB103" s="16"/>
       <c r="BC103" s="7"/>
       <c r="BD103" s="7"/>
       <c r="BE103" s="7"/>
@@ -7930,7 +7935,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="22"/>
+      <c r="N104" s="16"/>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
@@ -7969,8 +7974,8 @@
       <c r="AX104" s="7"/>
       <c r="AY104" s="7"/>
       <c r="AZ104" s="7"/>
-      <c r="BA104" s="7"/>
-      <c r="BB104" s="7"/>
+      <c r="BA104" s="16"/>
+      <c r="BB104" s="16"/>
       <c r="BC104" s="7"/>
       <c r="BD104" s="7"/>
       <c r="BE104" s="7"/>
@@ -7992,7 +7997,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="22"/>
+      <c r="N105" s="16"/>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
@@ -8031,8 +8036,8 @@
       <c r="AX105" s="7"/>
       <c r="AY105" s="7"/>
       <c r="AZ105" s="7"/>
-      <c r="BA105" s="7"/>
-      <c r="BB105" s="7"/>
+      <c r="BA105" s="16"/>
+      <c r="BB105" s="16"/>
       <c r="BC105" s="7"/>
       <c r="BD105" s="7"/>
       <c r="BE105" s="7"/>
@@ -8054,7 +8059,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="22"/>
+      <c r="N106" s="16"/>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
@@ -8093,8 +8098,8 @@
       <c r="AX106" s="7"/>
       <c r="AY106" s="7"/>
       <c r="AZ106" s="7"/>
-      <c r="BA106" s="7"/>
-      <c r="BB106" s="7"/>
+      <c r="BA106" s="16"/>
+      <c r="BB106" s="16"/>
       <c r="BC106" s="7"/>
       <c r="BD106" s="7"/>
       <c r="BE106" s="7"/>
@@ -8116,7 +8121,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="22"/>
+      <c r="N107" s="16"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -8155,8 +8160,8 @@
       <c r="AX107" s="7"/>
       <c r="AY107" s="7"/>
       <c r="AZ107" s="7"/>
-      <c r="BA107" s="7"/>
-      <c r="BB107" s="7"/>
+      <c r="BA107" s="16"/>
+      <c r="BB107" s="16"/>
       <c r="BC107" s="7"/>
       <c r="BD107" s="7"/>
       <c r="BE107" s="7"/>
@@ -8178,7 +8183,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="22"/>
+      <c r="N108" s="16"/>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
@@ -8217,8 +8222,8 @@
       <c r="AX108" s="7"/>
       <c r="AY108" s="7"/>
       <c r="AZ108" s="7"/>
-      <c r="BA108" s="7"/>
-      <c r="BB108" s="7"/>
+      <c r="BA108" s="16"/>
+      <c r="BB108" s="16"/>
       <c r="BC108" s="7"/>
       <c r="BD108" s="7"/>
       <c r="BE108" s="7"/>
@@ -8240,7 +8245,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="22"/>
+      <c r="N109" s="16"/>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
@@ -8279,8 +8284,8 @@
       <c r="AX109" s="7"/>
       <c r="AY109" s="7"/>
       <c r="AZ109" s="7"/>
-      <c r="BA109" s="7"/>
-      <c r="BB109" s="7"/>
+      <c r="BA109" s="16"/>
+      <c r="BB109" s="16"/>
       <c r="BC109" s="7"/>
       <c r="BD109" s="7"/>
       <c r="BE109" s="7"/>
@@ -8302,7 +8307,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="22"/>
+      <c r="N110" s="16"/>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
@@ -8341,8 +8346,8 @@
       <c r="AX110" s="7"/>
       <c r="AY110" s="7"/>
       <c r="AZ110" s="7"/>
-      <c r="BA110" s="7"/>
-      <c r="BB110" s="7"/>
+      <c r="BA110" s="16"/>
+      <c r="BB110" s="16"/>
       <c r="BC110" s="7"/>
       <c r="BD110" s="7"/>
       <c r="BE110" s="7"/>
@@ -8364,7 +8369,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="22"/>
+      <c r="N111" s="16"/>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
@@ -8403,8 +8408,8 @@
       <c r="AX111" s="7"/>
       <c r="AY111" s="7"/>
       <c r="AZ111" s="7"/>
-      <c r="BA111" s="7"/>
-      <c r="BB111" s="7"/>
+      <c r="BA111" s="16"/>
+      <c r="BB111" s="16"/>
       <c r="BC111" s="7"/>
       <c r="BD111" s="7"/>
       <c r="BE111" s="7"/>
@@ -8426,7 +8431,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="22"/>
+      <c r="N112" s="16"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
@@ -8465,8 +8470,8 @@
       <c r="AX112" s="7"/>
       <c r="AY112" s="7"/>
       <c r="AZ112" s="7"/>
-      <c r="BA112" s="7"/>
-      <c r="BB112" s="7"/>
+      <c r="BA112" s="16"/>
+      <c r="BB112" s="16"/>
       <c r="BC112" s="7"/>
       <c r="BD112" s="7"/>
       <c r="BE112" s="7"/>
@@ -8488,7 +8493,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="22"/>
+      <c r="N113" s="16"/>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
@@ -8527,8 +8532,8 @@
       <c r="AX113" s="7"/>
       <c r="AY113" s="7"/>
       <c r="AZ113" s="7"/>
-      <c r="BA113" s="7"/>
-      <c r="BB113" s="7"/>
+      <c r="BA113" s="16"/>
+      <c r="BB113" s="16"/>
       <c r="BC113" s="7"/>
       <c r="BD113" s="7"/>
       <c r="BE113" s="7"/>
@@ -8550,7 +8555,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
-      <c r="N114" s="22"/>
+      <c r="N114" s="16"/>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
@@ -8589,8 +8594,8 @@
       <c r="AX114" s="7"/>
       <c r="AY114" s="7"/>
       <c r="AZ114" s="7"/>
-      <c r="BA114" s="7"/>
-      <c r="BB114" s="7"/>
+      <c r="BA114" s="16"/>
+      <c r="BB114" s="16"/>
       <c r="BC114" s="7"/>
       <c r="BD114" s="7"/>
       <c r="BE114" s="7"/>
@@ -8612,7 +8617,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="22"/>
+      <c r="N115" s="16"/>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
@@ -8651,8 +8656,8 @@
       <c r="AX115" s="7"/>
       <c r="AY115" s="7"/>
       <c r="AZ115" s="7"/>
-      <c r="BA115" s="7"/>
-      <c r="BB115" s="7"/>
+      <c r="BA115" s="16"/>
+      <c r="BB115" s="16"/>
       <c r="BC115" s="7"/>
       <c r="BD115" s="7"/>
       <c r="BE115" s="7"/>
@@ -8674,7 +8679,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="22"/>
+      <c r="N116" s="16"/>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
@@ -8713,8 +8718,8 @@
       <c r="AX116" s="7"/>
       <c r="AY116" s="7"/>
       <c r="AZ116" s="7"/>
-      <c r="BA116" s="7"/>
-      <c r="BB116" s="7"/>
+      <c r="BA116" s="16"/>
+      <c r="BB116" s="16"/>
       <c r="BC116" s="7"/>
       <c r="BD116" s="7"/>
       <c r="BE116" s="7"/>
@@ -8736,7 +8741,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="22"/>
+      <c r="N117" s="16"/>
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
@@ -8775,8 +8780,8 @@
       <c r="AX117" s="7"/>
       <c r="AY117" s="7"/>
       <c r="AZ117" s="7"/>
-      <c r="BA117" s="7"/>
-      <c r="BB117" s="7"/>
+      <c r="BA117" s="16"/>
+      <c r="BB117" s="16"/>
       <c r="BC117" s="7"/>
       <c r="BD117" s="7"/>
       <c r="BE117" s="7"/>
@@ -8798,7 +8803,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="22"/>
+      <c r="N118" s="16"/>
       <c r="O118" s="7"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
@@ -8837,8 +8842,8 @@
       <c r="AX118" s="7"/>
       <c r="AY118" s="7"/>
       <c r="AZ118" s="7"/>
-      <c r="BA118" s="7"/>
-      <c r="BB118" s="7"/>
+      <c r="BA118" s="16"/>
+      <c r="BB118" s="16"/>
       <c r="BC118" s="7"/>
       <c r="BD118" s="7"/>
       <c r="BE118" s="7"/>
@@ -8860,7 +8865,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="22"/>
+      <c r="N119" s="16"/>
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
@@ -8899,8 +8904,8 @@
       <c r="AX119" s="7"/>
       <c r="AY119" s="7"/>
       <c r="AZ119" s="7"/>
-      <c r="BA119" s="7"/>
-      <c r="BB119" s="7"/>
+      <c r="BA119" s="16"/>
+      <c r="BB119" s="16"/>
       <c r="BC119" s="7"/>
       <c r="BD119" s="7"/>
       <c r="BE119" s="7"/>
@@ -8922,7 +8927,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="22"/>
+      <c r="N120" s="16"/>
       <c r="O120" s="7"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
@@ -8961,8 +8966,8 @@
       <c r="AX120" s="7"/>
       <c r="AY120" s="7"/>
       <c r="AZ120" s="7"/>
-      <c r="BA120" s="7"/>
-      <c r="BB120" s="7"/>
+      <c r="BA120" s="16"/>
+      <c r="BB120" s="16"/>
       <c r="BC120" s="7"/>
       <c r="BD120" s="7"/>
       <c r="BE120" s="7"/>
@@ -8984,7 +8989,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="22"/>
+      <c r="N121" s="16"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
@@ -9023,8 +9028,8 @@
       <c r="AX121" s="7"/>
       <c r="AY121" s="7"/>
       <c r="AZ121" s="7"/>
-      <c r="BA121" s="7"/>
-      <c r="BB121" s="7"/>
+      <c r="BA121" s="16"/>
+      <c r="BB121" s="16"/>
       <c r="BC121" s="7"/>
       <c r="BD121" s="7"/>
       <c r="BE121" s="7"/>
@@ -9046,7 +9051,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="22"/>
+      <c r="N122" s="16"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
@@ -9085,8 +9090,8 @@
       <c r="AX122" s="7"/>
       <c r="AY122" s="7"/>
       <c r="AZ122" s="7"/>
-      <c r="BA122" s="7"/>
-      <c r="BB122" s="7"/>
+      <c r="BA122" s="16"/>
+      <c r="BB122" s="16"/>
       <c r="BC122" s="7"/>
       <c r="BD122" s="7"/>
       <c r="BE122" s="7"/>
@@ -9108,7 +9113,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="22"/>
+      <c r="N123" s="16"/>
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
@@ -9147,8 +9152,8 @@
       <c r="AX123" s="7"/>
       <c r="AY123" s="7"/>
       <c r="AZ123" s="7"/>
-      <c r="BA123" s="7"/>
-      <c r="BB123" s="7"/>
+      <c r="BA123" s="16"/>
+      <c r="BB123" s="16"/>
       <c r="BC123" s="7"/>
       <c r="BD123" s="7"/>
       <c r="BE123" s="7"/>
@@ -9170,7 +9175,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="22"/>
+      <c r="N124" s="16"/>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
@@ -9209,8 +9214,8 @@
       <c r="AX124" s="7"/>
       <c r="AY124" s="7"/>
       <c r="AZ124" s="7"/>
-      <c r="BA124" s="7"/>
-      <c r="BB124" s="7"/>
+      <c r="BA124" s="16"/>
+      <c r="BB124" s="16"/>
       <c r="BC124" s="7"/>
       <c r="BD124" s="7"/>
       <c r="BE124" s="7"/>
@@ -9232,7 +9237,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="22"/>
+      <c r="N125" s="16"/>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
@@ -9271,8 +9276,8 @@
       <c r="AX125" s="7"/>
       <c r="AY125" s="7"/>
       <c r="AZ125" s="7"/>
-      <c r="BA125" s="7"/>
-      <c r="BB125" s="7"/>
+      <c r="BA125" s="16"/>
+      <c r="BB125" s="16"/>
       <c r="BC125" s="7"/>
       <c r="BD125" s="7"/>
       <c r="BE125" s="7"/>
@@ -9294,7 +9299,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="22"/>
+      <c r="N126" s="16"/>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
@@ -9333,8 +9338,8 @@
       <c r="AX126" s="7"/>
       <c r="AY126" s="7"/>
       <c r="AZ126" s="7"/>
-      <c r="BA126" s="7"/>
-      <c r="BB126" s="7"/>
+      <c r="BA126" s="16"/>
+      <c r="BB126" s="16"/>
       <c r="BC126" s="7"/>
       <c r="BD126" s="7"/>
       <c r="BE126" s="7"/>
@@ -9356,7 +9361,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="22"/>
+      <c r="N127" s="16"/>
       <c r="O127" s="7"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
@@ -9395,8 +9400,8 @@
       <c r="AX127" s="7"/>
       <c r="AY127" s="7"/>
       <c r="AZ127" s="7"/>
-      <c r="BA127" s="7"/>
-      <c r="BB127" s="7"/>
+      <c r="BA127" s="16"/>
+      <c r="BB127" s="16"/>
       <c r="BC127" s="7"/>
       <c r="BD127" s="7"/>
       <c r="BE127" s="7"/>
@@ -9418,7 +9423,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="22"/>
+      <c r="N128" s="16"/>
       <c r="O128" s="7"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
@@ -9457,8 +9462,8 @@
       <c r="AX128" s="7"/>
       <c r="AY128" s="7"/>
       <c r="AZ128" s="7"/>
-      <c r="BA128" s="7"/>
-      <c r="BB128" s="7"/>
+      <c r="BA128" s="16"/>
+      <c r="BB128" s="16"/>
       <c r="BC128" s="7"/>
       <c r="BD128" s="7"/>
       <c r="BE128" s="7"/>
@@ -9480,7 +9485,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="22"/>
+      <c r="N129" s="16"/>
       <c r="O129" s="7"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
@@ -9519,8 +9524,8 @@
       <c r="AX129" s="7"/>
       <c r="AY129" s="7"/>
       <c r="AZ129" s="7"/>
-      <c r="BA129" s="7"/>
-      <c r="BB129" s="7"/>
+      <c r="BA129" s="16"/>
+      <c r="BB129" s="16"/>
       <c r="BC129" s="7"/>
       <c r="BD129" s="7"/>
       <c r="BE129" s="7"/>
@@ -9542,7 +9547,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="22"/>
+      <c r="N130" s="16"/>
       <c r="O130" s="7"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
@@ -9581,8 +9586,8 @@
       <c r="AX130" s="7"/>
       <c r="AY130" s="7"/>
       <c r="AZ130" s="7"/>
-      <c r="BA130" s="7"/>
-      <c r="BB130" s="7"/>
+      <c r="BA130" s="16"/>
+      <c r="BB130" s="16"/>
       <c r="BC130" s="7"/>
       <c r="BD130" s="7"/>
       <c r="BE130" s="7"/>
@@ -9604,7 +9609,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
-      <c r="N131" s="22"/>
+      <c r="N131" s="16"/>
       <c r="O131" s="7"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
@@ -9643,8 +9648,8 @@
       <c r="AX131" s="7"/>
       <c r="AY131" s="7"/>
       <c r="AZ131" s="7"/>
-      <c r="BA131" s="7"/>
-      <c r="BB131" s="7"/>
+      <c r="BA131" s="16"/>
+      <c r="BB131" s="16"/>
       <c r="BC131" s="7"/>
       <c r="BD131" s="7"/>
       <c r="BE131" s="7"/>
@@ -9666,7 +9671,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="22"/>
+      <c r="N132" s="16"/>
       <c r="O132" s="7"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
@@ -9705,8 +9710,8 @@
       <c r="AX132" s="7"/>
       <c r="AY132" s="7"/>
       <c r="AZ132" s="7"/>
-      <c r="BA132" s="7"/>
-      <c r="BB132" s="7"/>
+      <c r="BA132" s="16"/>
+      <c r="BB132" s="16"/>
       <c r="BC132" s="7"/>
       <c r="BD132" s="7"/>
       <c r="BE132" s="7"/>
@@ -9728,7 +9733,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="22"/>
+      <c r="N133" s="16"/>
       <c r="O133" s="7"/>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
@@ -9767,8 +9772,8 @@
       <c r="AX133" s="7"/>
       <c r="AY133" s="7"/>
       <c r="AZ133" s="7"/>
-      <c r="BA133" s="7"/>
-      <c r="BB133" s="7"/>
+      <c r="BA133" s="16"/>
+      <c r="BB133" s="16"/>
       <c r="BC133" s="7"/>
       <c r="BD133" s="7"/>
       <c r="BE133" s="7"/>
@@ -9790,7 +9795,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="22"/>
+      <c r="N134" s="16"/>
       <c r="O134" s="7"/>
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
@@ -9829,8 +9834,8 @@
       <c r="AX134" s="7"/>
       <c r="AY134" s="7"/>
       <c r="AZ134" s="7"/>
-      <c r="BA134" s="7"/>
-      <c r="BB134" s="7"/>
+      <c r="BA134" s="16"/>
+      <c r="BB134" s="16"/>
       <c r="BC134" s="7"/>
       <c r="BD134" s="7"/>
       <c r="BE134" s="7"/>
@@ -9852,7 +9857,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
-      <c r="N135" s="22"/>
+      <c r="N135" s="16"/>
       <c r="O135" s="7"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
@@ -9891,8 +9896,8 @@
       <c r="AX135" s="7"/>
       <c r="AY135" s="7"/>
       <c r="AZ135" s="7"/>
-      <c r="BA135" s="7"/>
-      <c r="BB135" s="7"/>
+      <c r="BA135" s="16"/>
+      <c r="BB135" s="16"/>
       <c r="BC135" s="7"/>
       <c r="BD135" s="7"/>
       <c r="BE135" s="7"/>
@@ -9914,7 +9919,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="22"/>
+      <c r="N136" s="16"/>
       <c r="O136" s="7"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
@@ -9953,8 +9958,8 @@
       <c r="AX136" s="7"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
-      <c r="BA136" s="7"/>
-      <c r="BB136" s="7"/>
+      <c r="BA136" s="16"/>
+      <c r="BB136" s="16"/>
       <c r="BC136" s="7"/>
       <c r="BD136" s="7"/>
       <c r="BE136" s="7"/>
@@ -9976,7 +9981,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="22"/>
+      <c r="N137" s="16"/>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
@@ -10015,8 +10020,8 @@
       <c r="AX137" s="7"/>
       <c r="AY137" s="7"/>
       <c r="AZ137" s="7"/>
-      <c r="BA137" s="7"/>
-      <c r="BB137" s="7"/>
+      <c r="BA137" s="16"/>
+      <c r="BB137" s="16"/>
       <c r="BC137" s="7"/>
       <c r="BD137" s="7"/>
       <c r="BE137" s="7"/>
@@ -10038,7 +10043,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="22"/>
+      <c r="N138" s="16"/>
       <c r="O138" s="7"/>
       <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
@@ -10077,8 +10082,8 @@
       <c r="AX138" s="7"/>
       <c r="AY138" s="7"/>
       <c r="AZ138" s="7"/>
-      <c r="BA138" s="7"/>
-      <c r="BB138" s="7"/>
+      <c r="BA138" s="16"/>
+      <c r="BB138" s="16"/>
       <c r="BC138" s="7"/>
       <c r="BD138" s="7"/>
       <c r="BE138" s="7"/>
@@ -10100,7 +10105,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="22"/>
+      <c r="N139" s="16"/>
       <c r="O139" s="7"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
@@ -10139,8 +10144,8 @@
       <c r="AX139" s="7"/>
       <c r="AY139" s="7"/>
       <c r="AZ139" s="7"/>
-      <c r="BA139" s="7"/>
-      <c r="BB139" s="7"/>
+      <c r="BA139" s="16"/>
+      <c r="BB139" s="16"/>
       <c r="BC139" s="7"/>
       <c r="BD139" s="7"/>
       <c r="BE139" s="7"/>
@@ -10162,7 +10167,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="22"/>
+      <c r="N140" s="16"/>
       <c r="O140" s="7"/>
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
@@ -10201,8 +10206,8 @@
       <c r="AX140" s="7"/>
       <c r="AY140" s="7"/>
       <c r="AZ140" s="7"/>
-      <c r="BA140" s="7"/>
-      <c r="BB140" s="7"/>
+      <c r="BA140" s="16"/>
+      <c r="BB140" s="16"/>
       <c r="BC140" s="7"/>
       <c r="BD140" s="7"/>
       <c r="BE140" s="7"/>
@@ -10224,7 +10229,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="22"/>
+      <c r="N141" s="16"/>
       <c r="O141" s="7"/>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
@@ -10263,8 +10268,8 @@
       <c r="AX141" s="7"/>
       <c r="AY141" s="7"/>
       <c r="AZ141" s="7"/>
-      <c r="BA141" s="7"/>
-      <c r="BB141" s="7"/>
+      <c r="BA141" s="16"/>
+      <c r="BB141" s="16"/>
       <c r="BC141" s="7"/>
       <c r="BD141" s="7"/>
       <c r="BE141" s="7"/>
@@ -10286,7 +10291,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="22"/>
+      <c r="N142" s="16"/>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
@@ -10325,8 +10330,8 @@
       <c r="AX142" s="7"/>
       <c r="AY142" s="7"/>
       <c r="AZ142" s="7"/>
-      <c r="BA142" s="7"/>
-      <c r="BB142" s="7"/>
+      <c r="BA142" s="16"/>
+      <c r="BB142" s="16"/>
       <c r="BC142" s="7"/>
       <c r="BD142" s="7"/>
       <c r="BE142" s="7"/>
@@ -10348,7 +10353,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="22"/>
+      <c r="N143" s="16"/>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
@@ -10387,8 +10392,8 @@
       <c r="AX143" s="7"/>
       <c r="AY143" s="7"/>
       <c r="AZ143" s="7"/>
-      <c r="BA143" s="7"/>
-      <c r="BB143" s="7"/>
+      <c r="BA143" s="16"/>
+      <c r="BB143" s="16"/>
       <c r="BC143" s="7"/>
       <c r="BD143" s="7"/>
       <c r="BE143" s="7"/>
@@ -10410,7 +10415,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="22"/>
+      <c r="N144" s="16"/>
       <c r="O144" s="7"/>
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
@@ -10449,8 +10454,8 @@
       <c r="AX144" s="7"/>
       <c r="AY144" s="7"/>
       <c r="AZ144" s="7"/>
-      <c r="BA144" s="7"/>
-      <c r="BB144" s="7"/>
+      <c r="BA144" s="16"/>
+      <c r="BB144" s="16"/>
       <c r="BC144" s="7"/>
       <c r="BD144" s="7"/>
       <c r="BE144" s="7"/>
@@ -10472,7 +10477,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="22"/>
+      <c r="N145" s="16"/>
       <c r="O145" s="7"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
@@ -10511,8 +10516,8 @@
       <c r="AX145" s="7"/>
       <c r="AY145" s="7"/>
       <c r="AZ145" s="7"/>
-      <c r="BA145" s="7"/>
-      <c r="BB145" s="7"/>
+      <c r="BA145" s="16"/>
+      <c r="BB145" s="16"/>
       <c r="BC145" s="7"/>
       <c r="BD145" s="7"/>
       <c r="BE145" s="7"/>
@@ -10534,7 +10539,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="22"/>
+      <c r="N146" s="16"/>
       <c r="O146" s="7"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
@@ -10573,8 +10578,8 @@
       <c r="AX146" s="7"/>
       <c r="AY146" s="7"/>
       <c r="AZ146" s="7"/>
-      <c r="BA146" s="7"/>
-      <c r="BB146" s="7"/>
+      <c r="BA146" s="16"/>
+      <c r="BB146" s="16"/>
       <c r="BC146" s="7"/>
       <c r="BD146" s="7"/>
       <c r="BE146" s="7"/>
@@ -10596,7 +10601,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="22"/>
+      <c r="N147" s="16"/>
       <c r="O147" s="7"/>
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
@@ -10635,8 +10640,8 @@
       <c r="AX147" s="7"/>
       <c r="AY147" s="7"/>
       <c r="AZ147" s="7"/>
-      <c r="BA147" s="7"/>
-      <c r="BB147" s="7"/>
+      <c r="BA147" s="16"/>
+      <c r="BB147" s="16"/>
       <c r="BC147" s="7"/>
       <c r="BD147" s="7"/>
       <c r="BE147" s="7"/>
@@ -10658,7 +10663,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="22"/>
+      <c r="N148" s="16"/>
       <c r="O148" s="7"/>
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
@@ -10697,8 +10702,8 @@
       <c r="AX148" s="7"/>
       <c r="AY148" s="7"/>
       <c r="AZ148" s="7"/>
-      <c r="BA148" s="7"/>
-      <c r="BB148" s="7"/>
+      <c r="BA148" s="16"/>
+      <c r="BB148" s="16"/>
       <c r="BC148" s="7"/>
       <c r="BD148" s="7"/>
       <c r="BE148" s="7"/>
@@ -10720,7 +10725,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="22"/>
+      <c r="N149" s="16"/>
       <c r="O149" s="7"/>
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
@@ -10759,8 +10764,8 @@
       <c r="AX149" s="7"/>
       <c r="AY149" s="7"/>
       <c r="AZ149" s="7"/>
-      <c r="BA149" s="7"/>
-      <c r="BB149" s="7"/>
+      <c r="BA149" s="16"/>
+      <c r="BB149" s="16"/>
       <c r="BC149" s="7"/>
       <c r="BD149" s="7"/>
       <c r="BE149" s="7"/>
@@ -10782,7 +10787,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="22"/>
+      <c r="N150" s="16"/>
       <c r="O150" s="7"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
@@ -10821,8 +10826,8 @@
       <c r="AX150" s="7"/>
       <c r="AY150" s="7"/>
       <c r="AZ150" s="7"/>
-      <c r="BA150" s="7"/>
-      <c r="BB150" s="7"/>
+      <c r="BA150" s="16"/>
+      <c r="BB150" s="16"/>
       <c r="BC150" s="7"/>
       <c r="BD150" s="7"/>
       <c r="BE150" s="7"/>
@@ -10844,7 +10849,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
-      <c r="N151" s="22"/>
+      <c r="N151" s="16"/>
       <c r="O151" s="7"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
@@ -10883,8 +10888,8 @@
       <c r="AX151" s="7"/>
       <c r="AY151" s="7"/>
       <c r="AZ151" s="7"/>
-      <c r="BA151" s="7"/>
-      <c r="BB151" s="7"/>
+      <c r="BA151" s="16"/>
+      <c r="BB151" s="16"/>
       <c r="BC151" s="7"/>
       <c r="BD151" s="7"/>
       <c r="BE151" s="7"/>
@@ -10906,7 +10911,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
-      <c r="N152" s="22"/>
+      <c r="N152" s="16"/>
       <c r="O152" s="7"/>
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
@@ -10945,8 +10950,8 @@
       <c r="AX152" s="7"/>
       <c r="AY152" s="7"/>
       <c r="AZ152" s="7"/>
-      <c r="BA152" s="7"/>
-      <c r="BB152" s="7"/>
+      <c r="BA152" s="16"/>
+      <c r="BB152" s="16"/>
       <c r="BC152" s="7"/>
       <c r="BD152" s="7"/>
       <c r="BE152" s="7"/>
@@ -10968,7 +10973,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="22"/>
+      <c r="N153" s="16"/>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
@@ -11007,8 +11012,8 @@
       <c r="AX153" s="7"/>
       <c r="AY153" s="7"/>
       <c r="AZ153" s="7"/>
-      <c r="BA153" s="7"/>
-      <c r="BB153" s="7"/>
+      <c r="BA153" s="16"/>
+      <c r="BB153" s="16"/>
       <c r="BC153" s="7"/>
       <c r="BD153" s="7"/>
       <c r="BE153" s="7"/>
@@ -11030,7 +11035,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="22"/>
+      <c r="N154" s="16"/>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
@@ -11069,8 +11074,8 @@
       <c r="AX154" s="7"/>
       <c r="AY154" s="7"/>
       <c r="AZ154" s="7"/>
-      <c r="BA154" s="7"/>
-      <c r="BB154" s="7"/>
+      <c r="BA154" s="16"/>
+      <c r="BB154" s="16"/>
       <c r="BC154" s="7"/>
       <c r="BD154" s="7"/>
       <c r="BE154" s="7"/>
@@ -11092,7 +11097,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="22"/>
+      <c r="N155" s="16"/>
       <c r="O155" s="7"/>
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
@@ -11131,8 +11136,8 @@
       <c r="AX155" s="7"/>
       <c r="AY155" s="7"/>
       <c r="AZ155" s="7"/>
-      <c r="BA155" s="7"/>
-      <c r="BB155" s="7"/>
+      <c r="BA155" s="16"/>
+      <c r="BB155" s="16"/>
       <c r="BC155" s="7"/>
       <c r="BD155" s="7"/>
       <c r="BE155" s="7"/>
@@ -11154,7 +11159,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="22"/>
+      <c r="N156" s="16"/>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
@@ -11193,8 +11198,8 @@
       <c r="AX156" s="7"/>
       <c r="AY156" s="7"/>
       <c r="AZ156" s="7"/>
-      <c r="BA156" s="7"/>
-      <c r="BB156" s="7"/>
+      <c r="BA156" s="16"/>
+      <c r="BB156" s="16"/>
       <c r="BC156" s="7"/>
       <c r="BD156" s="7"/>
       <c r="BE156" s="7"/>
@@ -11216,7 +11221,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="22"/>
+      <c r="N157" s="16"/>
       <c r="O157" s="7"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
@@ -11255,8 +11260,8 @@
       <c r="AX157" s="7"/>
       <c r="AY157" s="7"/>
       <c r="AZ157" s="7"/>
-      <c r="BA157" s="7"/>
-      <c r="BB157" s="7"/>
+      <c r="BA157" s="16"/>
+      <c r="BB157" s="16"/>
       <c r="BC157" s="7"/>
       <c r="BD157" s="7"/>
       <c r="BE157" s="7"/>
@@ -11278,7 +11283,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="22"/>
+      <c r="N158" s="16"/>
       <c r="O158" s="7"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
@@ -11317,8 +11322,8 @@
       <c r="AX158" s="7"/>
       <c r="AY158" s="7"/>
       <c r="AZ158" s="7"/>
-      <c r="BA158" s="7"/>
-      <c r="BB158" s="7"/>
+      <c r="BA158" s="16"/>
+      <c r="BB158" s="16"/>
       <c r="BC158" s="7"/>
       <c r="BD158" s="7"/>
       <c r="BE158" s="7"/>
@@ -11340,7 +11345,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="22"/>
+      <c r="N159" s="16"/>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
@@ -11379,8 +11384,8 @@
       <c r="AX159" s="7"/>
       <c r="AY159" s="7"/>
       <c r="AZ159" s="7"/>
-      <c r="BA159" s="7"/>
-      <c r="BB159" s="7"/>
+      <c r="BA159" s="16"/>
+      <c r="BB159" s="16"/>
       <c r="BC159" s="7"/>
       <c r="BD159" s="7"/>
       <c r="BE159" s="7"/>
@@ -11402,7 +11407,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="22"/>
+      <c r="N160" s="16"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
@@ -11441,8 +11446,8 @@
       <c r="AX160" s="7"/>
       <c r="AY160" s="7"/>
       <c r="AZ160" s="7"/>
-      <c r="BA160" s="7"/>
-      <c r="BB160" s="7"/>
+      <c r="BA160" s="16"/>
+      <c r="BB160" s="16"/>
       <c r="BC160" s="7"/>
       <c r="BD160" s="7"/>
       <c r="BE160" s="7"/>
@@ -11464,7 +11469,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="22"/>
+      <c r="N161" s="16"/>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
@@ -11503,8 +11508,8 @@
       <c r="AX161" s="7"/>
       <c r="AY161" s="7"/>
       <c r="AZ161" s="7"/>
-      <c r="BA161" s="7"/>
-      <c r="BB161" s="7"/>
+      <c r="BA161" s="16"/>
+      <c r="BB161" s="16"/>
       <c r="BC161" s="7"/>
       <c r="BD161" s="7"/>
       <c r="BE161" s="7"/>
@@ -11526,7 +11531,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="22"/>
+      <c r="N162" s="16"/>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
@@ -11565,8 +11570,8 @@
       <c r="AX162" s="7"/>
       <c r="AY162" s="7"/>
       <c r="AZ162" s="7"/>
-      <c r="BA162" s="7"/>
-      <c r="BB162" s="7"/>
+      <c r="BA162" s="16"/>
+      <c r="BB162" s="16"/>
       <c r="BC162" s="7"/>
       <c r="BD162" s="7"/>
       <c r="BE162" s="7"/>
@@ -11588,7 +11593,7 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="22"/>
+      <c r="N163" s="16"/>
       <c r="O163" s="7"/>
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
@@ -11627,8 +11632,8 @@
       <c r="AX163" s="7"/>
       <c r="AY163" s="7"/>
       <c r="AZ163" s="7"/>
-      <c r="BA163" s="7"/>
-      <c r="BB163" s="7"/>
+      <c r="BA163" s="16"/>
+      <c r="BB163" s="16"/>
       <c r="BC163" s="7"/>
       <c r="BD163" s="7"/>
       <c r="BE163" s="7"/>
@@ -11650,7 +11655,7 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="22"/>
+      <c r="N164" s="16"/>
       <c r="O164" s="7"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
@@ -11689,8 +11694,8 @@
       <c r="AX164" s="7"/>
       <c r="AY164" s="7"/>
       <c r="AZ164" s="7"/>
-      <c r="BA164" s="7"/>
-      <c r="BB164" s="7"/>
+      <c r="BA164" s="16"/>
+      <c r="BB164" s="16"/>
       <c r="BC164" s="7"/>
       <c r="BD164" s="7"/>
       <c r="BE164" s="7"/>
@@ -11712,7 +11717,7 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="22"/>
+      <c r="N165" s="16"/>
       <c r="O165" s="7"/>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
@@ -11751,8 +11756,8 @@
       <c r="AX165" s="7"/>
       <c r="AY165" s="7"/>
       <c r="AZ165" s="7"/>
-      <c r="BA165" s="7"/>
-      <c r="BB165" s="7"/>
+      <c r="BA165" s="16"/>
+      <c r="BB165" s="16"/>
       <c r="BC165" s="7"/>
       <c r="BD165" s="7"/>
       <c r="BE165" s="7"/>
@@ -11774,7 +11779,7 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="22"/>
+      <c r="N166" s="16"/>
       <c r="O166" s="7"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
@@ -11813,8 +11818,8 @@
       <c r="AX166" s="7"/>
       <c r="AY166" s="7"/>
       <c r="AZ166" s="7"/>
-      <c r="BA166" s="7"/>
-      <c r="BB166" s="7"/>
+      <c r="BA166" s="16"/>
+      <c r="BB166" s="16"/>
       <c r="BC166" s="7"/>
       <c r="BD166" s="7"/>
       <c r="BE166" s="7"/>
@@ -11836,7 +11841,7 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="22"/>
+      <c r="N167" s="16"/>
       <c r="O167" s="7"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
@@ -11875,8 +11880,8 @@
       <c r="AX167" s="7"/>
       <c r="AY167" s="7"/>
       <c r="AZ167" s="7"/>
-      <c r="BA167" s="7"/>
-      <c r="BB167" s="7"/>
+      <c r="BA167" s="16"/>
+      <c r="BB167" s="16"/>
       <c r="BC167" s="7"/>
       <c r="BD167" s="7"/>
       <c r="BE167" s="7"/>
@@ -11898,7 +11903,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
-      <c r="N168" s="22"/>
+      <c r="N168" s="16"/>
       <c r="O168" s="7"/>
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
@@ -11937,8 +11942,8 @@
       <c r="AX168" s="7"/>
       <c r="AY168" s="7"/>
       <c r="AZ168" s="7"/>
-      <c r="BA168" s="7"/>
-      <c r="BB168" s="7"/>
+      <c r="BA168" s="16"/>
+      <c r="BB168" s="16"/>
       <c r="BC168" s="7"/>
       <c r="BD168" s="7"/>
       <c r="BE168" s="7"/>
@@ -11960,7 +11965,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="22"/>
+      <c r="N169" s="16"/>
       <c r="O169" s="7"/>
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
@@ -11999,8 +12004,8 @@
       <c r="AX169" s="7"/>
       <c r="AY169" s="7"/>
       <c r="AZ169" s="7"/>
-      <c r="BA169" s="7"/>
-      <c r="BB169" s="7"/>
+      <c r="BA169" s="16"/>
+      <c r="BB169" s="16"/>
       <c r="BC169" s="7"/>
       <c r="BD169" s="7"/>
       <c r="BE169" s="7"/>
@@ -12022,7 +12027,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="22"/>
+      <c r="N170" s="16"/>
       <c r="O170" s="7"/>
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
@@ -12061,8 +12066,8 @@
       <c r="AX170" s="7"/>
       <c r="AY170" s="7"/>
       <c r="AZ170" s="7"/>
-      <c r="BA170" s="7"/>
-      <c r="BB170" s="7"/>
+      <c r="BA170" s="16"/>
+      <c r="BB170" s="16"/>
       <c r="BC170" s="7"/>
       <c r="BD170" s="7"/>
       <c r="BE170" s="7"/>
@@ -12084,7 +12089,7 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="22"/>
+      <c r="N171" s="16"/>
       <c r="O171" s="7"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
@@ -12123,8 +12128,8 @@
       <c r="AX171" s="7"/>
       <c r="AY171" s="7"/>
       <c r="AZ171" s="7"/>
-      <c r="BA171" s="7"/>
-      <c r="BB171" s="7"/>
+      <c r="BA171" s="16"/>
+      <c r="BB171" s="16"/>
       <c r="BC171" s="7"/>
       <c r="BD171" s="7"/>
       <c r="BE171" s="7"/>
@@ -12146,7 +12151,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="22"/>
+      <c r="N172" s="16"/>
       <c r="O172" s="7"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
@@ -12185,8 +12190,8 @@
       <c r="AX172" s="7"/>
       <c r="AY172" s="7"/>
       <c r="AZ172" s="7"/>
-      <c r="BA172" s="7"/>
-      <c r="BB172" s="7"/>
+      <c r="BA172" s="16"/>
+      <c r="BB172" s="16"/>
       <c r="BC172" s="7"/>
       <c r="BD172" s="7"/>
       <c r="BE172" s="7"/>
@@ -12208,7 +12213,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="22"/>
+      <c r="N173" s="16"/>
       <c r="O173" s="7"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
@@ -12247,8 +12252,8 @@
       <c r="AX173" s="7"/>
       <c r="AY173" s="7"/>
       <c r="AZ173" s="7"/>
-      <c r="BA173" s="7"/>
-      <c r="BB173" s="7"/>
+      <c r="BA173" s="16"/>
+      <c r="BB173" s="16"/>
       <c r="BC173" s="7"/>
       <c r="BD173" s="7"/>
       <c r="BE173" s="7"/>
@@ -12270,7 +12275,7 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="22"/>
+      <c r="N174" s="16"/>
       <c r="O174" s="7"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
@@ -12309,8 +12314,8 @@
       <c r="AX174" s="7"/>
       <c r="AY174" s="7"/>
       <c r="AZ174" s="7"/>
-      <c r="BA174" s="7"/>
-      <c r="BB174" s="7"/>
+      <c r="BA174" s="16"/>
+      <c r="BB174" s="16"/>
       <c r="BC174" s="7"/>
       <c r="BD174" s="7"/>
       <c r="BE174" s="7"/>
@@ -12332,7 +12337,7 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="22"/>
+      <c r="N175" s="16"/>
       <c r="O175" s="7"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
@@ -12371,8 +12376,8 @@
       <c r="AX175" s="7"/>
       <c r="AY175" s="7"/>
       <c r="AZ175" s="7"/>
-      <c r="BA175" s="7"/>
-      <c r="BB175" s="7"/>
+      <c r="BA175" s="16"/>
+      <c r="BB175" s="16"/>
       <c r="BC175" s="7"/>
       <c r="BD175" s="7"/>
       <c r="BE175" s="7"/>
@@ -12394,7 +12399,7 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="22"/>
+      <c r="N176" s="16"/>
       <c r="O176" s="7"/>
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
@@ -12433,8 +12438,8 @@
       <c r="AX176" s="7"/>
       <c r="AY176" s="7"/>
       <c r="AZ176" s="7"/>
-      <c r="BA176" s="7"/>
-      <c r="BB176" s="7"/>
+      <c r="BA176" s="16"/>
+      <c r="BB176" s="16"/>
       <c r="BC176" s="7"/>
       <c r="BD176" s="7"/>
       <c r="BE176" s="7"/>
@@ -12456,7 +12461,7 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="22"/>
+      <c r="N177" s="16"/>
       <c r="O177" s="7"/>
       <c r="P177" s="7"/>
       <c r="Q177" s="7"/>
@@ -12495,8 +12500,8 @@
       <c r="AX177" s="7"/>
       <c r="AY177" s="7"/>
       <c r="AZ177" s="7"/>
-      <c r="BA177" s="7"/>
-      <c r="BB177" s="7"/>
+      <c r="BA177" s="16"/>
+      <c r="BB177" s="16"/>
       <c r="BC177" s="7"/>
       <c r="BD177" s="7"/>
       <c r="BE177" s="7"/>
@@ -12518,7 +12523,7 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="22"/>
+      <c r="N178" s="16"/>
       <c r="O178" s="7"/>
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
@@ -12557,8 +12562,8 @@
       <c r="AX178" s="7"/>
       <c r="AY178" s="7"/>
       <c r="AZ178" s="7"/>
-      <c r="BA178" s="7"/>
-      <c r="BB178" s="7"/>
+      <c r="BA178" s="16"/>
+      <c r="BB178" s="16"/>
       <c r="BC178" s="7"/>
       <c r="BD178" s="7"/>
       <c r="BE178" s="7"/>
@@ -12580,7 +12585,7 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="22"/>
+      <c r="N179" s="16"/>
       <c r="O179" s="7"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
@@ -12619,8 +12624,8 @@
       <c r="AX179" s="7"/>
       <c r="AY179" s="7"/>
       <c r="AZ179" s="7"/>
-      <c r="BA179" s="7"/>
-      <c r="BB179" s="7"/>
+      <c r="BA179" s="16"/>
+      <c r="BB179" s="16"/>
       <c r="BC179" s="7"/>
       <c r="BD179" s="7"/>
       <c r="BE179" s="7"/>
@@ -12642,7 +12647,7 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="22"/>
+      <c r="N180" s="16"/>
       <c r="O180" s="7"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
@@ -12681,8 +12686,8 @@
       <c r="AX180" s="7"/>
       <c r="AY180" s="7"/>
       <c r="AZ180" s="7"/>
-      <c r="BA180" s="7"/>
-      <c r="BB180" s="7"/>
+      <c r="BA180" s="16"/>
+      <c r="BB180" s="16"/>
       <c r="BC180" s="7"/>
       <c r="BD180" s="7"/>
       <c r="BE180" s="7"/>
@@ -12704,7 +12709,7 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="22"/>
+      <c r="N181" s="16"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
@@ -12743,8 +12748,8 @@
       <c r="AX181" s="7"/>
       <c r="AY181" s="7"/>
       <c r="AZ181" s="7"/>
-      <c r="BA181" s="7"/>
-      <c r="BB181" s="7"/>
+      <c r="BA181" s="16"/>
+      <c r="BB181" s="16"/>
       <c r="BC181" s="7"/>
       <c r="BD181" s="7"/>
       <c r="BE181" s="7"/>
@@ -12766,7 +12771,7 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="22"/>
+      <c r="N182" s="16"/>
       <c r="O182" s="7"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
@@ -12805,8 +12810,8 @@
       <c r="AX182" s="7"/>
       <c r="AY182" s="7"/>
       <c r="AZ182" s="7"/>
-      <c r="BA182" s="7"/>
-      <c r="BB182" s="7"/>
+      <c r="BA182" s="16"/>
+      <c r="BB182" s="16"/>
       <c r="BC182" s="7"/>
       <c r="BD182" s="7"/>
       <c r="BE182" s="7"/>
@@ -12828,7 +12833,7 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="22"/>
+      <c r="N183" s="16"/>
       <c r="O183" s="7"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
@@ -12867,8 +12872,8 @@
       <c r="AX183" s="7"/>
       <c r="AY183" s="7"/>
       <c r="AZ183" s="7"/>
-      <c r="BA183" s="7"/>
-      <c r="BB183" s="7"/>
+      <c r="BA183" s="16"/>
+      <c r="BB183" s="16"/>
       <c r="BC183" s="7"/>
       <c r="BD183" s="7"/>
       <c r="BE183" s="7"/>
@@ -12890,7 +12895,7 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="22"/>
+      <c r="N184" s="16"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
@@ -12929,8 +12934,8 @@
       <c r="AX184" s="7"/>
       <c r="AY184" s="7"/>
       <c r="AZ184" s="7"/>
-      <c r="BA184" s="7"/>
-      <c r="BB184" s="7"/>
+      <c r="BA184" s="16"/>
+      <c r="BB184" s="16"/>
       <c r="BC184" s="7"/>
       <c r="BD184" s="7"/>
       <c r="BE184" s="7"/>
@@ -12952,7 +12957,7 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="22"/>
+      <c r="N185" s="16"/>
       <c r="O185" s="7"/>
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
@@ -12991,8 +12996,8 @@
       <c r="AX185" s="7"/>
       <c r="AY185" s="7"/>
       <c r="AZ185" s="7"/>
-      <c r="BA185" s="7"/>
-      <c r="BB185" s="7"/>
+      <c r="BA185" s="16"/>
+      <c r="BB185" s="16"/>
       <c r="BC185" s="7"/>
       <c r="BD185" s="7"/>
       <c r="BE185" s="7"/>
@@ -13014,7 +13019,7 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="22"/>
+      <c r="N186" s="16"/>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
@@ -13053,8 +13058,8 @@
       <c r="AX186" s="7"/>
       <c r="AY186" s="7"/>
       <c r="AZ186" s="7"/>
-      <c r="BA186" s="7"/>
-      <c r="BB186" s="7"/>
+      <c r="BA186" s="16"/>
+      <c r="BB186" s="16"/>
       <c r="BC186" s="7"/>
       <c r="BD186" s="7"/>
       <c r="BE186" s="7"/>
@@ -13076,7 +13081,7 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="22"/>
+      <c r="N187" s="16"/>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
@@ -13115,8 +13120,8 @@
       <c r="AX187" s="7"/>
       <c r="AY187" s="7"/>
       <c r="AZ187" s="7"/>
-      <c r="BA187" s="7"/>
-      <c r="BB187" s="7"/>
+      <c r="BA187" s="16"/>
+      <c r="BB187" s="16"/>
       <c r="BC187" s="7"/>
       <c r="BD187" s="7"/>
       <c r="BE187" s="7"/>
@@ -13138,7 +13143,7 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="22"/>
+      <c r="N188" s="16"/>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
@@ -13177,8 +13182,8 @@
       <c r="AX188" s="7"/>
       <c r="AY188" s="7"/>
       <c r="AZ188" s="7"/>
-      <c r="BA188" s="7"/>
-      <c r="BB188" s="7"/>
+      <c r="BA188" s="16"/>
+      <c r="BB188" s="16"/>
       <c r="BC188" s="7"/>
       <c r="BD188" s="7"/>
       <c r="BE188" s="7"/>
@@ -13200,7 +13205,7 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="22"/>
+      <c r="N189" s="16"/>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
@@ -13239,8 +13244,8 @@
       <c r="AX189" s="7"/>
       <c r="AY189" s="7"/>
       <c r="AZ189" s="7"/>
-      <c r="BA189" s="7"/>
-      <c r="BB189" s="7"/>
+      <c r="BA189" s="16"/>
+      <c r="BB189" s="16"/>
       <c r="BC189" s="7"/>
       <c r="BD189" s="7"/>
       <c r="BE189" s="7"/>
@@ -13262,7 +13267,7 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="22"/>
+      <c r="N190" s="16"/>
       <c r="O190" s="7"/>
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
@@ -13301,8 +13306,8 @@
       <c r="AX190" s="7"/>
       <c r="AY190" s="7"/>
       <c r="AZ190" s="7"/>
-      <c r="BA190" s="7"/>
-      <c r="BB190" s="7"/>
+      <c r="BA190" s="16"/>
+      <c r="BB190" s="16"/>
       <c r="BC190" s="7"/>
       <c r="BD190" s="7"/>
       <c r="BE190" s="7"/>
@@ -13324,7 +13329,7 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
-      <c r="N191" s="22"/>
+      <c r="N191" s="16"/>
       <c r="O191" s="7"/>
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
@@ -13363,8 +13368,8 @@
       <c r="AX191" s="7"/>
       <c r="AY191" s="7"/>
       <c r="AZ191" s="7"/>
-      <c r="BA191" s="7"/>
-      <c r="BB191" s="7"/>
+      <c r="BA191" s="16"/>
+      <c r="BB191" s="16"/>
       <c r="BC191" s="7"/>
       <c r="BD191" s="7"/>
       <c r="BE191" s="7"/>
@@ -13386,7 +13391,7 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
-      <c r="N192" s="22"/>
+      <c r="N192" s="16"/>
       <c r="O192" s="7"/>
       <c r="P192" s="7"/>
       <c r="Q192" s="7"/>
@@ -13425,8 +13430,8 @@
       <c r="AX192" s="7"/>
       <c r="AY192" s="7"/>
       <c r="AZ192" s="7"/>
-      <c r="BA192" s="7"/>
-      <c r="BB192" s="7"/>
+      <c r="BA192" s="16"/>
+      <c r="BB192" s="16"/>
       <c r="BC192" s="7"/>
       <c r="BD192" s="7"/>
       <c r="BE192" s="7"/>
@@ -13448,7 +13453,7 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
-      <c r="N193" s="22"/>
+      <c r="N193" s="16"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
@@ -13487,8 +13492,8 @@
       <c r="AX193" s="7"/>
       <c r="AY193" s="7"/>
       <c r="AZ193" s="7"/>
-      <c r="BA193" s="7"/>
-      <c r="BB193" s="7"/>
+      <c r="BA193" s="16"/>
+      <c r="BB193" s="16"/>
       <c r="BC193" s="7"/>
       <c r="BD193" s="7"/>
       <c r="BE193" s="7"/>
@@ -13510,7 +13515,7 @@
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
-      <c r="N194" s="22"/>
+      <c r="N194" s="16"/>
       <c r="O194" s="7"/>
       <c r="P194" s="7"/>
       <c r="Q194" s="7"/>
@@ -13549,8 +13554,8 @@
       <c r="AX194" s="7"/>
       <c r="AY194" s="7"/>
       <c r="AZ194" s="7"/>
-      <c r="BA194" s="7"/>
-      <c r="BB194" s="7"/>
+      <c r="BA194" s="16"/>
+      <c r="BB194" s="16"/>
       <c r="BC194" s="7"/>
       <c r="BD194" s="7"/>
       <c r="BE194" s="7"/>
@@ -13572,7 +13577,7 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
-      <c r="N195" s="22"/>
+      <c r="N195" s="16"/>
       <c r="O195" s="7"/>
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
@@ -13611,8 +13616,8 @@
       <c r="AX195" s="7"/>
       <c r="AY195" s="7"/>
       <c r="AZ195" s="7"/>
-      <c r="BA195" s="7"/>
-      <c r="BB195" s="7"/>
+      <c r="BA195" s="16"/>
+      <c r="BB195" s="16"/>
       <c r="BC195" s="7"/>
       <c r="BD195" s="7"/>
       <c r="BE195" s="7"/>
@@ -13634,7 +13639,7 @@
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="22"/>
+      <c r="N196" s="16"/>
       <c r="O196" s="7"/>
       <c r="P196" s="7"/>
       <c r="Q196" s="7"/>
@@ -13673,8 +13678,8 @@
       <c r="AX196" s="7"/>
       <c r="AY196" s="7"/>
       <c r="AZ196" s="7"/>
-      <c r="BA196" s="7"/>
-      <c r="BB196" s="7"/>
+      <c r="BA196" s="16"/>
+      <c r="BB196" s="16"/>
       <c r="BC196" s="7"/>
       <c r="BD196" s="7"/>
       <c r="BE196" s="7"/>
@@ -13696,7 +13701,7 @@
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="22"/>
+      <c r="N197" s="16"/>
       <c r="O197" s="7"/>
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
@@ -13735,8 +13740,8 @@
       <c r="AX197" s="7"/>
       <c r="AY197" s="7"/>
       <c r="AZ197" s="7"/>
-      <c r="BA197" s="7"/>
-      <c r="BB197" s="7"/>
+      <c r="BA197" s="16"/>
+      <c r="BB197" s="16"/>
       <c r="BC197" s="7"/>
       <c r="BD197" s="7"/>
       <c r="BE197" s="7"/>
@@ -13758,7 +13763,7 @@
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
-      <c r="N198" s="22"/>
+      <c r="N198" s="16"/>
       <c r="O198" s="7"/>
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
@@ -13797,8 +13802,8 @@
       <c r="AX198" s="7"/>
       <c r="AY198" s="7"/>
       <c r="AZ198" s="7"/>
-      <c r="BA198" s="7"/>
-      <c r="BB198" s="7"/>
+      <c r="BA198" s="16"/>
+      <c r="BB198" s="16"/>
       <c r="BC198" s="7"/>
       <c r="BD198" s="7"/>
       <c r="BE198" s="7"/>
@@ -13820,7 +13825,7 @@
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
-      <c r="N199" s="22"/>
+      <c r="N199" s="16"/>
       <c r="O199" s="7"/>
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
@@ -13859,8 +13864,8 @@
       <c r="AX199" s="7"/>
       <c r="AY199" s="7"/>
       <c r="AZ199" s="7"/>
-      <c r="BA199" s="7"/>
-      <c r="BB199" s="7"/>
+      <c r="BA199" s="16"/>
+      <c r="BB199" s="16"/>
       <c r="BC199" s="7"/>
       <c r="BD199" s="7"/>
       <c r="BE199" s="7"/>
@@ -13882,7 +13887,7 @@
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
-      <c r="N200" s="22"/>
+      <c r="N200" s="16"/>
       <c r="O200" s="7"/>
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
@@ -13921,8 +13926,8 @@
       <c r="AX200" s="7"/>
       <c r="AY200" s="7"/>
       <c r="AZ200" s="7"/>
-      <c r="BA200" s="7"/>
-      <c r="BB200" s="7"/>
+      <c r="BA200" s="16"/>
+      <c r="BB200" s="16"/>
       <c r="BC200" s="7"/>
       <c r="BD200" s="7"/>
       <c r="BE200" s="7"/>
@@ -13944,7 +13949,7 @@
       <c r="K201" s="7"/>
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
-      <c r="N201" s="22"/>
+      <c r="N201" s="16"/>
       <c r="O201" s="7"/>
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
@@ -13983,8 +13988,8 @@
       <c r="AX201" s="7"/>
       <c r="AY201" s="7"/>
       <c r="AZ201" s="7"/>
-      <c r="BA201" s="7"/>
-      <c r="BB201" s="7"/>
+      <c r="BA201" s="16"/>
+      <c r="BB201" s="16"/>
       <c r="BC201" s="7"/>
       <c r="BD201" s="7"/>
       <c r="BE201" s="7"/>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F6C54-6E7B-4BE3-99B9-DCF04AF636CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C219C-1382-4F3A-B895-1263B50E279B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,123 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{F28771FE-D139-40E9-BDED-84E2AF721E62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写示例：
+爱亲科技</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>爱亲母婴</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>萌贝树</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">小红马
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>值与值之间用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英文逗号隔开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{8A6A77D4-778D-416C-8DDD-2BDDB822D37B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">填写示例：
+新品,爱亲主推
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>值与值之间用 英文逗号隔开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="BD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="BE2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="BF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="BG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>基本信息</t>
   </si>
@@ -541,9 +657,6 @@
   </si>
   <si>
     <t>结算信息</t>
-  </si>
-  <si>
-    <t>生产厂家</t>
   </si>
   <si>
     <t>图片信息</t>
@@ -765,20 +878,23 @@
     <t>物流费奖励比例</t>
   </si>
   <si>
-    <t>生产厂家SKU编号</t>
+    <t>图片文件夹编号</t>
   </si>
   <si>
-    <t>保修地址</t>
+    <t>覆盖渠道</t>
   </si>
   <si>
-    <t>图片文件夹编号</t>
+    <t>商品标签</t>
+  </si>
+  <si>
+    <t>商品备注</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,8 +981,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,14 +1042,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -987,6 +1102,21 @@
     <border>
       <left/>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1057,6 +1187,12 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,12 +1206,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="BB10" sqref="BB10"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1377,286 +1507,280 @@
     <col min="20" max="20" width="9.73046875" style="3" customWidth="1"/>
     <col min="21" max="21" width="11.796875" style="3" customWidth="1"/>
     <col min="22" max="23" width="9.73046875" style="3" customWidth="1"/>
-    <col min="24" max="27" width="11.796875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.73046875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="11.796875" style="3" customWidth="1"/>
-    <col min="30" max="31" width="9.73046875" style="3" customWidth="1"/>
-    <col min="32" max="34" width="13" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.86328125" style="3" customWidth="1"/>
-    <col min="36" max="37" width="14" style="3" customWidth="1"/>
-    <col min="38" max="39" width="9.73046875" style="3" customWidth="1"/>
-    <col min="40" max="42" width="13" style="3" customWidth="1"/>
-    <col min="43" max="43" width="17.1328125" style="3" customWidth="1"/>
-    <col min="44" max="45" width="14" style="3" customWidth="1"/>
-    <col min="46" max="46" width="14.06640625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="11.796875" style="3" customWidth="1"/>
-    <col min="48" max="49" width="14.06640625" style="3" customWidth="1"/>
+    <col min="24" max="30" width="11.796875" style="3" customWidth="1"/>
+    <col min="31" max="31" width="9.73046875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.796875" style="3" customWidth="1"/>
+    <col min="33" max="34" width="9.73046875" style="3" customWidth="1"/>
+    <col min="35" max="37" width="13" style="3" customWidth="1"/>
+    <col min="38" max="38" width="15.86328125" style="3" customWidth="1"/>
+    <col min="39" max="40" width="14" style="3" customWidth="1"/>
+    <col min="41" max="42" width="9.73046875" style="3" customWidth="1"/>
+    <col min="43" max="45" width="13" style="3" customWidth="1"/>
+    <col min="46" max="46" width="17.1328125" style="3" customWidth="1"/>
+    <col min="47" max="48" width="14" style="3" customWidth="1"/>
+    <col min="49" max="49" width="14.06640625" style="3" customWidth="1"/>
     <col min="50" max="50" width="11.796875" style="3" customWidth="1"/>
-    <col min="51" max="52" width="9.73046875" style="3" customWidth="1"/>
-    <col min="53" max="54" width="9.73046875" style="17" customWidth="1"/>
-    <col min="55" max="55" width="9.73046875" style="3" customWidth="1"/>
-    <col min="56" max="56" width="16.33203125" style="3" customWidth="1"/>
-    <col min="57" max="57" width="9.73046875" style="3" customWidth="1"/>
-    <col min="58" max="58" width="18.265625" style="3" customWidth="1"/>
-    <col min="59" max="59" width="9.73046875" style="3" customWidth="1"/>
-    <col min="60" max="60" width="16.33203125" style="3" customWidth="1"/>
+    <col min="51" max="52" width="14.06640625" style="3" customWidth="1"/>
+    <col min="53" max="53" width="11.796875" style="3" customWidth="1"/>
+    <col min="54" max="55" width="9.73046875" style="3" customWidth="1"/>
+    <col min="56" max="57" width="9.73046875" style="17" customWidth="1"/>
+    <col min="58" max="58" width="9.73046875" style="3" customWidth="1"/>
+    <col min="59" max="60" width="16.33203125" style="3" customWidth="1"/>
     <col min="61" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="8" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AG1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="23" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="24" t="s">
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:60" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AF2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AG2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AR2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AU2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AW2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BB2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BC2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BD2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BE2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BF2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BG2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BH2" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -1712,11 +1836,11 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="18"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="18"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
@@ -1774,11 +1898,11 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -1836,11 +1960,11 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -1898,11 +2022,11 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
@@ -1960,11 +2084,11 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
       <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
@@ -2022,11 +2146,11 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
@@ -2084,11 +2208,11 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
@@ -2146,11 +2270,11 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
@@ -2208,11 +2332,11 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
@@ -2270,11 +2394,11 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
@@ -2332,11 +2456,11 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
@@ -2394,11 +2518,11 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
@@ -2456,11 +2580,11 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="AZ15" s="7"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
@@ -2518,11 +2642,11 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
@@ -2580,11 +2704,11 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
@@ -2642,11 +2766,11 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
@@ -2704,11 +2828,11 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="AZ19" s="7"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
@@ -2766,11 +2890,11 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
@@ -2828,11 +2952,11 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="16"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
@@ -2890,11 +3014,11 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
       <c r="BF22" s="7"/>
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
@@ -2952,11 +3076,11 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="16"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
       <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
@@ -3014,11 +3138,11 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
@@ -3076,11 +3200,11 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="AZ25" s="7"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
       <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
-      <c r="BE25" s="7"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
@@ -3138,11 +3262,11 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
-      <c r="BE26" s="7"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
@@ -3200,11 +3324,11 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
-      <c r="BD27" s="7"/>
-      <c r="BE27" s="7"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
@@ -3262,11 +3386,11 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
-      <c r="BD28" s="7"/>
-      <c r="BE28" s="7"/>
+      <c r="BD28" s="16"/>
+      <c r="BE28" s="16"/>
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
@@ -3324,11 +3448,11 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="16"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
-      <c r="BD29" s="7"/>
-      <c r="BE29" s="7"/>
+      <c r="BD29" s="16"/>
+      <c r="BE29" s="16"/>
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
@@ -3386,11 +3510,11 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="7"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
@@ -3448,11 +3572,11 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
-      <c r="BA31" s="16"/>
-      <c r="BB31" s="16"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
+      <c r="BD31" s="16"/>
+      <c r="BE31" s="16"/>
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
@@ -3510,11 +3634,11 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
-      <c r="BA32" s="16"/>
-      <c r="BB32" s="16"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
@@ -3572,11 +3696,11 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
-      <c r="BD33" s="7"/>
-      <c r="BE33" s="7"/>
+      <c r="BD33" s="16"/>
+      <c r="BE33" s="16"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
@@ -3634,11 +3758,11 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
-      <c r="BA34" s="16"/>
-      <c r="BB34" s="16"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
-      <c r="BD34" s="7"/>
-      <c r="BE34" s="7"/>
+      <c r="BD34" s="16"/>
+      <c r="BE34" s="16"/>
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
@@ -3696,11 +3820,11 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
-      <c r="BA35" s="16"/>
-      <c r="BB35" s="16"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
@@ -3758,11 +3882,11 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
-      <c r="BA36" s="16"/>
-      <c r="BB36" s="16"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
-      <c r="BD36" s="7"/>
-      <c r="BE36" s="7"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
@@ -3820,11 +3944,11 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
-      <c r="BD37" s="7"/>
-      <c r="BE37" s="7"/>
+      <c r="BD37" s="16"/>
+      <c r="BE37" s="16"/>
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
@@ -3882,11 +4006,11 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
+      <c r="BA38" s="7"/>
+      <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
-      <c r="BD38" s="7"/>
-      <c r="BE38" s="7"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
@@ -3944,11 +4068,11 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
-      <c r="BA39" s="16"/>
-      <c r="BB39" s="16"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
-      <c r="BD39" s="7"/>
-      <c r="BE39" s="7"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
@@ -4006,11 +4130,11 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
-      <c r="BA40" s="16"/>
-      <c r="BB40" s="16"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
-      <c r="BD40" s="7"/>
-      <c r="BE40" s="7"/>
+      <c r="BD40" s="16"/>
+      <c r="BE40" s="16"/>
       <c r="BF40" s="7"/>
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
@@ -4068,11 +4192,11 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
-      <c r="BA41" s="16"/>
-      <c r="BB41" s="16"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
       <c r="BC41" s="7"/>
-      <c r="BD41" s="7"/>
-      <c r="BE41" s="7"/>
+      <c r="BD41" s="16"/>
+      <c r="BE41" s="16"/>
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
@@ -4130,11 +4254,11 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
-      <c r="BA42" s="16"/>
-      <c r="BB42" s="16"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
-      <c r="BD42" s="7"/>
-      <c r="BE42" s="7"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
       <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
@@ -4192,11 +4316,11 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
-      <c r="BA43" s="16"/>
-      <c r="BB43" s="16"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
-      <c r="BD43" s="7"/>
-      <c r="BE43" s="7"/>
+      <c r="BD43" s="16"/>
+      <c r="BE43" s="16"/>
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
@@ -4254,11 +4378,11 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
-      <c r="BA44" s="16"/>
-      <c r="BB44" s="16"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
+      <c r="BD44" s="16"/>
+      <c r="BE44" s="16"/>
       <c r="BF44" s="7"/>
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
@@ -4316,11 +4440,11 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
-      <c r="BA45" s="16"/>
-      <c r="BB45" s="16"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
       <c r="BC45" s="7"/>
-      <c r="BD45" s="7"/>
-      <c r="BE45" s="7"/>
+      <c r="BD45" s="16"/>
+      <c r="BE45" s="16"/>
       <c r="BF45" s="7"/>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
@@ -4378,11 +4502,11 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
-      <c r="BA46" s="16"/>
-      <c r="BB46" s="16"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
       <c r="BC46" s="7"/>
-      <c r="BD46" s="7"/>
-      <c r="BE46" s="7"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
       <c r="BF46" s="7"/>
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
@@ -4440,11 +4564,11 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
-      <c r="BA47" s="16"/>
-      <c r="BB47" s="16"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
-      <c r="BD47" s="7"/>
-      <c r="BE47" s="7"/>
+      <c r="BD47" s="16"/>
+      <c r="BE47" s="16"/>
       <c r="BF47" s="7"/>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
@@ -4502,11 +4626,11 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
-      <c r="BA48" s="16"/>
-      <c r="BB48" s="16"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
       <c r="BC48" s="7"/>
-      <c r="BD48" s="7"/>
-      <c r="BE48" s="7"/>
+      <c r="BD48" s="16"/>
+      <c r="BE48" s="16"/>
       <c r="BF48" s="7"/>
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
@@ -4564,11 +4688,11 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
       <c r="AZ49" s="7"/>
-      <c r="BA49" s="16"/>
-      <c r="BB49" s="16"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
       <c r="BC49" s="7"/>
-      <c r="BD49" s="7"/>
-      <c r="BE49" s="7"/>
+      <c r="BD49" s="16"/>
+      <c r="BE49" s="16"/>
       <c r="BF49" s="7"/>
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
@@ -4626,11 +4750,11 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
       <c r="AZ50" s="7"/>
-      <c r="BA50" s="16"/>
-      <c r="BB50" s="16"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
-      <c r="BD50" s="7"/>
-      <c r="BE50" s="7"/>
+      <c r="BD50" s="16"/>
+      <c r="BE50" s="16"/>
       <c r="BF50" s="7"/>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
@@ -4688,11 +4812,11 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
       <c r="AZ51" s="7"/>
-      <c r="BA51" s="16"/>
-      <c r="BB51" s="16"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
-      <c r="BD51" s="7"/>
-      <c r="BE51" s="7"/>
+      <c r="BD51" s="16"/>
+      <c r="BE51" s="16"/>
       <c r="BF51" s="7"/>
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
@@ -4750,11 +4874,11 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="7"/>
-      <c r="BA52" s="16"/>
-      <c r="BB52" s="16"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
-      <c r="BD52" s="7"/>
-      <c r="BE52" s="7"/>
+      <c r="BD52" s="16"/>
+      <c r="BE52" s="16"/>
       <c r="BF52" s="7"/>
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
@@ -4812,11 +4936,11 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
-      <c r="BA53" s="16"/>
-      <c r="BB53" s="16"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
-      <c r="BD53" s="7"/>
-      <c r="BE53" s="7"/>
+      <c r="BD53" s="16"/>
+      <c r="BE53" s="16"/>
       <c r="BF53" s="7"/>
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
@@ -4874,11 +4998,11 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
-      <c r="BA54" s="16"/>
-      <c r="BB54" s="16"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
-      <c r="BD54" s="7"/>
-      <c r="BE54" s="7"/>
+      <c r="BD54" s="16"/>
+      <c r="BE54" s="16"/>
       <c r="BF54" s="7"/>
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
@@ -4936,11 +5060,11 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
-      <c r="BA55" s="16"/>
-      <c r="BB55" s="16"/>
+      <c r="BA55" s="7"/>
+      <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
-      <c r="BD55" s="7"/>
-      <c r="BE55" s="7"/>
+      <c r="BD55" s="16"/>
+      <c r="BE55" s="16"/>
       <c r="BF55" s="7"/>
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
@@ -4998,11 +5122,11 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
-      <c r="BA56" s="16"/>
-      <c r="BB56" s="16"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
-      <c r="BD56" s="7"/>
-      <c r="BE56" s="7"/>
+      <c r="BD56" s="16"/>
+      <c r="BE56" s="16"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
@@ -5060,11 +5184,11 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
-      <c r="BA57" s="16"/>
-      <c r="BB57" s="16"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
-      <c r="BD57" s="7"/>
-      <c r="BE57" s="7"/>
+      <c r="BD57" s="16"/>
+      <c r="BE57" s="16"/>
       <c r="BF57" s="7"/>
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
@@ -5122,11 +5246,11 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="7"/>
-      <c r="BA58" s="16"/>
-      <c r="BB58" s="16"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
-      <c r="BD58" s="7"/>
-      <c r="BE58" s="7"/>
+      <c r="BD58" s="16"/>
+      <c r="BE58" s="16"/>
       <c r="BF58" s="7"/>
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
@@ -5184,11 +5308,11 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
-      <c r="BA59" s="16"/>
-      <c r="BB59" s="16"/>
+      <c r="BA59" s="7"/>
+      <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
-      <c r="BD59" s="7"/>
-      <c r="BE59" s="7"/>
+      <c r="BD59" s="16"/>
+      <c r="BE59" s="16"/>
       <c r="BF59" s="7"/>
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
@@ -5246,11 +5370,11 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="7"/>
-      <c r="BA60" s="16"/>
-      <c r="BB60" s="16"/>
+      <c r="BA60" s="7"/>
+      <c r="BB60" s="7"/>
       <c r="BC60" s="7"/>
-      <c r="BD60" s="7"/>
-      <c r="BE60" s="7"/>
+      <c r="BD60" s="16"/>
+      <c r="BE60" s="16"/>
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
@@ -5308,11 +5432,11 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
-      <c r="BA61" s="16"/>
-      <c r="BB61" s="16"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
-      <c r="BD61" s="7"/>
-      <c r="BE61" s="7"/>
+      <c r="BD61" s="16"/>
+      <c r="BE61" s="16"/>
       <c r="BF61" s="7"/>
       <c r="BG61" s="7"/>
       <c r="BH61" s="7"/>
@@ -5370,11 +5494,11 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="7"/>
-      <c r="BA62" s="16"/>
-      <c r="BB62" s="16"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
-      <c r="BD62" s="7"/>
-      <c r="BE62" s="7"/>
+      <c r="BD62" s="16"/>
+      <c r="BE62" s="16"/>
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
       <c r="BH62" s="7"/>
@@ -5432,11 +5556,11 @@
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
-      <c r="BA63" s="16"/>
-      <c r="BB63" s="16"/>
+      <c r="BA63" s="7"/>
+      <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
-      <c r="BD63" s="7"/>
-      <c r="BE63" s="7"/>
+      <c r="BD63" s="16"/>
+      <c r="BE63" s="16"/>
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
       <c r="BH63" s="7"/>
@@ -5494,11 +5618,11 @@
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="7"/>
-      <c r="BA64" s="16"/>
-      <c r="BB64" s="16"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" s="7"/>
       <c r="BC64" s="7"/>
-      <c r="BD64" s="7"/>
-      <c r="BE64" s="7"/>
+      <c r="BD64" s="16"/>
+      <c r="BE64" s="16"/>
       <c r="BF64" s="7"/>
       <c r="BG64" s="7"/>
       <c r="BH64" s="7"/>
@@ -5556,11 +5680,11 @@
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
-      <c r="BA65" s="16"/>
-      <c r="BB65" s="16"/>
+      <c r="BA65" s="7"/>
+      <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
-      <c r="BD65" s="7"/>
-      <c r="BE65" s="7"/>
+      <c r="BD65" s="16"/>
+      <c r="BE65" s="16"/>
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="7"/>
@@ -5618,11 +5742,11 @@
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="7"/>
-      <c r="BA66" s="16"/>
-      <c r="BB66" s="16"/>
+      <c r="BA66" s="7"/>
+      <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
-      <c r="BD66" s="7"/>
-      <c r="BE66" s="7"/>
+      <c r="BD66" s="16"/>
+      <c r="BE66" s="16"/>
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
       <c r="BH66" s="7"/>
@@ -5680,11 +5804,11 @@
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
-      <c r="BA67" s="16"/>
-      <c r="BB67" s="16"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
-      <c r="BD67" s="7"/>
-      <c r="BE67" s="7"/>
+      <c r="BD67" s="16"/>
+      <c r="BE67" s="16"/>
       <c r="BF67" s="7"/>
       <c r="BG67" s="7"/>
       <c r="BH67" s="7"/>
@@ -5742,11 +5866,11 @@
       <c r="AX68" s="7"/>
       <c r="AY68" s="7"/>
       <c r="AZ68" s="7"/>
-      <c r="BA68" s="16"/>
-      <c r="BB68" s="16"/>
+      <c r="BA68" s="7"/>
+      <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
-      <c r="BD68" s="7"/>
-      <c r="BE68" s="7"/>
+      <c r="BD68" s="16"/>
+      <c r="BE68" s="16"/>
       <c r="BF68" s="7"/>
       <c r="BG68" s="7"/>
       <c r="BH68" s="7"/>
@@ -5804,11 +5928,11 @@
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
       <c r="AZ69" s="7"/>
-      <c r="BA69" s="16"/>
-      <c r="BB69" s="16"/>
+      <c r="BA69" s="7"/>
+      <c r="BB69" s="7"/>
       <c r="BC69" s="7"/>
-      <c r="BD69" s="7"/>
-      <c r="BE69" s="7"/>
+      <c r="BD69" s="16"/>
+      <c r="BE69" s="16"/>
       <c r="BF69" s="7"/>
       <c r="BG69" s="7"/>
       <c r="BH69" s="7"/>
@@ -5866,11 +5990,11 @@
       <c r="AX70" s="7"/>
       <c r="AY70" s="7"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="16"/>
-      <c r="BB70" s="16"/>
+      <c r="BA70" s="7"/>
+      <c r="BB70" s="7"/>
       <c r="BC70" s="7"/>
-      <c r="BD70" s="7"/>
-      <c r="BE70" s="7"/>
+      <c r="BD70" s="16"/>
+      <c r="BE70" s="16"/>
       <c r="BF70" s="7"/>
       <c r="BG70" s="7"/>
       <c r="BH70" s="7"/>
@@ -5928,11 +6052,11 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
       <c r="AZ71" s="7"/>
-      <c r="BA71" s="16"/>
-      <c r="BB71" s="16"/>
+      <c r="BA71" s="7"/>
+      <c r="BB71" s="7"/>
       <c r="BC71" s="7"/>
-      <c r="BD71" s="7"/>
-      <c r="BE71" s="7"/>
+      <c r="BD71" s="16"/>
+      <c r="BE71" s="16"/>
       <c r="BF71" s="7"/>
       <c r="BG71" s="7"/>
       <c r="BH71" s="7"/>
@@ -5990,11 +6114,11 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
       <c r="AZ72" s="7"/>
-      <c r="BA72" s="16"/>
-      <c r="BB72" s="16"/>
+      <c r="BA72" s="7"/>
+      <c r="BB72" s="7"/>
       <c r="BC72" s="7"/>
-      <c r="BD72" s="7"/>
-      <c r="BE72" s="7"/>
+      <c r="BD72" s="16"/>
+      <c r="BE72" s="16"/>
       <c r="BF72" s="7"/>
       <c r="BG72" s="7"/>
       <c r="BH72" s="7"/>
@@ -6052,11 +6176,11 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
       <c r="AZ73" s="7"/>
-      <c r="BA73" s="16"/>
-      <c r="BB73" s="16"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7"/>
       <c r="BC73" s="7"/>
-      <c r="BD73" s="7"/>
-      <c r="BE73" s="7"/>
+      <c r="BD73" s="16"/>
+      <c r="BE73" s="16"/>
       <c r="BF73" s="7"/>
       <c r="BG73" s="7"/>
       <c r="BH73" s="7"/>
@@ -6114,11 +6238,11 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
       <c r="AZ74" s="7"/>
-      <c r="BA74" s="16"/>
-      <c r="BB74" s="16"/>
+      <c r="BA74" s="7"/>
+      <c r="BB74" s="7"/>
       <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
-      <c r="BE74" s="7"/>
+      <c r="BD74" s="16"/>
+      <c r="BE74" s="16"/>
       <c r="BF74" s="7"/>
       <c r="BG74" s="7"/>
       <c r="BH74" s="7"/>
@@ -6176,11 +6300,11 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
       <c r="AZ75" s="7"/>
-      <c r="BA75" s="16"/>
-      <c r="BB75" s="16"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7"/>
       <c r="BC75" s="7"/>
-      <c r="BD75" s="7"/>
-      <c r="BE75" s="7"/>
+      <c r="BD75" s="16"/>
+      <c r="BE75" s="16"/>
       <c r="BF75" s="7"/>
       <c r="BG75" s="7"/>
       <c r="BH75" s="7"/>
@@ -6238,11 +6362,11 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
       <c r="AZ76" s="7"/>
-      <c r="BA76" s="16"/>
-      <c r="BB76" s="16"/>
+      <c r="BA76" s="7"/>
+      <c r="BB76" s="7"/>
       <c r="BC76" s="7"/>
-      <c r="BD76" s="7"/>
-      <c r="BE76" s="7"/>
+      <c r="BD76" s="16"/>
+      <c r="BE76" s="16"/>
       <c r="BF76" s="7"/>
       <c r="BG76" s="7"/>
       <c r="BH76" s="7"/>
@@ -6300,11 +6424,11 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
       <c r="AZ77" s="7"/>
-      <c r="BA77" s="16"/>
-      <c r="BB77" s="16"/>
+      <c r="BA77" s="7"/>
+      <c r="BB77" s="7"/>
       <c r="BC77" s="7"/>
-      <c r="BD77" s="7"/>
-      <c r="BE77" s="7"/>
+      <c r="BD77" s="16"/>
+      <c r="BE77" s="16"/>
       <c r="BF77" s="7"/>
       <c r="BG77" s="7"/>
       <c r="BH77" s="7"/>
@@ -6362,11 +6486,11 @@
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
       <c r="AZ78" s="7"/>
-      <c r="BA78" s="16"/>
-      <c r="BB78" s="16"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" s="7"/>
       <c r="BC78" s="7"/>
-      <c r="BD78" s="7"/>
-      <c r="BE78" s="7"/>
+      <c r="BD78" s="16"/>
+      <c r="BE78" s="16"/>
       <c r="BF78" s="7"/>
       <c r="BG78" s="7"/>
       <c r="BH78" s="7"/>
@@ -6424,11 +6548,11 @@
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
       <c r="AZ79" s="7"/>
-      <c r="BA79" s="16"/>
-      <c r="BB79" s="16"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" s="7"/>
       <c r="BC79" s="7"/>
-      <c r="BD79" s="7"/>
-      <c r="BE79" s="7"/>
+      <c r="BD79" s="16"/>
+      <c r="BE79" s="16"/>
       <c r="BF79" s="7"/>
       <c r="BG79" s="7"/>
       <c r="BH79" s="7"/>
@@ -6486,11 +6610,11 @@
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
       <c r="AZ80" s="7"/>
-      <c r="BA80" s="16"/>
-      <c r="BB80" s="16"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7"/>
       <c r="BC80" s="7"/>
-      <c r="BD80" s="7"/>
-      <c r="BE80" s="7"/>
+      <c r="BD80" s="16"/>
+      <c r="BE80" s="16"/>
       <c r="BF80" s="7"/>
       <c r="BG80" s="7"/>
       <c r="BH80" s="7"/>
@@ -6548,11 +6672,11 @@
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
       <c r="AZ81" s="7"/>
-      <c r="BA81" s="16"/>
-      <c r="BB81" s="16"/>
+      <c r="BA81" s="7"/>
+      <c r="BB81" s="7"/>
       <c r="BC81" s="7"/>
-      <c r="BD81" s="7"/>
-      <c r="BE81" s="7"/>
+      <c r="BD81" s="16"/>
+      <c r="BE81" s="16"/>
       <c r="BF81" s="7"/>
       <c r="BG81" s="7"/>
       <c r="BH81" s="7"/>
@@ -6610,11 +6734,11 @@
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="7"/>
-      <c r="BA82" s="16"/>
-      <c r="BB82" s="16"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
       <c r="BC82" s="7"/>
-      <c r="BD82" s="7"/>
-      <c r="BE82" s="7"/>
+      <c r="BD82" s="16"/>
+      <c r="BE82" s="16"/>
       <c r="BF82" s="7"/>
       <c r="BG82" s="7"/>
       <c r="BH82" s="7"/>
@@ -6672,11 +6796,11 @@
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="7"/>
-      <c r="BA83" s="16"/>
-      <c r="BB83" s="16"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7"/>
       <c r="BC83" s="7"/>
-      <c r="BD83" s="7"/>
-      <c r="BE83" s="7"/>
+      <c r="BD83" s="16"/>
+      <c r="BE83" s="16"/>
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
       <c r="BH83" s="7"/>
@@ -6734,11 +6858,11 @@
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="7"/>
-      <c r="BA84" s="16"/>
-      <c r="BB84" s="16"/>
+      <c r="BA84" s="7"/>
+      <c r="BB84" s="7"/>
       <c r="BC84" s="7"/>
-      <c r="BD84" s="7"/>
-      <c r="BE84" s="7"/>
+      <c r="BD84" s="16"/>
+      <c r="BE84" s="16"/>
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
       <c r="BH84" s="7"/>
@@ -6796,11 +6920,11 @@
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="7"/>
-      <c r="BA85" s="16"/>
-      <c r="BB85" s="16"/>
+      <c r="BA85" s="7"/>
+      <c r="BB85" s="7"/>
       <c r="BC85" s="7"/>
-      <c r="BD85" s="7"/>
-      <c r="BE85" s="7"/>
+      <c r="BD85" s="16"/>
+      <c r="BE85" s="16"/>
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
       <c r="BH85" s="7"/>
@@ -6858,11 +6982,11 @@
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="7"/>
-      <c r="BA86" s="16"/>
-      <c r="BB86" s="16"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7"/>
       <c r="BC86" s="7"/>
-      <c r="BD86" s="7"/>
-      <c r="BE86" s="7"/>
+      <c r="BD86" s="16"/>
+      <c r="BE86" s="16"/>
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
       <c r="BH86" s="7"/>
@@ -6920,11 +7044,11 @@
       <c r="AX87" s="7"/>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="7"/>
-      <c r="BA87" s="16"/>
-      <c r="BB87" s="16"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
       <c r="BC87" s="7"/>
-      <c r="BD87" s="7"/>
-      <c r="BE87" s="7"/>
+      <c r="BD87" s="16"/>
+      <c r="BE87" s="16"/>
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
       <c r="BH87" s="7"/>
@@ -6982,11 +7106,11 @@
       <c r="AX88" s="7"/>
       <c r="AY88" s="7"/>
       <c r="AZ88" s="7"/>
-      <c r="BA88" s="16"/>
-      <c r="BB88" s="16"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7"/>
       <c r="BC88" s="7"/>
-      <c r="BD88" s="7"/>
-      <c r="BE88" s="7"/>
+      <c r="BD88" s="16"/>
+      <c r="BE88" s="16"/>
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
       <c r="BH88" s="7"/>
@@ -7044,11 +7168,11 @@
       <c r="AX89" s="7"/>
       <c r="AY89" s="7"/>
       <c r="AZ89" s="7"/>
-      <c r="BA89" s="16"/>
-      <c r="BB89" s="16"/>
+      <c r="BA89" s="7"/>
+      <c r="BB89" s="7"/>
       <c r="BC89" s="7"/>
-      <c r="BD89" s="7"/>
-      <c r="BE89" s="7"/>
+      <c r="BD89" s="16"/>
+      <c r="BE89" s="16"/>
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
       <c r="BH89" s="7"/>
@@ -7106,11 +7230,11 @@
       <c r="AX90" s="7"/>
       <c r="AY90" s="7"/>
       <c r="AZ90" s="7"/>
-      <c r="BA90" s="16"/>
-      <c r="BB90" s="16"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" s="7"/>
       <c r="BC90" s="7"/>
-      <c r="BD90" s="7"/>
-      <c r="BE90" s="7"/>
+      <c r="BD90" s="16"/>
+      <c r="BE90" s="16"/>
       <c r="BF90" s="7"/>
       <c r="BG90" s="7"/>
       <c r="BH90" s="7"/>
@@ -7168,11 +7292,11 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="7"/>
-      <c r="BA91" s="16"/>
-      <c r="BB91" s="16"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
       <c r="BC91" s="7"/>
-      <c r="BD91" s="7"/>
-      <c r="BE91" s="7"/>
+      <c r="BD91" s="16"/>
+      <c r="BE91" s="16"/>
       <c r="BF91" s="7"/>
       <c r="BG91" s="7"/>
       <c r="BH91" s="7"/>
@@ -7230,11 +7354,11 @@
       <c r="AX92" s="7"/>
       <c r="AY92" s="7"/>
       <c r="AZ92" s="7"/>
-      <c r="BA92" s="16"/>
-      <c r="BB92" s="16"/>
+      <c r="BA92" s="7"/>
+      <c r="BB92" s="7"/>
       <c r="BC92" s="7"/>
-      <c r="BD92" s="7"/>
-      <c r="BE92" s="7"/>
+      <c r="BD92" s="16"/>
+      <c r="BE92" s="16"/>
       <c r="BF92" s="7"/>
       <c r="BG92" s="7"/>
       <c r="BH92" s="7"/>
@@ -7292,11 +7416,11 @@
       <c r="AX93" s="7"/>
       <c r="AY93" s="7"/>
       <c r="AZ93" s="7"/>
-      <c r="BA93" s="16"/>
-      <c r="BB93" s="16"/>
+      <c r="BA93" s="7"/>
+      <c r="BB93" s="7"/>
       <c r="BC93" s="7"/>
-      <c r="BD93" s="7"/>
-      <c r="BE93" s="7"/>
+      <c r="BD93" s="16"/>
+      <c r="BE93" s="16"/>
       <c r="BF93" s="7"/>
       <c r="BG93" s="7"/>
       <c r="BH93" s="7"/>
@@ -7354,11 +7478,11 @@
       <c r="AX94" s="7"/>
       <c r="AY94" s="7"/>
       <c r="AZ94" s="7"/>
-      <c r="BA94" s="16"/>
-      <c r="BB94" s="16"/>
+      <c r="BA94" s="7"/>
+      <c r="BB94" s="7"/>
       <c r="BC94" s="7"/>
-      <c r="BD94" s="7"/>
-      <c r="BE94" s="7"/>
+      <c r="BD94" s="16"/>
+      <c r="BE94" s="16"/>
       <c r="BF94" s="7"/>
       <c r="BG94" s="7"/>
       <c r="BH94" s="7"/>
@@ -7416,11 +7540,11 @@
       <c r="AX95" s="7"/>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="7"/>
-      <c r="BA95" s="16"/>
-      <c r="BB95" s="16"/>
+      <c r="BA95" s="7"/>
+      <c r="BB95" s="7"/>
       <c r="BC95" s="7"/>
-      <c r="BD95" s="7"/>
-      <c r="BE95" s="7"/>
+      <c r="BD95" s="16"/>
+      <c r="BE95" s="16"/>
       <c r="BF95" s="7"/>
       <c r="BG95" s="7"/>
       <c r="BH95" s="7"/>
@@ -7478,11 +7602,11 @@
       <c r="AX96" s="7"/>
       <c r="AY96" s="7"/>
       <c r="AZ96" s="7"/>
-      <c r="BA96" s="16"/>
-      <c r="BB96" s="16"/>
+      <c r="BA96" s="7"/>
+      <c r="BB96" s="7"/>
       <c r="BC96" s="7"/>
-      <c r="BD96" s="7"/>
-      <c r="BE96" s="7"/>
+      <c r="BD96" s="16"/>
+      <c r="BE96" s="16"/>
       <c r="BF96" s="7"/>
       <c r="BG96" s="7"/>
       <c r="BH96" s="7"/>
@@ -7540,11 +7664,11 @@
       <c r="AX97" s="7"/>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="7"/>
-      <c r="BA97" s="16"/>
-      <c r="BB97" s="16"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" s="7"/>
       <c r="BC97" s="7"/>
-      <c r="BD97" s="7"/>
-      <c r="BE97" s="7"/>
+      <c r="BD97" s="16"/>
+      <c r="BE97" s="16"/>
       <c r="BF97" s="7"/>
       <c r="BG97" s="7"/>
       <c r="BH97" s="7"/>
@@ -7602,11 +7726,11 @@
       <c r="AX98" s="7"/>
       <c r="AY98" s="7"/>
       <c r="AZ98" s="7"/>
-      <c r="BA98" s="16"/>
-      <c r="BB98" s="16"/>
+      <c r="BA98" s="7"/>
+      <c r="BB98" s="7"/>
       <c r="BC98" s="7"/>
-      <c r="BD98" s="7"/>
-      <c r="BE98" s="7"/>
+      <c r="BD98" s="16"/>
+      <c r="BE98" s="16"/>
       <c r="BF98" s="7"/>
       <c r="BG98" s="7"/>
       <c r="BH98" s="7"/>
@@ -7664,11 +7788,11 @@
       <c r="AX99" s="7"/>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="7"/>
-      <c r="BA99" s="16"/>
-      <c r="BB99" s="16"/>
+      <c r="BA99" s="7"/>
+      <c r="BB99" s="7"/>
       <c r="BC99" s="7"/>
-      <c r="BD99" s="7"/>
-      <c r="BE99" s="7"/>
+      <c r="BD99" s="16"/>
+      <c r="BE99" s="16"/>
       <c r="BF99" s="7"/>
       <c r="BG99" s="7"/>
       <c r="BH99" s="7"/>
@@ -7726,11 +7850,11 @@
       <c r="AX100" s="7"/>
       <c r="AY100" s="7"/>
       <c r="AZ100" s="7"/>
-      <c r="BA100" s="16"/>
-      <c r="BB100" s="16"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7"/>
       <c r="BC100" s="7"/>
-      <c r="BD100" s="7"/>
-      <c r="BE100" s="7"/>
+      <c r="BD100" s="16"/>
+      <c r="BE100" s="16"/>
       <c r="BF100" s="7"/>
       <c r="BG100" s="7"/>
       <c r="BH100" s="7"/>
@@ -7788,11 +7912,11 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="7"/>
-      <c r="BA101" s="16"/>
-      <c r="BB101" s="16"/>
+      <c r="BA101" s="7"/>
+      <c r="BB101" s="7"/>
       <c r="BC101" s="7"/>
-      <c r="BD101" s="7"/>
-      <c r="BE101" s="7"/>
+      <c r="BD101" s="16"/>
+      <c r="BE101" s="16"/>
       <c r="BF101" s="7"/>
       <c r="BG101" s="7"/>
       <c r="BH101" s="7"/>
@@ -7850,11 +7974,11 @@
       <c r="AX102" s="7"/>
       <c r="AY102" s="7"/>
       <c r="AZ102" s="7"/>
-      <c r="BA102" s="16"/>
-      <c r="BB102" s="16"/>
+      <c r="BA102" s="7"/>
+      <c r="BB102" s="7"/>
       <c r="BC102" s="7"/>
-      <c r="BD102" s="7"/>
-      <c r="BE102" s="7"/>
+      <c r="BD102" s="16"/>
+      <c r="BE102" s="16"/>
       <c r="BF102" s="7"/>
       <c r="BG102" s="7"/>
       <c r="BH102" s="7"/>
@@ -7912,11 +8036,11 @@
       <c r="AX103" s="7"/>
       <c r="AY103" s="7"/>
       <c r="AZ103" s="7"/>
-      <c r="BA103" s="16"/>
-      <c r="BB103" s="16"/>
+      <c r="BA103" s="7"/>
+      <c r="BB103" s="7"/>
       <c r="BC103" s="7"/>
-      <c r="BD103" s="7"/>
-      <c r="BE103" s="7"/>
+      <c r="BD103" s="16"/>
+      <c r="BE103" s="16"/>
       <c r="BF103" s="7"/>
       <c r="BG103" s="7"/>
       <c r="BH103" s="7"/>
@@ -7974,11 +8098,11 @@
       <c r="AX104" s="7"/>
       <c r="AY104" s="7"/>
       <c r="AZ104" s="7"/>
-      <c r="BA104" s="16"/>
-      <c r="BB104" s="16"/>
+      <c r="BA104" s="7"/>
+      <c r="BB104" s="7"/>
       <c r="BC104" s="7"/>
-      <c r="BD104" s="7"/>
-      <c r="BE104" s="7"/>
+      <c r="BD104" s="16"/>
+      <c r="BE104" s="16"/>
       <c r="BF104" s="7"/>
       <c r="BG104" s="7"/>
       <c r="BH104" s="7"/>
@@ -8036,11 +8160,11 @@
       <c r="AX105" s="7"/>
       <c r="AY105" s="7"/>
       <c r="AZ105" s="7"/>
-      <c r="BA105" s="16"/>
-      <c r="BB105" s="16"/>
+      <c r="BA105" s="7"/>
+      <c r="BB105" s="7"/>
       <c r="BC105" s="7"/>
-      <c r="BD105" s="7"/>
-      <c r="BE105" s="7"/>
+      <c r="BD105" s="16"/>
+      <c r="BE105" s="16"/>
       <c r="BF105" s="7"/>
       <c r="BG105" s="7"/>
       <c r="BH105" s="7"/>
@@ -8098,11 +8222,11 @@
       <c r="AX106" s="7"/>
       <c r="AY106" s="7"/>
       <c r="AZ106" s="7"/>
-      <c r="BA106" s="16"/>
-      <c r="BB106" s="16"/>
+      <c r="BA106" s="7"/>
+      <c r="BB106" s="7"/>
       <c r="BC106" s="7"/>
-      <c r="BD106" s="7"/>
-      <c r="BE106" s="7"/>
+      <c r="BD106" s="16"/>
+      <c r="BE106" s="16"/>
       <c r="BF106" s="7"/>
       <c r="BG106" s="7"/>
       <c r="BH106" s="7"/>
@@ -8160,11 +8284,11 @@
       <c r="AX107" s="7"/>
       <c r="AY107" s="7"/>
       <c r="AZ107" s="7"/>
-      <c r="BA107" s="16"/>
-      <c r="BB107" s="16"/>
+      <c r="BA107" s="7"/>
+      <c r="BB107" s="7"/>
       <c r="BC107" s="7"/>
-      <c r="BD107" s="7"/>
-      <c r="BE107" s="7"/>
+      <c r="BD107" s="16"/>
+      <c r="BE107" s="16"/>
       <c r="BF107" s="7"/>
       <c r="BG107" s="7"/>
       <c r="BH107" s="7"/>
@@ -8222,11 +8346,11 @@
       <c r="AX108" s="7"/>
       <c r="AY108" s="7"/>
       <c r="AZ108" s="7"/>
-      <c r="BA108" s="16"/>
-      <c r="BB108" s="16"/>
+      <c r="BA108" s="7"/>
+      <c r="BB108" s="7"/>
       <c r="BC108" s="7"/>
-      <c r="BD108" s="7"/>
-      <c r="BE108" s="7"/>
+      <c r="BD108" s="16"/>
+      <c r="BE108" s="16"/>
       <c r="BF108" s="7"/>
       <c r="BG108" s="7"/>
       <c r="BH108" s="7"/>
@@ -8284,11 +8408,11 @@
       <c r="AX109" s="7"/>
       <c r="AY109" s="7"/>
       <c r="AZ109" s="7"/>
-      <c r="BA109" s="16"/>
-      <c r="BB109" s="16"/>
+      <c r="BA109" s="7"/>
+      <c r="BB109" s="7"/>
       <c r="BC109" s="7"/>
-      <c r="BD109" s="7"/>
-      <c r="BE109" s="7"/>
+      <c r="BD109" s="16"/>
+      <c r="BE109" s="16"/>
       <c r="BF109" s="7"/>
       <c r="BG109" s="7"/>
       <c r="BH109" s="7"/>
@@ -8346,11 +8470,11 @@
       <c r="AX110" s="7"/>
       <c r="AY110" s="7"/>
       <c r="AZ110" s="7"/>
-      <c r="BA110" s="16"/>
-      <c r="BB110" s="16"/>
+      <c r="BA110" s="7"/>
+      <c r="BB110" s="7"/>
       <c r="BC110" s="7"/>
-      <c r="BD110" s="7"/>
-      <c r="BE110" s="7"/>
+      <c r="BD110" s="16"/>
+      <c r="BE110" s="16"/>
       <c r="BF110" s="7"/>
       <c r="BG110" s="7"/>
       <c r="BH110" s="7"/>
@@ -8408,11 +8532,11 @@
       <c r="AX111" s="7"/>
       <c r="AY111" s="7"/>
       <c r="AZ111" s="7"/>
-      <c r="BA111" s="16"/>
-      <c r="BB111" s="16"/>
+      <c r="BA111" s="7"/>
+      <c r="BB111" s="7"/>
       <c r="BC111" s="7"/>
-      <c r="BD111" s="7"/>
-      <c r="BE111" s="7"/>
+      <c r="BD111" s="16"/>
+      <c r="BE111" s="16"/>
       <c r="BF111" s="7"/>
       <c r="BG111" s="7"/>
       <c r="BH111" s="7"/>
@@ -8470,11 +8594,11 @@
       <c r="AX112" s="7"/>
       <c r="AY112" s="7"/>
       <c r="AZ112" s="7"/>
-      <c r="BA112" s="16"/>
-      <c r="BB112" s="16"/>
+      <c r="BA112" s="7"/>
+      <c r="BB112" s="7"/>
       <c r="BC112" s="7"/>
-      <c r="BD112" s="7"/>
-      <c r="BE112" s="7"/>
+      <c r="BD112" s="16"/>
+      <c r="BE112" s="16"/>
       <c r="BF112" s="7"/>
       <c r="BG112" s="7"/>
       <c r="BH112" s="7"/>
@@ -8532,11 +8656,11 @@
       <c r="AX113" s="7"/>
       <c r="AY113" s="7"/>
       <c r="AZ113" s="7"/>
-      <c r="BA113" s="16"/>
-      <c r="BB113" s="16"/>
+      <c r="BA113" s="7"/>
+      <c r="BB113" s="7"/>
       <c r="BC113" s="7"/>
-      <c r="BD113" s="7"/>
-      <c r="BE113" s="7"/>
+      <c r="BD113" s="16"/>
+      <c r="BE113" s="16"/>
       <c r="BF113" s="7"/>
       <c r="BG113" s="7"/>
       <c r="BH113" s="7"/>
@@ -8594,11 +8718,11 @@
       <c r="AX114" s="7"/>
       <c r="AY114" s="7"/>
       <c r="AZ114" s="7"/>
-      <c r="BA114" s="16"/>
-      <c r="BB114" s="16"/>
+      <c r="BA114" s="7"/>
+      <c r="BB114" s="7"/>
       <c r="BC114" s="7"/>
-      <c r="BD114" s="7"/>
-      <c r="BE114" s="7"/>
+      <c r="BD114" s="16"/>
+      <c r="BE114" s="16"/>
       <c r="BF114" s="7"/>
       <c r="BG114" s="7"/>
       <c r="BH114" s="7"/>
@@ -8656,11 +8780,11 @@
       <c r="AX115" s="7"/>
       <c r="AY115" s="7"/>
       <c r="AZ115" s="7"/>
-      <c r="BA115" s="16"/>
-      <c r="BB115" s="16"/>
+      <c r="BA115" s="7"/>
+      <c r="BB115" s="7"/>
       <c r="BC115" s="7"/>
-      <c r="BD115" s="7"/>
-      <c r="BE115" s="7"/>
+      <c r="BD115" s="16"/>
+      <c r="BE115" s="16"/>
       <c r="BF115" s="7"/>
       <c r="BG115" s="7"/>
       <c r="BH115" s="7"/>
@@ -8718,11 +8842,11 @@
       <c r="AX116" s="7"/>
       <c r="AY116" s="7"/>
       <c r="AZ116" s="7"/>
-      <c r="BA116" s="16"/>
-      <c r="BB116" s="16"/>
+      <c r="BA116" s="7"/>
+      <c r="BB116" s="7"/>
       <c r="BC116" s="7"/>
-      <c r="BD116" s="7"/>
-      <c r="BE116" s="7"/>
+      <c r="BD116" s="16"/>
+      <c r="BE116" s="16"/>
       <c r="BF116" s="7"/>
       <c r="BG116" s="7"/>
       <c r="BH116" s="7"/>
@@ -8780,11 +8904,11 @@
       <c r="AX117" s="7"/>
       <c r="AY117" s="7"/>
       <c r="AZ117" s="7"/>
-      <c r="BA117" s="16"/>
-      <c r="BB117" s="16"/>
+      <c r="BA117" s="7"/>
+      <c r="BB117" s="7"/>
       <c r="BC117" s="7"/>
-      <c r="BD117" s="7"/>
-      <c r="BE117" s="7"/>
+      <c r="BD117" s="16"/>
+      <c r="BE117" s="16"/>
       <c r="BF117" s="7"/>
       <c r="BG117" s="7"/>
       <c r="BH117" s="7"/>
@@ -8842,11 +8966,11 @@
       <c r="AX118" s="7"/>
       <c r="AY118" s="7"/>
       <c r="AZ118" s="7"/>
-      <c r="BA118" s="16"/>
-      <c r="BB118" s="16"/>
+      <c r="BA118" s="7"/>
+      <c r="BB118" s="7"/>
       <c r="BC118" s="7"/>
-      <c r="BD118" s="7"/>
-      <c r="BE118" s="7"/>
+      <c r="BD118" s="16"/>
+      <c r="BE118" s="16"/>
       <c r="BF118" s="7"/>
       <c r="BG118" s="7"/>
       <c r="BH118" s="7"/>
@@ -8904,11 +9028,11 @@
       <c r="AX119" s="7"/>
       <c r="AY119" s="7"/>
       <c r="AZ119" s="7"/>
-      <c r="BA119" s="16"/>
-      <c r="BB119" s="16"/>
+      <c r="BA119" s="7"/>
+      <c r="BB119" s="7"/>
       <c r="BC119" s="7"/>
-      <c r="BD119" s="7"/>
-      <c r="BE119" s="7"/>
+      <c r="BD119" s="16"/>
+      <c r="BE119" s="16"/>
       <c r="BF119" s="7"/>
       <c r="BG119" s="7"/>
       <c r="BH119" s="7"/>
@@ -8966,11 +9090,11 @@
       <c r="AX120" s="7"/>
       <c r="AY120" s="7"/>
       <c r="AZ120" s="7"/>
-      <c r="BA120" s="16"/>
-      <c r="BB120" s="16"/>
+      <c r="BA120" s="7"/>
+      <c r="BB120" s="7"/>
       <c r="BC120" s="7"/>
-      <c r="BD120" s="7"/>
-      <c r="BE120" s="7"/>
+      <c r="BD120" s="16"/>
+      <c r="BE120" s="16"/>
       <c r="BF120" s="7"/>
       <c r="BG120" s="7"/>
       <c r="BH120" s="7"/>
@@ -9028,11 +9152,11 @@
       <c r="AX121" s="7"/>
       <c r="AY121" s="7"/>
       <c r="AZ121" s="7"/>
-      <c r="BA121" s="16"/>
-      <c r="BB121" s="16"/>
+      <c r="BA121" s="7"/>
+      <c r="BB121" s="7"/>
       <c r="BC121" s="7"/>
-      <c r="BD121" s="7"/>
-      <c r="BE121" s="7"/>
+      <c r="BD121" s="16"/>
+      <c r="BE121" s="16"/>
       <c r="BF121" s="7"/>
       <c r="BG121" s="7"/>
       <c r="BH121" s="7"/>
@@ -9090,11 +9214,11 @@
       <c r="AX122" s="7"/>
       <c r="AY122" s="7"/>
       <c r="AZ122" s="7"/>
-      <c r="BA122" s="16"/>
-      <c r="BB122" s="16"/>
+      <c r="BA122" s="7"/>
+      <c r="BB122" s="7"/>
       <c r="BC122" s="7"/>
-      <c r="BD122" s="7"/>
-      <c r="BE122" s="7"/>
+      <c r="BD122" s="16"/>
+      <c r="BE122" s="16"/>
       <c r="BF122" s="7"/>
       <c r="BG122" s="7"/>
       <c r="BH122" s="7"/>
@@ -9152,11 +9276,11 @@
       <c r="AX123" s="7"/>
       <c r="AY123" s="7"/>
       <c r="AZ123" s="7"/>
-      <c r="BA123" s="16"/>
-      <c r="BB123" s="16"/>
+      <c r="BA123" s="7"/>
+      <c r="BB123" s="7"/>
       <c r="BC123" s="7"/>
-      <c r="BD123" s="7"/>
-      <c r="BE123" s="7"/>
+      <c r="BD123" s="16"/>
+      <c r="BE123" s="16"/>
       <c r="BF123" s="7"/>
       <c r="BG123" s="7"/>
       <c r="BH123" s="7"/>
@@ -9214,11 +9338,11 @@
       <c r="AX124" s="7"/>
       <c r="AY124" s="7"/>
       <c r="AZ124" s="7"/>
-      <c r="BA124" s="16"/>
-      <c r="BB124" s="16"/>
+      <c r="BA124" s="7"/>
+      <c r="BB124" s="7"/>
       <c r="BC124" s="7"/>
-      <c r="BD124" s="7"/>
-      <c r="BE124" s="7"/>
+      <c r="BD124" s="16"/>
+      <c r="BE124" s="16"/>
       <c r="BF124" s="7"/>
       <c r="BG124" s="7"/>
       <c r="BH124" s="7"/>
@@ -9276,11 +9400,11 @@
       <c r="AX125" s="7"/>
       <c r="AY125" s="7"/>
       <c r="AZ125" s="7"/>
-      <c r="BA125" s="16"/>
-      <c r="BB125" s="16"/>
+      <c r="BA125" s="7"/>
+      <c r="BB125" s="7"/>
       <c r="BC125" s="7"/>
-      <c r="BD125" s="7"/>
-      <c r="BE125" s="7"/>
+      <c r="BD125" s="16"/>
+      <c r="BE125" s="16"/>
       <c r="BF125" s="7"/>
       <c r="BG125" s="7"/>
       <c r="BH125" s="7"/>
@@ -9338,11 +9462,11 @@
       <c r="AX126" s="7"/>
       <c r="AY126" s="7"/>
       <c r="AZ126" s="7"/>
-      <c r="BA126" s="16"/>
-      <c r="BB126" s="16"/>
+      <c r="BA126" s="7"/>
+      <c r="BB126" s="7"/>
       <c r="BC126" s="7"/>
-      <c r="BD126" s="7"/>
-      <c r="BE126" s="7"/>
+      <c r="BD126" s="16"/>
+      <c r="BE126" s="16"/>
       <c r="BF126" s="7"/>
       <c r="BG126" s="7"/>
       <c r="BH126" s="7"/>
@@ -9400,11 +9524,11 @@
       <c r="AX127" s="7"/>
       <c r="AY127" s="7"/>
       <c r="AZ127" s="7"/>
-      <c r="BA127" s="16"/>
-      <c r="BB127" s="16"/>
+      <c r="BA127" s="7"/>
+      <c r="BB127" s="7"/>
       <c r="BC127" s="7"/>
-      <c r="BD127" s="7"/>
-      <c r="BE127" s="7"/>
+      <c r="BD127" s="16"/>
+      <c r="BE127" s="16"/>
       <c r="BF127" s="7"/>
       <c r="BG127" s="7"/>
       <c r="BH127" s="7"/>
@@ -9462,11 +9586,11 @@
       <c r="AX128" s="7"/>
       <c r="AY128" s="7"/>
       <c r="AZ128" s="7"/>
-      <c r="BA128" s="16"/>
-      <c r="BB128" s="16"/>
+      <c r="BA128" s="7"/>
+      <c r="BB128" s="7"/>
       <c r="BC128" s="7"/>
-      <c r="BD128" s="7"/>
-      <c r="BE128" s="7"/>
+      <c r="BD128" s="16"/>
+      <c r="BE128" s="16"/>
       <c r="BF128" s="7"/>
       <c r="BG128" s="7"/>
       <c r="BH128" s="7"/>
@@ -9524,11 +9648,11 @@
       <c r="AX129" s="7"/>
       <c r="AY129" s="7"/>
       <c r="AZ129" s="7"/>
-      <c r="BA129" s="16"/>
-      <c r="BB129" s="16"/>
+      <c r="BA129" s="7"/>
+      <c r="BB129" s="7"/>
       <c r="BC129" s="7"/>
-      <c r="BD129" s="7"/>
-      <c r="BE129" s="7"/>
+      <c r="BD129" s="16"/>
+      <c r="BE129" s="16"/>
       <c r="BF129" s="7"/>
       <c r="BG129" s="7"/>
       <c r="BH129" s="7"/>
@@ -9586,11 +9710,11 @@
       <c r="AX130" s="7"/>
       <c r="AY130" s="7"/>
       <c r="AZ130" s="7"/>
-      <c r="BA130" s="16"/>
-      <c r="BB130" s="16"/>
+      <c r="BA130" s="7"/>
+      <c r="BB130" s="7"/>
       <c r="BC130" s="7"/>
-      <c r="BD130" s="7"/>
-      <c r="BE130" s="7"/>
+      <c r="BD130" s="16"/>
+      <c r="BE130" s="16"/>
       <c r="BF130" s="7"/>
       <c r="BG130" s="7"/>
       <c r="BH130" s="7"/>
@@ -9648,11 +9772,11 @@
       <c r="AX131" s="7"/>
       <c r="AY131" s="7"/>
       <c r="AZ131" s="7"/>
-      <c r="BA131" s="16"/>
-      <c r="BB131" s="16"/>
+      <c r="BA131" s="7"/>
+      <c r="BB131" s="7"/>
       <c r="BC131" s="7"/>
-      <c r="BD131" s="7"/>
-      <c r="BE131" s="7"/>
+      <c r="BD131" s="16"/>
+      <c r="BE131" s="16"/>
       <c r="BF131" s="7"/>
       <c r="BG131" s="7"/>
       <c r="BH131" s="7"/>
@@ -9710,11 +9834,11 @@
       <c r="AX132" s="7"/>
       <c r="AY132" s="7"/>
       <c r="AZ132" s="7"/>
-      <c r="BA132" s="16"/>
-      <c r="BB132" s="16"/>
+      <c r="BA132" s="7"/>
+      <c r="BB132" s="7"/>
       <c r="BC132" s="7"/>
-      <c r="BD132" s="7"/>
-      <c r="BE132" s="7"/>
+      <c r="BD132" s="16"/>
+      <c r="BE132" s="16"/>
       <c r="BF132" s="7"/>
       <c r="BG132" s="7"/>
       <c r="BH132" s="7"/>
@@ -9772,11 +9896,11 @@
       <c r="AX133" s="7"/>
       <c r="AY133" s="7"/>
       <c r="AZ133" s="7"/>
-      <c r="BA133" s="16"/>
-      <c r="BB133" s="16"/>
+      <c r="BA133" s="7"/>
+      <c r="BB133" s="7"/>
       <c r="BC133" s="7"/>
-      <c r="BD133" s="7"/>
-      <c r="BE133" s="7"/>
+      <c r="BD133" s="16"/>
+      <c r="BE133" s="16"/>
       <c r="BF133" s="7"/>
       <c r="BG133" s="7"/>
       <c r="BH133" s="7"/>
@@ -9834,11 +9958,11 @@
       <c r="AX134" s="7"/>
       <c r="AY134" s="7"/>
       <c r="AZ134" s="7"/>
-      <c r="BA134" s="16"/>
-      <c r="BB134" s="16"/>
+      <c r="BA134" s="7"/>
+      <c r="BB134" s="7"/>
       <c r="BC134" s="7"/>
-      <c r="BD134" s="7"/>
-      <c r="BE134" s="7"/>
+      <c r="BD134" s="16"/>
+      <c r="BE134" s="16"/>
       <c r="BF134" s="7"/>
       <c r="BG134" s="7"/>
       <c r="BH134" s="7"/>
@@ -9896,11 +10020,11 @@
       <c r="AX135" s="7"/>
       <c r="AY135" s="7"/>
       <c r="AZ135" s="7"/>
-      <c r="BA135" s="16"/>
-      <c r="BB135" s="16"/>
+      <c r="BA135" s="7"/>
+      <c r="BB135" s="7"/>
       <c r="BC135" s="7"/>
-      <c r="BD135" s="7"/>
-      <c r="BE135" s="7"/>
+      <c r="BD135" s="16"/>
+      <c r="BE135" s="16"/>
       <c r="BF135" s="7"/>
       <c r="BG135" s="7"/>
       <c r="BH135" s="7"/>
@@ -9958,11 +10082,11 @@
       <c r="AX136" s="7"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
-      <c r="BA136" s="16"/>
-      <c r="BB136" s="16"/>
+      <c r="BA136" s="7"/>
+      <c r="BB136" s="7"/>
       <c r="BC136" s="7"/>
-      <c r="BD136" s="7"/>
-      <c r="BE136" s="7"/>
+      <c r="BD136" s="16"/>
+      <c r="BE136" s="16"/>
       <c r="BF136" s="7"/>
       <c r="BG136" s="7"/>
       <c r="BH136" s="7"/>
@@ -10020,11 +10144,11 @@
       <c r="AX137" s="7"/>
       <c r="AY137" s="7"/>
       <c r="AZ137" s="7"/>
-      <c r="BA137" s="16"/>
-      <c r="BB137" s="16"/>
+      <c r="BA137" s="7"/>
+      <c r="BB137" s="7"/>
       <c r="BC137" s="7"/>
-      <c r="BD137" s="7"/>
-      <c r="BE137" s="7"/>
+      <c r="BD137" s="16"/>
+      <c r="BE137" s="16"/>
       <c r="BF137" s="7"/>
       <c r="BG137" s="7"/>
       <c r="BH137" s="7"/>
@@ -10082,11 +10206,11 @@
       <c r="AX138" s="7"/>
       <c r="AY138" s="7"/>
       <c r="AZ138" s="7"/>
-      <c r="BA138" s="16"/>
-      <c r="BB138" s="16"/>
+      <c r="BA138" s="7"/>
+      <c r="BB138" s="7"/>
       <c r="BC138" s="7"/>
-      <c r="BD138" s="7"/>
-      <c r="BE138" s="7"/>
+      <c r="BD138" s="16"/>
+      <c r="BE138" s="16"/>
       <c r="BF138" s="7"/>
       <c r="BG138" s="7"/>
       <c r="BH138" s="7"/>
@@ -10144,11 +10268,11 @@
       <c r="AX139" s="7"/>
       <c r="AY139" s="7"/>
       <c r="AZ139" s="7"/>
-      <c r="BA139" s="16"/>
-      <c r="BB139" s="16"/>
+      <c r="BA139" s="7"/>
+      <c r="BB139" s="7"/>
       <c r="BC139" s="7"/>
-      <c r="BD139" s="7"/>
-      <c r="BE139" s="7"/>
+      <c r="BD139" s="16"/>
+      <c r="BE139" s="16"/>
       <c r="BF139" s="7"/>
       <c r="BG139" s="7"/>
       <c r="BH139" s="7"/>
@@ -10206,11 +10330,11 @@
       <c r="AX140" s="7"/>
       <c r="AY140" s="7"/>
       <c r="AZ140" s="7"/>
-      <c r="BA140" s="16"/>
-      <c r="BB140" s="16"/>
+      <c r="BA140" s="7"/>
+      <c r="BB140" s="7"/>
       <c r="BC140" s="7"/>
-      <c r="BD140" s="7"/>
-      <c r="BE140" s="7"/>
+      <c r="BD140" s="16"/>
+      <c r="BE140" s="16"/>
       <c r="BF140" s="7"/>
       <c r="BG140" s="7"/>
       <c r="BH140" s="7"/>
@@ -10268,11 +10392,11 @@
       <c r="AX141" s="7"/>
       <c r="AY141" s="7"/>
       <c r="AZ141" s="7"/>
-      <c r="BA141" s="16"/>
-      <c r="BB141" s="16"/>
+      <c r="BA141" s="7"/>
+      <c r="BB141" s="7"/>
       <c r="BC141" s="7"/>
-      <c r="BD141" s="7"/>
-      <c r="BE141" s="7"/>
+      <c r="BD141" s="16"/>
+      <c r="BE141" s="16"/>
       <c r="BF141" s="7"/>
       <c r="BG141" s="7"/>
       <c r="BH141" s="7"/>
@@ -10330,11 +10454,11 @@
       <c r="AX142" s="7"/>
       <c r="AY142" s="7"/>
       <c r="AZ142" s="7"/>
-      <c r="BA142" s="16"/>
-      <c r="BB142" s="16"/>
+      <c r="BA142" s="7"/>
+      <c r="BB142" s="7"/>
       <c r="BC142" s="7"/>
-      <c r="BD142" s="7"/>
-      <c r="BE142" s="7"/>
+      <c r="BD142" s="16"/>
+      <c r="BE142" s="16"/>
       <c r="BF142" s="7"/>
       <c r="BG142" s="7"/>
       <c r="BH142" s="7"/>
@@ -10392,11 +10516,11 @@
       <c r="AX143" s="7"/>
       <c r="AY143" s="7"/>
       <c r="AZ143" s="7"/>
-      <c r="BA143" s="16"/>
-      <c r="BB143" s="16"/>
+      <c r="BA143" s="7"/>
+      <c r="BB143" s="7"/>
       <c r="BC143" s="7"/>
-      <c r="BD143" s="7"/>
-      <c r="BE143" s="7"/>
+      <c r="BD143" s="16"/>
+      <c r="BE143" s="16"/>
       <c r="BF143" s="7"/>
       <c r="BG143" s="7"/>
       <c r="BH143" s="7"/>
@@ -10454,11 +10578,11 @@
       <c r="AX144" s="7"/>
       <c r="AY144" s="7"/>
       <c r="AZ144" s="7"/>
-      <c r="BA144" s="16"/>
-      <c r="BB144" s="16"/>
+      <c r="BA144" s="7"/>
+      <c r="BB144" s="7"/>
       <c r="BC144" s="7"/>
-      <c r="BD144" s="7"/>
-      <c r="BE144" s="7"/>
+      <c r="BD144" s="16"/>
+      <c r="BE144" s="16"/>
       <c r="BF144" s="7"/>
       <c r="BG144" s="7"/>
       <c r="BH144" s="7"/>
@@ -10516,11 +10640,11 @@
       <c r="AX145" s="7"/>
       <c r="AY145" s="7"/>
       <c r="AZ145" s="7"/>
-      <c r="BA145" s="16"/>
-      <c r="BB145" s="16"/>
+      <c r="BA145" s="7"/>
+      <c r="BB145" s="7"/>
       <c r="BC145" s="7"/>
-      <c r="BD145" s="7"/>
-      <c r="BE145" s="7"/>
+      <c r="BD145" s="16"/>
+      <c r="BE145" s="16"/>
       <c r="BF145" s="7"/>
       <c r="BG145" s="7"/>
       <c r="BH145" s="7"/>
@@ -10578,11 +10702,11 @@
       <c r="AX146" s="7"/>
       <c r="AY146" s="7"/>
       <c r="AZ146" s="7"/>
-      <c r="BA146" s="16"/>
-      <c r="BB146" s="16"/>
+      <c r="BA146" s="7"/>
+      <c r="BB146" s="7"/>
       <c r="BC146" s="7"/>
-      <c r="BD146" s="7"/>
-      <c r="BE146" s="7"/>
+      <c r="BD146" s="16"/>
+      <c r="BE146" s="16"/>
       <c r="BF146" s="7"/>
       <c r="BG146" s="7"/>
       <c r="BH146" s="7"/>
@@ -10640,11 +10764,11 @@
       <c r="AX147" s="7"/>
       <c r="AY147" s="7"/>
       <c r="AZ147" s="7"/>
-      <c r="BA147" s="16"/>
-      <c r="BB147" s="16"/>
+      <c r="BA147" s="7"/>
+      <c r="BB147" s="7"/>
       <c r="BC147" s="7"/>
-      <c r="BD147" s="7"/>
-      <c r="BE147" s="7"/>
+      <c r="BD147" s="16"/>
+      <c r="BE147" s="16"/>
       <c r="BF147" s="7"/>
       <c r="BG147" s="7"/>
       <c r="BH147" s="7"/>
@@ -10702,11 +10826,11 @@
       <c r="AX148" s="7"/>
       <c r="AY148" s="7"/>
       <c r="AZ148" s="7"/>
-      <c r="BA148" s="16"/>
-      <c r="BB148" s="16"/>
+      <c r="BA148" s="7"/>
+      <c r="BB148" s="7"/>
       <c r="BC148" s="7"/>
-      <c r="BD148" s="7"/>
-      <c r="BE148" s="7"/>
+      <c r="BD148" s="16"/>
+      <c r="BE148" s="16"/>
       <c r="BF148" s="7"/>
       <c r="BG148" s="7"/>
       <c r="BH148" s="7"/>
@@ -10764,11 +10888,11 @@
       <c r="AX149" s="7"/>
       <c r="AY149" s="7"/>
       <c r="AZ149" s="7"/>
-      <c r="BA149" s="16"/>
-      <c r="BB149" s="16"/>
+      <c r="BA149" s="7"/>
+      <c r="BB149" s="7"/>
       <c r="BC149" s="7"/>
-      <c r="BD149" s="7"/>
-      <c r="BE149" s="7"/>
+      <c r="BD149" s="16"/>
+      <c r="BE149" s="16"/>
       <c r="BF149" s="7"/>
       <c r="BG149" s="7"/>
       <c r="BH149" s="7"/>
@@ -10826,11 +10950,11 @@
       <c r="AX150" s="7"/>
       <c r="AY150" s="7"/>
       <c r="AZ150" s="7"/>
-      <c r="BA150" s="16"/>
-      <c r="BB150" s="16"/>
+      <c r="BA150" s="7"/>
+      <c r="BB150" s="7"/>
       <c r="BC150" s="7"/>
-      <c r="BD150" s="7"/>
-      <c r="BE150" s="7"/>
+      <c r="BD150" s="16"/>
+      <c r="BE150" s="16"/>
       <c r="BF150" s="7"/>
       <c r="BG150" s="7"/>
       <c r="BH150" s="7"/>
@@ -10888,11 +11012,11 @@
       <c r="AX151" s="7"/>
       <c r="AY151" s="7"/>
       <c r="AZ151" s="7"/>
-      <c r="BA151" s="16"/>
-      <c r="BB151" s="16"/>
+      <c r="BA151" s="7"/>
+      <c r="BB151" s="7"/>
       <c r="BC151" s="7"/>
-      <c r="BD151" s="7"/>
-      <c r="BE151" s="7"/>
+      <c r="BD151" s="16"/>
+      <c r="BE151" s="16"/>
       <c r="BF151" s="7"/>
       <c r="BG151" s="7"/>
       <c r="BH151" s="7"/>
@@ -10950,11 +11074,11 @@
       <c r="AX152" s="7"/>
       <c r="AY152" s="7"/>
       <c r="AZ152" s="7"/>
-      <c r="BA152" s="16"/>
-      <c r="BB152" s="16"/>
+      <c r="BA152" s="7"/>
+      <c r="BB152" s="7"/>
       <c r="BC152" s="7"/>
-      <c r="BD152" s="7"/>
-      <c r="BE152" s="7"/>
+      <c r="BD152" s="16"/>
+      <c r="BE152" s="16"/>
       <c r="BF152" s="7"/>
       <c r="BG152" s="7"/>
       <c r="BH152" s="7"/>
@@ -11012,11 +11136,11 @@
       <c r="AX153" s="7"/>
       <c r="AY153" s="7"/>
       <c r="AZ153" s="7"/>
-      <c r="BA153" s="16"/>
-      <c r="BB153" s="16"/>
+      <c r="BA153" s="7"/>
+      <c r="BB153" s="7"/>
       <c r="BC153" s="7"/>
-      <c r="BD153" s="7"/>
-      <c r="BE153" s="7"/>
+      <c r="BD153" s="16"/>
+      <c r="BE153" s="16"/>
       <c r="BF153" s="7"/>
       <c r="BG153" s="7"/>
       <c r="BH153" s="7"/>
@@ -11074,11 +11198,11 @@
       <c r="AX154" s="7"/>
       <c r="AY154" s="7"/>
       <c r="AZ154" s="7"/>
-      <c r="BA154" s="16"/>
-      <c r="BB154" s="16"/>
+      <c r="BA154" s="7"/>
+      <c r="BB154" s="7"/>
       <c r="BC154" s="7"/>
-      <c r="BD154" s="7"/>
-      <c r="BE154" s="7"/>
+      <c r="BD154" s="16"/>
+      <c r="BE154" s="16"/>
       <c r="BF154" s="7"/>
       <c r="BG154" s="7"/>
       <c r="BH154" s="7"/>
@@ -11136,11 +11260,11 @@
       <c r="AX155" s="7"/>
       <c r="AY155" s="7"/>
       <c r="AZ155" s="7"/>
-      <c r="BA155" s="16"/>
-      <c r="BB155" s="16"/>
+      <c r="BA155" s="7"/>
+      <c r="BB155" s="7"/>
       <c r="BC155" s="7"/>
-      <c r="BD155" s="7"/>
-      <c r="BE155" s="7"/>
+      <c r="BD155" s="16"/>
+      <c r="BE155" s="16"/>
       <c r="BF155" s="7"/>
       <c r="BG155" s="7"/>
       <c r="BH155" s="7"/>
@@ -11198,11 +11322,11 @@
       <c r="AX156" s="7"/>
       <c r="AY156" s="7"/>
       <c r="AZ156" s="7"/>
-      <c r="BA156" s="16"/>
-      <c r="BB156" s="16"/>
+      <c r="BA156" s="7"/>
+      <c r="BB156" s="7"/>
       <c r="BC156" s="7"/>
-      <c r="BD156" s="7"/>
-      <c r="BE156" s="7"/>
+      <c r="BD156" s="16"/>
+      <c r="BE156" s="16"/>
       <c r="BF156" s="7"/>
       <c r="BG156" s="7"/>
       <c r="BH156" s="7"/>
@@ -11260,11 +11384,11 @@
       <c r="AX157" s="7"/>
       <c r="AY157" s="7"/>
       <c r="AZ157" s="7"/>
-      <c r="BA157" s="16"/>
-      <c r="BB157" s="16"/>
+      <c r="BA157" s="7"/>
+      <c r="BB157" s="7"/>
       <c r="BC157" s="7"/>
-      <c r="BD157" s="7"/>
-      <c r="BE157" s="7"/>
+      <c r="BD157" s="16"/>
+      <c r="BE157" s="16"/>
       <c r="BF157" s="7"/>
       <c r="BG157" s="7"/>
       <c r="BH157" s="7"/>
@@ -11322,11 +11446,11 @@
       <c r="AX158" s="7"/>
       <c r="AY158" s="7"/>
       <c r="AZ158" s="7"/>
-      <c r="BA158" s="16"/>
-      <c r="BB158" s="16"/>
+      <c r="BA158" s="7"/>
+      <c r="BB158" s="7"/>
       <c r="BC158" s="7"/>
-      <c r="BD158" s="7"/>
-      <c r="BE158" s="7"/>
+      <c r="BD158" s="16"/>
+      <c r="BE158" s="16"/>
       <c r="BF158" s="7"/>
       <c r="BG158" s="7"/>
       <c r="BH158" s="7"/>
@@ -11384,11 +11508,11 @@
       <c r="AX159" s="7"/>
       <c r="AY159" s="7"/>
       <c r="AZ159" s="7"/>
-      <c r="BA159" s="16"/>
-      <c r="BB159" s="16"/>
+      <c r="BA159" s="7"/>
+      <c r="BB159" s="7"/>
       <c r="BC159" s="7"/>
-      <c r="BD159" s="7"/>
-      <c r="BE159" s="7"/>
+      <c r="BD159" s="16"/>
+      <c r="BE159" s="16"/>
       <c r="BF159" s="7"/>
       <c r="BG159" s="7"/>
       <c r="BH159" s="7"/>
@@ -11446,11 +11570,11 @@
       <c r="AX160" s="7"/>
       <c r="AY160" s="7"/>
       <c r="AZ160" s="7"/>
-      <c r="BA160" s="16"/>
-      <c r="BB160" s="16"/>
+      <c r="BA160" s="7"/>
+      <c r="BB160" s="7"/>
       <c r="BC160" s="7"/>
-      <c r="BD160" s="7"/>
-      <c r="BE160" s="7"/>
+      <c r="BD160" s="16"/>
+      <c r="BE160" s="16"/>
       <c r="BF160" s="7"/>
       <c r="BG160" s="7"/>
       <c r="BH160" s="7"/>
@@ -11508,11 +11632,11 @@
       <c r="AX161" s="7"/>
       <c r="AY161" s="7"/>
       <c r="AZ161" s="7"/>
-      <c r="BA161" s="16"/>
-      <c r="BB161" s="16"/>
+      <c r="BA161" s="7"/>
+      <c r="BB161" s="7"/>
       <c r="BC161" s="7"/>
-      <c r="BD161" s="7"/>
-      <c r="BE161" s="7"/>
+      <c r="BD161" s="16"/>
+      <c r="BE161" s="16"/>
       <c r="BF161" s="7"/>
       <c r="BG161" s="7"/>
       <c r="BH161" s="7"/>
@@ -11570,11 +11694,11 @@
       <c r="AX162" s="7"/>
       <c r="AY162" s="7"/>
       <c r="AZ162" s="7"/>
-      <c r="BA162" s="16"/>
-      <c r="BB162" s="16"/>
+      <c r="BA162" s="7"/>
+      <c r="BB162" s="7"/>
       <c r="BC162" s="7"/>
-      <c r="BD162" s="7"/>
-      <c r="BE162" s="7"/>
+      <c r="BD162" s="16"/>
+      <c r="BE162" s="16"/>
       <c r="BF162" s="7"/>
       <c r="BG162" s="7"/>
       <c r="BH162" s="7"/>
@@ -11632,11 +11756,11 @@
       <c r="AX163" s="7"/>
       <c r="AY163" s="7"/>
       <c r="AZ163" s="7"/>
-      <c r="BA163" s="16"/>
-      <c r="BB163" s="16"/>
+      <c r="BA163" s="7"/>
+      <c r="BB163" s="7"/>
       <c r="BC163" s="7"/>
-      <c r="BD163" s="7"/>
-      <c r="BE163" s="7"/>
+      <c r="BD163" s="16"/>
+      <c r="BE163" s="16"/>
       <c r="BF163" s="7"/>
       <c r="BG163" s="7"/>
       <c r="BH163" s="7"/>
@@ -11694,11 +11818,11 @@
       <c r="AX164" s="7"/>
       <c r="AY164" s="7"/>
       <c r="AZ164" s="7"/>
-      <c r="BA164" s="16"/>
-      <c r="BB164" s="16"/>
+      <c r="BA164" s="7"/>
+      <c r="BB164" s="7"/>
       <c r="BC164" s="7"/>
-      <c r="BD164" s="7"/>
-      <c r="BE164" s="7"/>
+      <c r="BD164" s="16"/>
+      <c r="BE164" s="16"/>
       <c r="BF164" s="7"/>
       <c r="BG164" s="7"/>
       <c r="BH164" s="7"/>
@@ -11756,11 +11880,11 @@
       <c r="AX165" s="7"/>
       <c r="AY165" s="7"/>
       <c r="AZ165" s="7"/>
-      <c r="BA165" s="16"/>
-      <c r="BB165" s="16"/>
+      <c r="BA165" s="7"/>
+      <c r="BB165" s="7"/>
       <c r="BC165" s="7"/>
-      <c r="BD165" s="7"/>
-      <c r="BE165" s="7"/>
+      <c r="BD165" s="16"/>
+      <c r="BE165" s="16"/>
       <c r="BF165" s="7"/>
       <c r="BG165" s="7"/>
       <c r="BH165" s="7"/>
@@ -11818,11 +11942,11 @@
       <c r="AX166" s="7"/>
       <c r="AY166" s="7"/>
       <c r="AZ166" s="7"/>
-      <c r="BA166" s="16"/>
-      <c r="BB166" s="16"/>
+      <c r="BA166" s="7"/>
+      <c r="BB166" s="7"/>
       <c r="BC166" s="7"/>
-      <c r="BD166" s="7"/>
-      <c r="BE166" s="7"/>
+      <c r="BD166" s="16"/>
+      <c r="BE166" s="16"/>
       <c r="BF166" s="7"/>
       <c r="BG166" s="7"/>
       <c r="BH166" s="7"/>
@@ -11880,11 +12004,11 @@
       <c r="AX167" s="7"/>
       <c r="AY167" s="7"/>
       <c r="AZ167" s="7"/>
-      <c r="BA167" s="16"/>
-      <c r="BB167" s="16"/>
+      <c r="BA167" s="7"/>
+      <c r="BB167" s="7"/>
       <c r="BC167" s="7"/>
-      <c r="BD167" s="7"/>
-      <c r="BE167" s="7"/>
+      <c r="BD167" s="16"/>
+      <c r="BE167" s="16"/>
       <c r="BF167" s="7"/>
       <c r="BG167" s="7"/>
       <c r="BH167" s="7"/>
@@ -11942,11 +12066,11 @@
       <c r="AX168" s="7"/>
       <c r="AY168" s="7"/>
       <c r="AZ168" s="7"/>
-      <c r="BA168" s="16"/>
-      <c r="BB168" s="16"/>
+      <c r="BA168" s="7"/>
+      <c r="BB168" s="7"/>
       <c r="BC168" s="7"/>
-      <c r="BD168" s="7"/>
-      <c r="BE168" s="7"/>
+      <c r="BD168" s="16"/>
+      <c r="BE168" s="16"/>
       <c r="BF168" s="7"/>
       <c r="BG168" s="7"/>
       <c r="BH168" s="7"/>
@@ -12004,11 +12128,11 @@
       <c r="AX169" s="7"/>
       <c r="AY169" s="7"/>
       <c r="AZ169" s="7"/>
-      <c r="BA169" s="16"/>
-      <c r="BB169" s="16"/>
+      <c r="BA169" s="7"/>
+      <c r="BB169" s="7"/>
       <c r="BC169" s="7"/>
-      <c r="BD169" s="7"/>
-      <c r="BE169" s="7"/>
+      <c r="BD169" s="16"/>
+      <c r="BE169" s="16"/>
       <c r="BF169" s="7"/>
       <c r="BG169" s="7"/>
       <c r="BH169" s="7"/>
@@ -12066,11 +12190,11 @@
       <c r="AX170" s="7"/>
       <c r="AY170" s="7"/>
       <c r="AZ170" s="7"/>
-      <c r="BA170" s="16"/>
-      <c r="BB170" s="16"/>
+      <c r="BA170" s="7"/>
+      <c r="BB170" s="7"/>
       <c r="BC170" s="7"/>
-      <c r="BD170" s="7"/>
-      <c r="BE170" s="7"/>
+      <c r="BD170" s="16"/>
+      <c r="BE170" s="16"/>
       <c r="BF170" s="7"/>
       <c r="BG170" s="7"/>
       <c r="BH170" s="7"/>
@@ -12128,11 +12252,11 @@
       <c r="AX171" s="7"/>
       <c r="AY171" s="7"/>
       <c r="AZ171" s="7"/>
-      <c r="BA171" s="16"/>
-      <c r="BB171" s="16"/>
+      <c r="BA171" s="7"/>
+      <c r="BB171" s="7"/>
       <c r="BC171" s="7"/>
-      <c r="BD171" s="7"/>
-      <c r="BE171" s="7"/>
+      <c r="BD171" s="16"/>
+      <c r="BE171" s="16"/>
       <c r="BF171" s="7"/>
       <c r="BG171" s="7"/>
       <c r="BH171" s="7"/>
@@ -12190,11 +12314,11 @@
       <c r="AX172" s="7"/>
       <c r="AY172" s="7"/>
       <c r="AZ172" s="7"/>
-      <c r="BA172" s="16"/>
-      <c r="BB172" s="16"/>
+      <c r="BA172" s="7"/>
+      <c r="BB172" s="7"/>
       <c r="BC172" s="7"/>
-      <c r="BD172" s="7"/>
-      <c r="BE172" s="7"/>
+      <c r="BD172" s="16"/>
+      <c r="BE172" s="16"/>
       <c r="BF172" s="7"/>
       <c r="BG172" s="7"/>
       <c r="BH172" s="7"/>
@@ -12252,11 +12376,11 @@
       <c r="AX173" s="7"/>
       <c r="AY173" s="7"/>
       <c r="AZ173" s="7"/>
-      <c r="BA173" s="16"/>
-      <c r="BB173" s="16"/>
+      <c r="BA173" s="7"/>
+      <c r="BB173" s="7"/>
       <c r="BC173" s="7"/>
-      <c r="BD173" s="7"/>
-      <c r="BE173" s="7"/>
+      <c r="BD173" s="16"/>
+      <c r="BE173" s="16"/>
       <c r="BF173" s="7"/>
       <c r="BG173" s="7"/>
       <c r="BH173" s="7"/>
@@ -12314,11 +12438,11 @@
       <c r="AX174" s="7"/>
       <c r="AY174" s="7"/>
       <c r="AZ174" s="7"/>
-      <c r="BA174" s="16"/>
-      <c r="BB174" s="16"/>
+      <c r="BA174" s="7"/>
+      <c r="BB174" s="7"/>
       <c r="BC174" s="7"/>
-      <c r="BD174" s="7"/>
-      <c r="BE174" s="7"/>
+      <c r="BD174" s="16"/>
+      <c r="BE174" s="16"/>
       <c r="BF174" s="7"/>
       <c r="BG174" s="7"/>
       <c r="BH174" s="7"/>
@@ -12376,11 +12500,11 @@
       <c r="AX175" s="7"/>
       <c r="AY175" s="7"/>
       <c r="AZ175" s="7"/>
-      <c r="BA175" s="16"/>
-      <c r="BB175" s="16"/>
+      <c r="BA175" s="7"/>
+      <c r="BB175" s="7"/>
       <c r="BC175" s="7"/>
-      <c r="BD175" s="7"/>
-      <c r="BE175" s="7"/>
+      <c r="BD175" s="16"/>
+      <c r="BE175" s="16"/>
       <c r="BF175" s="7"/>
       <c r="BG175" s="7"/>
       <c r="BH175" s="7"/>
@@ -12438,11 +12562,11 @@
       <c r="AX176" s="7"/>
       <c r="AY176" s="7"/>
       <c r="AZ176" s="7"/>
-      <c r="BA176" s="16"/>
-      <c r="BB176" s="16"/>
+      <c r="BA176" s="7"/>
+      <c r="BB176" s="7"/>
       <c r="BC176" s="7"/>
-      <c r="BD176" s="7"/>
-      <c r="BE176" s="7"/>
+      <c r="BD176" s="16"/>
+      <c r="BE176" s="16"/>
       <c r="BF176" s="7"/>
       <c r="BG176" s="7"/>
       <c r="BH176" s="7"/>
@@ -12500,11 +12624,11 @@
       <c r="AX177" s="7"/>
       <c r="AY177" s="7"/>
       <c r="AZ177" s="7"/>
-      <c r="BA177" s="16"/>
-      <c r="BB177" s="16"/>
+      <c r="BA177" s="7"/>
+      <c r="BB177" s="7"/>
       <c r="BC177" s="7"/>
-      <c r="BD177" s="7"/>
-      <c r="BE177" s="7"/>
+      <c r="BD177" s="16"/>
+      <c r="BE177" s="16"/>
       <c r="BF177" s="7"/>
       <c r="BG177" s="7"/>
       <c r="BH177" s="7"/>
@@ -12562,11 +12686,11 @@
       <c r="AX178" s="7"/>
       <c r="AY178" s="7"/>
       <c r="AZ178" s="7"/>
-      <c r="BA178" s="16"/>
-      <c r="BB178" s="16"/>
+      <c r="BA178" s="7"/>
+      <c r="BB178" s="7"/>
       <c r="BC178" s="7"/>
-      <c r="BD178" s="7"/>
-      <c r="BE178" s="7"/>
+      <c r="BD178" s="16"/>
+      <c r="BE178" s="16"/>
       <c r="BF178" s="7"/>
       <c r="BG178" s="7"/>
       <c r="BH178" s="7"/>
@@ -12624,11 +12748,11 @@
       <c r="AX179" s="7"/>
       <c r="AY179" s="7"/>
       <c r="AZ179" s="7"/>
-      <c r="BA179" s="16"/>
-      <c r="BB179" s="16"/>
+      <c r="BA179" s="7"/>
+      <c r="BB179" s="7"/>
       <c r="BC179" s="7"/>
-      <c r="BD179" s="7"/>
-      <c r="BE179" s="7"/>
+      <c r="BD179" s="16"/>
+      <c r="BE179" s="16"/>
       <c r="BF179" s="7"/>
       <c r="BG179" s="7"/>
       <c r="BH179" s="7"/>
@@ -12686,11 +12810,11 @@
       <c r="AX180" s="7"/>
       <c r="AY180" s="7"/>
       <c r="AZ180" s="7"/>
-      <c r="BA180" s="16"/>
-      <c r="BB180" s="16"/>
+      <c r="BA180" s="7"/>
+      <c r="BB180" s="7"/>
       <c r="BC180" s="7"/>
-      <c r="BD180" s="7"/>
-      <c r="BE180" s="7"/>
+      <c r="BD180" s="16"/>
+      <c r="BE180" s="16"/>
       <c r="BF180" s="7"/>
       <c r="BG180" s="7"/>
       <c r="BH180" s="7"/>
@@ -12748,11 +12872,11 @@
       <c r="AX181" s="7"/>
       <c r="AY181" s="7"/>
       <c r="AZ181" s="7"/>
-      <c r="BA181" s="16"/>
-      <c r="BB181" s="16"/>
+      <c r="BA181" s="7"/>
+      <c r="BB181" s="7"/>
       <c r="BC181" s="7"/>
-      <c r="BD181" s="7"/>
-      <c r="BE181" s="7"/>
+      <c r="BD181" s="16"/>
+      <c r="BE181" s="16"/>
       <c r="BF181" s="7"/>
       <c r="BG181" s="7"/>
       <c r="BH181" s="7"/>
@@ -12810,11 +12934,11 @@
       <c r="AX182" s="7"/>
       <c r="AY182" s="7"/>
       <c r="AZ182" s="7"/>
-      <c r="BA182" s="16"/>
-      <c r="BB182" s="16"/>
+      <c r="BA182" s="7"/>
+      <c r="BB182" s="7"/>
       <c r="BC182" s="7"/>
-      <c r="BD182" s="7"/>
-      <c r="BE182" s="7"/>
+      <c r="BD182" s="16"/>
+      <c r="BE182" s="16"/>
       <c r="BF182" s="7"/>
       <c r="BG182" s="7"/>
       <c r="BH182" s="7"/>
@@ -12872,11 +12996,11 @@
       <c r="AX183" s="7"/>
       <c r="AY183" s="7"/>
       <c r="AZ183" s="7"/>
-      <c r="BA183" s="16"/>
-      <c r="BB183" s="16"/>
+      <c r="BA183" s="7"/>
+      <c r="BB183" s="7"/>
       <c r="BC183" s="7"/>
-      <c r="BD183" s="7"/>
-      <c r="BE183" s="7"/>
+      <c r="BD183" s="16"/>
+      <c r="BE183" s="16"/>
       <c r="BF183" s="7"/>
       <c r="BG183" s="7"/>
       <c r="BH183" s="7"/>
@@ -12934,11 +13058,11 @@
       <c r="AX184" s="7"/>
       <c r="AY184" s="7"/>
       <c r="AZ184" s="7"/>
-      <c r="BA184" s="16"/>
-      <c r="BB184" s="16"/>
+      <c r="BA184" s="7"/>
+      <c r="BB184" s="7"/>
       <c r="BC184" s="7"/>
-      <c r="BD184" s="7"/>
-      <c r="BE184" s="7"/>
+      <c r="BD184" s="16"/>
+      <c r="BE184" s="16"/>
       <c r="BF184" s="7"/>
       <c r="BG184" s="7"/>
       <c r="BH184" s="7"/>
@@ -12996,11 +13120,11 @@
       <c r="AX185" s="7"/>
       <c r="AY185" s="7"/>
       <c r="AZ185" s="7"/>
-      <c r="BA185" s="16"/>
-      <c r="BB185" s="16"/>
+      <c r="BA185" s="7"/>
+      <c r="BB185" s="7"/>
       <c r="BC185" s="7"/>
-      <c r="BD185" s="7"/>
-      <c r="BE185" s="7"/>
+      <c r="BD185" s="16"/>
+      <c r="BE185" s="16"/>
       <c r="BF185" s="7"/>
       <c r="BG185" s="7"/>
       <c r="BH185" s="7"/>
@@ -13058,11 +13182,11 @@
       <c r="AX186" s="7"/>
       <c r="AY186" s="7"/>
       <c r="AZ186" s="7"/>
-      <c r="BA186" s="16"/>
-      <c r="BB186" s="16"/>
+      <c r="BA186" s="7"/>
+      <c r="BB186" s="7"/>
       <c r="BC186" s="7"/>
-      <c r="BD186" s="7"/>
-      <c r="BE186" s="7"/>
+      <c r="BD186" s="16"/>
+      <c r="BE186" s="16"/>
       <c r="BF186" s="7"/>
       <c r="BG186" s="7"/>
       <c r="BH186" s="7"/>
@@ -13120,11 +13244,11 @@
       <c r="AX187" s="7"/>
       <c r="AY187" s="7"/>
       <c r="AZ187" s="7"/>
-      <c r="BA187" s="16"/>
-      <c r="BB187" s="16"/>
+      <c r="BA187" s="7"/>
+      <c r="BB187" s="7"/>
       <c r="BC187" s="7"/>
-      <c r="BD187" s="7"/>
-      <c r="BE187" s="7"/>
+      <c r="BD187" s="16"/>
+      <c r="BE187" s="16"/>
       <c r="BF187" s="7"/>
       <c r="BG187" s="7"/>
       <c r="BH187" s="7"/>
@@ -13182,11 +13306,11 @@
       <c r="AX188" s="7"/>
       <c r="AY188" s="7"/>
       <c r="AZ188" s="7"/>
-      <c r="BA188" s="16"/>
-      <c r="BB188" s="16"/>
+      <c r="BA188" s="7"/>
+      <c r="BB188" s="7"/>
       <c r="BC188" s="7"/>
-      <c r="BD188" s="7"/>
-      <c r="BE188" s="7"/>
+      <c r="BD188" s="16"/>
+      <c r="BE188" s="16"/>
       <c r="BF188" s="7"/>
       <c r="BG188" s="7"/>
       <c r="BH188" s="7"/>
@@ -13244,11 +13368,11 @@
       <c r="AX189" s="7"/>
       <c r="AY189" s="7"/>
       <c r="AZ189" s="7"/>
-      <c r="BA189" s="16"/>
-      <c r="BB189" s="16"/>
+      <c r="BA189" s="7"/>
+      <c r="BB189" s="7"/>
       <c r="BC189" s="7"/>
-      <c r="BD189" s="7"/>
-      <c r="BE189" s="7"/>
+      <c r="BD189" s="16"/>
+      <c r="BE189" s="16"/>
       <c r="BF189" s="7"/>
       <c r="BG189" s="7"/>
       <c r="BH189" s="7"/>
@@ -13306,11 +13430,11 @@
       <c r="AX190" s="7"/>
       <c r="AY190" s="7"/>
       <c r="AZ190" s="7"/>
-      <c r="BA190" s="16"/>
-      <c r="BB190" s="16"/>
+      <c r="BA190" s="7"/>
+      <c r="BB190" s="7"/>
       <c r="BC190" s="7"/>
-      <c r="BD190" s="7"/>
-      <c r="BE190" s="7"/>
+      <c r="BD190" s="16"/>
+      <c r="BE190" s="16"/>
       <c r="BF190" s="7"/>
       <c r="BG190" s="7"/>
       <c r="BH190" s="7"/>
@@ -13368,11 +13492,11 @@
       <c r="AX191" s="7"/>
       <c r="AY191" s="7"/>
       <c r="AZ191" s="7"/>
-      <c r="BA191" s="16"/>
-      <c r="BB191" s="16"/>
+      <c r="BA191" s="7"/>
+      <c r="BB191" s="7"/>
       <c r="BC191" s="7"/>
-      <c r="BD191" s="7"/>
-      <c r="BE191" s="7"/>
+      <c r="BD191" s="16"/>
+      <c r="BE191" s="16"/>
       <c r="BF191" s="7"/>
       <c r="BG191" s="7"/>
       <c r="BH191" s="7"/>
@@ -13430,11 +13554,11 @@
       <c r="AX192" s="7"/>
       <c r="AY192" s="7"/>
       <c r="AZ192" s="7"/>
-      <c r="BA192" s="16"/>
-      <c r="BB192" s="16"/>
+      <c r="BA192" s="7"/>
+      <c r="BB192" s="7"/>
       <c r="BC192" s="7"/>
-      <c r="BD192" s="7"/>
-      <c r="BE192" s="7"/>
+      <c r="BD192" s="16"/>
+      <c r="BE192" s="16"/>
       <c r="BF192" s="7"/>
       <c r="BG192" s="7"/>
       <c r="BH192" s="7"/>
@@ -13492,11 +13616,11 @@
       <c r="AX193" s="7"/>
       <c r="AY193" s="7"/>
       <c r="AZ193" s="7"/>
-      <c r="BA193" s="16"/>
-      <c r="BB193" s="16"/>
+      <c r="BA193" s="7"/>
+      <c r="BB193" s="7"/>
       <c r="BC193" s="7"/>
-      <c r="BD193" s="7"/>
-      <c r="BE193" s="7"/>
+      <c r="BD193" s="16"/>
+      <c r="BE193" s="16"/>
       <c r="BF193" s="7"/>
       <c r="BG193" s="7"/>
       <c r="BH193" s="7"/>
@@ -13554,11 +13678,11 @@
       <c r="AX194" s="7"/>
       <c r="AY194" s="7"/>
       <c r="AZ194" s="7"/>
-      <c r="BA194" s="16"/>
-      <c r="BB194" s="16"/>
+      <c r="BA194" s="7"/>
+      <c r="BB194" s="7"/>
       <c r="BC194" s="7"/>
-      <c r="BD194" s="7"/>
-      <c r="BE194" s="7"/>
+      <c r="BD194" s="16"/>
+      <c r="BE194" s="16"/>
       <c r="BF194" s="7"/>
       <c r="BG194" s="7"/>
       <c r="BH194" s="7"/>
@@ -13616,11 +13740,11 @@
       <c r="AX195" s="7"/>
       <c r="AY195" s="7"/>
       <c r="AZ195" s="7"/>
-      <c r="BA195" s="16"/>
-      <c r="BB195" s="16"/>
+      <c r="BA195" s="7"/>
+      <c r="BB195" s="7"/>
       <c r="BC195" s="7"/>
-      <c r="BD195" s="7"/>
-      <c r="BE195" s="7"/>
+      <c r="BD195" s="16"/>
+      <c r="BE195" s="16"/>
       <c r="BF195" s="7"/>
       <c r="BG195" s="7"/>
       <c r="BH195" s="7"/>
@@ -13678,11 +13802,11 @@
       <c r="AX196" s="7"/>
       <c r="AY196" s="7"/>
       <c r="AZ196" s="7"/>
-      <c r="BA196" s="16"/>
-      <c r="BB196" s="16"/>
+      <c r="BA196" s="7"/>
+      <c r="BB196" s="7"/>
       <c r="BC196" s="7"/>
-      <c r="BD196" s="7"/>
-      <c r="BE196" s="7"/>
+      <c r="BD196" s="16"/>
+      <c r="BE196" s="16"/>
       <c r="BF196" s="7"/>
       <c r="BG196" s="7"/>
       <c r="BH196" s="7"/>
@@ -13740,11 +13864,11 @@
       <c r="AX197" s="7"/>
       <c r="AY197" s="7"/>
       <c r="AZ197" s="7"/>
-      <c r="BA197" s="16"/>
-      <c r="BB197" s="16"/>
+      <c r="BA197" s="7"/>
+      <c r="BB197" s="7"/>
       <c r="BC197" s="7"/>
-      <c r="BD197" s="7"/>
-      <c r="BE197" s="7"/>
+      <c r="BD197" s="16"/>
+      <c r="BE197" s="16"/>
       <c r="BF197" s="7"/>
       <c r="BG197" s="7"/>
       <c r="BH197" s="7"/>
@@ -13802,11 +13926,11 @@
       <c r="AX198" s="7"/>
       <c r="AY198" s="7"/>
       <c r="AZ198" s="7"/>
-      <c r="BA198" s="16"/>
-      <c r="BB198" s="16"/>
+      <c r="BA198" s="7"/>
+      <c r="BB198" s="7"/>
       <c r="BC198" s="7"/>
-      <c r="BD198" s="7"/>
-      <c r="BE198" s="7"/>
+      <c r="BD198" s="16"/>
+      <c r="BE198" s="16"/>
       <c r="BF198" s="7"/>
       <c r="BG198" s="7"/>
       <c r="BH198" s="7"/>
@@ -13864,11 +13988,11 @@
       <c r="AX199" s="7"/>
       <c r="AY199" s="7"/>
       <c r="AZ199" s="7"/>
-      <c r="BA199" s="16"/>
-      <c r="BB199" s="16"/>
+      <c r="BA199" s="7"/>
+      <c r="BB199" s="7"/>
       <c r="BC199" s="7"/>
-      <c r="BD199" s="7"/>
-      <c r="BE199" s="7"/>
+      <c r="BD199" s="16"/>
+      <c r="BE199" s="16"/>
       <c r="BF199" s="7"/>
       <c r="BG199" s="7"/>
       <c r="BH199" s="7"/>
@@ -13926,11 +14050,11 @@
       <c r="AX200" s="7"/>
       <c r="AY200" s="7"/>
       <c r="AZ200" s="7"/>
-      <c r="BA200" s="16"/>
-      <c r="BB200" s="16"/>
+      <c r="BA200" s="7"/>
+      <c r="BB200" s="7"/>
       <c r="BC200" s="7"/>
-      <c r="BD200" s="7"/>
-      <c r="BE200" s="7"/>
+      <c r="BD200" s="16"/>
+      <c r="BE200" s="16"/>
       <c r="BF200" s="7"/>
       <c r="BG200" s="7"/>
       <c r="BH200" s="7"/>
@@ -13988,28 +14112,27 @@
       <c r="AX201" s="7"/>
       <c r="AY201" s="7"/>
       <c r="AZ201" s="7"/>
-      <c r="BA201" s="16"/>
-      <c r="BB201" s="16"/>
+      <c r="BA201" s="7"/>
+      <c r="BB201" s="7"/>
       <c r="BC201" s="7"/>
-      <c r="BD201" s="7"/>
-      <c r="BE201" s="7"/>
+      <c r="BD201" s="16"/>
+      <c r="BE201" s="16"/>
       <c r="BF201" s="7"/>
       <c r="BG201" s="7"/>
       <c r="BH201" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="AD1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="AG1:BB1"/>
+    <mergeCell ref="BC1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AD201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -14024,7 +14147,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ201" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC201" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C219C-1382-4F3A-B895-1263B50E279B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8716EEA-4247-469D-90CF-8282A4DB431D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BN15" sqref="BN15"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -14132,7 +14132,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AD201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201 AD3:AD201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{00000000-0002-0000-0000-000002000000}">

--- a/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品修改导入模板.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8716EEA-4247-469D-90CF-8282A4DB431D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F6C54-6E7B-4BE3-99B9-DCF04AF636CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -117,123 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{F28771FE-D139-40E9-BDED-84E2AF721E62}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>填写示例：
-爱亲科技</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>爱亲母婴</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>萌贝树</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">小红马
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>值与值之间用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>英文逗号隔开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{8A6A77D4-778D-416C-8DDD-2BDDB822D37B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">填写示例：
-新品,爱亲主推
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>值与值之间用 英文逗号隔开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AE2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -325,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -513,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AZ2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -561,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="BA2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="BB2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -596,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="BC2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -618,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="BD2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>基本信息</t>
   </si>
@@ -657,6 +541,9 @@
   </si>
   <si>
     <t>结算信息</t>
+  </si>
+  <si>
+    <t>生产厂家</t>
   </si>
   <si>
     <t>图片信息</t>
@@ -878,23 +765,20 @@
     <t>物流费奖励比例</t>
   </si>
   <si>
-    <t>图片文件夹编号</t>
+    <t>生产厂家SKU编号</t>
   </si>
   <si>
-    <t>覆盖渠道</t>
+    <t>保修地址</t>
   </si>
   <si>
-    <t>商品标签</t>
-  </si>
-  <si>
-    <t>商品备注</t>
+    <t>图片文件夹编号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,13 +865,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,8 +921,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1102,21 +987,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1187,12 +1057,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,6 +1070,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1507,280 +1377,286 @@
     <col min="20" max="20" width="9.73046875" style="3" customWidth="1"/>
     <col min="21" max="21" width="11.796875" style="3" customWidth="1"/>
     <col min="22" max="23" width="9.73046875" style="3" customWidth="1"/>
-    <col min="24" max="30" width="11.796875" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.73046875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="11.796875" style="3" customWidth="1"/>
-    <col min="33" max="34" width="9.73046875" style="3" customWidth="1"/>
-    <col min="35" max="37" width="13" style="3" customWidth="1"/>
-    <col min="38" max="38" width="15.86328125" style="3" customWidth="1"/>
-    <col min="39" max="40" width="14" style="3" customWidth="1"/>
-    <col min="41" max="42" width="9.73046875" style="3" customWidth="1"/>
-    <col min="43" max="45" width="13" style="3" customWidth="1"/>
-    <col min="46" max="46" width="17.1328125" style="3" customWidth="1"/>
-    <col min="47" max="48" width="14" style="3" customWidth="1"/>
-    <col min="49" max="49" width="14.06640625" style="3" customWidth="1"/>
+    <col min="24" max="27" width="11.796875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9.73046875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="11.796875" style="3" customWidth="1"/>
+    <col min="30" max="31" width="9.73046875" style="3" customWidth="1"/>
+    <col min="32" max="34" width="13" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.86328125" style="3" customWidth="1"/>
+    <col min="36" max="37" width="14" style="3" customWidth="1"/>
+    <col min="38" max="39" width="9.73046875" style="3" customWidth="1"/>
+    <col min="40" max="42" width="13" style="3" customWidth="1"/>
+    <col min="43" max="43" width="17.1328125" style="3" customWidth="1"/>
+    <col min="44" max="45" width="14" style="3" customWidth="1"/>
+    <col min="46" max="46" width="14.06640625" style="3" customWidth="1"/>
+    <col min="47" max="47" width="11.796875" style="3" customWidth="1"/>
+    <col min="48" max="49" width="14.06640625" style="3" customWidth="1"/>
     <col min="50" max="50" width="11.796875" style="3" customWidth="1"/>
-    <col min="51" max="52" width="14.06640625" style="3" customWidth="1"/>
-    <col min="53" max="53" width="11.796875" style="3" customWidth="1"/>
-    <col min="54" max="55" width="9.73046875" style="3" customWidth="1"/>
-    <col min="56" max="57" width="9.73046875" style="17" customWidth="1"/>
-    <col min="58" max="58" width="9.73046875" style="3" customWidth="1"/>
-    <col min="59" max="60" width="16.33203125" style="3" customWidth="1"/>
+    <col min="51" max="52" width="9.73046875" style="3" customWidth="1"/>
+    <col min="53" max="54" width="9.73046875" style="17" customWidth="1"/>
+    <col min="55" max="55" width="9.73046875" style="3" customWidth="1"/>
+    <col min="56" max="56" width="16.33203125" style="3" customWidth="1"/>
+    <col min="57" max="57" width="9.73046875" style="3" customWidth="1"/>
+    <col min="58" max="58" width="18.265625" style="3" customWidth="1"/>
+    <col min="59" max="59" width="9.73046875" style="3" customWidth="1"/>
+    <col min="60" max="60" width="16.33203125" style="3" customWidth="1"/>
     <col min="61" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="8" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AD1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="25" t="s">
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="13" t="s">
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="24" t="s">
         <v>4</v>
       </c>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:60" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="BG2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="BH2" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -1836,11 +1712,11 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="18"/>
       <c r="BC3" s="7"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="18"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
@@ -1898,11 +1774,11 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
       <c r="BC4" s="7"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -1960,11 +1836,11 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
       <c r="BC5" s="7"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -2022,11 +1898,11 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
       <c r="BC6" s="7"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
@@ -2084,11 +1960,11 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
       <c r="BC7" s="7"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
@@ -2146,11 +2022,11 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
       <c r="BC8" s="7"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
@@ -2208,11 +2084,11 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
       <c r="BC9" s="7"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
@@ -2270,11 +2146,11 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
       <c r="BC10" s="7"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
@@ -2332,11 +2208,11 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
       <c r="BC11" s="7"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
@@ -2394,11 +2270,11 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
       <c r="BC12" s="7"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
@@ -2456,11 +2332,11 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
       <c r="BC13" s="7"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
@@ -2518,11 +2394,11 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
       <c r="BC14" s="7"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
@@ -2580,11 +2456,11 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
       <c r="BC15" s="7"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
@@ -2642,11 +2518,11 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
       <c r="BC16" s="7"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
@@ -2704,11 +2580,11 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
       <c r="BC17" s="7"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
@@ -2766,11 +2642,11 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
       <c r="BC18" s="7"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
@@ -2828,11 +2704,11 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
       <c r="BC19" s="7"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
@@ -2890,11 +2766,11 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
       <c r="BC20" s="7"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
@@ -2952,11 +2828,11 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
       <c r="BC21" s="7"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
@@ -3014,11 +2890,11 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
       <c r="BC22" s="7"/>
-      <c r="BD22" s="16"/>
-      <c r="BE22" s="16"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
       <c r="BF22" s="7"/>
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
@@ -3076,11 +2952,11 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
       <c r="BC23" s="7"/>
-      <c r="BD23" s="16"/>
-      <c r="BE23" s="16"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
@@ -3138,11 +3014,11 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
       <c r="BC24" s="7"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
@@ -3200,11 +3076,11 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
       <c r="BC25" s="7"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="16"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
@@ -3262,11 +3138,11 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
       <c r="BC26" s="7"/>
-      <c r="BD26" s="16"/>
-      <c r="BE26" s="16"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
@@ -3324,11 +3200,11 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
       <c r="BC27" s="7"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
@@ -3386,11 +3262,11 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
-      <c r="BA28" s="7"/>
-      <c r="BB28" s="7"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
       <c r="BC28" s="7"/>
-      <c r="BD28" s="16"/>
-      <c r="BE28" s="16"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
@@ -3448,11 +3324,11 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="7"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
       <c r="BC29" s="7"/>
-      <c r="BD29" s="16"/>
-      <c r="BE29" s="16"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
@@ -3510,11 +3386,11 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
       <c r="BC30" s="7"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
@@ -3572,11 +3448,11 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
       <c r="BC31" s="7"/>
-      <c r="BD31" s="16"/>
-      <c r="BE31" s="16"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
@@ -3634,11 +3510,11 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
       <c r="BC32" s="7"/>
-      <c r="BD32" s="16"/>
-      <c r="BE32" s="16"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
@@ -3696,11 +3572,11 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
       <c r="BC33" s="7"/>
-      <c r="BD33" s="16"/>
-      <c r="BE33" s="16"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
@@ -3758,11 +3634,11 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
-      <c r="BA34" s="7"/>
-      <c r="BB34" s="7"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
       <c r="BC34" s="7"/>
-      <c r="BD34" s="16"/>
-      <c r="BE34" s="16"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
@@ -3820,11 +3696,11 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
       <c r="BC35" s="7"/>
-      <c r="BD35" s="16"/>
-      <c r="BE35" s="16"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
@@ -3882,11 +3758,11 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
-      <c r="BA36" s="7"/>
-      <c r="BB36" s="7"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
       <c r="BC36" s="7"/>
-      <c r="BD36" s="16"/>
-      <c r="BE36" s="16"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7"/>
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
@@ -3944,11 +3820,11 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
-      <c r="BA37" s="7"/>
-      <c r="BB37" s="7"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
       <c r="BC37" s="7"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
+      <c r="BD37" s="7"/>
+      <c r="BE37" s="7"/>
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
@@ -4006,11 +3882,11 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-      <c r="BB38" s="7"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
       <c r="BC38" s="7"/>
-      <c r="BD38" s="16"/>
-      <c r="BE38" s="16"/>
+      <c r="BD38" s="7"/>
+      <c r="BE38" s="7"/>
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
@@ -4068,11 +3944,11 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
       <c r="BC39" s="7"/>
-      <c r="BD39" s="16"/>
-      <c r="BE39" s="16"/>
+      <c r="BD39" s="7"/>
+      <c r="BE39" s="7"/>
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
@@ -4130,11 +4006,11 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
-      <c r="BA40" s="7"/>
-      <c r="BB40" s="7"/>
+      <c r="BA40" s="16"/>
+      <c r="BB40" s="16"/>
       <c r="BC40" s="7"/>
-      <c r="BD40" s="16"/>
-      <c r="BE40" s="16"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7"/>
       <c r="BF40" s="7"/>
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
@@ -4192,11 +4068,11 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
+      <c r="BA41" s="16"/>
+      <c r="BB41" s="16"/>
       <c r="BC41" s="7"/>
-      <c r="BD41" s="16"/>
-      <c r="BE41" s="16"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7"/>
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
@@ -4254,11 +4130,11 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
       <c r="BC42" s="7"/>
-      <c r="BD42" s="16"/>
-      <c r="BE42" s="16"/>
+      <c r="BD42" s="7"/>
+      <c r="BE42" s="7"/>
       <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
@@ -4316,11 +4192,11 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
+      <c r="BA43" s="16"/>
+      <c r="BB43" s="16"/>
       <c r="BC43" s="7"/>
-      <c r="BD43" s="16"/>
-      <c r="BE43" s="16"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7"/>
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
@@ -4378,11 +4254,11 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
+      <c r="BA44" s="16"/>
+      <c r="BB44" s="16"/>
       <c r="BC44" s="7"/>
-      <c r="BD44" s="16"/>
-      <c r="BE44" s="16"/>
+      <c r="BD44" s="7"/>
+      <c r="BE44" s="7"/>
       <c r="BF44" s="7"/>
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
@@ -4440,11 +4316,11 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
-      <c r="BA45" s="7"/>
-      <c r="BB45" s="7"/>
+      <c r="BA45" s="16"/>
+      <c r="BB45" s="16"/>
       <c r="BC45" s="7"/>
-      <c r="BD45" s="16"/>
-      <c r="BE45" s="16"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
       <c r="BF45" s="7"/>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
@@ -4502,11 +4378,11 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
-      <c r="BA46" s="7"/>
-      <c r="BB46" s="7"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
       <c r="BC46" s="7"/>
-      <c r="BD46" s="16"/>
-      <c r="BE46" s="16"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
       <c r="BF46" s="7"/>
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
@@ -4564,11 +4440,11 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
-      <c r="BA47" s="7"/>
-      <c r="BB47" s="7"/>
+      <c r="BA47" s="16"/>
+      <c r="BB47" s="16"/>
       <c r="BC47" s="7"/>
-      <c r="BD47" s="16"/>
-      <c r="BE47" s="16"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
       <c r="BF47" s="7"/>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
@@ -4626,11 +4502,11 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
-      <c r="BA48" s="7"/>
-      <c r="BB48" s="7"/>
+      <c r="BA48" s="16"/>
+      <c r="BB48" s="16"/>
       <c r="BC48" s="7"/>
-      <c r="BD48" s="16"/>
-      <c r="BE48" s="16"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
@@ -4688,11 +4564,11 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
       <c r="AZ49" s="7"/>
-      <c r="BA49" s="7"/>
-      <c r="BB49" s="7"/>
+      <c r="BA49" s="16"/>
+      <c r="BB49" s="16"/>
       <c r="BC49" s="7"/>
-      <c r="BD49" s="16"/>
-      <c r="BE49" s="16"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7"/>
       <c r="BF49" s="7"/>
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
@@ -4750,11 +4626,11 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
       <c r="AZ50" s="7"/>
-      <c r="BA50" s="7"/>
-      <c r="BB50" s="7"/>
+      <c r="BA50" s="16"/>
+      <c r="BB50" s="16"/>
       <c r="BC50" s="7"/>
-      <c r="BD50" s="16"/>
-      <c r="BE50" s="16"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
       <c r="BF50" s="7"/>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
@@ -4812,11 +4688,11 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
       <c r="AZ51" s="7"/>
-      <c r="BA51" s="7"/>
-      <c r="BB51" s="7"/>
+      <c r="BA51" s="16"/>
+      <c r="BB51" s="16"/>
       <c r="BC51" s="7"/>
-      <c r="BD51" s="16"/>
-      <c r="BE51" s="16"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
       <c r="BF51" s="7"/>
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
@@ -4874,11 +4750,11 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="7"/>
-      <c r="BA52" s="7"/>
-      <c r="BB52" s="7"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="16"/>
       <c r="BC52" s="7"/>
-      <c r="BD52" s="16"/>
-      <c r="BE52" s="16"/>
+      <c r="BD52" s="7"/>
+      <c r="BE52" s="7"/>
       <c r="BF52" s="7"/>
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
@@ -4936,11 +4812,11 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
+      <c r="BA53" s="16"/>
+      <c r="BB53" s="16"/>
       <c r="BC53" s="7"/>
-      <c r="BD53" s="16"/>
-      <c r="BE53" s="16"/>
+      <c r="BD53" s="7"/>
+      <c r="BE53" s="7"/>
       <c r="BF53" s="7"/>
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
@@ -4998,11 +4874,11 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
-      <c r="BA54" s="7"/>
-      <c r="BB54" s="7"/>
+      <c r="BA54" s="16"/>
+      <c r="BB54" s="16"/>
       <c r="BC54" s="7"/>
-      <c r="BD54" s="16"/>
-      <c r="BE54" s="16"/>
+      <c r="BD54" s="7"/>
+      <c r="BE54" s="7"/>
       <c r="BF54" s="7"/>
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
@@ -5060,11 +4936,11 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
-      <c r="BA55" s="7"/>
-      <c r="BB55" s="7"/>
+      <c r="BA55" s="16"/>
+      <c r="BB55" s="16"/>
       <c r="BC55" s="7"/>
-      <c r="BD55" s="16"/>
-      <c r="BE55" s="16"/>
+      <c r="BD55" s="7"/>
+      <c r="BE55" s="7"/>
       <c r="BF55" s="7"/>
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
@@ -5122,11 +4998,11 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
-      <c r="BA56" s="7"/>
-      <c r="BB56" s="7"/>
+      <c r="BA56" s="16"/>
+      <c r="BB56" s="16"/>
       <c r="BC56" s="7"/>
-      <c r="BD56" s="16"/>
-      <c r="BE56" s="16"/>
+      <c r="BD56" s="7"/>
+      <c r="BE56" s="7"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
@@ -5184,11 +5060,11 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
-      <c r="BA57" s="7"/>
-      <c r="BB57" s="7"/>
+      <c r="BA57" s="16"/>
+      <c r="BB57" s="16"/>
       <c r="BC57" s="7"/>
-      <c r="BD57" s="16"/>
-      <c r="BE57" s="16"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7"/>
       <c r="BF57" s="7"/>
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
@@ -5246,11 +5122,11 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="7"/>
-      <c r="BA58" s="7"/>
-      <c r="BB58" s="7"/>
+      <c r="BA58" s="16"/>
+      <c r="BB58" s="16"/>
       <c r="BC58" s="7"/>
-      <c r="BD58" s="16"/>
-      <c r="BE58" s="16"/>
+      <c r="BD58" s="7"/>
+      <c r="BE58" s="7"/>
       <c r="BF58" s="7"/>
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
@@ -5308,11 +5184,11 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
-      <c r="BA59" s="7"/>
-      <c r="BB59" s="7"/>
+      <c r="BA59" s="16"/>
+      <c r="BB59" s="16"/>
       <c r="BC59" s="7"/>
-      <c r="BD59" s="16"/>
-      <c r="BE59" s="16"/>
+      <c r="BD59" s="7"/>
+      <c r="BE59" s="7"/>
       <c r="BF59" s="7"/>
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
@@ -5370,11 +5246,11 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="7"/>
-      <c r="BA60" s="7"/>
-      <c r="BB60" s="7"/>
+      <c r="BA60" s="16"/>
+      <c r="BB60" s="16"/>
       <c r="BC60" s="7"/>
-      <c r="BD60" s="16"/>
-      <c r="BE60" s="16"/>
+      <c r="BD60" s="7"/>
+      <c r="BE60" s="7"/>
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
@@ -5432,11 +5308,11 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
-      <c r="BA61" s="7"/>
-      <c r="BB61" s="7"/>
+      <c r="BA61" s="16"/>
+      <c r="BB61" s="16"/>
       <c r="BC61" s="7"/>
-      <c r="BD61" s="16"/>
-      <c r="BE61" s="16"/>
+      <c r="BD61" s="7"/>
+      <c r="BE61" s="7"/>
       <c r="BF61" s="7"/>
       <c r="BG61" s="7"/>
       <c r="BH61" s="7"/>
@@ -5494,11 +5370,11 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="7"/>
-      <c r="BA62" s="7"/>
-      <c r="BB62" s="7"/>
+      <c r="BA62" s="16"/>
+      <c r="BB62" s="16"/>
       <c r="BC62" s="7"/>
-      <c r="BD62" s="16"/>
-      <c r="BE62" s="16"/>
+      <c r="BD62" s="7"/>
+      <c r="BE62" s="7"/>
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
       <c r="BH62" s="7"/>
@@ -5556,11 +5432,11 @@
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
-      <c r="BA63" s="7"/>
-      <c r="BB63" s="7"/>
+      <c r="BA63" s="16"/>
+      <c r="BB63" s="16"/>
       <c r="BC63" s="7"/>
-      <c r="BD63" s="16"/>
-      <c r="BE63" s="16"/>
+      <c r="BD63" s="7"/>
+      <c r="BE63" s="7"/>
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
       <c r="BH63" s="7"/>
@@ -5618,11 +5494,11 @@
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="7"/>
-      <c r="BA64" s="7"/>
-      <c r="BB64" s="7"/>
+      <c r="BA64" s="16"/>
+      <c r="BB64" s="16"/>
       <c r="BC64" s="7"/>
-      <c r="BD64" s="16"/>
-      <c r="BE64" s="16"/>
+      <c r="BD64" s="7"/>
+      <c r="BE64" s="7"/>
       <c r="BF64" s="7"/>
       <c r="BG64" s="7"/>
       <c r="BH64" s="7"/>
@@ -5680,11 +5556,11 @@
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
-      <c r="BA65" s="7"/>
-      <c r="BB65" s="7"/>
+      <c r="BA65" s="16"/>
+      <c r="BB65" s="16"/>
       <c r="BC65" s="7"/>
-      <c r="BD65" s="16"/>
-      <c r="BE65" s="16"/>
+      <c r="BD65" s="7"/>
+      <c r="BE65" s="7"/>
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="7"/>
@@ -5742,11 +5618,11 @@
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="7"/>
-      <c r="BA66" s="7"/>
-      <c r="BB66" s="7"/>
+      <c r="BA66" s="16"/>
+      <c r="BB66" s="16"/>
       <c r="BC66" s="7"/>
-      <c r="BD66" s="16"/>
-      <c r="BE66" s="16"/>
+      <c r="BD66" s="7"/>
+      <c r="BE66" s="7"/>
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
       <c r="BH66" s="7"/>
@@ -5804,11 +5680,11 @@
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
-      <c r="BA67" s="7"/>
-      <c r="BB67" s="7"/>
+      <c r="BA67" s="16"/>
+      <c r="BB67" s="16"/>
       <c r="BC67" s="7"/>
-      <c r="BD67" s="16"/>
-      <c r="BE67" s="16"/>
+      <c r="BD67" s="7"/>
+      <c r="BE67" s="7"/>
       <c r="BF67" s="7"/>
       <c r="BG67" s="7"/>
       <c r="BH67" s="7"/>
@@ -5866,11 +5742,11 @@
       <c r="AX68" s="7"/>
       <c r="AY68" s="7"/>
       <c r="AZ68" s="7"/>
-      <c r="BA68" s="7"/>
-      <c r="BB68" s="7"/>
+      <c r="BA68" s="16"/>
+      <c r="BB68" s="16"/>
       <c r="BC68" s="7"/>
-      <c r="BD68" s="16"/>
-      <c r="BE68" s="16"/>
+      <c r="BD68" s="7"/>
+      <c r="BE68" s="7"/>
       <c r="BF68" s="7"/>
       <c r="BG68" s="7"/>
       <c r="BH68" s="7"/>
@@ -5928,11 +5804,11 @@
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
       <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="7"/>
+      <c r="BA69" s="16"/>
+      <c r="BB69" s="16"/>
       <c r="BC69" s="7"/>
-      <c r="BD69" s="16"/>
-      <c r="BE69" s="16"/>
+      <c r="BD69" s="7"/>
+      <c r="BE69" s="7"/>
       <c r="BF69" s="7"/>
       <c r="BG69" s="7"/>
       <c r="BH69" s="7"/>
@@ -5990,11 +5866,11 @@
       <c r="AX70" s="7"/>
       <c r="AY70" s="7"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="7"/>
-      <c r="BB70" s="7"/>
+      <c r="BA70" s="16"/>
+      <c r="BB70" s="16"/>
       <c r="BC70" s="7"/>
-      <c r="BD70" s="16"/>
-      <c r="BE70" s="16"/>
+      <c r="BD70" s="7"/>
+      <c r="BE70" s="7"/>
       <c r="BF70" s="7"/>
       <c r="BG70" s="7"/>
       <c r="BH70" s="7"/>
@@ -6052,11 +5928,11 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
       <c r="AZ71" s="7"/>
-      <c r="BA71" s="7"/>
-      <c r="BB71" s="7"/>
+      <c r="BA71" s="16"/>
+      <c r="BB71" s="16"/>
       <c r="BC71" s="7"/>
-      <c r="BD71" s="16"/>
-      <c r="BE71" s="16"/>
+      <c r="BD71" s="7"/>
+      <c r="BE71" s="7"/>
       <c r="BF71" s="7"/>
       <c r="BG71" s="7"/>
       <c r="BH71" s="7"/>
@@ -6114,11 +5990,11 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
       <c r="AZ72" s="7"/>
-      <c r="BA72" s="7"/>
-      <c r="BB72" s="7"/>
+      <c r="BA72" s="16"/>
+      <c r="BB72" s="16"/>
       <c r="BC72" s="7"/>
-      <c r="BD72" s="16"/>
-      <c r="BE72" s="16"/>
+      <c r="BD72" s="7"/>
+      <c r="BE72" s="7"/>
       <c r="BF72" s="7"/>
       <c r="BG72" s="7"/>
       <c r="BH72" s="7"/>
@@ -6176,11 +6052,11 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
       <c r="AZ73" s="7"/>
-      <c r="BA73" s="7"/>
-      <c r="BB73" s="7"/>
+      <c r="BA73" s="16"/>
+      <c r="BB73" s="16"/>
       <c r="BC73" s="7"/>
-      <c r="BD73" s="16"/>
-      <c r="BE73" s="16"/>
+      <c r="BD73" s="7"/>
+      <c r="BE73" s="7"/>
       <c r="BF73" s="7"/>
       <c r="BG73" s="7"/>
       <c r="BH73" s="7"/>
@@ -6238,11 +6114,11 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
       <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
+      <c r="BA74" s="16"/>
+      <c r="BB74" s="16"/>
       <c r="BC74" s="7"/>
-      <c r="BD74" s="16"/>
-      <c r="BE74" s="16"/>
+      <c r="BD74" s="7"/>
+      <c r="BE74" s="7"/>
       <c r="BF74" s="7"/>
       <c r="BG74" s="7"/>
       <c r="BH74" s="7"/>
@@ -6300,11 +6176,11 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
       <c r="AZ75" s="7"/>
-      <c r="BA75" s="7"/>
-      <c r="BB75" s="7"/>
+      <c r="BA75" s="16"/>
+      <c r="BB75" s="16"/>
       <c r="BC75" s="7"/>
-      <c r="BD75" s="16"/>
-      <c r="BE75" s="16"/>
+      <c r="BD75" s="7"/>
+      <c r="BE75" s="7"/>
       <c r="BF75" s="7"/>
       <c r="BG75" s="7"/>
       <c r="BH75" s="7"/>
@@ -6362,11 +6238,11 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
       <c r="AZ76" s="7"/>
-      <c r="BA76" s="7"/>
-      <c r="BB76" s="7"/>
+      <c r="BA76" s="16"/>
+      <c r="BB76" s="16"/>
       <c r="BC76" s="7"/>
-      <c r="BD76" s="16"/>
-      <c r="BE76" s="16"/>
+      <c r="BD76" s="7"/>
+      <c r="BE76" s="7"/>
       <c r="BF76" s="7"/>
       <c r="BG76" s="7"/>
       <c r="BH76" s="7"/>
@@ -6424,11 +6300,11 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
       <c r="AZ77" s="7"/>
-      <c r="BA77" s="7"/>
-      <c r="BB77" s="7"/>
+      <c r="BA77" s="16"/>
+      <c r="BB77" s="16"/>
       <c r="BC77" s="7"/>
-      <c r="BD77" s="16"/>
-      <c r="BE77" s="16"/>
+      <c r="BD77" s="7"/>
+      <c r="BE77" s="7"/>
       <c r="BF77" s="7"/>
       <c r="BG77" s="7"/>
       <c r="BH77" s="7"/>
@@ -6486,11 +6362,11 @@
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
       <c r="AZ78" s="7"/>
-      <c r="BA78" s="7"/>
-      <c r="BB78" s="7"/>
+      <c r="BA78" s="16"/>
+      <c r="BB78" s="16"/>
       <c r="BC78" s="7"/>
-      <c r="BD78" s="16"/>
-      <c r="BE78" s="16"/>
+      <c r="BD78" s="7"/>
+      <c r="BE78" s="7"/>
       <c r="BF78" s="7"/>
       <c r="BG78" s="7"/>
       <c r="BH78" s="7"/>
@@ -6548,11 +6424,11 @@
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
       <c r="AZ79" s="7"/>
-      <c r="BA79" s="7"/>
-      <c r="BB79" s="7"/>
+      <c r="BA79" s="16"/>
+      <c r="BB79" s="16"/>
       <c r="BC79" s="7"/>
-      <c r="BD79" s="16"/>
-      <c r="BE79" s="16"/>
+      <c r="BD79" s="7"/>
+      <c r="BE79" s="7"/>
       <c r="BF79" s="7"/>
       <c r="BG79" s="7"/>
       <c r="BH79" s="7"/>
@@ -6610,11 +6486,11 @@
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
       <c r="AZ80" s="7"/>
-      <c r="BA80" s="7"/>
-      <c r="BB80" s="7"/>
+      <c r="BA80" s="16"/>
+      <c r="BB80" s="16"/>
       <c r="BC80" s="7"/>
-      <c r="BD80" s="16"/>
-      <c r="BE80" s="16"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7"/>
       <c r="BF80" s="7"/>
       <c r="BG80" s="7"/>
       <c r="BH80" s="7"/>
@@ -6672,11 +6548,11 @@
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
       <c r="AZ81" s="7"/>
-      <c r="BA81" s="7"/>
-      <c r="BB81" s="7"/>
+      <c r="BA81" s="16"/>
+      <c r="BB81" s="16"/>
       <c r="BC81" s="7"/>
-      <c r="BD81" s="16"/>
-      <c r="BE81" s="16"/>
+      <c r="BD81" s="7"/>
+      <c r="BE81" s="7"/>
       <c r="BF81" s="7"/>
       <c r="BG81" s="7"/>
       <c r="BH81" s="7"/>
@@ -6734,11 +6610,11 @@
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="7"/>
-      <c r="BA82" s="7"/>
-      <c r="BB82" s="7"/>
+      <c r="BA82" s="16"/>
+      <c r="BB82" s="16"/>
       <c r="BC82" s="7"/>
-      <c r="BD82" s="16"/>
-      <c r="BE82" s="16"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
       <c r="BF82" s="7"/>
       <c r="BG82" s="7"/>
       <c r="BH82" s="7"/>
@@ -6796,11 +6672,11 @@
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="7"/>
-      <c r="BA83" s="7"/>
-      <c r="BB83" s="7"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16"/>
       <c r="BC83" s="7"/>
-      <c r="BD83" s="16"/>
-      <c r="BE83" s="16"/>
+      <c r="BD83" s="7"/>
+      <c r="BE83" s="7"/>
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
       <c r="BH83" s="7"/>
@@ -6858,11 +6734,11 @@
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="7"/>
-      <c r="BA84" s="7"/>
-      <c r="BB84" s="7"/>
+      <c r="BA84" s="16"/>
+      <c r="BB84" s="16"/>
       <c r="BC84" s="7"/>
-      <c r="BD84" s="16"/>
-      <c r="BE84" s="16"/>
+      <c r="BD84" s="7"/>
+      <c r="BE84" s="7"/>
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
       <c r="BH84" s="7"/>
@@ -6920,11 +6796,11 @@
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="7"/>
-      <c r="BA85" s="7"/>
-      <c r="BB85" s="7"/>
+      <c r="BA85" s="16"/>
+      <c r="BB85" s="16"/>
       <c r="BC85" s="7"/>
-      <c r="BD85" s="16"/>
-      <c r="BE85" s="16"/>
+      <c r="BD85" s="7"/>
+      <c r="BE85" s="7"/>
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
       <c r="BH85" s="7"/>
@@ -6982,11 +6858,11 @@
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="7"/>
-      <c r="BA86" s="7"/>
-      <c r="BB86" s="7"/>
+      <c r="BA86" s="16"/>
+      <c r="BB86" s="16"/>
       <c r="BC86" s="7"/>
-      <c r="BD86" s="16"/>
-      <c r="BE86" s="16"/>
+      <c r="BD86" s="7"/>
+      <c r="BE86" s="7"/>
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
       <c r="BH86" s="7"/>
@@ -7044,11 +6920,11 @@
       <c r="AX87" s="7"/>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="7"/>
-      <c r="BA87" s="7"/>
-      <c r="BB87" s="7"/>
+      <c r="BA87" s="16"/>
+      <c r="BB87" s="16"/>
       <c r="BC87" s="7"/>
-      <c r="BD87" s="16"/>
-      <c r="BE87" s="16"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7"/>
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
       <c r="BH87" s="7"/>
@@ -7106,11 +6982,11 @@
       <c r="AX88" s="7"/>
       <c r="AY88" s="7"/>
       <c r="AZ88" s="7"/>
-      <c r="BA88" s="7"/>
-      <c r="BB88" s="7"/>
+      <c r="BA88" s="16"/>
+      <c r="BB88" s="16"/>
       <c r="BC88" s="7"/>
-      <c r="BD88" s="16"/>
-      <c r="BE88" s="16"/>
+      <c r="BD88" s="7"/>
+      <c r="BE88" s="7"/>
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
       <c r="BH88" s="7"/>
@@ -7168,11 +7044,11 @@
       <c r="AX89" s="7"/>
       <c r="AY89" s="7"/>
       <c r="AZ89" s="7"/>
-      <c r="BA89" s="7"/>
-      <c r="BB89" s="7"/>
+      <c r="BA89" s="16"/>
+      <c r="BB89" s="16"/>
       <c r="BC89" s="7"/>
-      <c r="BD89" s="16"/>
-      <c r="BE89" s="16"/>
+      <c r="BD89" s="7"/>
+      <c r="BE89" s="7"/>
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
       <c r="BH89" s="7"/>
@@ -7230,11 +7106,11 @@
       <c r="AX90" s="7"/>
       <c r="AY90" s="7"/>
       <c r="AZ90" s="7"/>
-      <c r="BA90" s="7"/>
-      <c r="BB90" s="7"/>
+      <c r="BA90" s="16"/>
+      <c r="BB90" s="16"/>
       <c r="BC90" s="7"/>
-      <c r="BD90" s="16"/>
-      <c r="BE90" s="16"/>
+      <c r="BD90" s="7"/>
+      <c r="BE90" s="7"/>
       <c r="BF90" s="7"/>
       <c r="BG90" s="7"/>
       <c r="BH90" s="7"/>
@@ -7292,11 +7168,11 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="7"/>
-      <c r="BA91" s="7"/>
-      <c r="BB91" s="7"/>
+      <c r="BA91" s="16"/>
+      <c r="BB91" s="16"/>
       <c r="BC91" s="7"/>
-      <c r="BD91" s="16"/>
-      <c r="BE91" s="16"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
       <c r="BF91" s="7"/>
       <c r="BG91" s="7"/>
       <c r="BH91" s="7"/>
@@ -7354,11 +7230,11 @@
       <c r="AX92" s="7"/>
       <c r="AY92" s="7"/>
       <c r="AZ92" s="7"/>
-      <c r="BA92" s="7"/>
-      <c r="BB92" s="7"/>
+      <c r="BA92" s="16"/>
+      <c r="BB92" s="16"/>
       <c r="BC92" s="7"/>
-      <c r="BD92" s="16"/>
-      <c r="BE92" s="16"/>
+      <c r="BD92" s="7"/>
+      <c r="BE92" s="7"/>
       <c r="BF92" s="7"/>
       <c r="BG92" s="7"/>
       <c r="BH92" s="7"/>
@@ -7416,11 +7292,11 @@
       <c r="AX93" s="7"/>
       <c r="AY93" s="7"/>
       <c r="AZ93" s="7"/>
-      <c r="BA93" s="7"/>
-      <c r="BB93" s="7"/>
+      <c r="BA93" s="16"/>
+      <c r="BB93" s="16"/>
       <c r="BC93" s="7"/>
-      <c r="BD93" s="16"/>
-      <c r="BE93" s="16"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7"/>
       <c r="BF93" s="7"/>
       <c r="BG93" s="7"/>
       <c r="BH93" s="7"/>
@@ -7478,11 +7354,11 @@
       <c r="AX94" s="7"/>
       <c r="AY94" s="7"/>
       <c r="AZ94" s="7"/>
-      <c r="BA94" s="7"/>
-      <c r="BB94" s="7"/>
+      <c r="BA94" s="16"/>
+      <c r="BB94" s="16"/>
       <c r="BC94" s="7"/>
-      <c r="BD94" s="16"/>
-      <c r="BE94" s="16"/>
+      <c r="BD94" s="7"/>
+      <c r="BE94" s="7"/>
       <c r="BF94" s="7"/>
       <c r="BG94" s="7"/>
       <c r="BH94" s="7"/>
@@ -7540,11 +7416,11 @@
       <c r="AX95" s="7"/>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="7"/>
-      <c r="BA95" s="7"/>
-      <c r="BB95" s="7"/>
+      <c r="BA95" s="16"/>
+      <c r="BB95" s="16"/>
       <c r="BC95" s="7"/>
-      <c r="BD95" s="16"/>
-      <c r="BE95" s="16"/>
+      <c r="BD95" s="7"/>
+      <c r="BE95" s="7"/>
       <c r="BF95" s="7"/>
       <c r="BG95" s="7"/>
       <c r="BH95" s="7"/>
@@ -7602,11 +7478,11 @@
       <c r="AX96" s="7"/>
       <c r="AY96" s="7"/>
       <c r="AZ96" s="7"/>
-      <c r="BA96" s="7"/>
-      <c r="BB96" s="7"/>
+      <c r="BA96" s="16"/>
+      <c r="BB96" s="16"/>
       <c r="BC96" s="7"/>
-      <c r="BD96" s="16"/>
-      <c r="BE96" s="16"/>
+      <c r="BD96" s="7"/>
+      <c r="BE96" s="7"/>
       <c r="BF96" s="7"/>
       <c r="BG96" s="7"/>
       <c r="BH96" s="7"/>
@@ -7664,11 +7540,11 @@
       <c r="AX97" s="7"/>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="7"/>
-      <c r="BA97" s="7"/>
-      <c r="BB97" s="7"/>
+      <c r="BA97" s="16"/>
+      <c r="BB97" s="16"/>
       <c r="BC97" s="7"/>
-      <c r="BD97" s="16"/>
-      <c r="BE97" s="16"/>
+      <c r="BD97" s="7"/>
+      <c r="BE97" s="7"/>
       <c r="BF97" s="7"/>
       <c r="BG97" s="7"/>
       <c r="BH97" s="7"/>
@@ -7726,11 +7602,11 @@
       <c r="AX98" s="7"/>
       <c r="AY98" s="7"/>
       <c r="AZ98" s="7"/>
-      <c r="BA98" s="7"/>
-      <c r="BB98" s="7"/>
+      <c r="BA98" s="16"/>
+      <c r="BB98" s="16"/>
       <c r="BC98" s="7"/>
-      <c r="BD98" s="16"/>
-      <c r="BE98" s="16"/>
+      <c r="BD98" s="7"/>
+      <c r="BE98" s="7"/>
       <c r="BF98" s="7"/>
       <c r="BG98" s="7"/>
       <c r="BH98" s="7"/>
@@ -7788,11 +7664,11 @@
       <c r="AX99" s="7"/>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="7"/>
-      <c r="BA99" s="7"/>
-      <c r="BB99" s="7"/>
+      <c r="BA99" s="16"/>
+      <c r="BB99" s="16"/>
       <c r="BC99" s="7"/>
-      <c r="BD99" s="16"/>
-      <c r="BE99" s="16"/>
+      <c r="BD99" s="7"/>
+      <c r="BE99" s="7"/>
       <c r="BF99" s="7"/>
       <c r="BG99" s="7"/>
       <c r="BH99" s="7"/>
@@ -7850,11 +7726,11 @@
       <c r="AX100" s="7"/>
       <c r="AY100" s="7"/>
       <c r="AZ100" s="7"/>
-      <c r="BA100" s="7"/>
-      <c r="BB100" s="7"/>
+      <c r="BA100" s="16"/>
+      <c r="BB100" s="16"/>
       <c r="BC100" s="7"/>
-      <c r="BD100" s="16"/>
-      <c r="BE100" s="16"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7"/>
       <c r="BF100" s="7"/>
       <c r="BG100" s="7"/>
       <c r="BH100" s="7"/>
@@ -7912,11 +7788,11 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="7"/>
-      <c r="BA101" s="7"/>
-      <c r="BB101" s="7"/>
+      <c r="BA101" s="16"/>
+      <c r="BB101" s="16"/>
       <c r="BC101" s="7"/>
-      <c r="BD101" s="16"/>
-      <c r="BE101" s="16"/>
+      <c r="BD101" s="7"/>
+      <c r="BE101" s="7"/>
       <c r="BF101" s="7"/>
       <c r="BG101" s="7"/>
       <c r="BH101" s="7"/>
@@ -7974,11 +7850,11 @@
       <c r="AX102" s="7"/>
       <c r="AY102" s="7"/>
       <c r="AZ102" s="7"/>
-      <c r="BA102" s="7"/>
-      <c r="BB102" s="7"/>
+      <c r="BA102" s="16"/>
+      <c r="BB102" s="16"/>
       <c r="BC102" s="7"/>
-      <c r="BD102" s="16"/>
-      <c r="BE102" s="16"/>
+      <c r="BD102" s="7"/>
+      <c r="BE102" s="7"/>
       <c r="BF102" s="7"/>
       <c r="BG102" s="7"/>
       <c r="BH102" s="7"/>
@@ -8036,11 +7912,11 @@
       <c r="AX103" s="7"/>
       <c r="AY103" s="7"/>
       <c r="AZ103" s="7"/>
-      <c r="BA103" s="7"/>
-      <c r="BB103" s="7"/>
+      <c r="BA103" s="16"/>
+      <c r="BB103" s="16"/>
       <c r="BC103" s="7"/>
-      <c r="BD103" s="16"/>
-      <c r="BE103" s="16"/>
+      <c r="BD103" s="7"/>
+      <c r="BE103" s="7"/>
       <c r="BF103" s="7"/>
       <c r="BG103" s="7"/>
       <c r="BH103" s="7"/>
@@ -8098,11 +7974,11 @@
       <c r="AX104" s="7"/>
       <c r="AY104" s="7"/>
       <c r="AZ104" s="7"/>
-      <c r="BA104" s="7"/>
-      <c r="BB104" s="7"/>
+      <c r="BA104" s="16"/>
+      <c r="BB104" s="16"/>
       <c r="BC104" s="7"/>
-      <c r="BD104" s="16"/>
-      <c r="BE104" s="16"/>
+      <c r="BD104" s="7"/>
+      <c r="BE104" s="7"/>
       <c r="BF104" s="7"/>
       <c r="BG104" s="7"/>
       <c r="BH104" s="7"/>
@@ -8160,11 +8036,11 @@
       <c r="AX105" s="7"/>
       <c r="AY105" s="7"/>
       <c r="AZ105" s="7"/>
-      <c r="BA105" s="7"/>
-      <c r="BB105" s="7"/>
+      <c r="BA105" s="16"/>
+      <c r="BB105" s="16"/>
       <c r="BC105" s="7"/>
-      <c r="BD105" s="16"/>
-      <c r="BE105" s="16"/>
+      <c r="BD105" s="7"/>
+      <c r="BE105" s="7"/>
       <c r="BF105" s="7"/>
       <c r="BG105" s="7"/>
       <c r="BH105" s="7"/>
@@ -8222,11 +8098,11 @@
       <c r="AX106" s="7"/>
       <c r="AY106" s="7"/>
       <c r="AZ106" s="7"/>
-      <c r="BA106" s="7"/>
-      <c r="BB106" s="7"/>
+      <c r="BA106" s="16"/>
+      <c r="BB106" s="16"/>
       <c r="BC106" s="7"/>
-      <c r="BD106" s="16"/>
-      <c r="BE106" s="16"/>
+      <c r="BD106" s="7"/>
+      <c r="BE106" s="7"/>
       <c r="BF106" s="7"/>
       <c r="BG106" s="7"/>
       <c r="BH106" s="7"/>
@@ -8284,11 +8160,11 @@
       <c r="AX107" s="7"/>
       <c r="AY107" s="7"/>
       <c r="AZ107" s="7"/>
-      <c r="BA107" s="7"/>
-      <c r="BB107" s="7"/>
+      <c r="BA107" s="16"/>
+      <c r="BB107" s="16"/>
       <c r="BC107" s="7"/>
-      <c r="BD107" s="16"/>
-      <c r="BE107" s="16"/>
+      <c r="BD107" s="7"/>
+      <c r="BE107" s="7"/>
       <c r="BF107" s="7"/>
       <c r="BG107" s="7"/>
       <c r="BH107" s="7"/>
@@ -8346,11 +8222,11 @@
       <c r="AX108" s="7"/>
       <c r="AY108" s="7"/>
       <c r="AZ108" s="7"/>
-      <c r="BA108" s="7"/>
-      <c r="BB108" s="7"/>
+      <c r="BA108" s="16"/>
+      <c r="BB108" s="16"/>
       <c r="BC108" s="7"/>
-      <c r="BD108" s="16"/>
-      <c r="BE108" s="16"/>
+      <c r="BD108" s="7"/>
+      <c r="BE108" s="7"/>
       <c r="BF108" s="7"/>
       <c r="BG108" s="7"/>
       <c r="BH108" s="7"/>
@@ -8408,11 +8284,11 @@
       <c r="AX109" s="7"/>
       <c r="AY109" s="7"/>
       <c r="AZ109" s="7"/>
-      <c r="BA109" s="7"/>
-      <c r="BB109" s="7"/>
+      <c r="BA109" s="16"/>
+      <c r="BB109" s="16"/>
       <c r="BC109" s="7"/>
-      <c r="BD109" s="16"/>
-      <c r="BE109" s="16"/>
+      <c r="BD109" s="7"/>
+      <c r="BE109" s="7"/>
       <c r="BF109" s="7"/>
       <c r="BG109" s="7"/>
       <c r="BH109" s="7"/>
@@ -8470,11 +8346,11 @@
       <c r="AX110" s="7"/>
       <c r="AY110" s="7"/>
       <c r="AZ110" s="7"/>
-      <c r="BA110" s="7"/>
-      <c r="BB110" s="7"/>
+      <c r="BA110" s="16"/>
+      <c r="BB110" s="16"/>
       <c r="BC110" s="7"/>
-      <c r="BD110" s="16"/>
-      <c r="BE110" s="16"/>
+      <c r="BD110" s="7"/>
+      <c r="BE110" s="7"/>
       <c r="BF110" s="7"/>
       <c r="BG110" s="7"/>
       <c r="BH110" s="7"/>
@@ -8532,11 +8408,11 @@
       <c r="AX111" s="7"/>
       <c r="AY111" s="7"/>
       <c r="AZ111" s="7"/>
-      <c r="BA111" s="7"/>
-      <c r="BB111" s="7"/>
+      <c r="BA111" s="16"/>
+      <c r="BB111" s="16"/>
       <c r="BC111" s="7"/>
-      <c r="BD111" s="16"/>
-      <c r="BE111" s="16"/>
+      <c r="BD111" s="7"/>
+      <c r="BE111" s="7"/>
       <c r="BF111" s="7"/>
       <c r="BG111" s="7"/>
       <c r="BH111" s="7"/>
@@ -8594,11 +8470,11 @@
       <c r="AX112" s="7"/>
       <c r="AY112" s="7"/>
       <c r="AZ112" s="7"/>
-      <c r="BA112" s="7"/>
-      <c r="BB112" s="7"/>
+      <c r="BA112" s="16"/>
+      <c r="BB112" s="16"/>
       <c r="BC112" s="7"/>
-      <c r="BD112" s="16"/>
-      <c r="BE112" s="16"/>
+      <c r="BD112" s="7"/>
+      <c r="BE112" s="7"/>
       <c r="BF112" s="7"/>
       <c r="BG112" s="7"/>
       <c r="BH112" s="7"/>
@@ -8656,11 +8532,11 @@
       <c r="AX113" s="7"/>
       <c r="AY113" s="7"/>
       <c r="AZ113" s="7"/>
-      <c r="BA113" s="7"/>
-      <c r="BB113" s="7"/>
+      <c r="BA113" s="16"/>
+      <c r="BB113" s="16"/>
       <c r="BC113" s="7"/>
-      <c r="BD113" s="16"/>
-      <c r="BE113" s="16"/>
+      <c r="BD113" s="7"/>
+      <c r="BE113" s="7"/>
       <c r="BF113" s="7"/>
       <c r="BG113" s="7"/>
       <c r="BH113" s="7"/>
@@ -8718,11 +8594,11 @@
       <c r="AX114" s="7"/>
       <c r="AY114" s="7"/>
       <c r="AZ114" s="7"/>
-      <c r="BA114" s="7"/>
-      <c r="BB114" s="7"/>
+      <c r="BA114" s="16"/>
+      <c r="BB114" s="16"/>
       <c r="BC114" s="7"/>
-      <c r="BD114" s="16"/>
-      <c r="BE114" s="16"/>
+      <c r="BD114" s="7"/>
+      <c r="BE114" s="7"/>
       <c r="BF114" s="7"/>
       <c r="BG114" s="7"/>
       <c r="BH114" s="7"/>
@@ -8780,11 +8656,11 @@
       <c r="AX115" s="7"/>
       <c r="AY115" s="7"/>
       <c r="AZ115" s="7"/>
-      <c r="BA115" s="7"/>
-      <c r="BB115" s="7"/>
+      <c r="BA115" s="16"/>
+      <c r="BB115" s="16"/>
       <c r="BC115" s="7"/>
-      <c r="BD115" s="16"/>
-      <c r="BE115" s="16"/>
+      <c r="BD115" s="7"/>
+      <c r="BE115" s="7"/>
       <c r="BF115" s="7"/>
       <c r="BG115" s="7"/>
       <c r="BH115" s="7"/>
@@ -8842,11 +8718,11 @@
       <c r="AX116" s="7"/>
       <c r="AY116" s="7"/>
       <c r="AZ116" s="7"/>
-      <c r="BA116" s="7"/>
-      <c r="BB116" s="7"/>
+      <c r="BA116" s="16"/>
+      <c r="BB116" s="16"/>
       <c r="BC116" s="7"/>
-      <c r="BD116" s="16"/>
-      <c r="BE116" s="16"/>
+      <c r="BD116" s="7"/>
+      <c r="BE116" s="7"/>
       <c r="BF116" s="7"/>
       <c r="BG116" s="7"/>
       <c r="BH116" s="7"/>
@@ -8904,11 +8780,11 @@
       <c r="AX117" s="7"/>
       <c r="AY117" s="7"/>
       <c r="AZ117" s="7"/>
-      <c r="BA117" s="7"/>
-      <c r="BB117" s="7"/>
+      <c r="BA117" s="16"/>
+      <c r="BB117" s="16"/>
       <c r="BC117" s="7"/>
-      <c r="BD117" s="16"/>
-      <c r="BE117" s="16"/>
+      <c r="BD117" s="7"/>
+      <c r="BE117" s="7"/>
       <c r="BF117" s="7"/>
       <c r="BG117" s="7"/>
       <c r="BH117" s="7"/>
@@ -8966,11 +8842,11 @@
       <c r="AX118" s="7"/>
       <c r="AY118" s="7"/>
       <c r="AZ118" s="7"/>
-      <c r="BA118" s="7"/>
-      <c r="BB118" s="7"/>
+      <c r="BA118" s="16"/>
+      <c r="BB118" s="16"/>
       <c r="BC118" s="7"/>
-      <c r="BD118" s="16"/>
-      <c r="BE118" s="16"/>
+      <c r="BD118" s="7"/>
+      <c r="BE118" s="7"/>
       <c r="BF118" s="7"/>
       <c r="BG118" s="7"/>
       <c r="BH118" s="7"/>
@@ -9028,11 +8904,11 @@
       <c r="AX119" s="7"/>
       <c r="AY119" s="7"/>
       <c r="AZ119" s="7"/>
-      <c r="BA119" s="7"/>
-      <c r="BB119" s="7"/>
+      <c r="BA119" s="16"/>
+      <c r="BB119" s="16"/>
       <c r="BC119" s="7"/>
-      <c r="BD119" s="16"/>
-      <c r="BE119" s="16"/>
+      <c r="BD119" s="7"/>
+      <c r="BE119" s="7"/>
       <c r="BF119" s="7"/>
       <c r="BG119" s="7"/>
       <c r="BH119" s="7"/>
@@ -9090,11 +8966,11 @@
       <c r="AX120" s="7"/>
       <c r="AY120" s="7"/>
       <c r="AZ120" s="7"/>
-      <c r="BA120" s="7"/>
-      <c r="BB120" s="7"/>
+      <c r="BA120" s="16"/>
+      <c r="BB120" s="16"/>
       <c r="BC120" s="7"/>
-      <c r="BD120" s="16"/>
-      <c r="BE120" s="16"/>
+      <c r="BD120" s="7"/>
+      <c r="BE120" s="7"/>
       <c r="BF120" s="7"/>
       <c r="BG120" s="7"/>
       <c r="BH120" s="7"/>
@@ -9152,11 +9028,11 @@
       <c r="AX121" s="7"/>
       <c r="AY121" s="7"/>
       <c r="AZ121" s="7"/>
-      <c r="BA121" s="7"/>
-      <c r="BB121" s="7"/>
+      <c r="BA121" s="16"/>
+      <c r="BB121" s="16"/>
       <c r="BC121" s="7"/>
-      <c r="BD121" s="16"/>
-      <c r="BE121" s="16"/>
+      <c r="BD121" s="7"/>
+      <c r="BE121" s="7"/>
       <c r="BF121" s="7"/>
       <c r="BG121" s="7"/>
       <c r="BH121" s="7"/>
@@ -9214,11 +9090,11 @@
       <c r="AX122" s="7"/>
       <c r="AY122" s="7"/>
       <c r="AZ122" s="7"/>
-      <c r="BA122" s="7"/>
-      <c r="BB122" s="7"/>
+      <c r="BA122" s="16"/>
+      <c r="BB122" s="16"/>
       <c r="BC122" s="7"/>
-      <c r="BD122" s="16"/>
-      <c r="BE122" s="16"/>
+      <c r="BD122" s="7"/>
+      <c r="BE122" s="7"/>
       <c r="BF122" s="7"/>
       <c r="BG122" s="7"/>
       <c r="BH122" s="7"/>
@@ -9276,11 +9152,11 @@
       <c r="AX123" s="7"/>
       <c r="AY123" s="7"/>
       <c r="AZ123" s="7"/>
-      <c r="BA123" s="7"/>
-      <c r="BB123" s="7"/>
+      <c r="BA123" s="16"/>
+      <c r="BB123" s="16"/>
       <c r="BC123" s="7"/>
-      <c r="BD123" s="16"/>
-      <c r="BE123" s="16"/>
+      <c r="BD123" s="7"/>
+      <c r="BE123" s="7"/>
       <c r="BF123" s="7"/>
       <c r="BG123" s="7"/>
       <c r="BH123" s="7"/>
@@ -9338,11 +9214,11 @@
       <c r="AX124" s="7"/>
       <c r="AY124" s="7"/>
       <c r="AZ124" s="7"/>
-      <c r="BA124" s="7"/>
-      <c r="BB124" s="7"/>
+      <c r="BA124" s="16"/>
+      <c r="BB124" s="16"/>
       <c r="BC124" s="7"/>
-      <c r="BD124" s="16"/>
-      <c r="BE124" s="16"/>
+      <c r="BD124" s="7"/>
+      <c r="BE124" s="7"/>
       <c r="BF124" s="7"/>
       <c r="BG124" s="7"/>
       <c r="BH124" s="7"/>
@@ -9400,11 +9276,11 @@
       <c r="AX125" s="7"/>
       <c r="AY125" s="7"/>
       <c r="AZ125" s="7"/>
-      <c r="BA125" s="7"/>
-      <c r="BB125" s="7"/>
+      <c r="BA125" s="16"/>
+      <c r="BB125" s="16"/>
       <c r="BC125" s="7"/>
-      <c r="BD125" s="16"/>
-      <c r="BE125" s="16"/>
+      <c r="BD125" s="7"/>
+      <c r="BE125" s="7"/>
       <c r="BF125" s="7"/>
       <c r="BG125" s="7"/>
       <c r="BH125" s="7"/>
@@ -9462,11 +9338,11 @@
       <c r="AX126" s="7"/>
       <c r="AY126" s="7"/>
       <c r="AZ126" s="7"/>
-      <c r="BA126" s="7"/>
-      <c r="BB126" s="7"/>
+      <c r="BA126" s="16"/>
+      <c r="BB126" s="16"/>
       <c r="BC126" s="7"/>
-      <c r="BD126" s="16"/>
-      <c r="BE126" s="16"/>
+      <c r="BD126" s="7"/>
+      <c r="BE126" s="7"/>
       <c r="BF126" s="7"/>
       <c r="BG126" s="7"/>
       <c r="BH126" s="7"/>
@@ -9524,11 +9400,11 @@
       <c r="AX127" s="7"/>
       <c r="AY127" s="7"/>
       <c r="AZ127" s="7"/>
-      <c r="BA127" s="7"/>
-      <c r="BB127" s="7"/>
+      <c r="BA127" s="16"/>
+      <c r="BB127" s="16"/>
       <c r="BC127" s="7"/>
-      <c r="BD127" s="16"/>
-      <c r="BE127" s="16"/>
+      <c r="BD127" s="7"/>
+      <c r="BE127" s="7"/>
       <c r="BF127" s="7"/>
       <c r="BG127" s="7"/>
       <c r="BH127" s="7"/>
@@ -9586,11 +9462,11 @@
       <c r="AX128" s="7"/>
       <c r="AY128" s="7"/>
       <c r="AZ128" s="7"/>
-      <c r="BA128" s="7"/>
-      <c r="BB128" s="7"/>
+      <c r="BA128" s="16"/>
+      <c r="BB128" s="16"/>
       <c r="BC128" s="7"/>
-      <c r="BD128" s="16"/>
-      <c r="BE128" s="16"/>
+      <c r="BD128" s="7"/>
+      <c r="BE128" s="7"/>
       <c r="BF128" s="7"/>
       <c r="BG128" s="7"/>
       <c r="BH128" s="7"/>
@@ -9648,11 +9524,11 @@
       <c r="AX129" s="7"/>
       <c r="AY129" s="7"/>
       <c r="AZ129" s="7"/>
-      <c r="BA129" s="7"/>
-      <c r="BB129" s="7"/>
+      <c r="BA129" s="16"/>
+      <c r="BB129" s="16"/>
       <c r="BC129" s="7"/>
-      <c r="BD129" s="16"/>
-      <c r="BE129" s="16"/>
+      <c r="BD129" s="7"/>
+      <c r="BE129" s="7"/>
       <c r="BF129" s="7"/>
       <c r="BG129" s="7"/>
       <c r="BH129" s="7"/>
@@ -9710,11 +9586,11 @@
       <c r="AX130" s="7"/>
       <c r="AY130" s="7"/>
       <c r="AZ130" s="7"/>
-      <c r="BA130" s="7"/>
-      <c r="BB130" s="7"/>
+      <c r="BA130" s="16"/>
+      <c r="BB130" s="16"/>
       <c r="BC130" s="7"/>
-      <c r="BD130" s="16"/>
-      <c r="BE130" s="16"/>
+      <c r="BD130" s="7"/>
+      <c r="BE130" s="7"/>
       <c r="BF130" s="7"/>
       <c r="BG130" s="7"/>
       <c r="BH130" s="7"/>
@@ -9772,11 +9648,11 @@
       <c r="AX131" s="7"/>
       <c r="AY131" s="7"/>
       <c r="AZ131" s="7"/>
-      <c r="BA131" s="7"/>
-      <c r="BB131" s="7"/>
+      <c r="BA131" s="16"/>
+      <c r="BB131" s="16"/>
       <c r="BC131" s="7"/>
-      <c r="BD131" s="16"/>
-      <c r="BE131" s="16"/>
+      <c r="BD131" s="7"/>
+      <c r="BE131" s="7"/>
       <c r="BF131" s="7"/>
       <c r="BG131" s="7"/>
       <c r="BH131" s="7"/>
@@ -9834,11 +9710,11 @@
       <c r="AX132" s="7"/>
       <c r="AY132" s="7"/>
       <c r="AZ132" s="7"/>
-      <c r="BA132" s="7"/>
-      <c r="BB132" s="7"/>
+      <c r="BA132" s="16"/>
+      <c r="BB132" s="16"/>
       <c r="BC132" s="7"/>
-      <c r="BD132" s="16"/>
-      <c r="BE132" s="16"/>
+      <c r="BD132" s="7"/>
+      <c r="BE132" s="7"/>
       <c r="BF132" s="7"/>
       <c r="BG132" s="7"/>
       <c r="BH132" s="7"/>
@@ -9896,11 +9772,11 @@
       <c r="AX133" s="7"/>
       <c r="AY133" s="7"/>
       <c r="AZ133" s="7"/>
-      <c r="BA133" s="7"/>
-      <c r="BB133" s="7"/>
+      <c r="BA133" s="16"/>
+      <c r="BB133" s="16"/>
       <c r="BC133" s="7"/>
-      <c r="BD133" s="16"/>
-      <c r="BE133" s="16"/>
+      <c r="BD133" s="7"/>
+      <c r="BE133" s="7"/>
       <c r="BF133" s="7"/>
       <c r="BG133" s="7"/>
       <c r="BH133" s="7"/>
@@ -9958,11 +9834,11 @@
       <c r="AX134" s="7"/>
       <c r="AY134" s="7"/>
       <c r="AZ134" s="7"/>
-      <c r="BA134" s="7"/>
-      <c r="BB134" s="7"/>
+      <c r="BA134" s="16"/>
+      <c r="BB134" s="16"/>
       <c r="BC134" s="7"/>
-      <c r="BD134" s="16"/>
-      <c r="BE134" s="16"/>
+      <c r="BD134" s="7"/>
+      <c r="BE134" s="7"/>
       <c r="BF134" s="7"/>
       <c r="BG134" s="7"/>
       <c r="BH134" s="7"/>
@@ -10020,11 +9896,11 @@
       <c r="AX135" s="7"/>
       <c r="AY135" s="7"/>
       <c r="AZ135" s="7"/>
-      <c r="BA135" s="7"/>
-      <c r="BB135" s="7"/>
+      <c r="BA135" s="16"/>
+      <c r="BB135" s="16"/>
       <c r="BC135" s="7"/>
-      <c r="BD135" s="16"/>
-      <c r="BE135" s="16"/>
+      <c r="BD135" s="7"/>
+      <c r="BE135" s="7"/>
       <c r="BF135" s="7"/>
       <c r="BG135" s="7"/>
       <c r="BH135" s="7"/>
@@ -10082,11 +9958,11 @@
       <c r="AX136" s="7"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
-      <c r="BA136" s="7"/>
-      <c r="BB136" s="7"/>
+      <c r="BA136" s="16"/>
+      <c r="BB136" s="16"/>
       <c r="BC136" s="7"/>
-      <c r="BD136" s="16"/>
-      <c r="BE136" s="16"/>
+      <c r="BD136" s="7"/>
+      <c r="BE136" s="7"/>
       <c r="BF136" s="7"/>
       <c r="BG136" s="7"/>
       <c r="BH136" s="7"/>
@@ -10144,11 +10020,11 @@
       <c r="AX137" s="7"/>
       <c r="AY137" s="7"/>
       <c r="AZ137" s="7"/>
-      <c r="BA137" s="7"/>
-      <c r="BB137" s="7"/>
+      <c r="BA137" s="16"/>
+      <c r="BB137" s="16"/>
       <c r="BC137" s="7"/>
-      <c r="BD137" s="16"/>
-      <c r="BE137" s="16"/>
+      <c r="BD137" s="7"/>
+      <c r="BE137" s="7"/>
       <c r="BF137" s="7"/>
       <c r="BG137" s="7"/>
       <c r="BH137" s="7"/>
@@ -10206,11 +10082,11 @@
       <c r="AX138" s="7"/>
       <c r="AY138" s="7"/>
       <c r="AZ138" s="7"/>
-      <c r="BA138" s="7"/>
-      <c r="BB138" s="7"/>
+      <c r="BA138" s="16"/>
+      <c r="BB138" s="16"/>
       <c r="BC138" s="7"/>
-      <c r="BD138" s="16"/>
-      <c r="BE138" s="16"/>
+      <c r="BD138" s="7"/>
+      <c r="BE138" s="7"/>
       <c r="BF138" s="7"/>
       <c r="BG138" s="7"/>
       <c r="BH138" s="7"/>
@@ -10268,11 +10144,11 @@
       <c r="AX139" s="7"/>
       <c r="AY139" s="7"/>
       <c r="AZ139" s="7"/>
-      <c r="BA139" s="7"/>
-      <c r="BB139" s="7"/>
+      <c r="BA139" s="16"/>
+      <c r="BB139" s="16"/>
       <c r="BC139" s="7"/>
-      <c r="BD139" s="16"/>
-      <c r="BE139" s="16"/>
+      <c r="BD139" s="7"/>
+      <c r="BE139" s="7"/>
       <c r="BF139" s="7"/>
       <c r="BG139" s="7"/>
       <c r="BH139" s="7"/>
@@ -10330,11 +10206,11 @@
       <c r="AX140" s="7"/>
       <c r="AY140" s="7"/>
       <c r="AZ140" s="7"/>
-      <c r="BA140" s="7"/>
-      <c r="BB140" s="7"/>
+      <c r="BA140" s="16"/>
+      <c r="BB140" s="16"/>
       <c r="BC140" s="7"/>
-      <c r="BD140" s="16"/>
-      <c r="BE140" s="16"/>
+      <c r="BD140" s="7"/>
+      <c r="BE140" s="7"/>
       <c r="BF140" s="7"/>
       <c r="BG140" s="7"/>
       <c r="BH140" s="7"/>
@@ -10392,11 +10268,11 @@
       <c r="AX141" s="7"/>
       <c r="AY141" s="7"/>
       <c r="AZ141" s="7"/>
-      <c r="BA141" s="7"/>
-      <c r="BB141" s="7"/>
+      <c r="BA141" s="16"/>
+      <c r="BB141" s="16"/>
       <c r="BC141" s="7"/>
-      <c r="BD141" s="16"/>
-      <c r="BE141" s="16"/>
+      <c r="BD141" s="7"/>
+      <c r="BE141" s="7"/>
       <c r="BF141" s="7"/>
       <c r="BG141" s="7"/>
       <c r="BH141" s="7"/>
@@ -10454,11 +10330,11 @@
       <c r="AX142" s="7"/>
       <c r="AY142" s="7"/>
       <c r="AZ142" s="7"/>
-      <c r="BA142" s="7"/>
-      <c r="BB142" s="7"/>
+      <c r="BA142" s="16"/>
+      <c r="BB142" s="16"/>
       <c r="BC142" s="7"/>
-      <c r="BD142" s="16"/>
-      <c r="BE142" s="16"/>
+      <c r="BD142" s="7"/>
+      <c r="BE142" s="7"/>
       <c r="BF142" s="7"/>
       <c r="BG142" s="7"/>
       <c r="BH142" s="7"/>
@@ -10516,11 +10392,11 @@
       <c r="AX143" s="7"/>
       <c r="AY143" s="7"/>
       <c r="AZ143" s="7"/>
-      <c r="BA143" s="7"/>
-      <c r="BB143" s="7"/>
+      <c r="BA143" s="16"/>
+      <c r="BB143" s="16"/>
       <c r="BC143" s="7"/>
-      <c r="BD143" s="16"/>
-      <c r="BE143" s="16"/>
+      <c r="BD143" s="7"/>
+      <c r="BE143" s="7"/>
       <c r="BF143" s="7"/>
       <c r="BG143" s="7"/>
       <c r="BH143" s="7"/>
@@ -10578,11 +10454,11 @@
       <c r="AX144" s="7"/>
       <c r="AY144" s="7"/>
       <c r="AZ144" s="7"/>
-      <c r="BA144" s="7"/>
-      <c r="BB144" s="7"/>
+      <c r="BA144" s="16"/>
+      <c r="BB144" s="16"/>
       <c r="BC144" s="7"/>
-      <c r="BD144" s="16"/>
-      <c r="BE144" s="16"/>
+      <c r="BD144" s="7"/>
+      <c r="BE144" s="7"/>
       <c r="BF144" s="7"/>
       <c r="BG144" s="7"/>
       <c r="BH144" s="7"/>
@@ -10640,11 +10516,11 @@
       <c r="AX145" s="7"/>
       <c r="AY145" s="7"/>
       <c r="AZ145" s="7"/>
-      <c r="BA145" s="7"/>
-      <c r="BB145" s="7"/>
+      <c r="BA145" s="16"/>
+      <c r="BB145" s="16"/>
       <c r="BC145" s="7"/>
-      <c r="BD145" s="16"/>
-      <c r="BE145" s="16"/>
+      <c r="BD145" s="7"/>
+      <c r="BE145" s="7"/>
       <c r="BF145" s="7"/>
       <c r="BG145" s="7"/>
       <c r="BH145" s="7"/>
@@ -10702,11 +10578,11 @@
       <c r="AX146" s="7"/>
       <c r="AY146" s="7"/>
       <c r="AZ146" s="7"/>
-      <c r="BA146" s="7"/>
-      <c r="BB146" s="7"/>
+      <c r="BA146" s="16"/>
+      <c r="BB146" s="16"/>
       <c r="BC146" s="7"/>
-      <c r="BD146" s="16"/>
-      <c r="BE146" s="16"/>
+      <c r="BD146" s="7"/>
+      <c r="BE146" s="7"/>
       <c r="BF146" s="7"/>
       <c r="BG146" s="7"/>
       <c r="BH146" s="7"/>
@@ -10764,11 +10640,11 @@
       <c r="AX147" s="7"/>
       <c r="AY147" s="7"/>
       <c r="AZ147" s="7"/>
-      <c r="BA147" s="7"/>
-      <c r="BB147" s="7"/>
+      <c r="BA147" s="16"/>
+      <c r="BB147" s="16"/>
       <c r="BC147" s="7"/>
-      <c r="BD147" s="16"/>
-      <c r="BE147" s="16"/>
+      <c r="BD147" s="7"/>
+      <c r="BE147" s="7"/>
       <c r="BF147" s="7"/>
       <c r="BG147" s="7"/>
       <c r="BH147" s="7"/>
@@ -10826,11 +10702,11 @@
       <c r="AX148" s="7"/>
       <c r="AY148" s="7"/>
       <c r="AZ148" s="7"/>
-      <c r="BA148" s="7"/>
-      <c r="BB148" s="7"/>
+      <c r="BA148" s="16"/>
+      <c r="BB148" s="16"/>
       <c r="BC148" s="7"/>
-      <c r="BD148" s="16"/>
-      <c r="BE148" s="16"/>
+      <c r="BD148" s="7"/>
+      <c r="BE148" s="7"/>
       <c r="BF148" s="7"/>
       <c r="BG148" s="7"/>
       <c r="BH148" s="7"/>
@@ -10888,11 +10764,11 @@
       <c r="AX149" s="7"/>
       <c r="AY149" s="7"/>
       <c r="AZ149" s="7"/>
-      <c r="BA149" s="7"/>
-      <c r="BB149" s="7"/>
+      <c r="BA149" s="16"/>
+      <c r="BB149" s="16"/>
       <c r="BC149" s="7"/>
-      <c r="BD149" s="16"/>
-      <c r="BE149" s="16"/>
+      <c r="BD149" s="7"/>
+      <c r="BE149" s="7"/>
       <c r="BF149" s="7"/>
       <c r="BG149" s="7"/>
       <c r="BH149" s="7"/>
@@ -10950,11 +10826,11 @@
       <c r="AX150" s="7"/>
       <c r="AY150" s="7"/>
       <c r="AZ150" s="7"/>
-      <c r="BA150" s="7"/>
-      <c r="BB150" s="7"/>
+      <c r="BA150" s="16"/>
+      <c r="BB150" s="16"/>
       <c r="BC150" s="7"/>
-      <c r="BD150" s="16"/>
-      <c r="BE150" s="16"/>
+      <c r="BD150" s="7"/>
+      <c r="BE150" s="7"/>
       <c r="BF150" s="7"/>
       <c r="BG150" s="7"/>
       <c r="BH150" s="7"/>
@@ -11012,11 +10888,11 @@
       <c r="AX151" s="7"/>
       <c r="AY151" s="7"/>
       <c r="AZ151" s="7"/>
-      <c r="BA151" s="7"/>
-      <c r="BB151" s="7"/>
+      <c r="BA151" s="16"/>
+      <c r="BB151" s="16"/>
       <c r="BC151" s="7"/>
-      <c r="BD151" s="16"/>
-      <c r="BE151" s="16"/>
+      <c r="BD151" s="7"/>
+      <c r="BE151" s="7"/>
       <c r="BF151" s="7"/>
       <c r="BG151" s="7"/>
       <c r="BH151" s="7"/>
@@ -11074,11 +10950,11 @@
       <c r="AX152" s="7"/>
       <c r="AY152" s="7"/>
       <c r="AZ152" s="7"/>
-      <c r="BA152" s="7"/>
-      <c r="BB152" s="7"/>
+      <c r="BA152" s="16"/>
+      <c r="BB152" s="16"/>
       <c r="BC152" s="7"/>
-      <c r="BD152" s="16"/>
-      <c r="BE152" s="16"/>
+      <c r="BD152" s="7"/>
+      <c r="BE152" s="7"/>
       <c r="BF152" s="7"/>
       <c r="BG152" s="7"/>
       <c r="BH152" s="7"/>
@@ -11136,11 +11012,11 @@
       <c r="AX153" s="7"/>
       <c r="AY153" s="7"/>
       <c r="AZ153" s="7"/>
-      <c r="BA153" s="7"/>
-      <c r="BB153" s="7"/>
+      <c r="BA153" s="16"/>
+      <c r="BB153" s="16"/>
       <c r="BC153" s="7"/>
-      <c r="BD153" s="16"/>
-      <c r="BE153" s="16"/>
+      <c r="BD153" s="7"/>
+      <c r="BE153" s="7"/>
       <c r="BF153" s="7"/>
       <c r="BG153" s="7"/>
       <c r="BH153" s="7"/>
@@ -11198,11 +11074,11 @@
       <c r="AX154" s="7"/>
       <c r="AY154" s="7"/>
       <c r="AZ154" s="7"/>
-      <c r="BA154" s="7"/>
-      <c r="BB154" s="7"/>
+      <c r="BA154" s="16"/>
+      <c r="BB154" s="16"/>
       <c r="BC154" s="7"/>
-      <c r="BD154" s="16"/>
-      <c r="BE154" s="16"/>
+      <c r="BD154" s="7"/>
+      <c r="BE154" s="7"/>
       <c r="BF154" s="7"/>
       <c r="BG154" s="7"/>
       <c r="BH154" s="7"/>
@@ -11260,11 +11136,11 @@
       <c r="AX155" s="7"/>
       <c r="AY155" s="7"/>
       <c r="AZ155" s="7"/>
-      <c r="BA155" s="7"/>
-      <c r="BB155" s="7"/>
+      <c r="BA155" s="16"/>
+      <c r="BB155" s="16"/>
       <c r="BC155" s="7"/>
-      <c r="BD155" s="16"/>
-      <c r="BE155" s="16"/>
+      <c r="BD155" s="7"/>
+      <c r="BE155" s="7"/>
       <c r="BF155" s="7"/>
       <c r="BG155" s="7"/>
       <c r="BH155" s="7"/>
@@ -11322,11 +11198,11 @@
       <c r="AX156" s="7"/>
       <c r="AY156" s="7"/>
       <c r="AZ156" s="7"/>
-      <c r="BA156" s="7"/>
-      <c r="BB156" s="7"/>
+      <c r="BA156" s="16"/>
+      <c r="BB156" s="16"/>
       <c r="BC156" s="7"/>
-      <c r="BD156" s="16"/>
-      <c r="BE156" s="16"/>
+      <c r="BD156" s="7"/>
+      <c r="BE156" s="7"/>
       <c r="BF156" s="7"/>
       <c r="BG156" s="7"/>
       <c r="BH156" s="7"/>
@@ -11384,11 +11260,11 @@
       <c r="AX157" s="7"/>
       <c r="AY157" s="7"/>
       <c r="AZ157" s="7"/>
-      <c r="BA157" s="7"/>
-      <c r="BB157" s="7"/>
+      <c r="BA157" s="16"/>
+      <c r="BB157" s="16"/>
       <c r="BC157" s="7"/>
-      <c r="BD157" s="16"/>
-      <c r="BE157" s="16"/>
+      <c r="BD157" s="7"/>
+      <c r="BE157" s="7"/>
       <c r="BF157" s="7"/>
       <c r="BG157" s="7"/>
       <c r="BH157" s="7"/>
@@ -11446,11 +11322,11 @@
       <c r="AX158" s="7"/>
       <c r="AY158" s="7"/>
       <c r="AZ158" s="7"/>
-      <c r="BA158" s="7"/>
-      <c r="BB158" s="7"/>
+      <c r="BA158" s="16"/>
+      <c r="BB158" s="16"/>
       <c r="BC158" s="7"/>
-      <c r="BD158" s="16"/>
-      <c r="BE158" s="16"/>
+      <c r="BD158" s="7"/>
+      <c r="BE158" s="7"/>
       <c r="BF158" s="7"/>
       <c r="BG158" s="7"/>
       <c r="BH158" s="7"/>
@@ -11508,11 +11384,11 @@
       <c r="AX159" s="7"/>
       <c r="AY159" s="7"/>
       <c r="AZ159" s="7"/>
-      <c r="BA159" s="7"/>
-      <c r="BB159" s="7"/>
+      <c r="BA159" s="16"/>
+      <c r="BB159" s="16"/>
       <c r="BC159" s="7"/>
-      <c r="BD159" s="16"/>
-      <c r="BE159" s="16"/>
+      <c r="BD159" s="7"/>
+      <c r="BE159" s="7"/>
       <c r="BF159" s="7"/>
       <c r="BG159" s="7"/>
       <c r="BH159" s="7"/>
@@ -11570,11 +11446,11 @@
       <c r="AX160" s="7"/>
       <c r="AY160" s="7"/>
       <c r="AZ160" s="7"/>
-      <c r="BA160" s="7"/>
-      <c r="BB160" s="7"/>
+      <c r="BA160" s="16"/>
+      <c r="BB160" s="16"/>
       <c r="BC160" s="7"/>
-      <c r="BD160" s="16"/>
-      <c r="BE160" s="16"/>
+      <c r="BD160" s="7"/>
+      <c r="BE160" s="7"/>
       <c r="BF160" s="7"/>
       <c r="BG160" s="7"/>
       <c r="BH160" s="7"/>
@@ -11632,11 +11508,11 @@
       <c r="AX161" s="7"/>
       <c r="AY161" s="7"/>
       <c r="AZ161" s="7"/>
-      <c r="BA161" s="7"/>
-      <c r="BB161" s="7"/>
+      <c r="BA161" s="16"/>
+      <c r="BB161" s="16"/>
       <c r="BC161" s="7"/>
-      <c r="BD161" s="16"/>
-      <c r="BE161" s="16"/>
+      <c r="BD161" s="7"/>
+      <c r="BE161" s="7"/>
       <c r="BF161" s="7"/>
       <c r="BG161" s="7"/>
       <c r="BH161" s="7"/>
@@ -11694,11 +11570,11 @@
       <c r="AX162" s="7"/>
       <c r="AY162" s="7"/>
       <c r="AZ162" s="7"/>
-      <c r="BA162" s="7"/>
-      <c r="BB162" s="7"/>
+      <c r="BA162" s="16"/>
+      <c r="BB162" s="16"/>
       <c r="BC162" s="7"/>
-      <c r="BD162" s="16"/>
-      <c r="BE162" s="16"/>
+      <c r="BD162" s="7"/>
+      <c r="BE162" s="7"/>
       <c r="BF162" s="7"/>
       <c r="BG162" s="7"/>
       <c r="BH162" s="7"/>
@@ -11756,11 +11632,11 @@
       <c r="AX163" s="7"/>
       <c r="AY163" s="7"/>
       <c r="AZ163" s="7"/>
-      <c r="BA163" s="7"/>
-      <c r="BB163" s="7"/>
+      <c r="BA163" s="16"/>
+      <c r="BB163" s="16"/>
       <c r="BC163" s="7"/>
-      <c r="BD163" s="16"/>
-      <c r="BE163" s="16"/>
+      <c r="BD163" s="7"/>
+      <c r="BE163" s="7"/>
       <c r="BF163" s="7"/>
       <c r="BG163" s="7"/>
       <c r="BH163" s="7"/>
@@ -11818,11 +11694,11 @@
       <c r="AX164" s="7"/>
       <c r="AY164" s="7"/>
       <c r="AZ164" s="7"/>
-      <c r="BA164" s="7"/>
-      <c r="BB164" s="7"/>
+      <c r="BA164" s="16"/>
+      <c r="BB164" s="16"/>
       <c r="BC164" s="7"/>
-      <c r="BD164" s="16"/>
-      <c r="BE164" s="16"/>
+      <c r="BD164" s="7"/>
+      <c r="BE164" s="7"/>
       <c r="BF164" s="7"/>
       <c r="BG164" s="7"/>
       <c r="BH164" s="7"/>
@@ -11880,11 +11756,11 @@
       <c r="AX165" s="7"/>
       <c r="AY165" s="7"/>
       <c r="AZ165" s="7"/>
-      <c r="BA165" s="7"/>
-      <c r="BB165" s="7"/>
+      <c r="BA165" s="16"/>
+      <c r="BB165" s="16"/>
       <c r="BC165" s="7"/>
-      <c r="BD165" s="16"/>
-      <c r="BE165" s="16"/>
+      <c r="BD165" s="7"/>
+      <c r="BE165" s="7"/>
       <c r="BF165" s="7"/>
       <c r="BG165" s="7"/>
       <c r="BH165" s="7"/>
@@ -11942,11 +11818,11 @@
       <c r="AX166" s="7"/>
       <c r="AY166" s="7"/>
       <c r="AZ166" s="7"/>
-      <c r="BA166" s="7"/>
-      <c r="BB166" s="7"/>
+      <c r="BA166" s="16"/>
+      <c r="BB166" s="16"/>
       <c r="BC166" s="7"/>
-      <c r="BD166" s="16"/>
-      <c r="BE166" s="16"/>
+      <c r="BD166" s="7"/>
+      <c r="BE166" s="7"/>
       <c r="BF166" s="7"/>
       <c r="BG166" s="7"/>
       <c r="BH166" s="7"/>
@@ -12004,11 +11880,11 @@
       <c r="AX167" s="7"/>
       <c r="AY167" s="7"/>
       <c r="AZ167" s="7"/>
-      <c r="BA167" s="7"/>
-      <c r="BB167" s="7"/>
+      <c r="BA167" s="16"/>
+      <c r="BB167" s="16"/>
       <c r="BC167" s="7"/>
-      <c r="BD167" s="16"/>
-      <c r="BE167" s="16"/>
+      <c r="BD167" s="7"/>
+      <c r="BE167" s="7"/>
       <c r="BF167" s="7"/>
       <c r="BG167" s="7"/>
       <c r="BH167" s="7"/>
@@ -12066,11 +11942,11 @@
       <c r="AX168" s="7"/>
       <c r="AY168" s="7"/>
       <c r="AZ168" s="7"/>
-      <c r="BA168" s="7"/>
-      <c r="BB168" s="7"/>
+      <c r="BA168" s="16"/>
+      <c r="BB168" s="16"/>
       <c r="BC168" s="7"/>
-      <c r="BD168" s="16"/>
-      <c r="BE168" s="16"/>
+      <c r="BD168" s="7"/>
+      <c r="BE168" s="7"/>
       <c r="BF168" s="7"/>
       <c r="BG168" s="7"/>
       <c r="BH168" s="7"/>
@@ -12128,11 +12004,11 @@
       <c r="AX169" s="7"/>
       <c r="AY169" s="7"/>
       <c r="AZ169" s="7"/>
-      <c r="BA169" s="7"/>
-      <c r="BB169" s="7"/>
+      <c r="BA169" s="16"/>
+      <c r="BB169" s="16"/>
       <c r="BC169" s="7"/>
-      <c r="BD169" s="16"/>
-      <c r="BE169" s="16"/>
+      <c r="BD169" s="7"/>
+      <c r="BE169" s="7"/>
       <c r="BF169" s="7"/>
       <c r="BG169" s="7"/>
       <c r="BH169" s="7"/>
@@ -12190,11 +12066,11 @@
       <c r="AX170" s="7"/>
       <c r="AY170" s="7"/>
       <c r="AZ170" s="7"/>
-      <c r="BA170" s="7"/>
-      <c r="BB170" s="7"/>
+      <c r="BA170" s="16"/>
+      <c r="BB170" s="16"/>
       <c r="BC170" s="7"/>
-      <c r="BD170" s="16"/>
-      <c r="BE170" s="16"/>
+      <c r="BD170" s="7"/>
+      <c r="BE170" s="7"/>
       <c r="BF170" s="7"/>
       <c r="BG170" s="7"/>
       <c r="BH170" s="7"/>
@@ -12252,11 +12128,11 @@
       <c r="AX171" s="7"/>
       <c r="AY171" s="7"/>
       <c r="AZ171" s="7"/>
-      <c r="BA171" s="7"/>
-      <c r="BB171" s="7"/>
+      <c r="BA171" s="16"/>
+      <c r="BB171" s="16"/>
       <c r="BC171" s="7"/>
-      <c r="BD171" s="16"/>
-      <c r="BE171" s="16"/>
+      <c r="BD171" s="7"/>
+      <c r="BE171" s="7"/>
       <c r="BF171" s="7"/>
       <c r="BG171" s="7"/>
       <c r="BH171" s="7"/>
@@ -12314,11 +12190,11 @@
       <c r="AX172" s="7"/>
       <c r="AY172" s="7"/>
       <c r="AZ172" s="7"/>
-      <c r="BA172" s="7"/>
-      <c r="BB172" s="7"/>
+      <c r="BA172" s="16"/>
+      <c r="BB172" s="16"/>
       <c r="BC172" s="7"/>
-      <c r="BD172" s="16"/>
-      <c r="BE172" s="16"/>
+      <c r="BD172" s="7"/>
+      <c r="BE172" s="7"/>
       <c r="BF172" s="7"/>
       <c r="BG172" s="7"/>
       <c r="BH172" s="7"/>
@@ -12376,11 +12252,11 @@
       <c r="AX173" s="7"/>
       <c r="AY173" s="7"/>
       <c r="AZ173" s="7"/>
-      <c r="BA173" s="7"/>
-      <c r="BB173" s="7"/>
+      <c r="BA173" s="16"/>
+      <c r="BB173" s="16"/>
       <c r="BC173" s="7"/>
-      <c r="BD173" s="16"/>
-      <c r="BE173" s="16"/>
+      <c r="BD173" s="7"/>
+      <c r="BE173" s="7"/>
       <c r="BF173" s="7"/>
       <c r="BG173" s="7"/>
       <c r="BH173" s="7"/>
@@ -12438,11 +12314,11 @@
       <c r="AX174" s="7"/>
       <c r="AY174" s="7"/>
       <c r="AZ174" s="7"/>
-      <c r="BA174" s="7"/>
-      <c r="BB174" s="7"/>
+      <c r="BA174" s="16"/>
+      <c r="BB174" s="16"/>
       <c r="BC174" s="7"/>
-      <c r="BD174" s="16"/>
-      <c r="BE174" s="16"/>
+      <c r="BD174" s="7"/>
+      <c r="BE174" s="7"/>
       <c r="BF174" s="7"/>
       <c r="BG174" s="7"/>
       <c r="BH174" s="7"/>
@@ -12500,11 +12376,11 @@
       <c r="AX175" s="7"/>
       <c r="AY175" s="7"/>
       <c r="AZ175" s="7"/>
-      <c r="BA175" s="7"/>
-      <c r="BB175" s="7"/>
+      <c r="BA175" s="16"/>
+      <c r="BB175" s="16"/>
       <c r="BC175" s="7"/>
-      <c r="BD175" s="16"/>
-      <c r="BE175" s="16"/>
+      <c r="BD175" s="7"/>
+      <c r="BE175" s="7"/>
       <c r="BF175" s="7"/>
       <c r="BG175" s="7"/>
       <c r="BH175" s="7"/>
@@ -12562,11 +12438,11 @@
       <c r="AX176" s="7"/>
       <c r="AY176" s="7"/>
       <c r="AZ176" s="7"/>
-      <c r="BA176" s="7"/>
-      <c r="BB176" s="7"/>
+      <c r="BA176" s="16"/>
+      <c r="BB176" s="16"/>
       <c r="BC176" s="7"/>
-      <c r="BD176" s="16"/>
-      <c r="BE176" s="16"/>
+      <c r="BD176" s="7"/>
+      <c r="BE176" s="7"/>
       <c r="BF176" s="7"/>
       <c r="BG176" s="7"/>
       <c r="BH176" s="7"/>
@@ -12624,11 +12500,11 @@
       <c r="AX177" s="7"/>
       <c r="AY177" s="7"/>
       <c r="AZ177" s="7"/>
-      <c r="BA177" s="7"/>
-      <c r="BB177" s="7"/>
+      <c r="BA177" s="16"/>
+      <c r="BB177" s="16"/>
       <c r="BC177" s="7"/>
-      <c r="BD177" s="16"/>
-      <c r="BE177" s="16"/>
+      <c r="BD177" s="7"/>
+      <c r="BE177" s="7"/>
       <c r="BF177" s="7"/>
       <c r="BG177" s="7"/>
       <c r="BH177" s="7"/>
@@ -12686,11 +12562,11 @@
       <c r="AX178" s="7"/>
       <c r="AY178" s="7"/>
       <c r="AZ178" s="7"/>
-      <c r="BA178" s="7"/>
-      <c r="BB178" s="7"/>
+      <c r="BA178" s="16"/>
+      <c r="BB178" s="16"/>
       <c r="BC178" s="7"/>
-      <c r="BD178" s="16"/>
-      <c r="BE178" s="16"/>
+      <c r="BD178" s="7"/>
+      <c r="BE178" s="7"/>
       <c r="BF178" s="7"/>
       <c r="BG178" s="7"/>
       <c r="BH178" s="7"/>
@@ -12748,11 +12624,11 @@
       <c r="AX179" s="7"/>
       <c r="AY179" s="7"/>
       <c r="AZ179" s="7"/>
-      <c r="BA179" s="7"/>
-      <c r="BB179" s="7"/>
+      <c r="BA179" s="16"/>
+      <c r="BB179" s="16"/>
       <c r="BC179" s="7"/>
-      <c r="BD179" s="16"/>
-      <c r="BE179" s="16"/>
+      <c r="BD179" s="7"/>
+      <c r="BE179" s="7"/>
       <c r="BF179" s="7"/>
       <c r="BG179" s="7"/>
       <c r="BH179" s="7"/>
@@ -12810,11 +12686,11 @@
       <c r="AX180" s="7"/>
       <c r="AY180" s="7"/>
       <c r="AZ180" s="7"/>
-      <c r="BA180" s="7"/>
-      <c r="BB180" s="7"/>
+      <c r="BA180" s="16"/>
+      <c r="BB180" s="16"/>
       <c r="BC180" s="7"/>
-      <c r="BD180" s="16"/>
-      <c r="BE180" s="16"/>
+      <c r="BD180" s="7"/>
+      <c r="BE180" s="7"/>
       <c r="BF180" s="7"/>
       <c r="BG180" s="7"/>
       <c r="BH180" s="7"/>
@@ -12872,11 +12748,11 @@
       <c r="AX181" s="7"/>
       <c r="AY181" s="7"/>
       <c r="AZ181" s="7"/>
-      <c r="BA181" s="7"/>
-      <c r="BB181" s="7"/>
+      <c r="BA181" s="16"/>
+      <c r="BB181" s="16"/>
       <c r="BC181" s="7"/>
-      <c r="BD181" s="16"/>
-      <c r="BE181" s="16"/>
+      <c r="BD181" s="7"/>
+      <c r="BE181" s="7"/>
       <c r="BF181" s="7"/>
       <c r="BG181" s="7"/>
       <c r="BH181" s="7"/>
@@ -12934,11 +12810,11 @@
       <c r="AX182" s="7"/>
       <c r="AY182" s="7"/>
       <c r="AZ182" s="7"/>
-      <c r="BA182" s="7"/>
-      <c r="BB182" s="7"/>
+      <c r="BA182" s="16"/>
+      <c r="BB182" s="16"/>
       <c r="BC182" s="7"/>
-      <c r="BD182" s="16"/>
-      <c r="BE182" s="16"/>
+      <c r="BD182" s="7"/>
+      <c r="BE182" s="7"/>
       <c r="BF182" s="7"/>
       <c r="BG182" s="7"/>
       <c r="BH182" s="7"/>
@@ -12996,11 +12872,11 @@
       <c r="AX183" s="7"/>
       <c r="AY183" s="7"/>
       <c r="AZ183" s="7"/>
-      <c r="BA183" s="7"/>
-      <c r="BB183" s="7"/>
+      <c r="BA183" s="16"/>
+      <c r="BB183" s="16"/>
       <c r="BC183" s="7"/>
-      <c r="BD183" s="16"/>
-      <c r="BE183" s="16"/>
+      <c r="BD183" s="7"/>
+      <c r="BE183" s="7"/>
       <c r="BF183" s="7"/>
       <c r="BG183" s="7"/>
       <c r="BH183" s="7"/>
@@ -13058,11 +12934,11 @@
       <c r="AX184" s="7"/>
       <c r="AY184" s="7"/>
       <c r="AZ184" s="7"/>
-      <c r="BA184" s="7"/>
-      <c r="BB184" s="7"/>
+      <c r="BA184" s="16"/>
+      <c r="BB184" s="16"/>
       <c r="BC184" s="7"/>
-      <c r="BD184" s="16"/>
-      <c r="BE184" s="16"/>
+      <c r="BD184" s="7"/>
+      <c r="BE184" s="7"/>
       <c r="BF184" s="7"/>
       <c r="BG184" s="7"/>
       <c r="BH184" s="7"/>
@@ -13120,11 +12996,11 @@
       <c r="AX185" s="7"/>
       <c r="AY185" s="7"/>
       <c r="AZ185" s="7"/>
-      <c r="BA185" s="7"/>
-      <c r="BB185" s="7"/>
+      <c r="BA185" s="16"/>
+      <c r="BB185" s="16"/>
       <c r="BC185" s="7"/>
-      <c r="BD185" s="16"/>
-      <c r="BE185" s="16"/>
+      <c r="BD185" s="7"/>
+      <c r="BE185" s="7"/>
       <c r="BF185" s="7"/>
       <c r="BG185" s="7"/>
       <c r="BH185" s="7"/>
@@ -13182,11 +13058,11 @@
       <c r="AX186" s="7"/>
       <c r="AY186" s="7"/>
       <c r="AZ186" s="7"/>
-      <c r="BA186" s="7"/>
-      <c r="BB186" s="7"/>
+      <c r="BA186" s="16"/>
+      <c r="BB186" s="16"/>
       <c r="BC186" s="7"/>
-      <c r="BD186" s="16"/>
-      <c r="BE186" s="16"/>
+      <c r="BD186" s="7"/>
+      <c r="BE186" s="7"/>
       <c r="BF186" s="7"/>
       <c r="BG186" s="7"/>
       <c r="BH186" s="7"/>
@@ -13244,11 +13120,11 @@
       <c r="AX187" s="7"/>
       <c r="AY187" s="7"/>
       <c r="AZ187" s="7"/>
-      <c r="BA187" s="7"/>
-      <c r="BB187" s="7"/>
+      <c r="BA187" s="16"/>
+      <c r="BB187" s="16"/>
       <c r="BC187" s="7"/>
-      <c r="BD187" s="16"/>
-      <c r="BE187" s="16"/>
+      <c r="BD187" s="7"/>
+      <c r="BE187" s="7"/>
       <c r="BF187" s="7"/>
       <c r="BG187" s="7"/>
       <c r="BH187" s="7"/>
@@ -13306,11 +13182,11 @@
       <c r="AX188" s="7"/>
       <c r="AY188" s="7"/>
       <c r="AZ188" s="7"/>
-      <c r="BA188" s="7"/>
-      <c r="BB188" s="7"/>
+      <c r="BA188" s="16"/>
+      <c r="BB188" s="16"/>
       <c r="BC188" s="7"/>
-      <c r="BD188" s="16"/>
-      <c r="BE188" s="16"/>
+      <c r="BD188" s="7"/>
+      <c r="BE188" s="7"/>
       <c r="BF188" s="7"/>
       <c r="BG188" s="7"/>
       <c r="BH188" s="7"/>
@@ -13368,11 +13244,11 @@
       <c r="AX189" s="7"/>
       <c r="AY189" s="7"/>
       <c r="AZ189" s="7"/>
-      <c r="BA189" s="7"/>
-      <c r="BB189" s="7"/>
+      <c r="BA189" s="16"/>
+      <c r="BB189" s="16"/>
       <c r="BC189" s="7"/>
-      <c r="BD189" s="16"/>
-      <c r="BE189" s="16"/>
+      <c r="BD189" s="7"/>
+      <c r="BE189" s="7"/>
       <c r="BF189" s="7"/>
       <c r="BG189" s="7"/>
       <c r="BH189" s="7"/>
@@ -13430,11 +13306,11 @@
       <c r="AX190" s="7"/>
       <c r="AY190" s="7"/>
       <c r="AZ190" s="7"/>
-      <c r="BA190" s="7"/>
-      <c r="BB190" s="7"/>
+      <c r="BA190" s="16"/>
+      <c r="BB190" s="16"/>
       <c r="BC190" s="7"/>
-      <c r="BD190" s="16"/>
-      <c r="BE190" s="16"/>
+      <c r="BD190" s="7"/>
+      <c r="BE190" s="7"/>
       <c r="BF190" s="7"/>
       <c r="BG190" s="7"/>
       <c r="BH190" s="7"/>
@@ -13492,11 +13368,11 @@
       <c r="AX191" s="7"/>
       <c r="AY191" s="7"/>
       <c r="AZ191" s="7"/>
-      <c r="BA191" s="7"/>
-      <c r="BB191" s="7"/>
+      <c r="BA191" s="16"/>
+      <c r="BB191" s="16"/>
       <c r="BC191" s="7"/>
-      <c r="BD191" s="16"/>
-      <c r="BE191" s="16"/>
+      <c r="BD191" s="7"/>
+      <c r="BE191" s="7"/>
       <c r="BF191" s="7"/>
       <c r="BG191" s="7"/>
       <c r="BH191" s="7"/>
@@ -13554,11 +13430,11 @@
       <c r="AX192" s="7"/>
       <c r="AY192" s="7"/>
       <c r="AZ192" s="7"/>
-      <c r="BA192" s="7"/>
-      <c r="BB192" s="7"/>
+      <c r="BA192" s="16"/>
+      <c r="BB192" s="16"/>
       <c r="BC192" s="7"/>
-      <c r="BD192" s="16"/>
-      <c r="BE192" s="16"/>
+      <c r="BD192" s="7"/>
+      <c r="BE192" s="7"/>
       <c r="BF192" s="7"/>
       <c r="BG192" s="7"/>
       <c r="BH192" s="7"/>
@@ -13616,11 +13492,11 @@
       <c r="AX193" s="7"/>
       <c r="AY193" s="7"/>
       <c r="AZ193" s="7"/>
-      <c r="BA193" s="7"/>
-      <c r="BB193" s="7"/>
+      <c r="BA193" s="16"/>
+      <c r="BB193" s="16"/>
       <c r="BC193" s="7"/>
-      <c r="BD193" s="16"/>
-      <c r="BE193" s="16"/>
+      <c r="BD193" s="7"/>
+      <c r="BE193" s="7"/>
       <c r="BF193" s="7"/>
       <c r="BG193" s="7"/>
       <c r="BH193" s="7"/>
@@ -13678,11 +13554,11 @@
       <c r="AX194" s="7"/>
       <c r="AY194" s="7"/>
       <c r="AZ194" s="7"/>
-      <c r="BA194" s="7"/>
-      <c r="BB194" s="7"/>
+      <c r="BA194" s="16"/>
+      <c r="BB194" s="16"/>
       <c r="BC194" s="7"/>
-      <c r="BD194" s="16"/>
-      <c r="BE194" s="16"/>
+      <c r="BD194" s="7"/>
+      <c r="BE194" s="7"/>
       <c r="BF194" s="7"/>
       <c r="BG194" s="7"/>
       <c r="BH194" s="7"/>
@@ -13740,11 +13616,11 @@
       <c r="AX195" s="7"/>
       <c r="AY195" s="7"/>
       <c r="AZ195" s="7"/>
-      <c r="BA195" s="7"/>
-      <c r="BB195" s="7"/>
+      <c r="BA195" s="16"/>
+      <c r="BB195" s="16"/>
       <c r="BC195" s="7"/>
-      <c r="BD195" s="16"/>
-      <c r="BE195" s="16"/>
+      <c r="BD195" s="7"/>
+      <c r="BE195" s="7"/>
       <c r="BF195" s="7"/>
       <c r="BG195" s="7"/>
       <c r="BH195" s="7"/>
@@ -13802,11 +13678,11 @@
       <c r="AX196" s="7"/>
       <c r="AY196" s="7"/>
       <c r="AZ196" s="7"/>
-      <c r="BA196" s="7"/>
-      <c r="BB196" s="7"/>
+      <c r="BA196" s="16"/>
+      <c r="BB196" s="16"/>
       <c r="BC196" s="7"/>
-      <c r="BD196" s="16"/>
-      <c r="BE196" s="16"/>
+      <c r="BD196" s="7"/>
+      <c r="BE196" s="7"/>
       <c r="BF196" s="7"/>
       <c r="BG196" s="7"/>
       <c r="BH196" s="7"/>
@@ -13864,11 +13740,11 @@
       <c r="AX197" s="7"/>
       <c r="AY197" s="7"/>
       <c r="AZ197" s="7"/>
-      <c r="BA197" s="7"/>
-      <c r="BB197" s="7"/>
+      <c r="BA197" s="16"/>
+      <c r="BB197" s="16"/>
       <c r="BC197" s="7"/>
-      <c r="BD197" s="16"/>
-      <c r="BE197" s="16"/>
+      <c r="BD197" s="7"/>
+      <c r="BE197" s="7"/>
       <c r="BF197" s="7"/>
       <c r="BG197" s="7"/>
       <c r="BH197" s="7"/>
@@ -13926,11 +13802,11 @@
       <c r="AX198" s="7"/>
       <c r="AY198" s="7"/>
       <c r="AZ198" s="7"/>
-      <c r="BA198" s="7"/>
-      <c r="BB198" s="7"/>
+      <c r="BA198" s="16"/>
+      <c r="BB198" s="16"/>
       <c r="BC198" s="7"/>
-      <c r="BD198" s="16"/>
-      <c r="BE198" s="16"/>
+      <c r="BD198" s="7"/>
+      <c r="BE198" s="7"/>
       <c r="BF198" s="7"/>
       <c r="BG198" s="7"/>
       <c r="BH198" s="7"/>
@@ -13988,11 +13864,11 @@
       <c r="AX199" s="7"/>
       <c r="AY199" s="7"/>
       <c r="AZ199" s="7"/>
-      <c r="BA199" s="7"/>
-      <c r="BB199" s="7"/>
+      <c r="BA199" s="16"/>
+      <c r="BB199" s="16"/>
       <c r="BC199" s="7"/>
-      <c r="BD199" s="16"/>
-      <c r="BE199" s="16"/>
+      <c r="BD199" s="7"/>
+      <c r="BE199" s="7"/>
       <c r="BF199" s="7"/>
       <c r="BG199" s="7"/>
       <c r="BH199" s="7"/>
@@ -14050,11 +13926,11 @@
       <c r="AX200" s="7"/>
       <c r="AY200" s="7"/>
       <c r="AZ200" s="7"/>
-      <c r="BA200" s="7"/>
-      <c r="BB200" s="7"/>
+      <c r="BA200" s="16"/>
+      <c r="BB200" s="16"/>
       <c r="BC200" s="7"/>
-      <c r="BD200" s="16"/>
-      <c r="BE200" s="16"/>
+      <c r="BD200" s="7"/>
+      <c r="BE200" s="7"/>
       <c r="BF200" s="7"/>
       <c r="BG200" s="7"/>
       <c r="BH200" s="7"/>
@@ -14112,27 +13988,28 @@
       <c r="AX201" s="7"/>
       <c r="AY201" s="7"/>
       <c r="AZ201" s="7"/>
-      <c r="BA201" s="7"/>
-      <c r="BB201" s="7"/>
+      <c r="BA201" s="16"/>
+      <c r="BB201" s="16"/>
       <c r="BC201" s="7"/>
-      <c r="BD201" s="16"/>
-      <c r="BE201" s="16"/>
+      <c r="BD201" s="7"/>
+      <c r="BE201" s="7"/>
       <c r="BF201" s="7"/>
       <c r="BG201" s="7"/>
       <c r="BH201" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="AG1:BB1"/>
-    <mergeCell ref="BC1:BG1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="AD1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201 AD3:AD201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -14147,7 +14024,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC201" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ201" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
   </dataValidations>
